--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -844,8 +845,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFCC9900"/>
+        <bgColor rgb="FF808000"/>
       </patternFill>
     </fill>
     <fill>
@@ -857,7 +858,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFCCFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1021,7 +1022,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFCCFF00"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -1039,7 +1040,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFCC9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -1070,50 +1071,50 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0404858299595"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.412955465587"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.9919028340081"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="59.080971659919"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="92"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.0283400809717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="106.48987854251"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="78.4534412955466"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.919028340081"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.1336032388664"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="6.94736842105263"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.8663967611336"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="21.4372469635628"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="21.753036437247"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="19.2307692307692"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="24.2712550607287"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="13.5627530364372"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.6113360323887"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.1457489878543"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="12.6194331983806"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="58.1376518218624"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="59.663967611336"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="92.7651821862348"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="107.441295546559"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="79.1619433198381"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="6.96356275303644"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="21.6396761133603"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="13.6032388663968"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="58.5951417004049"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -14,6 +14,8 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="231">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -663,7 +665,7 @@
     <t xml:space="preserve">Coca Cola Can, Coca Cola Zero Can , Coca Cola Cup 0.3, Coca Cola Bottle, Coca Cola Cup 0.5, Coca Cola Cup 0.4, Coca Cola Zero Bottle</t>
   </si>
   <si>
-    <t xml:space="preserve">5050570, 50111114, 5000005, 5000004, 50111112,5000101, 5000102, A5B10119, 5000006, 5000009</t>
+    <t xml:space="preserve">5050570, 50111114, 5000005, 5000004, 50111112, 5000101, 5000102, A5B10119, 5000006, 5000009</t>
   </si>
   <si>
     <t xml:space="preserve">Combo: Food</t>
@@ -1069,48 +1071,48 @@
   <dimension ref="A1:AM48"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
+      <selection pane="bottomLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="59.663967611336"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="92.7651821862348"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="60.7368421052632"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="94.4777327935223"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="107.441295546559"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="79.1619433198381"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="109.368421052632"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="80.4453441295547"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="58.5951417004049"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="10.6032388663968"/>
@@ -3896,7 +3898,9 @@
       <c r="M36" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="N36" s="9"/>
+      <c r="N36" s="9" t="s">
+        <v>156</v>
+      </c>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="5"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -12,10 +12,10 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="232">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -489,6 +489,9 @@
   </si>
   <si>
     <t xml:space="preserve">Палпи - Тропик - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607174579729, 4650075420409 </t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 22</t>
@@ -832,7 +835,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -849,6 +852,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCC9900"/>
         <bgColor rgb="FF808000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
@@ -917,7 +926,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -970,15 +979,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1047,7 +1060,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -1071,55 +1084,55 @@
   <dimension ref="A1:AM48"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="60.7368421052632"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="94.4777327935223"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="109.368421052632"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="80.4453441295547"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="59.4493927125506"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.60728744939271"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0404858299595"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.412955465587"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8825910931174"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.9919028340081"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="59.080971659919"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="92"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.0283400809717"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7692307692308"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.4048582995951"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="106.48987854251"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="78.9271255060729"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.919028340081"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.1336032388664"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.4048582995951"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="6.94736842105263"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.8744939271255"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.8663967611336"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="21.4372469635628"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="20.9676113360324"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="21.753036437247"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="19.2307692307692"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="24.2712550607287"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="15.1376518218623"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="13.5627530364372"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.6113360323887"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.1457489878543"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="12.6194331983806"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="58.1376518218624"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="20.9676113360324"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.5748987854251"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1238,7 +1251,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
         <v>46</v>
       </c>
@@ -1299,7 +1312,7 @@
       </c>
       <c r="AM2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <v>47</v>
       </c>
@@ -1360,7 +1373,7 @@
       </c>
       <c r="AM3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
         <v>48</v>
       </c>
@@ -1423,7 +1436,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>49</v>
       </c>
@@ -1486,7 +1499,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <v>50</v>
       </c>
@@ -1547,7 +1560,7 @@
       </c>
       <c r="AM6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
         <v>1</v>
       </c>
@@ -1616,7 +1629,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>2</v>
       </c>
@@ -1699,7 +1712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <v>3</v>
       </c>
@@ -1782,7 +1795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
         <v>4</v>
       </c>
@@ -1865,7 +1878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
         <v>5</v>
       </c>
@@ -1948,7 +1961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
         <v>6</v>
       </c>
@@ -2031,7 +2044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
         <v>7</v>
       </c>
@@ -2114,7 +2127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
         <v>8</v>
       </c>
@@ -2183,7 +2196,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <v>9</v>
       </c>
@@ -2266,7 +2279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
         <v>10</v>
       </c>
@@ -2349,7 +2362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
         <v>11</v>
       </c>
@@ -2418,7 +2431,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
         <v>12</v>
       </c>
@@ -2501,7 +2514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
         <v>13</v>
       </c>
@@ -2584,7 +2597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
         <v>14</v>
       </c>
@@ -2653,7 +2666,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
         <v>15</v>
       </c>
@@ -2736,7 +2749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
         <v>16</v>
       </c>
@@ -2819,7 +2832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
         <v>17</v>
       </c>
@@ -2902,7 +2915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="n">
         <v>18</v>
       </c>
@@ -2985,7 +2998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="n">
         <v>19</v>
       </c>
@@ -3068,7 +3081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
         <v>20</v>
       </c>
@@ -3137,7 +3150,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
         <v>21</v>
       </c>
@@ -3220,7 +3233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
         <v>22</v>
       </c>
@@ -3303,7 +3316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
         <v>23</v>
       </c>
@@ -3384,7 +3397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
         <v>24</v>
       </c>
@@ -3467,7 +3480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
         <v>25</v>
       </c>
@@ -3501,8 +3514,8 @@
       <c r="M31" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="N31" s="9" t="n">
-        <v>4607174579729</v>
+      <c r="N31" s="13" t="s">
+        <v>144</v>
       </c>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
@@ -3550,7 +3563,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="n">
         <v>26</v>
       </c>
@@ -3564,16 +3577,16 @@
         <v>41</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -3584,7 +3597,7 @@
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
@@ -3601,7 +3614,7 @@
         <v>60</v>
       </c>
       <c r="AD32" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AE32" s="7" t="n">
         <v>0.08</v>
@@ -3609,7 +3622,7 @@
       <c r="AF32" s="5"/>
       <c r="AG32" s="5"/>
       <c r="AH32" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AI32" s="5"/>
       <c r="AJ32" s="5" t="n">
@@ -3619,13 +3632,13 @@
         <v>26</v>
       </c>
       <c r="AL32" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM32" s="5" t="n">
         <v>311</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
         <v>27</v>
       </c>
@@ -3639,16 +3652,16 @@
         <v>41</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5" t="n">
@@ -3657,23 +3670,23 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
       <c r="W33" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
@@ -3690,7 +3703,7 @@
       <c r="AF33" s="5"/>
       <c r="AG33" s="5"/>
       <c r="AH33" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AI33" s="5"/>
       <c r="AJ33" s="5" t="n">
@@ -3704,7 +3717,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="n">
         <v>28</v>
       </c>
@@ -3718,16 +3731,16 @@
         <v>41</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5" t="n">
@@ -3736,23 +3749,23 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
       <c r="V34" s="5"/>
       <c r="W34" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
@@ -3781,7 +3794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="n">
         <v>29</v>
       </c>
@@ -3795,16 +3808,16 @@
         <v>41</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5" t="n">
@@ -3814,13 +3827,13 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
@@ -3830,7 +3843,7 @@
         <v>70</v>
       </c>
       <c r="X35" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
@@ -3848,10 +3861,10 @@
       <c r="AF35" s="5"/>
       <c r="AG35" s="5"/>
       <c r="AH35" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AI35" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AJ35" s="5" t="n">
         <v>2</v>
@@ -3860,11 +3873,11 @@
         <v>29</v>
       </c>
       <c r="AL35" s="5"/>
-      <c r="AM35" s="13" t="n">
+      <c r="AM35" s="14" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="n">
         <v>30</v>
       </c>
@@ -3878,16 +3891,16 @@
         <v>41</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>171</v>
+        <v>165</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>172</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5" t="n">
@@ -3896,23 +3909,23 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
       <c r="W36" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
@@ -3923,7 +3936,7 @@
         <v>60</v>
       </c>
       <c r="AD36" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AE36" s="7" t="n">
         <v>0.04</v>
@@ -3931,10 +3944,10 @@
       <c r="AF36" s="5"/>
       <c r="AG36" s="5"/>
       <c r="AH36" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AI36" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AJ36" s="5" t="n">
         <v>2</v>
@@ -3943,11 +3956,11 @@
         <v>30</v>
       </c>
       <c r="AL36" s="5"/>
-      <c r="AM36" s="13" t="n">
+      <c r="AM36" s="14" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="n">
         <v>31</v>
       </c>
@@ -3961,16 +3974,16 @@
         <v>41</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="H37" s="15" t="s">
         <v>177</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>178</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -3981,23 +3994,23 @@
         <v>15</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
       <c r="W37" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
@@ -4016,10 +4029,10 @@
       <c r="AF37" s="5"/>
       <c r="AG37" s="5"/>
       <c r="AH37" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AI37" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AJ37" s="5" t="n">
         <v>2</v>
@@ -4028,11 +4041,11 @@
         <v>31</v>
       </c>
       <c r="AL37" s="5"/>
-      <c r="AM37" s="13" t="n">
+      <c r="AM37" s="14" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="n">
         <v>32</v>
       </c>
@@ -4046,13 +4059,13 @@
         <v>41</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>65</v>
@@ -4064,32 +4077,32 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q38" s="5" t="s">
         <v>68</v>
       </c>
       <c r="R38" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
       <c r="W38" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X38" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
@@ -4119,7 +4132,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="n">
         <v>33</v>
       </c>
@@ -4133,13 +4146,13 @@
         <v>41</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>65</v>
@@ -4151,10 +4164,10 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
@@ -4162,17 +4175,17 @@
         <v>68</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
+        <v>158</v>
+      </c>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
       <c r="W39" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X39" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
@@ -4202,7 +4215,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="n">
         <v>34</v>
       </c>
@@ -4216,16 +4229,16 @@
         <v>41</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5" t="n">
@@ -4238,7 +4251,7 @@
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
@@ -4246,10 +4259,10 @@
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
       <c r="W40" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X40" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
@@ -4275,13 +4288,13 @@
         <v>34</v>
       </c>
       <c r="AL40" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM40" s="5" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="n">
         <v>35</v>
       </c>
@@ -4295,13 +4308,13 @@
         <v>41</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>65</v>
@@ -4312,14 +4325,14 @@
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="14" t="s">
-        <v>200</v>
+      <c r="M41" s="15" t="s">
+        <v>201</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P41" s="5"/>
       <c r="Q41" s="5" t="s">
@@ -4328,15 +4341,15 @@
       <c r="R41" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S41" s="14"/>
+      <c r="S41" s="15"/>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
       <c r="V41" s="5"/>
       <c r="W41" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X41" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
@@ -4364,7 +4377,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="n">
         <v>36</v>
       </c>
@@ -4378,16 +4391,16 @@
         <v>41</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5" t="n">
@@ -4396,7 +4409,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N42" s="5" t="n">
         <v>5000034</v>
@@ -4414,10 +4427,10 @@
       <c r="U42" s="5"/>
       <c r="V42" s="5"/>
       <c r="W42" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X42" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
@@ -4433,7 +4446,7 @@
       <c r="AF42" s="5"/>
       <c r="AG42" s="5"/>
       <c r="AH42" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AI42" s="5"/>
       <c r="AJ42" s="5" t="n">
@@ -4447,7 +4460,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="n">
         <v>40</v>
       </c>
@@ -4458,22 +4471,22 @@
         <v>40</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E43" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="E43" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="F43" s="14" t="s">
         <v>210</v>
       </c>
+      <c r="G43" s="14" t="s">
+        <v>211</v>
+      </c>
       <c r="H43" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
@@ -4484,7 +4497,7 @@
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
@@ -4508,11 +4521,11 @@
         <v>37</v>
       </c>
       <c r="AL43" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM43" s="5"/>
     </row>
-    <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="n">
         <v>41</v>
       </c>
@@ -4523,35 +4536,35 @@
         <v>40</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="G44" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="F44" s="14" t="s">
         <v>216</v>
       </c>
+      <c r="G44" s="14" t="s">
+        <v>217</v>
+      </c>
       <c r="H44" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
@@ -4579,7 +4592,7 @@
       </c>
       <c r="AM44" s="5"/>
     </row>
-    <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="n">
         <v>42</v>
       </c>
@@ -4590,35 +4603,35 @@
         <v>40</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="G45" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="F45" s="14" t="s">
         <v>221</v>
       </c>
+      <c r="G45" s="14" t="s">
+        <v>222</v>
+      </c>
       <c r="H45" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
       <c r="R45" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
@@ -4646,7 +4659,7 @@
       </c>
       <c r="AM45" s="5"/>
     </row>
-    <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="n">
         <v>43</v>
       </c>
@@ -4657,35 +4670,35 @@
         <v>40</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="F46" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="E46" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="F46" s="14" t="s">
         <v>225</v>
       </c>
+      <c r="G46" s="14" t="s">
+        <v>226</v>
+      </c>
       <c r="H46" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
@@ -4713,7 +4726,7 @@
       </c>
       <c r="AM46" s="5"/>
     </row>
-    <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="n">
         <v>44</v>
       </c>
@@ -4724,35 +4737,35 @@
         <v>40</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="G47" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F47" s="14" t="s">
         <v>225</v>
       </c>
+      <c r="G47" s="14" t="s">
+        <v>226</v>
+      </c>
       <c r="H47" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
       <c r="R47" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
@@ -4780,7 +4793,7 @@
       </c>
       <c r="AM47" s="5"/>
     </row>
-    <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="n">
         <v>45</v>
       </c>
@@ -4791,35 +4804,35 @@
         <v>40</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>228</v>
+        <v>193</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>229</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
       <c r="R48" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
@@ -4843,7 +4856,7 @@
         <v>42</v>
       </c>
       <c r="AL48" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM48" s="5"/>
     </row>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -16,6 +16,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -850,8 +852,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCC9900"/>
-        <bgColor rgb="FF808000"/>
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -926,9 +928,13 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1034,7 +1040,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1055,7 +1061,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFCC9900"/>
+      <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -1086,3779 +1092,3779 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0404858299595"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.412955465587"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.9919028340081"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="59.080971659919"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="92"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.0283400809717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="106.48987854251"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="78.9271255060729"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.919028340081"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.1336032388664"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="6.94736842105263"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.8663967611336"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="21.4372469635628"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="21.753036437247"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="19.2307692307692"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="24.2712550607287"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="13.5627530364372"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.6113360323887"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.1457489878543"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="12.6194331983806"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="58.1376518218624"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.5748987854251"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="60.2024291497976"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="93.6234817813765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="108.404858299595"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="80.2307692307692"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.6032388663968"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="59.0242914979757"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="6" t="n">
         <v>46</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="9" t="n">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="AK2" s="9" t="n">
+      <c r="AK2" s="10" t="n">
         <v>300</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AL2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AM2" s="5"/>
+      <c r="AM2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="6" t="n">
         <v>47</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="9" t="n">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="AK3" s="9" t="n">
+      <c r="AK3" s="10" t="n">
         <v>310</v>
       </c>
-      <c r="AL3" s="10" t="s">
+      <c r="AL3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AM3" s="5"/>
+      <c r="AM3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="9" t="n">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="AK4" s="9" t="n">
+      <c r="AK4" s="10" t="n">
         <v>311</v>
       </c>
-      <c r="AL4" s="5" t="n">
+      <c r="AL4" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="AM4" s="5" t="n">
+      <c r="AM4" s="6" t="n">
         <v>310</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="6" t="n">
         <v>49</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="9" t="n">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="AK5" s="9" t="n">
+      <c r="AK5" s="10" t="n">
         <v>312</v>
       </c>
-      <c r="AL5" s="10" t="s">
+      <c r="AL5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AM5" s="5" t="n">
+      <c r="AM5" s="6" t="n">
         <v>310</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="9" t="n">
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="AK6" s="9" t="n">
+      <c r="AK6" s="10" t="n">
         <v>400</v>
       </c>
-      <c r="AL6" s="10" t="s">
+      <c r="AL6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AM6" s="5"/>
+      <c r="AM6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5" t="s">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD7" s="5" t="s">
+      <c r="AD7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5" t="n">
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AK7" s="5" t="n">
+      <c r="AK7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AL7" s="10" t="s">
+      <c r="AL7" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AM7" s="5" t="n">
+      <c r="AM7" s="6" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5" t="n">
+      <c r="I8" s="6"/>
+      <c r="J8" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5" t="s">
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="5" t="s">
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="R8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5" t="s">
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5" t="s">
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5" t="s">
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD8" s="5" t="s">
+      <c r="AD8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE8" s="7" t="n">
+      <c r="AE8" s="8" t="n">
         <v>0.031006</v>
       </c>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5" t="n">
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AK8" s="5" t="n">
+      <c r="AK8" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5" t="n">
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5" t="n">
+      <c r="I9" s="6"/>
+      <c r="J9" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5" t="s">
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="5" t="s">
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="R9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5" t="s">
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5" t="s">
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5" t="s">
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD9" s="5" t="s">
+      <c r="AD9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE9" s="7" t="n">
+      <c r="AE9" s="8" t="n">
         <v>0.031006</v>
       </c>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5" t="n">
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AK9" s="5" t="n">
+      <c r="AK9" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AL9" s="5"/>
-      <c r="AM9" s="5" t="n">
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5" t="n">
+      <c r="I10" s="6"/>
+      <c r="J10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5" t="s">
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="5" t="s">
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="R10" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5" t="s">
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5" t="s">
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5" t="s">
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD10" s="5" t="s">
+      <c r="AD10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE10" s="7" t="n">
+      <c r="AE10" s="8" t="n">
         <v>0.031006</v>
       </c>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5" t="n">
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AK10" s="5" t="n">
+      <c r="AK10" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5" t="n">
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
+      <c r="A11" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5" t="n">
+      <c r="I11" s="6"/>
+      <c r="J11" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5" t="s">
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5" t="s">
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5" t="s">
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5" t="s">
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5" t="s">
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD11" s="5" t="s">
+      <c r="AD11" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE11" s="7" t="n">
+      <c r="AE11" s="8" t="n">
         <v>0.03037</v>
       </c>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5" t="n">
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AK11" s="5" t="n">
+      <c r="AK11" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="5" t="n">
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5" t="n">
+      <c r="I12" s="6"/>
+      <c r="J12" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5" t="s">
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="N12" s="9" t="n">
+      <c r="N12" s="10" t="n">
         <v>5449000214744</v>
       </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5" t="s">
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="R12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5" t="s">
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5" t="s">
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5" t="s">
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD12" s="5" t="s">
+      <c r="AD12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE12" s="7" t="n">
+      <c r="AE12" s="8" t="n">
         <v>0.016902</v>
       </c>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5" t="n">
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AK12" s="5" t="n">
+      <c r="AK12" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5" t="n">
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
+      <c r="A13" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5" t="n">
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5" t="s">
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="N13" s="9" t="n">
+      <c r="N13" s="10" t="n">
         <v>5449000172228</v>
       </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5" t="s">
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="R13" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5" t="s">
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5" t="s">
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5" t="s">
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD13" s="5" t="s">
+      <c r="AD13" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE13" s="7" t="n">
+      <c r="AE13" s="8" t="n">
         <v>0.007696</v>
       </c>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5" t="n">
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AK13" s="5" t="n">
+      <c r="AK13" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="5" t="n">
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5" t="s">
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD14" s="5" t="s">
+      <c r="AD14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5" t="n">
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AK14" s="5" t="n">
+      <c r="AK14" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="AL14" s="10" t="s">
+      <c r="AL14" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AM14" s="5" t="n">
+      <c r="AM14" s="6" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
+      <c r="A15" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5" t="n">
+      <c r="I15" s="6"/>
+      <c r="J15" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5" t="s">
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="N15" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5" t="s">
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="R15" s="5" t="s">
+      <c r="R15" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5" t="s">
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5" t="s">
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5" t="s">
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD15" s="5" t="s">
+      <c r="AD15" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE15" s="7" t="n">
+      <c r="AE15" s="8" t="n">
         <v>0.030996</v>
       </c>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5" t="n">
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AK15" s="5" t="n">
+      <c r="AK15" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5" t="n">
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
+      <c r="A16" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5" t="n">
+      <c r="I16" s="6"/>
+      <c r="J16" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5" t="s">
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="N16" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5" t="s">
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="R16" s="5" t="s">
+      <c r="R16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5" t="s">
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5" t="s">
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5" t="s">
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD16" s="5" t="s">
+      <c r="AD16" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE16" s="7" t="n">
+      <c r="AE16" s="8" t="n">
         <v>0.016909</v>
       </c>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5" t="n">
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AK16" s="5" t="n">
+      <c r="AK16" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="AL16" s="5"/>
-      <c r="AM16" s="5" t="n">
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
+      <c r="A17" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5" t="s">
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD17" s="5" t="s">
+      <c r="AD17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5" t="n">
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AK17" s="5" t="n">
+      <c r="AK17" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="AL17" s="10" t="s">
+      <c r="AL17" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="AM17" s="5" t="n">
+      <c r="AM17" s="6" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
+      <c r="A18" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5" t="n">
+      <c r="I18" s="6"/>
+      <c r="J18" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5" t="s">
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="N18" s="9" t="n">
+      <c r="N18" s="10" t="n">
         <v>5449000148056</v>
       </c>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5" t="s">
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="R18" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5" t="s">
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5" t="s">
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5" t="s">
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD18" s="5" t="s">
+      <c r="AD18" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE18" s="7" t="n">
+      <c r="AE18" s="8" t="n">
         <v>0.016909</v>
       </c>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5" t="n">
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AK18" s="5" t="n">
+      <c r="AK18" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="5" t="n">
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
+      <c r="A19" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5" t="n">
+      <c r="I19" s="6"/>
+      <c r="J19" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="11" t="s">
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="N19" s="9" t="n">
+      <c r="N19" s="10" t="n">
         <v>5060335632906</v>
       </c>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5" t="s">
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="R19" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5" t="s">
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5" t="s">
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5" t="s">
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD19" s="5" t="s">
+      <c r="AD19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE19" s="7" t="n">
+      <c r="AE19" s="8" t="n">
         <v>0.016909</v>
       </c>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5" t="n">
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AK19" s="5" t="n">
+      <c r="AK19" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5" t="n">
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
+      <c r="A20" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5" t="s">
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD20" s="5" t="s">
+      <c r="AD20" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5" t="n">
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AK20" s="5" t="n">
+      <c r="AK20" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="AL20" s="10" t="s">
+      <c r="AL20" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="AM20" s="5" t="n">
+      <c r="AM20" s="6" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
+      <c r="A21" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5" t="n">
+      <c r="I21" s="6"/>
+      <c r="J21" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5" t="s">
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="N21" s="9" t="s">
+      <c r="N21" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5" t="s">
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="R21" s="5" t="s">
+      <c r="R21" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5" t="s">
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5" t="s">
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5" t="s">
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD21" s="5" t="s">
+      <c r="AD21" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE21" s="7" t="n">
+      <c r="AE21" s="8" t="n">
         <v>0.030997</v>
       </c>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5" t="n">
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AK21" s="5" t="n">
+      <c r="AK21" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="5" t="n">
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
+      <c r="A22" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5" t="n">
+      <c r="I22" s="6"/>
+      <c r="J22" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5" t="s">
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="N22" s="9" t="s">
+      <c r="N22" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5" t="s">
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="R22" s="5" t="s">
+      <c r="R22" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5" t="s">
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5" t="s">
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5" t="s">
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD22" s="5" t="s">
+      <c r="AD22" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE22" s="7" t="n">
+      <c r="AE22" s="8" t="n">
         <v>0.016909</v>
       </c>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5" t="n">
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AK22" s="5" t="n">
+      <c r="AK22" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="5" t="n">
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="n">
+      <c r="A23" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5" t="n">
+      <c r="I23" s="6"/>
+      <c r="J23" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5" t="s">
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="N23" s="12" t="s">
+      <c r="N23" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="5" t="s">
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="R23" s="5" t="s">
+      <c r="R23" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5" t="s">
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5" t="s">
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5" t="s">
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD23" s="5" t="s">
+      <c r="AD23" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE23" s="7" t="n">
+      <c r="AE23" s="8" t="n">
         <v>0.016909</v>
       </c>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5" t="n">
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AK23" s="5" t="n">
+      <c r="AK23" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="5" t="n">
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
+      <c r="A24" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5" t="n">
+      <c r="I24" s="6"/>
+      <c r="J24" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5" t="s">
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="N24" s="9" t="n">
+      <c r="N24" s="10" t="n">
         <v>5449000233615</v>
       </c>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5" t="s">
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="R24" s="5" t="s">
+      <c r="R24" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5" t="s">
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5" t="s">
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5" t="s">
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD24" s="5" t="s">
+      <c r="AD24" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE24" s="7" t="n">
+      <c r="AE24" s="8" t="n">
         <v>0.016909</v>
       </c>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5" t="n">
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AK24" s="5" t="n">
+      <c r="AK24" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5" t="n">
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="6" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="n">
+      <c r="A25" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5" t="n">
+      <c r="I25" s="6"/>
+      <c r="J25" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="11" t="s">
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="N25" s="9" t="s">
+      <c r="N25" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5" t="s">
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="R25" s="5" t="s">
+      <c r="R25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5" t="s">
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5" t="s">
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5" t="s">
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD25" s="5" t="s">
+      <c r="AD25" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE25" s="7" t="n">
+      <c r="AE25" s="8" t="n">
         <v>0.016909</v>
       </c>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5" t="n">
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AK25" s="5" t="n">
+      <c r="AK25" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="5" t="n">
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="6" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="n">
+      <c r="A26" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5" t="s">
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD26" s="5" t="s">
+      <c r="AD26" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="5"/>
-      <c r="AG26" s="5"/>
-      <c r="AH26" s="5"/>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="5" t="n">
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AK26" s="5" t="n">
+      <c r="AK26" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="AL26" s="10" t="s">
+      <c r="AL26" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="AM26" s="5" t="n">
+      <c r="AM26" s="6" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="n">
+      <c r="A27" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5" t="n">
+      <c r="I27" s="6"/>
+      <c r="J27" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5" t="s">
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="N27" s="9" t="n">
+      <c r="N27" s="10" t="n">
         <v>4607174577787</v>
       </c>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5" t="s">
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="R27" s="5" t="s">
+      <c r="R27" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5" t="s">
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5" t="s">
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5" t="s">
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD27" s="5" t="s">
+      <c r="AD27" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE27" s="7" t="n">
+      <c r="AE27" s="8" t="n">
         <v>0.030996</v>
       </c>
-      <c r="AF27" s="5"/>
-      <c r="AG27" s="5"/>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5" t="n">
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AK27" s="5" t="n">
+      <c r="AK27" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="AL27" s="5"/>
-      <c r="AM27" s="5" t="n">
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="6" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="n">
+      <c r="A28" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5" t="n">
+      <c r="I28" s="6"/>
+      <c r="J28" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5" t="s">
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="N28" s="9" t="s">
+      <c r="N28" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5" t="s">
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="R28" s="5" t="s">
+      <c r="R28" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5" t="s">
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5" t="s">
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5" t="s">
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD28" s="5" t="s">
+      <c r="AD28" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE28" s="7" t="n">
+      <c r="AE28" s="8" t="n">
         <v>0.016909</v>
       </c>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5" t="n">
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AK28" s="5" t="n">
+      <c r="AK28" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="AL28" s="5"/>
-      <c r="AM28" s="5" t="n">
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="n">
+      <c r="A29" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="C29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5" t="s">
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="N29" s="9" t="n">
+      <c r="N29" s="10" t="n">
         <v>4650075420980</v>
       </c>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5" t="s">
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="R29" s="5" t="s">
+      <c r="R29" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5" t="s">
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5" t="s">
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5" t="s">
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD29" s="5" t="s">
+      <c r="AD29" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE29" s="7" t="n">
+      <c r="AE29" s="8" t="n">
         <v>0.008593</v>
       </c>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5" t="n">
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AK29" s="5" t="n">
+      <c r="AK29" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="5" t="n">
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="6" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="n">
+      <c r="A30" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="C30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5" t="n">
+      <c r="I30" s="6"/>
+      <c r="J30" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5" t="s">
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="N30" s="9" t="s">
+      <c r="N30" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5" t="s">
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="R30" s="5" t="s">
+      <c r="R30" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5" t="s">
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5" t="s">
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5" t="s">
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD30" s="5" t="s">
+      <c r="AD30" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE30" s="7" t="n">
+      <c r="AE30" s="8" t="n">
         <v>0.00761</v>
       </c>
-      <c r="AF30" s="5"/>
-      <c r="AG30" s="5"/>
-      <c r="AH30" s="5"/>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5" t="n">
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AK30" s="5" t="n">
+      <c r="AK30" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="AL30" s="5"/>
-      <c r="AM30" s="5" t="n">
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="6" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="n">
+      <c r="A31" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="C31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5" t="n">
+      <c r="I31" s="6"/>
+      <c r="J31" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5" t="s">
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="N31" s="13" t="s">
+      <c r="N31" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5" t="s">
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="R31" s="5" t="s">
+      <c r="R31" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5" t="s">
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5" t="s">
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5" t="s">
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD31" s="5" t="s">
+      <c r="AD31" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE31" s="7" t="n">
+      <c r="AE31" s="8" t="n">
         <v>0.00755</v>
       </c>
-      <c r="AF31" s="5"/>
-      <c r="AG31" s="5"/>
-      <c r="AH31" s="5"/>
-      <c r="AI31" s="5"/>
-      <c r="AJ31" s="5" t="n">
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AK31" s="5" t="n">
+      <c r="AK31" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="AL31" s="5"/>
-      <c r="AM31" s="5" t="n">
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="6" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="n">
+      <c r="A32" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="C32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="5" t="s">
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5" t="s">
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD32" s="5" t="s">
+      <c r="AD32" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="AE32" s="7" t="n">
+      <c r="AE32" s="8" t="n">
         <v>0.08</v>
       </c>
-      <c r="AF32" s="5"/>
-      <c r="AG32" s="5"/>
-      <c r="AH32" s="5" t="s">
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="AI32" s="5"/>
-      <c r="AJ32" s="5" t="n">
+      <c r="AI32" s="6"/>
+      <c r="AJ32" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AK32" s="5" t="n">
+      <c r="AK32" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="AL32" s="10" t="s">
+      <c r="AL32" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="AM32" s="5" t="n">
+      <c r="AM32" s="6" t="n">
         <v>311</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="n">
+      <c r="A33" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="C33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5" t="n">
+      <c r="I33" s="6"/>
+      <c r="J33" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5" t="s">
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="N33" s="9" t="s">
+      <c r="N33" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5" t="s">
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5" t="s">
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5" t="s">
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD33" s="5" t="s">
+      <c r="AD33" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE33" s="7"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5" t="s">
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="6"/>
+      <c r="AG33" s="6"/>
+      <c r="AH33" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5" t="n">
+      <c r="AI33" s="6"/>
+      <c r="AJ33" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AK33" s="5" t="n">
+      <c r="AK33" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="AL33" s="5"/>
-      <c r="AM33" s="5" t="n">
+      <c r="AL33" s="6"/>
+      <c r="AM33" s="6" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="n">
+      <c r="A34" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="C34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5" t="n">
+      <c r="I34" s="6"/>
+      <c r="J34" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5" t="s">
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="N34" s="9" t="s">
+      <c r="N34" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5" t="s">
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5" t="s">
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5" t="s">
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD34" s="5" t="s">
+      <c r="AD34" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE34" s="7"/>
-      <c r="AF34" s="5"/>
-      <c r="AG34" s="5"/>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5" t="n">
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="6"/>
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="6"/>
+      <c r="AJ34" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AK34" s="5" t="n">
+      <c r="AK34" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="AL34" s="5"/>
-      <c r="AM34" s="5" t="n">
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="6" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="n">
+      <c r="A35" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="5" t="s">
+      <c r="C35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5" t="n">
+      <c r="I35" s="6"/>
+      <c r="J35" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5" t="s">
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5" t="s">
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5" t="s">
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="X35" s="5" t="s">
+      <c r="X35" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5"/>
-      <c r="AC35" s="5" t="s">
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD35" s="5" t="s">
+      <c r="AD35" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE35" s="7" t="n">
+      <c r="AE35" s="8" t="n">
         <v>0.04</v>
       </c>
-      <c r="AF35" s="5"/>
-      <c r="AG35" s="5"/>
-      <c r="AH35" s="5" t="s">
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="AI35" s="5" t="s">
+      <c r="AI35" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="AJ35" s="5" t="n">
+      <c r="AJ35" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AK35" s="5" t="n">
+      <c r="AK35" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="AL35" s="5"/>
-      <c r="AM35" s="14" t="n">
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="15" t="n">
         <v>312</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="n">
+      <c r="A36" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="C36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5" t="n">
+      <c r="I36" s="6"/>
+      <c r="J36" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5" t="s">
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="N36" s="9" t="s">
+      <c r="N36" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5" t="s">
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5" t="s">
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="5"/>
-      <c r="AC36" s="5" t="s">
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD36" s="5" t="s">
+      <c r="AD36" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="AE36" s="7" t="n">
+      <c r="AE36" s="8" t="n">
         <v>0.04</v>
       </c>
-      <c r="AF36" s="5"/>
-      <c r="AG36" s="5"/>
-      <c r="AH36" s="5" t="s">
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AI36" s="5" t="s">
+      <c r="AI36" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="AJ36" s="5" t="n">
+      <c r="AJ36" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AK36" s="5" t="n">
+      <c r="AK36" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="AL36" s="5"/>
-      <c r="AM36" s="14" t="n">
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="15" t="n">
         <v>312</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="n">
+      <c r="A37" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="C37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="H37" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5" t="n">
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="L37" s="5" t="n">
+      <c r="L37" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="M37" s="5" t="s">
+      <c r="M37" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="N37" s="9" t="s">
+      <c r="N37" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5" t="s">
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5" t="s">
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="5"/>
-      <c r="AC37" s="5" t="s">
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD37" s="5" t="s">
+      <c r="AD37" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE37" s="7" t="n">
+      <c r="AE37" s="8" t="n">
         <v>0.04</v>
       </c>
-      <c r="AF37" s="5"/>
-      <c r="AG37" s="5"/>
-      <c r="AH37" s="5" t="s">
+      <c r="AF37" s="6"/>
+      <c r="AG37" s="6"/>
+      <c r="AH37" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AI37" s="5" t="s">
+      <c r="AI37" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="AJ37" s="5" t="n">
+      <c r="AJ37" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AK37" s="5" t="n">
+      <c r="AK37" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="AL37" s="5"/>
-      <c r="AM37" s="14" t="n">
+      <c r="AL37" s="6"/>
+      <c r="AM37" s="15" t="n">
         <v>312</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="n">
+      <c r="A38" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="5" t="s">
+      <c r="C38" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5" t="n">
+      <c r="I38" s="6"/>
+      <c r="J38" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5" t="s">
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="N38" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="O38" s="5" t="s">
+      <c r="O38" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="P38" s="5" t="s">
+      <c r="P38" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="Q38" s="5" t="s">
+      <c r="Q38" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="R38" s="5" t="s">
+      <c r="R38" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5" t="s">
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="X38" s="5" t="s">
+      <c r="X38" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="5" t="s">
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD38" s="5" t="s">
+      <c r="AD38" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE38" s="7" t="n">
+      <c r="AE38" s="8" t="n">
         <v>0.05</v>
       </c>
-      <c r="AF38" s="5"/>
-      <c r="AG38" s="5"/>
-      <c r="AH38" s="5"/>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5" t="n">
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="6"/>
+      <c r="AH38" s="6"/>
+      <c r="AI38" s="6"/>
+      <c r="AJ38" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AK38" s="5" t="n">
+      <c r="AK38" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="AL38" s="5"/>
-      <c r="AM38" s="5" t="n">
+      <c r="AL38" s="6"/>
+      <c r="AM38" s="6" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="n">
+      <c r="A39" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="C39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5" t="n">
+      <c r="I39" s="6"/>
+      <c r="J39" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5" t="s">
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="N39" s="5" t="s">
+      <c r="N39" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5" t="s">
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="R39" s="5" t="s">
+      <c r="R39" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5" t="s">
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="X39" s="5" t="s">
+      <c r="X39" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5"/>
-      <c r="AC39" s="5" t="s">
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD39" s="5" t="s">
+      <c r="AD39" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE39" s="7" t="n">
+      <c r="AE39" s="8" t="n">
         <v>0.07</v>
       </c>
-      <c r="AF39" s="5"/>
-      <c r="AG39" s="5"/>
-      <c r="AH39" s="5"/>
-      <c r="AI39" s="5"/>
-      <c r="AJ39" s="5" t="n">
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="6"/>
+      <c r="AH39" s="6"/>
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AK39" s="5" t="n">
+      <c r="AK39" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="AL39" s="5"/>
-      <c r="AM39" s="5" t="n">
+      <c r="AL39" s="6"/>
+      <c r="AM39" s="6" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="n">
+      <c r="A40" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="5" t="s">
+      <c r="C40" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5" t="n">
+      <c r="I40" s="6"/>
+      <c r="J40" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5" t="s">
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5" t="s">
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="X40" s="5" t="s">
+      <c r="X40" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="5"/>
-      <c r="AC40" s="5" t="s">
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD40" s="5" t="s">
+      <c r="AD40" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE40" s="7" t="n">
+      <c r="AE40" s="8" t="n">
         <v>0.28</v>
       </c>
-      <c r="AF40" s="5"/>
-      <c r="AG40" s="5"/>
-      <c r="AH40" s="5"/>
-      <c r="AI40" s="5"/>
-      <c r="AJ40" s="5" t="n">
+      <c r="AF40" s="6"/>
+      <c r="AG40" s="6"/>
+      <c r="AH40" s="6"/>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AK40" s="5" t="n">
+      <c r="AK40" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="AL40" s="10" t="s">
+      <c r="AL40" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AM40" s="5" t="n">
+      <c r="AM40" s="6" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="n">
+      <c r="A41" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="C41" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5" t="n">
+      <c r="I41" s="6"/>
+      <c r="J41" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="15" t="s">
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="N41" s="5" t="s">
+      <c r="N41" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="O41" s="5" t="s">
+      <c r="O41" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5" t="s">
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="R41" s="5" t="s">
+      <c r="R41" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="S41" s="15"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5" t="s">
+      <c r="S41" s="16"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="X41" s="5" t="s">
+      <c r="X41" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5" t="s">
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD41" s="5" t="s">
+      <c r="AD41" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE41" s="7"/>
-      <c r="AF41" s="5"/>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="5"/>
-      <c r="AI41" s="5"/>
-      <c r="AJ41" s="5" t="n">
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="6"/>
+      <c r="AH41" s="6"/>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AK41" s="5" t="n">
+      <c r="AK41" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="AL41" s="5"/>
-      <c r="AM41" s="5" t="n">
+      <c r="AL41" s="6"/>
+      <c r="AM41" s="6" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="n">
+      <c r="A42" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="C42" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5" t="n">
+      <c r="I42" s="6"/>
+      <c r="J42" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5" t="s">
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="N42" s="5" t="n">
+      <c r="N42" s="6" t="n">
         <v>5000034</v>
       </c>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5" t="s">
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="R42" s="5" t="s">
+      <c r="R42" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5" t="s">
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="X42" s="5" t="s">
+      <c r="X42" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="5"/>
-      <c r="AB42" s="5"/>
-      <c r="AC42" s="5" t="s">
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD42" s="5" t="s">
+      <c r="AD42" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE42" s="7"/>
-      <c r="AF42" s="5"/>
-      <c r="AG42" s="5"/>
-      <c r="AH42" s="5" t="s">
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="6"/>
+      <c r="AG42" s="6"/>
+      <c r="AH42" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="AI42" s="5"/>
-      <c r="AJ42" s="5" t="n">
+      <c r="AI42" s="6"/>
+      <c r="AJ42" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AK42" s="5" t="n">
+      <c r="AK42" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="AL42" s="5"/>
-      <c r="AM42" s="5" t="n">
+      <c r="AL42" s="6"/>
+      <c r="AM42" s="6" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5" t="n">
-        <v>40</v>
-      </c>
-      <c r="B43" s="5" t="s">
+      <c r="A43" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="C43" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="G43" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I43" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5" t="s">
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
-      <c r="AB43" s="5"/>
-      <c r="AC43" s="5"/>
-      <c r="AD43" s="5"/>
-      <c r="AE43" s="7"/>
-      <c r="AF43" s="5"/>
-      <c r="AG43" s="5"/>
-      <c r="AH43" s="5"/>
-      <c r="AI43" s="5"/>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="5" t="n">
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="6"/>
+      <c r="AG43" s="6"/>
+      <c r="AH43" s="6"/>
+      <c r="AI43" s="6"/>
+      <c r="AJ43" s="6"/>
+      <c r="AK43" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="AL43" s="10" t="s">
+      <c r="AL43" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="AM43" s="5"/>
+      <c r="AM43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="n">
+      <c r="A44" s="6" t="n">
         <v>41</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="5" t="s">
+      <c r="C44" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="G44" s="14" t="s">
+      <c r="G44" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="I44" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="10" t="s">
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5" t="s">
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="5"/>
-      <c r="AC44" s="5"/>
-      <c r="AD44" s="5"/>
-      <c r="AE44" s="7"/>
-      <c r="AF44" s="5"/>
-      <c r="AG44" s="5"/>
-      <c r="AH44" s="5"/>
-      <c r="AI44" s="5"/>
-      <c r="AJ44" s="5"/>
-      <c r="AK44" s="5" t="n">
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="8"/>
+      <c r="AF44" s="6"/>
+      <c r="AG44" s="6"/>
+      <c r="AH44" s="6"/>
+      <c r="AI44" s="6"/>
+      <c r="AJ44" s="6"/>
+      <c r="AK44" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="AL44" s="5" t="n">
+      <c r="AL44" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="AM44" s="5"/>
+      <c r="AM44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5" t="n">
+      <c r="A45" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="5" t="s">
+      <c r="C45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="G45" s="14" t="s">
+      <c r="G45" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="I45" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="10" t="s">
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5" t="s">
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="5"/>
-      <c r="AB45" s="5"/>
-      <c r="AC45" s="5"/>
-      <c r="AD45" s="5"/>
-      <c r="AE45" s="7"/>
-      <c r="AF45" s="5"/>
-      <c r="AG45" s="5"/>
-      <c r="AH45" s="5"/>
-      <c r="AI45" s="5"/>
-      <c r="AJ45" s="5"/>
-      <c r="AK45" s="5" t="n">
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="6"/>
+      <c r="AG45" s="6"/>
+      <c r="AH45" s="6"/>
+      <c r="AI45" s="6"/>
+      <c r="AJ45" s="6"/>
+      <c r="AK45" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="AL45" s="5" t="n">
+      <c r="AL45" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="AM45" s="5"/>
+      <c r="AM45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="n">
+      <c r="A46" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" s="5" t="s">
+      <c r="C46" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="G46" s="14" t="s">
+      <c r="G46" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I46" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="10" t="s">
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5" t="s">
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
-      <c r="AA46" s="5"/>
-      <c r="AB46" s="5"/>
-      <c r="AC46" s="5"/>
-      <c r="AD46" s="5"/>
-      <c r="AE46" s="7"/>
-      <c r="AF46" s="5"/>
-      <c r="AG46" s="5"/>
-      <c r="AH46" s="5"/>
-      <c r="AI46" s="5"/>
-      <c r="AJ46" s="5"/>
-      <c r="AK46" s="5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL46" s="5" t="n">
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="6"/>
+      <c r="AG46" s="6"/>
+      <c r="AH46" s="6"/>
+      <c r="AI46" s="6"/>
+      <c r="AJ46" s="6"/>
+      <c r="AK46" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL46" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="AM46" s="5"/>
+      <c r="AM46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5" t="n">
+      <c r="A47" s="6" t="n">
         <v>44</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" s="5" t="s">
+      <c r="C47" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="F47" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="G47" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="I47" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="10" t="s">
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5" t="s">
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="5"/>
-      <c r="AB47" s="5"/>
-      <c r="AC47" s="5"/>
-      <c r="AD47" s="5"/>
-      <c r="AE47" s="7"/>
-      <c r="AF47" s="5"/>
-      <c r="AG47" s="5"/>
-      <c r="AH47" s="5"/>
-      <c r="AI47" s="5"/>
-      <c r="AJ47" s="5"/>
-      <c r="AK47" s="5" t="n">
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="6"/>
+      <c r="AG47" s="6"/>
+      <c r="AH47" s="6"/>
+      <c r="AI47" s="6"/>
+      <c r="AJ47" s="6"/>
+      <c r="AK47" s="6" t="n">
         <v>41</v>
       </c>
-      <c r="AL47" s="5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM47" s="5"/>
+      <c r="AL47" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5" t="n">
+      <c r="A48" s="6" t="n">
         <v>45</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D48" s="5" t="s">
+      <c r="C48" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F48" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="G48" s="14" t="s">
+      <c r="G48" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="I48" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="10" t="s">
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5" t="s">
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="5"/>
-      <c r="AB48" s="5"/>
-      <c r="AC48" s="5"/>
-      <c r="AD48" s="5"/>
-      <c r="AE48" s="7"/>
-      <c r="AF48" s="5"/>
-      <c r="AG48" s="8"/>
-      <c r="AH48" s="5"/>
-      <c r="AI48" s="5"/>
-      <c r="AJ48" s="5"/>
-      <c r="AK48" s="5" t="n">
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="6"/>
+      <c r="AG48" s="9"/>
+      <c r="AH48" s="6"/>
+      <c r="AI48" s="6"/>
+      <c r="AJ48" s="6"/>
+      <c r="AK48" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AL48" s="10" t="s">
+      <c r="AL48" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="AM48" s="5"/>
+      <c r="AM48" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AM48"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="QSR" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1089,49 +1090,49 @@
   </sheetPr>
   <dimension ref="A1:AM48"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="60.2024291497976"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="93.6234817813765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="60.7368421052632"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="94.4777327935223"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="108.404858299595"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="80.2307692307692"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="109.368421052632"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="80.8744939271255"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="59.0242914979757"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
@@ -3348,7 +3349,9 @@
         <v>65</v>
       </c>
       <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+      <c r="J29" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6" t="s">

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="QSR" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,6 +19,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="235">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -773,12 +774,21 @@
 37
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
@@ -786,6 +796,7 @@
     <numFmt numFmtId="168" formatCode="0.00"/>
     <numFmt numFmtId="169" formatCode="0.00%"/>
     <numFmt numFmtId="170" formatCode="@"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -929,7 +940,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1004,6 +1015,22 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1088,51 +1115,51 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AM48"/>
+  <dimension ref="1:49"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="Z1" activeCellId="0" sqref="Z1"/>
+      <selection pane="bottomLeft" activeCell="AM48" activeCellId="0" sqref="AM48:AM49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="60.7368421052632"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="94.4777327935223"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="61.2712550607287"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="95.2267206477733"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="109.368421052632"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="80.8744939271255"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="110.331983805668"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="81.6234817813765"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="59.4493927125506"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="59.9878542510121"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
@@ -4869,6 +4896,68 @@
       </c>
       <c r="AM48" s="6"/>
     </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6" t="n">
+        <v>401</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="21"/>
+      <c r="AE49" s="6"/>
+      <c r="AF49" s="6"/>
+      <c r="AG49" s="6"/>
+      <c r="AH49" s="6"/>
+      <c r="AI49" s="22"/>
+      <c r="AJ49" s="6"/>
+      <c r="AK49" s="6" t="n">
+        <v>401</v>
+      </c>
+      <c r="AL49" s="6"/>
+      <c r="AM49" s="6"/>
+      <c r="AMJ49" s="0"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AM48"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -20,6 +20,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="236">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -468,7 +469,7 @@
     <t xml:space="preserve">Dobriy - Apple - 0.33L, Dobriy - Apple  - 0.2L, Rich Apple 0.3 PET, Orange - 0.2L Glass</t>
   </si>
   <si>
-    <t xml:space="preserve">4607174579309, 4607042430619, 4607042436086, 4650075420362</t>
+    <t xml:space="preserve">4607174579309, 4607042430619, 4650075421000, 4650075420362</t>
   </si>
   <si>
     <t xml:space="preserve">Pulpy - Mango Pineapple - 0.45L</t>
@@ -486,7 +487,7 @@
     <t xml:space="preserve">Dobriy - Multifruit - 0.33L, Dobriy - Multifruit - 0.2L, Rich - Orange - 0.3L PET, Rich - Apple - 0.2L Glass</t>
   </si>
   <si>
-    <t xml:space="preserve">4607174579286, 4607042430565, 4607042436079, 4650075420386</t>
+    <t xml:space="preserve">4607174579286, 4607042430565, 4650075421024, 4650075420386</t>
   </si>
   <si>
     <t xml:space="preserve">Pulpy - Tropical - 0.45L</t>
@@ -672,7 +673,7 @@
     <t xml:space="preserve">Coca Cola Can, Coca Cola Zero Can , Coca Cola Cup 0.3, Coca Cola Bottle, Coca Cola Cup 0.5, Coca Cola Cup 0.4, Coca Cola Zero Bottle</t>
   </si>
   <si>
-    <t xml:space="preserve">5050570, 50111114, 5000005, 5000004, 50111112, 5000101, 5000102, A5B10119, 5000006, 5000009</t>
+    <t xml:space="preserve">5050570, 50111114, 5000005, 5000004, 50111112, 5000101, 5000102, A5B10119, 5000006, 5000009, A5B10138, A5B10137, A5B10136, A5B10135, A5B10125, A5B10124, A5B10123, A5B10123, A5B10122, A5B10121, A5B10120, A5B10119, A5B10118, A5B10117, A5B10116, A5B10091, A5B10090, A5B10089, A5B10088, A5B10087, A5B10086, A5B10085, A5B10057, 5000044, 5000042</t>
   </si>
   <si>
     <t xml:space="preserve">Combo: Food</t>
@@ -685,6 +686,9 @@
   </si>
   <si>
     <t xml:space="preserve">food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000034, A5B10138, A5B10137, A5B10136, A5B10135, A5B10125, A5B10124, A5B10123, A5B10123, A5B10122, A5B10121, A5B10120, A5B10119, A5B10118, A5B10117, A5B10116, A5B10091, A5B10090, A5B10089, A5B10088, A5B10087, A5B10086, A5B10085, A5B10057, 5000044, 5000042</t>
   </si>
   <si>
     <t xml:space="preserve">Food should be near Image</t>
@@ -870,6 +874,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor rgb="FF008080"/>
       </patternFill>
@@ -877,12 +887,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -940,7 +944,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1001,15 +1005,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1117,49 +1125,49 @@
   </sheetPr>
   <dimension ref="1:49"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="Z1" activeCellId="0" sqref="Z1"/>
-      <selection pane="bottomLeft" activeCell="AM48" activeCellId="0" sqref="AM48:AM49"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="N38" activeCellId="0" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="61.2712550607287"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="95.2267206477733"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="61.7004048582996"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="96.085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="110.331983805668"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="81.6234817813765"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="111.295546558704"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="82.3724696356275"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="59.9878542510121"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="60.5222672064777"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
@@ -1284,6 +1292,7 @@
       <c r="AM1" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="n">
@@ -1345,6 +1354,7 @@
         <v>44</v>
       </c>
       <c r="AM2" s="6"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
@@ -1406,6 +1416,7 @@
         <v>47</v>
       </c>
       <c r="AM3" s="6"/>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
@@ -1469,6 +1480,7 @@
       <c r="AM4" s="6" t="n">
         <v>310</v>
       </c>
+      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
@@ -1532,6 +1544,7 @@
       <c r="AM5" s="6" t="n">
         <v>310</v>
       </c>
+      <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
@@ -1593,6 +1606,7 @@
         <v>55</v>
       </c>
       <c r="AM6" s="6"/>
+      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
@@ -1662,6 +1676,7 @@
       <c r="AM7" s="6" t="n">
         <v>300</v>
       </c>
+      <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -1745,6 +1760,7 @@
       <c r="AM8" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -1828,6 +1844,7 @@
       <c r="AM9" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -1911,6 +1928,7 @@
       <c r="AM10" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -1994,6 +2012,7 @@
       <c r="AM11" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -2077,6 +2096,7 @@
       <c r="AM12" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -2160,6 +2180,7 @@
       <c r="AM13" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -2229,6 +2250,7 @@
       <c r="AM14" s="6" t="n">
         <v>300</v>
       </c>
+      <c r="AMJ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -2312,6 +2334,7 @@
       <c r="AM15" s="6" t="n">
         <v>8</v>
       </c>
+      <c r="AMJ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -2395,6 +2418,7 @@
       <c r="AM16" s="6" t="n">
         <v>8</v>
       </c>
+      <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -2464,6 +2488,7 @@
       <c r="AM17" s="6" t="n">
         <v>300</v>
       </c>
+      <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -2547,6 +2572,7 @@
       <c r="AM18" s="6" t="n">
         <v>11</v>
       </c>
+      <c r="AMJ18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -2630,6 +2656,7 @@
       <c r="AM19" s="6" t="n">
         <v>11</v>
       </c>
+      <c r="AMJ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -2699,6 +2726,7 @@
       <c r="AM20" s="6" t="n">
         <v>300</v>
       </c>
+      <c r="AMJ20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -2782,6 +2810,7 @@
       <c r="AM21" s="6" t="n">
         <v>14</v>
       </c>
+      <c r="AMJ21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -2865,6 +2894,7 @@
       <c r="AM22" s="6" t="n">
         <v>14</v>
       </c>
+      <c r="AMJ22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -2948,6 +2978,7 @@
       <c r="AM23" s="6" t="n">
         <v>14</v>
       </c>
+      <c r="AMJ23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -3031,6 +3062,7 @@
       <c r="AM24" s="6" t="n">
         <v>14</v>
       </c>
+      <c r="AMJ24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -3114,6 +3146,7 @@
       <c r="AM25" s="6" t="n">
         <v>14</v>
       </c>
+      <c r="AMJ25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -3183,6 +3216,7 @@
       <c r="AM26" s="6" t="n">
         <v>300</v>
       </c>
+      <c r="AMJ26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -3266,6 +3300,7 @@
       <c r="AM27" s="6" t="n">
         <v>20</v>
       </c>
+      <c r="AMJ27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -3301,7 +3336,7 @@
       <c r="M28" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="N28" s="10" t="s">
+      <c r="N28" s="14" t="s">
         <v>135</v>
       </c>
       <c r="O28" s="6"/>
@@ -3349,6 +3384,7 @@
       <c r="AM28" s="6" t="n">
         <v>20</v>
       </c>
+      <c r="AMJ28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
@@ -3432,6 +3468,7 @@
       <c r="AM29" s="6" t="n">
         <v>20</v>
       </c>
+      <c r="AMJ29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
@@ -3467,7 +3504,7 @@
       <c r="M30" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="N30" s="10" t="s">
+      <c r="N30" s="14" t="s">
         <v>141</v>
       </c>
       <c r="O30" s="6"/>
@@ -3515,6 +3552,7 @@
       <c r="AM30" s="6" t="n">
         <v>20</v>
       </c>
+      <c r="AMJ30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -3550,7 +3588,7 @@
       <c r="M31" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="N31" s="14" t="s">
+      <c r="N31" s="15" t="s">
         <v>144</v>
       </c>
       <c r="O31" s="6"/>
@@ -3598,6 +3636,7 @@
       <c r="AM31" s="6" t="n">
         <v>20</v>
       </c>
+      <c r="AMJ31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
@@ -3673,6 +3712,7 @@
       <c r="AM32" s="6" t="n">
         <v>311</v>
       </c>
+      <c r="AMJ32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
@@ -3752,6 +3792,7 @@
       <c r="AM33" s="6" t="n">
         <v>26</v>
       </c>
+      <c r="AMJ33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
@@ -3829,6 +3870,7 @@
       <c r="AM34" s="6" t="n">
         <v>26</v>
       </c>
+      <c r="AMJ34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
@@ -3909,9 +3951,10 @@
         <v>29</v>
       </c>
       <c r="AL35" s="6"/>
-      <c r="AM35" s="15" t="n">
+      <c r="AM35" s="16" t="n">
         <v>312</v>
       </c>
+      <c r="AMJ35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
@@ -3929,7 +3972,7 @@
       <c r="E36" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="17" t="s">
         <v>172</v>
       </c>
       <c r="G36" s="6" t="s">
@@ -3992,9 +4035,10 @@
         <v>30</v>
       </c>
       <c r="AL36" s="6"/>
-      <c r="AM36" s="15" t="n">
+      <c r="AM36" s="16" t="n">
         <v>312</v>
       </c>
+      <c r="AMJ36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
@@ -4018,7 +4062,7 @@
       <c r="G37" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H37" s="17" t="s">
+      <c r="H37" s="18" t="s">
         <v>178</v>
       </c>
       <c r="I37" s="6"/>
@@ -4077,9 +4121,10 @@
         <v>31</v>
       </c>
       <c r="AL37" s="6"/>
-      <c r="AM37" s="15" t="n">
+      <c r="AM37" s="16" t="n">
         <v>312</v>
       </c>
+      <c r="AMJ37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
@@ -4167,6 +4212,7 @@
       <c r="AM38" s="6" t="n">
         <v>400</v>
       </c>
+      <c r="AMJ38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
@@ -4213,8 +4259,8 @@
       <c r="R39" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
       <c r="W39" s="6" t="s">
@@ -4250,6 +4296,7 @@
       <c r="AM39" s="6" t="n">
         <v>400</v>
       </c>
+      <c r="AMJ39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
@@ -4329,6 +4376,7 @@
       <c r="AM40" s="6" t="n">
         <v>400</v>
       </c>
+      <c r="AMJ40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
@@ -4361,10 +4409,10 @@
       </c>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
-      <c r="M41" s="16" t="s">
+      <c r="M41" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="N41" s="6" t="s">
+      <c r="N41" s="18" t="s">
         <v>202</v>
       </c>
       <c r="O41" s="6" t="s">
@@ -4377,7 +4425,7 @@
       <c r="R41" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="S41" s="16"/>
+      <c r="S41" s="17"/>
       <c r="T41" s="6"/>
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
@@ -4412,6 +4460,7 @@
       <c r="AM41" s="6" t="n">
         <v>34</v>
       </c>
+      <c r="AMJ41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
@@ -4447,8 +4496,8 @@
       <c r="M42" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="N42" s="6" t="n">
-        <v>5000034</v>
+      <c r="N42" s="18" t="s">
+        <v>207</v>
       </c>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
@@ -4482,7 +4531,7 @@
       <c r="AF42" s="6"/>
       <c r="AG42" s="6"/>
       <c r="AH42" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AI42" s="6"/>
       <c r="AJ42" s="6" t="n">
@@ -4495,6 +4544,7 @@
       <c r="AM42" s="6" t="n">
         <v>34</v>
       </c>
+      <c r="AMJ42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
@@ -4507,22 +4557,22 @@
         <v>40</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E43" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="F43" s="16" t="s">
         <v>211</v>
       </c>
+      <c r="G43" s="16" t="s">
+        <v>212</v>
+      </c>
       <c r="H43" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
@@ -4533,7 +4583,7 @@
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
       <c r="R43" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
@@ -4557,9 +4607,10 @@
         <v>37</v>
       </c>
       <c r="AL43" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM43" s="6"/>
+      <c r="AMJ43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
@@ -4572,35 +4623,35 @@
         <v>40</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E44" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="F44" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="G44" s="15" t="s">
+      <c r="F44" s="16" t="s">
         <v>217</v>
       </c>
+      <c r="G44" s="16" t="s">
+        <v>218</v>
+      </c>
       <c r="H44" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
       <c r="R44" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S44" s="6"/>
       <c r="T44" s="6"/>
@@ -4627,6 +4678,7 @@
         <v>34</v>
       </c>
       <c r="AM44" s="6"/>
+      <c r="AMJ44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
@@ -4639,35 +4691,35 @@
         <v>40</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E45" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="F45" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="G45" s="15" t="s">
+      <c r="F45" s="16" t="s">
         <v>222</v>
       </c>
+      <c r="G45" s="16" t="s">
+        <v>223</v>
+      </c>
       <c r="H45" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
       <c r="R45" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
@@ -4694,6 +4746,7 @@
         <v>35</v>
       </c>
       <c r="AM45" s="6"/>
+      <c r="AMJ45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
@@ -4706,35 +4759,35 @@
         <v>40</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="F46" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="F46" s="16" t="s">
         <v>226</v>
       </c>
+      <c r="G46" s="16" t="s">
+        <v>227</v>
+      </c>
       <c r="H46" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
       <c r="R46" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
@@ -4761,6 +4814,7 @@
         <v>36</v>
       </c>
       <c r="AM46" s="6"/>
+      <c r="AMJ46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
@@ -4773,35 +4827,35 @@
         <v>40</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E47" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="F47" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="G47" s="15" t="s">
+      <c r="F47" s="16" t="s">
         <v>226</v>
       </c>
+      <c r="G47" s="16" t="s">
+        <v>227</v>
+      </c>
       <c r="H47" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
       <c r="R47" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
@@ -4828,6 +4882,7 @@
         <v>40</v>
       </c>
       <c r="AM47" s="6"/>
+      <c r="AMJ47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
@@ -4840,35 +4895,35 @@
         <v>40</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="F48" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>229</v>
+      <c r="F48" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>230</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
@@ -4892,9 +4947,10 @@
         <v>42</v>
       </c>
       <c r="AL48" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM48" s="6"/>
+      <c r="AMJ48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
@@ -4907,31 +4963,31 @@
         <v>40</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="G49" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16" t="s">
         <v>233</v>
       </c>
+      <c r="G49" s="16" t="s">
+        <v>234</v>
+      </c>
       <c r="H49" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
+        <v>235</v>
+      </c>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
       <c r="M49" s="6"/>
-      <c r="N49" s="20"/>
+      <c r="N49" s="21"/>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
@@ -4944,12 +5000,12 @@
       <c r="AA49" s="6"/>
       <c r="AB49" s="6"/>
       <c r="AC49" s="6"/>
-      <c r="AD49" s="21"/>
+      <c r="AD49" s="22"/>
       <c r="AE49" s="6"/>
       <c r="AF49" s="6"/>
       <c r="AG49" s="6"/>
       <c r="AH49" s="6"/>
-      <c r="AI49" s="22"/>
+      <c r="AI49" s="23"/>
       <c r="AJ49" s="6"/>
       <c r="AK49" s="6" t="n">
         <v>401</v>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -11,16 +11,7 @@
     <sheet name="QSR" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AM$49</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="242">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -706,7 +697,7 @@
     <t xml:space="preserve">CCH coolers quality (Prime Pos- Max15- Merch STD- Occupancy- Lights&amp;clean)</t>
   </si>
   <si>
-    <t xml:space="preserve">sum of KPI scores</t>
+    <t xml:space="preserve">sum of atomic scores</t>
   </si>
   <si>
     <t xml:space="preserve">Decimal.2</t>
@@ -750,33 +741,50 @@
     <t xml:space="preserve">Local 21</t>
   </si>
   <si>
+    <t xml:space="preserve">ANY OTHER ACTIVATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEND VALUE if one KPI from lis is Passed , other No_O_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTMove
+No_O_A</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRIORITY_OCC</t>
   </si>
   <si>
-    <t xml:space="preserve">ANY OTHER ACTIVATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTMove
-No_OTMove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EO_InforLu
-No_EO_InforLu</t>
-  </si>
-  <si>
     <t xml:space="preserve">Number of Priority Occasions activated in the outlet</t>
   </si>
   <si>
     <t xml:space="preserve">EO
-No_EO</t>
+No_O_A</t>
   </si>
   <si>
     <t xml:space="preserve">29
+30
+31
 32
 33
-34
-37
-</t>
+34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene Sub Type 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COOLER_DOORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">template.additional_attribute_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCENE LEVEL</t>
   </si>
   <si>
     <t xml:space="preserve">PLAN</t>
@@ -853,7 +861,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -869,7 +877,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFF8CBAD"/>
       </patternFill>
     </fill>
     <fill>
@@ -890,8 +898,14 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -910,6 +924,13 @@
       <left style="hair"/>
       <right style="hair"/>
       <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
       <bottom style="hair"/>
       <diagonal/>
     </border>
@@ -944,13 +965,9 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1025,16 +1042,40 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="171" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1092,7 +1133,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFF8CBAD"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1126,3896 +1167,3853 @@
   <dimension ref="1:49"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="N38" activeCellId="0" sqref="N38"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="61.7004048582996"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="96.085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="111.295546558704"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="82.3724696356275"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="60.5222672064777"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4898785425101"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0566801619433"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.497975708502"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1336032388664"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="63.4291497975709"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="98.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="42.8137651821862"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.4615384615385"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.2914979757085"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.5910931174089"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="112.931174089069"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="72.2024291497976"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.6599190283401"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.2914979757085"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.8866396761134"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="14.1457489878543"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.30364372469636"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="14.3684210526316"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.8947368421053"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="22.6396761133603"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.1943319838057"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="23.0728744939271"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="20.3157894736842"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="25.82995951417"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.2712550607287"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="16.2388663967611"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.0121457489879"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.8097165991903"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.8178137651822"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.2631578947368"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="61.663967611336"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="21.9716599190283"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.86234817813765"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="11.2753036437247"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.51417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+    <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="10" t="n">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AK2" s="10" t="n">
+      <c r="AK2" s="9" t="n">
         <v>300</v>
       </c>
-      <c r="AL2" s="11" t="s">
+      <c r="AL2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AM2" s="6"/>
-      <c r="AMJ2" s="0"/>
+      <c r="AM2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="10" t="n">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AK3" s="10" t="n">
+      <c r="AK3" s="9" t="n">
         <v>310</v>
       </c>
-      <c r="AL3" s="11" t="s">
+      <c r="AL3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AM3" s="6"/>
-      <c r="AMJ3" s="0"/>
+      <c r="AM3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+    <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="10" t="n">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AK4" s="10" t="n">
+      <c r="AK4" s="9" t="n">
         <v>311</v>
       </c>
-      <c r="AL4" s="6" t="n">
+      <c r="AL4" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="AM4" s="6" t="n">
+      <c r="AM4" s="5" t="n">
         <v>310</v>
       </c>
-      <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+    <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
         <v>49</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="10" t="n">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AK5" s="10" t="n">
+      <c r="AK5" s="9" t="n">
         <v>312</v>
       </c>
-      <c r="AL5" s="11" t="s">
+      <c r="AL5" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AM5" s="6" t="n">
+      <c r="AM5" s="5" t="n">
         <v>310</v>
       </c>
-      <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+    <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="10" t="n">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AK6" s="10" t="n">
+      <c r="AK6" s="9" t="n">
         <v>400</v>
       </c>
-      <c r="AL6" s="11" t="s">
+      <c r="AL6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AM6" s="6"/>
-      <c r="AMJ6" s="0"/>
+      <c r="AM6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+    <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6" t="s">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD7" s="6" t="s">
+      <c r="AD7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6" t="n">
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK7" s="6" t="n">
+      <c r="AK7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AL7" s="11" t="s">
+      <c r="AL7" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AM7" s="6" t="n">
+      <c r="AM7" s="5" t="n">
         <v>300</v>
       </c>
-      <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+    <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6" t="n">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6" t="s">
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="6" t="s">
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6" t="s">
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6" t="s">
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6" t="s">
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD8" s="6" t="s">
+      <c r="AD8" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE8" s="8" t="n">
+      <c r="AE8" s="7" t="n">
         <v>0.031006</v>
       </c>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6" t="n">
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK8" s="6" t="n">
+      <c r="AK8" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6" t="n">
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6" t="n">
+      <c r="I9" s="5"/>
+      <c r="J9" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6" t="s">
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N9" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="6" t="s">
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="R9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6" t="s">
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6" t="s">
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6" t="s">
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD9" s="6" t="s">
+      <c r="AD9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE9" s="8" t="n">
+      <c r="AE9" s="7" t="n">
         <v>0.031006</v>
       </c>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
-      <c r="AH9" s="6"/>
-      <c r="AI9" s="6"/>
-      <c r="AJ9" s="6" t="n">
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK9" s="6" t="n">
+      <c r="AK9" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AL9" s="6"/>
-      <c r="AM9" s="6" t="n">
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6" t="n">
+      <c r="I10" s="5"/>
+      <c r="J10" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6" t="s">
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="6" t="s">
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="R10" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6" t="s">
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6" t="s">
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6" t="s">
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD10" s="6" t="s">
+      <c r="AD10" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE10" s="8" t="n">
+      <c r="AE10" s="7" t="n">
         <v>0.031006</v>
       </c>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="6"/>
-      <c r="AI10" s="6"/>
-      <c r="AJ10" s="6" t="n">
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK10" s="6" t="n">
+      <c r="AK10" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="AL10" s="6"/>
-      <c r="AM10" s="6" t="n">
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
+    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6" t="n">
+      <c r="I11" s="5"/>
+      <c r="J11" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6" t="s">
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6" t="s">
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="R11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6" t="s">
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6" t="s">
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6" t="s">
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD11" s="6" t="s">
+      <c r="AD11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE11" s="8" t="n">
+      <c r="AE11" s="7" t="n">
         <v>0.03037</v>
       </c>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
-      <c r="AH11" s="6"/>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="6" t="n">
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK11" s="6" t="n">
+      <c r="AK11" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AL11" s="6"/>
-      <c r="AM11" s="6" t="n">
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+    <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6" t="n">
+      <c r="I12" s="5"/>
+      <c r="J12" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6" t="s">
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="N12" s="10" t="n">
+      <c r="N12" s="9" t="n">
         <v>5449000214744</v>
       </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6" t="s">
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="R12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6" t="s">
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6" t="s">
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6" t="s">
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD12" s="6" t="s">
+      <c r="AD12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE12" s="8" t="n">
+      <c r="AE12" s="7" t="n">
         <v>0.016902</v>
       </c>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="6" t="n">
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK12" s="6" t="n">
+      <c r="AK12" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="AL12" s="6"/>
-      <c r="AM12" s="6" t="n">
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AMJ12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
+    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6" t="n">
+      <c r="I13" s="5"/>
+      <c r="J13" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6" t="s">
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="N13" s="10" t="n">
+      <c r="N13" s="9" t="n">
         <v>5449000172228</v>
       </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6" t="s">
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="R13" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6" t="s">
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6" t="s">
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6" t="s">
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD13" s="6" t="s">
+      <c r="AD13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE13" s="8" t="n">
+      <c r="AE13" s="7" t="n">
         <v>0.007696</v>
       </c>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6" t="n">
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK13" s="6" t="n">
+      <c r="AK13" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="AL13" s="6"/>
-      <c r="AM13" s="6" t="n">
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
+    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6" t="s">
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD14" s="6" t="s">
+      <c r="AD14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6" t="n">
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK14" s="6" t="n">
+      <c r="AK14" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="AL14" s="11" t="s">
+      <c r="AL14" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="AM14" s="6" t="n">
+      <c r="AM14" s="5" t="n">
         <v>300</v>
       </c>
-      <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+    <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6" t="n">
+      <c r="I15" s="5"/>
+      <c r="J15" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6" t="s">
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="N15" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6" t="s">
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="R15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6" t="s">
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6" t="s">
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6" t="s">
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD15" s="6" t="s">
+      <c r="AD15" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE15" s="8" t="n">
+      <c r="AE15" s="7" t="n">
         <v>0.030996</v>
       </c>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
-      <c r="AH15" s="6"/>
-      <c r="AI15" s="6"/>
-      <c r="AJ15" s="6" t="n">
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK15" s="6" t="n">
+      <c r="AK15" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="AL15" s="6"/>
-      <c r="AM15" s="6" t="n">
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
+    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6" t="n">
+      <c r="I16" s="5"/>
+      <c r="J16" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6" t="s">
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="N16" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6" t="s">
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="R16" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6" t="s">
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6" t="s">
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6" t="s">
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD16" s="6" t="s">
+      <c r="AD16" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE16" s="8" t="n">
+      <c r="AE16" s="7" t="n">
         <v>0.016909</v>
       </c>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
-      <c r="AH16" s="6"/>
-      <c r="AI16" s="6"/>
-      <c r="AJ16" s="6" t="n">
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK16" s="6" t="n">
+      <c r="AK16" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="AL16" s="6"/>
-      <c r="AM16" s="6" t="n">
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
+    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6" t="s">
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD17" s="6" t="s">
+      <c r="AD17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="6" t="n">
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK17" s="6" t="n">
+      <c r="AK17" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="AL17" s="11" t="s">
+      <c r="AL17" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="AM17" s="6" t="n">
+      <c r="AM17" s="5" t="n">
         <v>300</v>
       </c>
-      <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="n">
+    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6" t="n">
+      <c r="I18" s="5"/>
+      <c r="J18" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6" t="s">
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="N18" s="10" t="n">
+      <c r="N18" s="9" t="n">
         <v>5449000148056</v>
       </c>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6" t="s">
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="R18" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6" t="s">
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6" t="s">
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6" t="s">
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD18" s="6" t="s">
+      <c r="AD18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE18" s="8" t="n">
+      <c r="AE18" s="7" t="n">
         <v>0.016909</v>
       </c>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6" t="n">
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK18" s="6" t="n">
+      <c r="AK18" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="AL18" s="6"/>
-      <c r="AM18" s="6" t="n">
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="AMJ18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="n">
+    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6" t="n">
+      <c r="I19" s="5"/>
+      <c r="J19" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="12" t="s">
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="N19" s="10" t="n">
+      <c r="N19" s="9" t="n">
         <v>5060335632906</v>
       </c>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6" t="s">
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="R19" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6" t="s">
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6" t="s">
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6" t="s">
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD19" s="6" t="s">
+      <c r="AD19" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE19" s="8" t="n">
+      <c r="AE19" s="7" t="n">
         <v>0.016909</v>
       </c>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
-      <c r="AH19" s="6"/>
-      <c r="AI19" s="6"/>
-      <c r="AJ19" s="6" t="n">
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK19" s="6" t="n">
+      <c r="AK19" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="AL19" s="6"/>
-      <c r="AM19" s="6" t="n">
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="AMJ19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="n">
+    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6" t="s">
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD20" s="6" t="s">
+      <c r="AD20" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="6"/>
-      <c r="AJ20" s="6" t="n">
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK20" s="6" t="n">
+      <c r="AK20" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="AL20" s="11" t="s">
+      <c r="AL20" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AM20" s="6" t="n">
+      <c r="AM20" s="5" t="n">
         <v>300</v>
       </c>
-      <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="n">
+    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6" t="n">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6" t="s">
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="N21" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6" t="s">
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R21" s="6" t="s">
+      <c r="R21" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6" t="s">
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6" t="s">
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6" t="s">
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD21" s="6" t="s">
+      <c r="AD21" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE21" s="8" t="n">
+      <c r="AE21" s="7" t="n">
         <v>0.030997</v>
       </c>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="6"/>
-      <c r="AH21" s="6"/>
-      <c r="AI21" s="6"/>
-      <c r="AJ21" s="6" t="n">
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK21" s="6" t="n">
+      <c r="AK21" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="AL21" s="6"/>
-      <c r="AM21" s="6" t="n">
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="AMJ21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="n">
+    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6" t="n">
+      <c r="I22" s="5"/>
+      <c r="J22" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6" t="s">
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N22" s="10" t="s">
+      <c r="N22" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6" t="s">
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R22" s="6" t="s">
+      <c r="R22" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6" t="s">
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6" t="s">
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6" t="s">
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD22" s="6" t="s">
+      <c r="AD22" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE22" s="8" t="n">
+      <c r="AE22" s="7" t="n">
         <v>0.016909</v>
       </c>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
-      <c r="AH22" s="6"/>
-      <c r="AI22" s="6"/>
-      <c r="AJ22" s="6" t="n">
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK22" s="6" t="n">
+      <c r="AK22" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="AL22" s="6"/>
-      <c r="AM22" s="6" t="n">
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="AMJ22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="n">
+    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6" t="n">
+      <c r="I23" s="5"/>
+      <c r="J23" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6" t="s">
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="N23" s="13" t="s">
+      <c r="N23" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="6" t="s">
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R23" s="6" t="s">
+      <c r="R23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6" t="s">
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6" t="s">
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6" t="s">
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD23" s="6" t="s">
+      <c r="AD23" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE23" s="8" t="n">
+      <c r="AE23" s="7" t="n">
         <v>0.016909</v>
       </c>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
-      <c r="AH23" s="6"/>
-      <c r="AI23" s="6"/>
-      <c r="AJ23" s="6" t="n">
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK23" s="6" t="n">
+      <c r="AK23" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="AL23" s="6"/>
-      <c r="AM23" s="6" t="n">
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="AMJ23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
+    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6" t="n">
+      <c r="I24" s="5"/>
+      <c r="J24" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6" t="s">
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="N24" s="10" t="n">
+      <c r="N24" s="9" t="n">
         <v>5449000233615</v>
       </c>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6" t="s">
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R24" s="6" t="s">
+      <c r="R24" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6" t="s">
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6" t="s">
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6" t="s">
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD24" s="6" t="s">
+      <c r="AD24" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE24" s="8" t="n">
+      <c r="AE24" s="7" t="n">
         <v>0.016909</v>
       </c>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="6"/>
-      <c r="AH24" s="6"/>
-      <c r="AI24" s="6"/>
-      <c r="AJ24" s="6" t="n">
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK24" s="6" t="n">
+      <c r="AK24" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AL24" s="6"/>
-      <c r="AM24" s="6" t="n">
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="AMJ24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="n">
+    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6" t="n">
+      <c r="I25" s="5"/>
+      <c r="J25" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="12" t="s">
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="N25" s="10" t="s">
+      <c r="N25" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6" t="s">
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R25" s="6" t="s">
+      <c r="R25" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6" t="s">
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6" t="s">
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="6" t="s">
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD25" s="6" t="s">
+      <c r="AD25" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE25" s="8" t="n">
+      <c r="AE25" s="7" t="n">
         <v>0.016909</v>
       </c>
-      <c r="AF25" s="6"/>
-      <c r="AG25" s="6"/>
-      <c r="AH25" s="6"/>
-      <c r="AI25" s="6"/>
-      <c r="AJ25" s="6" t="n">
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK25" s="6" t="n">
+      <c r="AK25" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="AL25" s="6"/>
-      <c r="AM25" s="6" t="n">
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="AMJ25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="n">
+    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6" t="s">
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD26" s="6" t="s">
+      <c r="AD26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AE26" s="8"/>
-      <c r="AF26" s="6"/>
-      <c r="AG26" s="6"/>
-      <c r="AH26" s="6"/>
-      <c r="AI26" s="6"/>
-      <c r="AJ26" s="6" t="n">
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK26" s="6" t="n">
+      <c r="AK26" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="AL26" s="11" t="s">
+      <c r="AL26" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="AM26" s="6" t="n">
+      <c r="AM26" s="5" t="n">
         <v>300</v>
       </c>
-      <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="n">
+    <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6" t="n">
+      <c r="I27" s="5"/>
+      <c r="J27" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6" t="s">
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="N27" s="10" t="n">
+      <c r="N27" s="9" t="n">
         <v>4607174577787</v>
       </c>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6" t="s">
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R27" s="6" t="s">
+      <c r="R27" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6" t="s">
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6" t="s">
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="6" t="s">
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD27" s="6" t="s">
+      <c r="AD27" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE27" s="8" t="n">
+      <c r="AE27" s="7" t="n">
         <v>0.030996</v>
       </c>
-      <c r="AF27" s="6"/>
-      <c r="AG27" s="6"/>
-      <c r="AH27" s="6"/>
-      <c r="AI27" s="6"/>
-      <c r="AJ27" s="6" t="n">
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK27" s="6" t="n">
+      <c r="AK27" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="AL27" s="6"/>
-      <c r="AM27" s="6" t="n">
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="n">
+    <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6" t="n">
+      <c r="I28" s="5"/>
+      <c r="J28" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6" t="s">
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="N28" s="14" t="s">
+      <c r="N28" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6" t="s">
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R28" s="6" t="s">
+      <c r="R28" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6" t="s">
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6" t="s">
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="6"/>
-      <c r="AC28" s="6" t="s">
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD28" s="6" t="s">
+      <c r="AD28" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE28" s="8" t="n">
+      <c r="AE28" s="7" t="n">
         <v>0.016909</v>
       </c>
-      <c r="AF28" s="6"/>
-      <c r="AG28" s="6"/>
-      <c r="AH28" s="6"/>
-      <c r="AI28" s="6"/>
-      <c r="AJ28" s="6" t="n">
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK28" s="6" t="n">
+      <c r="AK28" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="AL28" s="6"/>
-      <c r="AM28" s="6" t="n">
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="n">
+    <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6" t="n">
+      <c r="I29" s="5"/>
+      <c r="J29" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6" t="s">
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="N29" s="10" t="n">
+      <c r="N29" s="9" t="n">
         <v>4650075420980</v>
       </c>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6" t="s">
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R29" s="6" t="s">
+      <c r="R29" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6" t="s">
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6" t="s">
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6" t="s">
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD29" s="6" t="s">
+      <c r="AD29" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE29" s="8" t="n">
+      <c r="AE29" s="7" t="n">
         <v>0.008593</v>
       </c>
-      <c r="AF29" s="6"/>
-      <c r="AG29" s="6"/>
-      <c r="AH29" s="6"/>
-      <c r="AI29" s="6"/>
-      <c r="AJ29" s="6" t="n">
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK29" s="6" t="n">
+      <c r="AK29" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="AL29" s="6"/>
-      <c r="AM29" s="6" t="n">
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="n">
+    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6" t="n">
+      <c r="I30" s="5"/>
+      <c r="J30" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6" t="s">
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="N30" s="14" t="s">
+      <c r="N30" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6" t="s">
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R30" s="6" t="s">
+      <c r="R30" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6" t="s">
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6" t="s">
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6" t="s">
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD30" s="6" t="s">
+      <c r="AD30" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE30" s="8" t="n">
+      <c r="AE30" s="7" t="n">
         <v>0.00761</v>
       </c>
-      <c r="AF30" s="6"/>
-      <c r="AG30" s="6"/>
-      <c r="AH30" s="6"/>
-      <c r="AI30" s="6"/>
-      <c r="AJ30" s="6" t="n">
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK30" s="6" t="n">
+      <c r="AK30" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="AL30" s="6"/>
-      <c r="AM30" s="6" t="n">
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="n">
+    <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6" t="n">
+      <c r="I31" s="5"/>
+      <c r="J31" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6" t="s">
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="N31" s="15" t="s">
+      <c r="N31" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6" t="s">
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R31" s="6" t="s">
+      <c r="R31" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6" t="s">
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6" t="s">
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
-      <c r="AB31" s="6"/>
-      <c r="AC31" s="6" t="s">
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD31" s="6" t="s">
+      <c r="AD31" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE31" s="8" t="n">
+      <c r="AE31" s="7" t="n">
         <v>0.00755</v>
       </c>
-      <c r="AF31" s="6"/>
-      <c r="AG31" s="6"/>
-      <c r="AH31" s="6"/>
-      <c r="AI31" s="6"/>
-      <c r="AJ31" s="6" t="n">
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK31" s="6" t="n">
+      <c r="AK31" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="AL31" s="6"/>
-      <c r="AM31" s="6" t="n">
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="AMJ31" s="0"/>
     </row>
-    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="n">
+    <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="6" t="s">
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
-      <c r="AC32" s="6" t="s">
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD32" s="6" t="s">
+      <c r="AD32" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AE32" s="8" t="n">
+      <c r="AE32" s="7" t="n">
         <v>0.08</v>
       </c>
-      <c r="AF32" s="6"/>
-      <c r="AG32" s="6"/>
-      <c r="AH32" s="6" t="s">
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="AI32" s="6"/>
-      <c r="AJ32" s="6" t="n">
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK32" s="6" t="n">
+      <c r="AK32" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="AL32" s="11" t="s">
+      <c r="AL32" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="AM32" s="6" t="n">
+      <c r="AM32" s="5" t="n">
         <v>311</v>
       </c>
-      <c r="AMJ32" s="0"/>
     </row>
-    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="n">
+    <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6" t="n">
+      <c r="I33" s="5"/>
+      <c r="J33" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6" t="s">
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="N33" s="10" t="s">
+      <c r="N33" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6" t="s">
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6" t="s">
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="6" t="s">
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD33" s="6" t="s">
+      <c r="AD33" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE33" s="8"/>
-      <c r="AF33" s="6"/>
-      <c r="AG33" s="6"/>
-      <c r="AH33" s="6" t="s">
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="AI33" s="6"/>
-      <c r="AJ33" s="6" t="n">
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK33" s="6" t="n">
+      <c r="AK33" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="AL33" s="6"/>
-      <c r="AM33" s="6" t="n">
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="AMJ33" s="0"/>
     </row>
-    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="n">
+    <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6" t="n">
+      <c r="I34" s="5"/>
+      <c r="J34" s="5" t="n">
         <v>0.01</v>
       </c>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6" t="s">
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="N34" s="10" t="s">
+      <c r="N34" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6" t="s">
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6" t="s">
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
-      <c r="AA34" s="6"/>
-      <c r="AB34" s="6"/>
-      <c r="AC34" s="6" t="s">
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD34" s="6" t="s">
+      <c r="AD34" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE34" s="8"/>
-      <c r="AF34" s="6"/>
-      <c r="AG34" s="6"/>
-      <c r="AH34" s="6"/>
-      <c r="AI34" s="6"/>
-      <c r="AJ34" s="6" t="n">
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK34" s="6" t="n">
+      <c r="AK34" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="AL34" s="6"/>
-      <c r="AM34" s="6" t="n">
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="AMJ34" s="0"/>
     </row>
-    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="n">
+    <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6" t="n">
+      <c r="I35" s="5"/>
+      <c r="J35" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6" t="s">
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6" t="s">
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6" t="s">
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="X35" s="6" t="s">
+      <c r="X35" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
-      <c r="AB35" s="6"/>
-      <c r="AC35" s="6" t="s">
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD35" s="6" t="s">
+      <c r="AD35" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE35" s="8" t="n">
+      <c r="AE35" s="7" t="n">
         <v>0.04</v>
       </c>
-      <c r="AF35" s="6"/>
-      <c r="AG35" s="6"/>
-      <c r="AH35" s="6" t="s">
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="AI35" s="6" t="s">
+      <c r="AI35" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="AJ35" s="6" t="n">
+      <c r="AJ35" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK35" s="6" t="n">
+      <c r="AK35" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="AL35" s="6"/>
-      <c r="AM35" s="16" t="n">
+      <c r="AL35" s="5"/>
+      <c r="AM35" s="15" t="n">
         <v>312</v>
       </c>
-      <c r="AMJ35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="n">
+    <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6" t="n">
+      <c r="I36" s="5"/>
+      <c r="J36" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6" t="s">
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="N36" s="10" t="s">
+      <c r="N36" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6" t="s">
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6" t="s">
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="6"/>
-      <c r="AC36" s="6" t="s">
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD36" s="6" t="s">
+      <c r="AD36" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AE36" s="8" t="n">
+      <c r="AE36" s="7" t="n">
         <v>0.04</v>
       </c>
-      <c r="AF36" s="6"/>
-      <c r="AG36" s="6"/>
-      <c r="AH36" s="6" t="s">
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="AI36" s="6" t="s">
+      <c r="AI36" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="AJ36" s="6" t="n">
+      <c r="AJ36" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK36" s="6" t="n">
+      <c r="AK36" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="AL36" s="6"/>
-      <c r="AM36" s="16" t="n">
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="15" t="n">
         <v>312</v>
       </c>
-      <c r="AMJ36" s="0"/>
     </row>
-    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="n">
+    <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="H37" s="18" t="s">
+      <c r="H37" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6" t="n">
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="L37" s="6" t="n">
+      <c r="L37" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="M37" s="6" t="s">
+      <c r="M37" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="N37" s="10" t="s">
+      <c r="N37" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6" t="s">
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6" t="s">
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
-      <c r="AA37" s="6"/>
-      <c r="AB37" s="6"/>
-      <c r="AC37" s="6" t="s">
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD37" s="6" t="s">
+      <c r="AD37" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE37" s="8" t="n">
+      <c r="AE37" s="7" t="n">
         <v>0.04</v>
       </c>
-      <c r="AF37" s="6"/>
-      <c r="AG37" s="6"/>
-      <c r="AH37" s="6" t="s">
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="AI37" s="6" t="s">
+      <c r="AI37" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="AJ37" s="6" t="n">
+      <c r="AJ37" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK37" s="6" t="n">
+      <c r="AK37" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="AL37" s="6"/>
-      <c r="AM37" s="16" t="n">
+      <c r="AL37" s="5"/>
+      <c r="AM37" s="15" t="n">
         <v>312</v>
       </c>
-      <c r="AMJ37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="n">
+    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6" t="n">
+      <c r="I38" s="5"/>
+      <c r="J38" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6" t="s">
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="N38" s="6" t="s">
+      <c r="N38" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="O38" s="6" t="s">
+      <c r="O38" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="P38" s="6" t="s">
+      <c r="P38" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="Q38" s="6" t="s">
+      <c r="Q38" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R38" s="6" t="s">
+      <c r="R38" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6" t="s">
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="X38" s="6" t="s">
+      <c r="X38" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
-      <c r="AA38" s="6"/>
-      <c r="AB38" s="6"/>
-      <c r="AC38" s="6" t="s">
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD38" s="6" t="s">
+      <c r="AD38" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE38" s="8" t="n">
+      <c r="AE38" s="7" t="n">
         <v>0.05</v>
       </c>
-      <c r="AF38" s="6"/>
-      <c r="AG38" s="6"/>
-      <c r="AH38" s="6"/>
-      <c r="AI38" s="6"/>
-      <c r="AJ38" s="6" t="n">
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK38" s="6" t="n">
+      <c r="AK38" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="AL38" s="6"/>
-      <c r="AM38" s="6" t="n">
+      <c r="AL38" s="5"/>
+      <c r="AM38" s="5" t="n">
         <v>400</v>
       </c>
-      <c r="AMJ38" s="0"/>
     </row>
-    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="n">
+    <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6" t="n">
+      <c r="I39" s="5"/>
+      <c r="J39" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6" t="s">
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="N39" s="6" t="s">
+      <c r="N39" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6" t="s">
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R39" s="6" t="s">
+      <c r="R39" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6" t="s">
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="X39" s="6" t="s">
+      <c r="X39" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="Y39" s="6"/>
-      <c r="Z39" s="6"/>
-      <c r="AA39" s="6"/>
-      <c r="AB39" s="6"/>
-      <c r="AC39" s="6" t="s">
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD39" s="6" t="s">
+      <c r="AD39" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE39" s="8" t="n">
+      <c r="AE39" s="7" t="n">
         <v>0.07</v>
       </c>
-      <c r="AF39" s="6"/>
-      <c r="AG39" s="6"/>
-      <c r="AH39" s="6"/>
-      <c r="AI39" s="6"/>
-      <c r="AJ39" s="6" t="n">
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK39" s="6" t="n">
+      <c r="AK39" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="AL39" s="6"/>
-      <c r="AM39" s="6" t="n">
+      <c r="AL39" s="5"/>
+      <c r="AM39" s="5" t="n">
         <v>400</v>
       </c>
-      <c r="AMJ39" s="0"/>
     </row>
-    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="n">
+    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6" t="n">
+      <c r="I40" s="5"/>
+      <c r="J40" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6" t="s">
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6" t="s">
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="X40" s="6" t="s">
+      <c r="X40" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="6"/>
-      <c r="AB40" s="6"/>
-      <c r="AC40" s="6" t="s">
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD40" s="6" t="s">
+      <c r="AD40" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE40" s="8" t="n">
+      <c r="AE40" s="7" t="n">
         <v>0.28</v>
       </c>
-      <c r="AF40" s="6"/>
-      <c r="AG40" s="6"/>
-      <c r="AH40" s="6"/>
-      <c r="AI40" s="6"/>
-      <c r="AJ40" s="6" t="n">
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK40" s="6" t="n">
+      <c r="AK40" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="AL40" s="11" t="s">
+      <c r="AL40" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="AM40" s="6" t="n">
+      <c r="AM40" s="5" t="n">
         <v>400</v>
       </c>
-      <c r="AMJ40" s="0"/>
     </row>
-    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="n">
+    <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6" t="n">
+      <c r="I41" s="5"/>
+      <c r="J41" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="17" t="s">
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="N41" s="18" t="s">
+      <c r="N41" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="O41" s="6" t="s">
+      <c r="O41" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6" t="s">
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R41" s="6" t="s">
+      <c r="R41" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S41" s="17"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6" t="s">
+      <c r="S41" s="16"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="X41" s="6" t="s">
+      <c r="X41" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
-      <c r="AA41" s="6"/>
-      <c r="AB41" s="6"/>
-      <c r="AC41" s="6" t="s">
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD41" s="6" t="s">
+      <c r="AD41" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE41" s="8"/>
-      <c r="AF41" s="6"/>
-      <c r="AG41" s="6"/>
-      <c r="AH41" s="6"/>
-      <c r="AI41" s="6"/>
-      <c r="AJ41" s="6" t="n">
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK41" s="6" t="n">
+      <c r="AK41" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="AL41" s="6"/>
-      <c r="AM41" s="6" t="n">
+      <c r="AL41" s="5"/>
+      <c r="AM41" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="AMJ41" s="0"/>
     </row>
-    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="n">
+    <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H42" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6" t="n">
+      <c r="I42" s="5"/>
+      <c r="J42" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6" t="s">
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="N42" s="18" t="s">
+      <c r="N42" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6" t="s">
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R42" s="6" t="s">
+      <c r="R42" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6" t="s">
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="X42" s="6" t="s">
+      <c r="X42" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-      <c r="AA42" s="6"/>
-      <c r="AB42" s="6"/>
-      <c r="AC42" s="6" t="s">
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD42" s="6" t="s">
+      <c r="AD42" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE42" s="8"/>
-      <c r="AF42" s="6"/>
-      <c r="AG42" s="6"/>
-      <c r="AH42" s="6" t="s">
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="AI42" s="6"/>
-      <c r="AJ42" s="6" t="n">
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK42" s="6" t="n">
+      <c r="AK42" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="AL42" s="6"/>
-      <c r="AM42" s="6" t="n">
+      <c r="AL42" s="5"/>
+      <c r="AM42" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="AMJ42" s="0"/>
     </row>
-    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="n">
+    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G43" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H43" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="I43" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6" t="s">
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
-      <c r="AA43" s="6"/>
-      <c r="AB43" s="6"/>
-      <c r="AC43" s="6"/>
-      <c r="AD43" s="6"/>
-      <c r="AE43" s="8"/>
-      <c r="AF43" s="6"/>
-      <c r="AG43" s="6"/>
-      <c r="AH43" s="6"/>
-      <c r="AI43" s="6"/>
-      <c r="AJ43" s="6"/>
-      <c r="AK43" s="6" t="n">
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="AL43" s="11" t="s">
+      <c r="AL43" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="AM43" s="6"/>
-      <c r="AMJ43" s="0"/>
+      <c r="AM43" s="5"/>
     </row>
-    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="n">
+    <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F44" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H44" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="I44" s="6" t="s">
+      <c r="I44" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="11" t="s">
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6" t="s">
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="6"/>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
-      <c r="AA44" s="6"/>
-      <c r="AB44" s="6"/>
-      <c r="AC44" s="6"/>
-      <c r="AD44" s="6"/>
-      <c r="AE44" s="8"/>
-      <c r="AF44" s="6"/>
-      <c r="AG44" s="6"/>
-      <c r="AH44" s="6"/>
-      <c r="AI44" s="6"/>
-      <c r="AJ44" s="6"/>
-      <c r="AK44" s="6" t="n">
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5"/>
+      <c r="AK44" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="AL44" s="6" t="n">
+      <c r="AL44" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM44" s="5"/>
+    </row>
+    <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="5"/>
+      <c r="AH45" s="5"/>
+      <c r="AI45" s="5"/>
+      <c r="AJ45" s="5"/>
+      <c r="AK45" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="AL45" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="AM45" s="5"/>
+    </row>
+    <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="N46" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="5"/>
+      <c r="AH46" s="5"/>
+      <c r="AI46" s="5"/>
+      <c r="AJ46" s="5"/>
+      <c r="AK46" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL46" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="AM44" s="6"/>
-      <c r="AMJ44" s="0"/>
+      <c r="AM46" s="5"/>
     </row>
-    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="n">
+    <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="N47" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="5"/>
+      <c r="AG47" s="8"/>
+      <c r="AH47" s="5"/>
+      <c r="AI47" s="5"/>
+      <c r="AJ47" s="5"/>
+      <c r="AK47" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="AL47" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM47" s="5"/>
+    </row>
+    <row r="48" s="25" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="20" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D48" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="E45" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6"/>
-      <c r="AB45" s="6"/>
-      <c r="AC45" s="6"/>
-      <c r="AD45" s="6"/>
-      <c r="AE45" s="8"/>
-      <c r="AF45" s="6"/>
-      <c r="AG45" s="6"/>
-      <c r="AH45" s="6"/>
-      <c r="AI45" s="6"/>
-      <c r="AJ45" s="6"/>
-      <c r="AK45" s="6" t="n">
-        <v>39</v>
-      </c>
-      <c r="AL45" s="6" t="n">
-        <v>35</v>
-      </c>
-      <c r="AM45" s="6"/>
-      <c r="AMJ45" s="0"/>
-    </row>
-    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="n">
+      <c r="E48" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="I48" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="24"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="5"/>
+      <c r="AI48" s="5"/>
+      <c r="AJ48" s="5"/>
+      <c r="AK48" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6"/>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
-      <c r="AA46" s="6"/>
-      <c r="AB46" s="6"/>
-      <c r="AC46" s="6"/>
-      <c r="AD46" s="6"/>
-      <c r="AE46" s="8"/>
-      <c r="AF46" s="6"/>
-      <c r="AG46" s="6"/>
-      <c r="AH46" s="6"/>
-      <c r="AI46" s="6"/>
-      <c r="AJ46" s="6"/>
-      <c r="AK46" s="6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL46" s="6" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM46" s="6"/>
-      <c r="AMJ46" s="0"/>
-    </row>
-    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="n">
-        <v>44</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6"/>
-      <c r="Y47" s="6"/>
-      <c r="Z47" s="6"/>
-      <c r="AA47" s="6"/>
-      <c r="AB47" s="6"/>
-      <c r="AC47" s="6"/>
-      <c r="AD47" s="6"/>
-      <c r="AE47" s="8"/>
-      <c r="AF47" s="6"/>
-      <c r="AG47" s="6"/>
-      <c r="AH47" s="6"/>
-      <c r="AI47" s="6"/>
-      <c r="AJ47" s="6"/>
-      <c r="AK47" s="6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL47" s="6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM47" s="6"/>
-      <c r="AMJ47" s="0"/>
-    </row>
-    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="n">
-        <v>45</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6"/>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="6"/>
-      <c r="AA48" s="6"/>
-      <c r="AB48" s="6"/>
-      <c r="AC48" s="6"/>
-      <c r="AD48" s="6"/>
-      <c r="AE48" s="8"/>
-      <c r="AF48" s="6"/>
-      <c r="AG48" s="9"/>
-      <c r="AH48" s="6"/>
-      <c r="AI48" s="6"/>
-      <c r="AJ48" s="6"/>
-      <c r="AK48" s="6" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL48" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AM48" s="6"/>
+      <c r="AL48" s="5"/>
+      <c r="AT48" s="26"/>
       <c r="AMJ48" s="0"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="n">
+    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="n">
         <v>401</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6" t="s">
+      <c r="E49" s="15"/>
+      <c r="F49" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
-      <c r="X49" s="6"/>
-      <c r="Y49" s="6"/>
-      <c r="Z49" s="6"/>
-      <c r="AA49" s="6"/>
-      <c r="AB49" s="6"/>
-      <c r="AC49" s="6"/>
-      <c r="AD49" s="22"/>
-      <c r="AE49" s="6"/>
-      <c r="AF49" s="6"/>
-      <c r="AG49" s="6"/>
-      <c r="AH49" s="6"/>
-      <c r="AI49" s="23"/>
-      <c r="AJ49" s="6"/>
-      <c r="AK49" s="6" t="n">
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="24"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="5"/>
+      <c r="AI49" s="28"/>
+      <c r="AJ49" s="5"/>
+      <c r="AK49" s="5" t="n">
         <v>401</v>
       </c>
-      <c r="AL49" s="6"/>
-      <c r="AM49" s="6"/>
-      <c r="AMJ49" s="0"/>
+      <c r="AL49" s="5"/>
+      <c r="AM49" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM48"/>
+  <autoFilter ref="A1:AM49"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -11,9 +11,11 @@
     <sheet name="QSR" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AM$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AM$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">QSR!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">QSR!$A$1:$AM$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="265">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1036,53 +1038,52 @@
   </sheetPr>
   <dimension ref="A1:AM54"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="O3" activeCellId="0" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="79.8016194331984"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="81.7327935222672"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="83.9797570850202"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="256.765182186235"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.0283400809717"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="37.0647773279352"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="68.2348178137652"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="81.1943319838057"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="83.1255060728745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="32.7570850202429"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.4574898785425"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="69.412955465587"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="3" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="3" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4671,7 +4672,9 @@
       <c r="M46" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="N46" s="8"/>
+      <c r="N46" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="O46" s="8" t="s">
         <v>200</v>
       </c>
@@ -5269,7 +5272,7 @@
       <c r="AM54" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM1"/>
+  <autoFilter ref="A1:AM54"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New folder (243)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB6CEA1-C9F0-43D5-BB87-C89CA07B395C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11025" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="QSR" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="QSR" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AM$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AM$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AM$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">QSR!$A$1:$AM$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">QSR!$A$1:$AM$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">QSR!$A$1:$AM$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">QSR!$A$1:$AM$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">QSR!$A$1:$AM$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">QSR!$A$1:$AM$1</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,136 +34,136 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="265">
   <si>
-    <t xml:space="preserve">Sorting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP PoS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP KPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI name Eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI name Rus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result Format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logical Operator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Form Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locations to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locations to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub locations to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub locations to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shelf_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Converted?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_func</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">depends on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RD38010022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QSR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность</t>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>SAP PoS</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>KPI Type</t>
+  </si>
+  <si>
+    <t>SAP KPI</t>
+  </si>
+  <si>
+    <t>KPI name Eng</t>
+  </si>
+  <si>
+    <t>KPI name Rus</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Result Format</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>target_min</t>
+  </si>
+  <si>
+    <t>target_max</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Product Category</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Logical Operator</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Form Factor</t>
+  </si>
+  <si>
+    <t>Zone to include</t>
+  </si>
+  <si>
+    <t>Locations to exclude</t>
+  </si>
+  <si>
+    <t>Locations to include</t>
+  </si>
+  <si>
+    <t>Scenes to include</t>
+  </si>
+  <si>
+    <t>Scenes to exclude</t>
+  </si>
+  <si>
+    <t>Sub locations to include</t>
+  </si>
+  <si>
+    <t>Sub locations to exclude</t>
+  </si>
+  <si>
+    <t>shelf_number</t>
+  </si>
+  <si>
+    <t>Converted?</t>
+  </si>
+  <si>
+    <t>score_func</t>
+  </si>
+  <si>
+    <t>KPI Weight</t>
+  </si>
+  <si>
+    <t>score_min</t>
+  </si>
+  <si>
+    <t>score_max</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>depends on</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>KPI ID</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>RD38010022</t>
+  </si>
+  <si>
+    <t>QSR</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Представленность</t>
   </si>
   <si>
     <t xml:space="preserve">1
@@ -169,19 +174,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">STANDARD 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weighted Average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
+    <t>STANDARD 1</t>
+  </si>
+  <si>
+    <t>SSD Availability</t>
+  </si>
+  <si>
+    <t>Представленность SSD</t>
+  </si>
+  <si>
+    <t>Weighted Average</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t xml:space="preserve">Weighted Average </t>
@@ -197,174 +202,174 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Coca-Cola - 0.5L/Coca-Cola - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола - 0.5л/Кока-Кола - 0.33л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola - 0.5L, Coca-Cola - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54491472, 50112128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic Photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BINARY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero - 0.5L/Coca-Cola Zero - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро - 0.5л/Кока-Кола Зеро - 0.33л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero - 0.5L, Coca-Cola Zero - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000131836, 90375408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite - 0.5L/Sprite - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спрайт - 0.5л/Спрайт - 0.33л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite - 0.5L, Sprite - 0.25L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54491069, 54490970, 50112135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Orange - 0.5L/Fanta Orange - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Апельсин - 0.5л/Фанта Апельсин - 0.33л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Orange - 0.5L, Fanta Orange - 0.25L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40822938, 40822419, 87126860</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero Cherry - 0.5L/Schweppes Bitter Lemon - 0.25L/Schweppes Tonic - 0.25L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро Чери - 0.5л/Швеппс Тоник - 0.25л/Швеппс Биттер Лемон - 0.25л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero Cherry - 0.5L, Schweppes Bitter Lemon - 0.25L, Schweppes Tonic - 0.25L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000214744, 40822341, 40822549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Vanilla - 0.5L/Coca-Cola Vanila - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Ванила - 0.5л/Кока-Кола Ванила - 0.33л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Vanilla - 0.5L, Coca-Cola Vanila - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42099697, 111111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Pear - 0.5L/Fanta Citrus - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Груша - 0.5л/Фанта Цитрус - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Pear - 0.5L, Fanta Citrus - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000172228, 5449000213631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Воды</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9
+    <t>Coca-Cola - 0.5L/Coca-Cola - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 0.5л/Кока-Кола - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>number of facings</t>
+  </si>
+  <si>
+    <t>Coca-Cola - 0.5L, Coca-Cola - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>54491472, 50112128</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>SKUs</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Panoramic Photo</t>
+  </si>
+  <si>
+    <t>BINARY</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero - 0.5L/Coca-Cola Zero - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро - 0.5л/Кока-Кола Зеро - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero - 0.5L, Coca-Cola Zero - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>5449000131836, 90375408</t>
+  </si>
+  <si>
+    <t>Sprite - 0.5L/Sprite - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>Спрайт - 0.5л/Спрайт - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>Sprite - 0.5L, Sprite - 0.25L Glass</t>
+  </si>
+  <si>
+    <t>54491069, 54490970, 50112135</t>
+  </si>
+  <si>
+    <t>Fanta Orange - 0.5L/Fanta Orange - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>Фанта Апельсин - 0.5л/Фанта Апельсин - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>Fanta Orange - 0.5L, Fanta Orange - 0.25L Glass</t>
+  </si>
+  <si>
+    <t>40822938, 40822419, 87126860</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero Cherry - 0.5L/Schweppes Bitter Lemon - 0.25L/Schweppes Tonic - 0.25L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро Чери - 0.5л/Швеппс Тоник - 0.25л/Швеппс Биттер Лемон - 0.25л</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero Cherry - 0.5L, Schweppes Bitter Lemon - 0.25L, Schweppes Tonic - 0.25L</t>
+  </si>
+  <si>
+    <t>5449000214744, 40822341, 40822549</t>
+  </si>
+  <si>
+    <t>Coca-Cola Vanilla - 0.5L/Coca-Cola Vanila - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>Кока-Кола Ванила - 0.5л/Кока-Кола Ванила - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>Coca-Cola Vanilla - 0.5L, Coca-Cola Vanila - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>42099697, 111111</t>
+  </si>
+  <si>
+    <t>Fanta Pear - 0.5L/Fanta Citrus - 0.5L</t>
+  </si>
+  <si>
+    <t>Фанта Груша - 0.5л/Фанта Цитрус - 0.5л</t>
+  </si>
+  <si>
+    <t>Fanta Pear - 0.5L, Fanta Citrus - 0.5L</t>
+  </si>
+  <si>
+    <t>5449000172228, 5449000213631</t>
+  </si>
+  <si>
+    <t>STANDARD 2</t>
+  </si>
+  <si>
+    <t>Water Availability</t>
+  </si>
+  <si>
+    <t>Представленность Воды</t>
+  </si>
+  <si>
+    <t>9
 10</t>
   </si>
   <si>
-    <t xml:space="preserve">BonAqua Still - 0.5L/BonAqua Still - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Негаз - 0.5л/БонАква Негаз - 0.33л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Still - 0.5L, BonAqua Still - 0.33L Glas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40822426, 90418822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Carb - 0.5L/BonAqua Carb - 0.33L Glass/SmartWater Still - 0.6L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Газ - 0.5л/БонАква Газ - 0.33л стекло/Смарт Вода Негаз - 0.6л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Carb - 0.5L, BonAqua Carb - 0.33L Glass, SmartWater Still - 0.6L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90494406, 90382741, 5449000034335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Энергетиков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12
+    <t>BonAqua Still - 0.5L/BonAqua Still - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>БонАква Негаз - 0.5л/БонАква Негаз - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>BonAqua Still - 0.5L, BonAqua Still - 0.33L Glas</t>
+  </si>
+  <si>
+    <t>40822426, 90418822</t>
+  </si>
+  <si>
+    <t>BonAqua Carb - 0.5L/BonAqua Carb - 0.33L Glass/SmartWater Still - 0.6L</t>
+  </si>
+  <si>
+    <t>БонАква Газ - 0.5л/БонАква Газ - 0.33л стекло/Смарт Вода Негаз - 0.6л</t>
+  </si>
+  <si>
+    <t>BonAqua Carb - 0.5L, BonAqua Carb - 0.33L Glass, SmartWater Still - 0.6L</t>
+  </si>
+  <si>
+    <t>90494406, 90382741, 5449000034335</t>
+  </si>
+  <si>
+    <t>Energy Availability</t>
+  </si>
+  <si>
+    <t>Представленность Энергетиков</t>
+  </si>
+  <si>
+    <t>12
 62</t>
   </si>
   <si>
-    <t xml:space="preserve">Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn Apple Kiwi - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Берн Яблоко-Киви - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5060466510869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tea Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Чая</t>
+    <t>Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t>Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t>Burn Apple Kiwi - 0.5L</t>
+  </si>
+  <si>
+    <t>Берн Яблоко-Киви - 0.5л</t>
+  </si>
+  <si>
+    <t>5060466510869</t>
+  </si>
+  <si>
+    <t>Tea Availability</t>
+  </si>
+  <si>
+    <t>Представленность Чая</t>
   </si>
   <si>
     <t xml:space="preserve">17
@@ -374,43 +379,43 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Berry-Hibiscus - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Лесн.ягоды - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000193124, 5449000259455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Mango-Camomile - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Манго-Ромашка - 0.5л</t>
+    <t>Fuze Berry-Hibiscus - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Лесн.ягоды - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000193124, 5449000259455</t>
+  </si>
+  <si>
+    <t>Fuze Mango-Camomile - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Манго-Ромашка - 0.5л</t>
   </si>
   <si>
     <t xml:space="preserve"> Fuze Mango-Camomile - 0.5L</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Lemon-Lemongrass - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000235947, 5449000189301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Сока</t>
+    <t>Fuze Lemon-Lemongrass - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000235947, 5449000189301</t>
+  </si>
+  <si>
+    <t>Fuze Green Strawberry-Raspberry - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Зеленый Клубника-Малина - 0.5л</t>
+  </si>
+  <si>
+    <t>Juice Availability</t>
+  </si>
+  <si>
+    <t>Представленность Сока</t>
   </si>
   <si>
     <t xml:space="preserve">222
@@ -420,89 +425,89 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Dobriy - Apple - 0.33L/Dobriy Apple - 0.2L/Rich - Apple - 0.3L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Яблоко - 0.33л/0.2л/Рич - Яблоко PET - 0.3л ПЭТ/Рич - Яблоко PET - 0.3л ПЭТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Apple - 0.33L, Dobriy Apple  - 0.2L, Rich - Apple - 0.3L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607174579309, 4607042430619, 4650075421000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Orange - 0.45L/Dobriy - Multifruit - 0.2L/Rich - Apple - 0.2L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Апельсин - 0.45л/Добрый - Мультифрут - 0.2л/Рич - Яблоко - 0.2л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Orange - 0.45L, Dobriy - Multifruit - 0.2L, Rich - Apple - 0.2L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607174577787, 4607042430565, 4650075420386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Orange - 0.3L/Dobriy - Multifruit - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Апельсин PET - 0.3л ПЭТ/Добрый - Мультифрут - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Orange - 0.3L, Dobriy - Multifruit - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4650075421024, 4607174579286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Mango Pineapple - 0.45L/Rich - Peach - 0.2L Glass/Rich - Orange - 0.2L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Манго Ананас - 0.45л/Рич - Апельсин - 0.2л стекло/Рич - Персик - 0.2л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Mango Pineapple - 0.45L, Rich - Peach - 0.2L Glass, Rich - Orange - 0.2L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4650075420980, 4650075420362, 4650075420423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311
+    <t>Dobriy - Apple - 0.33L/Dobriy Apple - 0.2L/Rich - Apple - 0.3L</t>
+  </si>
+  <si>
+    <t>Добрый - Яблоко - 0.33л/0.2л/Рич - Яблоко PET - 0.3л ПЭТ/Рич - Яблоко PET - 0.3л ПЭТ</t>
+  </si>
+  <si>
+    <t>Dobriy - Apple - 0.33L, Dobriy Apple  - 0.2L, Rich - Apple - 0.3L</t>
+  </si>
+  <si>
+    <t>4607174579309, 4607042430619, 4650075421000</t>
+  </si>
+  <si>
+    <t>Pulpy - Orange - 0.45L/Dobriy - Multifruit - 0.2L/Rich - Apple - 0.2L Glass</t>
+  </si>
+  <si>
+    <t>Палпи - Апельсин - 0.45л/Добрый - Мультифрут - 0.2л/Рич - Яблоко - 0.2л стекло</t>
+  </si>
+  <si>
+    <t>Pulpy - Orange - 0.45L, Dobriy - Multifruit - 0.2L, Rich - Apple - 0.2L Glass</t>
+  </si>
+  <si>
+    <t>4607174577787, 4607042430565, 4650075420386</t>
+  </si>
+  <si>
+    <t>Rich - Orange - 0.3L/Dobriy - Multifruit - 0.33L</t>
+  </si>
+  <si>
+    <t>Рич - Апельсин PET - 0.3л ПЭТ/Добрый - Мультифрут - 0.33л</t>
+  </si>
+  <si>
+    <t>Rich - Orange - 0.3L, Dobriy - Multifruit - 0.33L</t>
+  </si>
+  <si>
+    <t>4650075421024, 4607174579286</t>
+  </si>
+  <si>
+    <t>Pulpy - Mango Pineapple - 0.45L/Rich - Peach - 0.2L Glass/Rich - Orange - 0.2L Glass</t>
+  </si>
+  <si>
+    <t>Палпи - Манго Ананас - 0.45л/Рич - Апельсин - 0.2л стекло/Рич - Персик - 0.2л стекло</t>
+  </si>
+  <si>
+    <t>Pulpy - Mango Pineapple - 0.45L, Rich - Peach - 0.2L Glass, Rich - Orange - 0.2L Glass</t>
+  </si>
+  <si>
+    <t>4650075420980, 4650075420362, 4650075420423</t>
+  </si>
+  <si>
+    <t>Coolers</t>
+  </si>
+  <si>
+    <t>Холодильники</t>
+  </si>
+  <si>
+    <t>311
 312</t>
   </si>
   <si>
-    <t xml:space="preserve">Coolers: Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильник: Двери</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum of atomic KPI result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROPORTIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store Master Data attr15</t>
+    <t>Coolers: Doors</t>
+  </si>
+  <si>
+    <t>Холодильник: Двери</t>
+  </si>
+  <si>
+    <t>STANDARD 22</t>
+  </si>
+  <si>
+    <t>Cooler: Doors</t>
+  </si>
+  <si>
+    <t>Холодильники: Количество Дверей</t>
+  </si>
+  <si>
+    <t>sum of atomic KPI result</t>
+  </si>
+  <si>
+    <t>Plus</t>
+  </si>
+  <si>
+    <t>PROPORTIONAL</t>
+  </si>
+  <si>
+    <t>Store Master Data attr15</t>
   </si>
   <si>
     <t xml:space="preserve">27
@@ -510,46 +515,46 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: CCH Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Компании</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of doors of filled Coolers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer: TCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS with empty more than 80%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Customer Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Клиента</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facings TCCC/40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Coolers, Cold Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers: Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильник: Качество</t>
+    <t>Cooler: CCH Cooler Doors</t>
+  </si>
+  <si>
+    <t>Холодильники: Количество Дверей Холодильников Компании</t>
+  </si>
+  <si>
+    <t>number of doors of filled Coolers</t>
+  </si>
+  <si>
+    <t>Manufacturer: TCCC</t>
+  </si>
+  <si>
+    <t>TCCC</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>Cooler</t>
+  </si>
+  <si>
+    <t>SOS with empty more than 80%</t>
+  </si>
+  <si>
+    <t>Cooler: Customer Cooler Doors</t>
+  </si>
+  <si>
+    <t>Холодильники: Количество Дверей Холодильников Клиента</t>
+  </si>
+  <si>
+    <t>facings TCCC/40</t>
+  </si>
+  <si>
+    <t>Other Coolers, Cold Shelf</t>
+  </si>
+  <si>
+    <t>Coolers: Quality</t>
+  </si>
+  <si>
+    <t>Холодильник: Качество</t>
   </si>
   <si>
     <t xml:space="preserve">28
@@ -559,222 +564,218 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Prime Position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Лучшее место</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes with no tagging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic photo of Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUM_SCENES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate if at least one door was passed KPI "Cooler: CCH Cooler Doors"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: w/o other products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Без чужой продукции</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of CCH doors which have 98% TCCC facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Max 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of SKU per Door RANGE TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33
-34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impulse Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активация Импульсной зоны</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCCASIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Комбо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of atomic KPI Passed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu Board, Cash Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35
+    <t>-</t>
+  </si>
+  <si>
+    <t>Cooler: Prime Position</t>
+  </si>
+  <si>
+    <t>Холодильники: Лучшее место</t>
+  </si>
+  <si>
+    <t>Scenes with no tagging</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler</t>
+  </si>
+  <si>
+    <t>NUM_SCENES</t>
+  </si>
+  <si>
+    <t>Calculate if at least one door was passed KPI "Cooler: CCH Cooler Doors"</t>
+  </si>
+  <si>
+    <t>Cooler: w/o other products</t>
+  </si>
+  <si>
+    <t>Холодильники: Без чужой продукции</t>
+  </si>
+  <si>
+    <t>Share of CCH doors which have 98% TCCC facings</t>
+  </si>
+  <si>
+    <t>Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
+  </si>
+  <si>
+    <t>Cooler: Max 15</t>
+  </si>
+  <si>
+    <t>Холодильники: Максимум 15 СКЮ на дверь</t>
+  </si>
+  <si>
+    <t>number of SKU per Door RANGE TOTAL</t>
+  </si>
+  <si>
+    <t>Activations</t>
+  </si>
+  <si>
+    <t>Активации</t>
+  </si>
+  <si>
+    <t>STANDARD 17</t>
+  </si>
+  <si>
+    <t>Impulse Activation</t>
+  </si>
+  <si>
+    <t>Активация Импульсной зоны</t>
+  </si>
+  <si>
+    <t>Activation</t>
+  </si>
+  <si>
+    <t>Cash Zone</t>
+  </si>
+  <si>
+    <t>OCCASIONS</t>
+  </si>
+  <si>
+    <t>Combo</t>
+  </si>
+  <si>
+    <t>Комбо</t>
+  </si>
+  <si>
+    <t>number of atomic KPI Passed</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>Menu Board, Cash Zone</t>
+  </si>
+  <si>
+    <t>35
 36</t>
   </si>
   <si>
-    <t xml:space="preserve">Combo: Coca-Cola</t>
+    <t>Combo: Coca-Cola</t>
   </si>
   <si>
     <t xml:space="preserve">Комбо : Кока-Кола </t>
   </si>
   <si>
-    <t xml:space="preserve">Coca Cola Zero Bottle Nrgb, Coca Cola Zero Bottle, Coca Cola Zero Logo, Coca Cola Zero Can</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50111111, 50111112, 50111113, 50111114, 5000101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combo: Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Комбо : Еда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of facings near food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5000034, A5B10138, A5B10137, A5B10136, A5B10135, A5B10125, A5B10124, A5B10123, A5B10123, A5B10122, A5B10121, A5B10120, A5B10119, A5B10118, A5B10117, A5B10116, A5B10091, A5B10090, A5B10089, A5B10088, A5B10087, A5B10086, A5B10085, A5B10057, 5000044, 5000042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food should be near Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDART 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combo other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Другие Комбо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72
+    <t>Coca Cola Zero Bottle Nrgb, Coca Cola Zero Bottle, Coca Cola Zero Logo, Coca Cola Zero Can</t>
+  </si>
+  <si>
+    <t>50111111, 50111112, 50111113, 50111114, 5000101</t>
+  </si>
+  <si>
+    <t>IC Activation</t>
+  </si>
+  <si>
+    <t>Combo: Food</t>
+  </si>
+  <si>
+    <t>Комбо : Еда</t>
+  </si>
+  <si>
+    <t>number of facings near food</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>5000034, A5B10138, A5B10137, A5B10136, A5B10135, A5B10125, A5B10124, A5B10123, A5B10123, A5B10122, A5B10121, A5B10120, A5B10119, A5B10118, A5B10117, A5B10116, A5B10091, A5B10090, A5B10089, A5B10088, A5B10087, A5B10086, A5B10085, A5B10057, 5000044, 5000042</t>
+  </si>
+  <si>
+    <t>Food should be near Image</t>
+  </si>
+  <si>
+    <t>STANDART 17</t>
+  </si>
+  <si>
+    <t>Combo other</t>
+  </si>
+  <si>
+    <t>Другие Комбо</t>
+  </si>
+  <si>
+    <t>72
 769</t>
   </si>
   <si>
-    <t xml:space="preserve">Start the day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Взбодриться кофе</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of sub atomic KPI Passed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73
+    <t>Start the day</t>
+  </si>
+  <si>
+    <t>Взбодриться кофе</t>
+  </si>
+  <si>
+    <t>number of sub atomic KPI Passed</t>
+  </si>
+  <si>
+    <t>73
 74</t>
   </si>
   <si>
-    <t xml:space="preserve">Start the day: Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Взбодриться кофе: Имидж</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonaqua, SmartWater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRAND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start the day: Coffee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Взбодриться кофе: Кофе</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coffee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A5B10102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice and meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок и еда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">770
+    <t>Start the day: Image</t>
+  </si>
+  <si>
+    <t>Взбодриться кофе: Имидж</t>
+  </si>
+  <si>
+    <t>Bonaqua, SmartWater</t>
+  </si>
+  <si>
+    <t>BRAND</t>
+  </si>
+  <si>
+    <t>Start the day: Coffee</t>
+  </si>
+  <si>
+    <t>Взбодриться кофе: Кофе</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>A5B10102</t>
+  </si>
+  <si>
+    <t>Juice and meal</t>
+  </si>
+  <si>
+    <t>Сок и еда</t>
+  </si>
+  <si>
+    <t>770
 771</t>
   </si>
   <si>
-    <t xml:space="preserve">Coke and meal: Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок и еда: Имидж</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich, Dobriy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coke and meal: Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок и еда: Еда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COOLER_QUALITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCH coolers quality (Prime Pos- Max15- Merch STD- Occupancy- Lights&amp;clean)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum of atomic scores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decimal.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SESSION LEVEL</t>
+    <t>Coke and meal: Image</t>
+  </si>
+  <si>
+    <t>Сок и еда: Имидж</t>
+  </si>
+  <si>
+    <t>Rich, Dobriy</t>
+  </si>
+  <si>
+    <t>Coke and meal: Food</t>
+  </si>
+  <si>
+    <t>Сок и еда: Еда</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>STANDARD 18</t>
+  </si>
+  <si>
+    <t>COOLER_QUALITY</t>
+  </si>
+  <si>
+    <t>CCH coolers quality (Prime Pos- Max15- Merch STD- Occupancy- Lights&amp;clean)</t>
+  </si>
+  <si>
+    <t>sum of atomic scores</t>
+  </si>
+  <si>
+    <t>Decimal.2</t>
+  </si>
+  <si>
+    <t>SESSION LEVEL</t>
   </si>
   <si>
     <t xml:space="preserve">29
@@ -783,59 +784,59 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">STANDARD 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCH_PROD_MENU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCH products present in Customer's menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passed or Failed Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MenuC1
+    <t>STANDARD 16</t>
+  </si>
+  <si>
+    <t>CCH_PROD_MENU</t>
+  </si>
+  <si>
+    <t>CCH products present in Customer's menu</t>
+  </si>
+  <si>
+    <t>Passed or Failed Value</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>MenuC1
 No_MenuC1</t>
   </si>
   <si>
-    <t xml:space="preserve">ACTIVATION_SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of CCH activation points in SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPU
+    <t>ACTIVATION_SSD</t>
+  </si>
+  <si>
+    <t>Number of CCH activation points in SSD</t>
+  </si>
+  <si>
+    <t>IMPU
 No_IMPU</t>
   </si>
   <si>
-    <t xml:space="preserve">Local 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANY OTHER ACTIVATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEND VALUE if one KPI from lis is Passed , other No_O_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTMove
+    <t>Local 21</t>
+  </si>
+  <si>
+    <t>ANY OTHER ACTIVATION</t>
+  </si>
+  <si>
+    <t>SEND VALUE if one KPI from lis is Passed , other No_O_A</t>
+  </si>
+  <si>
+    <t>OTMove
 No_O_A</t>
   </si>
   <si>
-    <t xml:space="preserve">PRIORITY_OCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Priority Occasions activated in the outlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EO
+    <t>PRIORITY_OCC</t>
+  </si>
+  <si>
+    <t>Number of Priority Occasions activated in the outlet</t>
+  </si>
+  <si>
+    <t>EO
 No_O_A</t>
   </si>
   <si>
-    <t xml:space="preserve">29
+    <t>29
 30
 31
 32
@@ -843,43 +844,47 @@
 34</t>
   </si>
   <si>
-    <t xml:space="preserve">Scene Sub Type 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COOLER_DOORS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">template.additional_attribute_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCENE LEVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer</t>
+    <t>Scene Sub Type 2</t>
+  </si>
+  <si>
+    <t>COOLER_DOORS</t>
+  </si>
+  <si>
+    <t>Number of Cooler Doors</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>template.additional_attribute_1</t>
+  </si>
+  <si>
+    <t>SCENE LEVEL</t>
+  </si>
+  <si>
+    <t>PLAN</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>33
+34
+680</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* \-??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -888,206 +893,471 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="dashed"/>
-      <right style="dashed"/>
-      <top style="dashed"/>
-      <bottom style="dashed"/>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AM54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK54"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="O3" activeCellId="0" sqref="O3"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="AH46" sqref="AH46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="81.1943319838057"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="83.1255060728745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.2753036437247"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="32.7570850202429"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.4574898785425"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="69.412955465587"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="3" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.10526315789474"/>
+    <col min="1" max="1" width="16.42578125" style="1"/>
+    <col min="2" max="2" width="19" style="1"/>
+    <col min="3" max="3" width="18.140625" style="1"/>
+    <col min="4" max="4" width="18.7109375" style="1"/>
+    <col min="5" max="5" width="18.140625" style="1"/>
+    <col min="6" max="6" width="81.140625" style="1"/>
+    <col min="7" max="7" width="83.140625" style="1"/>
+    <col min="8" max="8" width="46.28515625" style="1"/>
+    <col min="9" max="9" width="24.85546875" style="1"/>
+    <col min="10" max="10" width="16" style="1"/>
+    <col min="11" max="11" width="21" style="1"/>
+    <col min="12" max="12" width="21.7109375" style="1"/>
+    <col min="13" max="14" width="32.7109375" style="1"/>
+    <col min="15" max="15" width="29.42578125" style="1"/>
+    <col min="16" max="16" width="21" style="1"/>
+    <col min="17" max="17" width="28.42578125" style="1"/>
+    <col min="18" max="18" width="14.7109375" style="1"/>
+    <col min="19" max="19" width="13.42578125" style="1"/>
+    <col min="20" max="20" width="22.5703125" style="1"/>
+    <col min="21" max="21" width="27.140625" style="1"/>
+    <col min="22" max="22" width="33.5703125" style="1"/>
+    <col min="23" max="23" width="32.85546875" style="1"/>
+    <col min="24" max="24" width="30.140625" style="1"/>
+    <col min="25" max="25" width="30.85546875" style="1"/>
+    <col min="26" max="26" width="37.5703125" style="1"/>
+    <col min="27" max="27" width="38" style="1"/>
+    <col min="28" max="28" width="24.7109375" style="1"/>
+    <col min="29" max="29" width="22.42578125" style="1"/>
+    <col min="30" max="30" width="22.28515625" style="1"/>
+    <col min="31" max="31" width="21.140625" style="2"/>
+    <col min="32" max="32" width="20.42578125" style="1"/>
+    <col min="33" max="33" width="21.140625" style="1"/>
+    <col min="34" max="34" width="69.42578125" style="1"/>
+    <col min="35" max="35" width="24.5703125" style="1"/>
+    <col min="36" max="36" width="13.5703125" style="1"/>
+    <col min="37" max="37" width="15.42578125" style="1"/>
+    <col min="38" max="38" width="22.85546875" style="3"/>
+    <col min="39" max="39" width="16.28515625" style="1"/>
+    <col min="40" max="1025" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:39" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1206,8 +1476,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+    <row r="2" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1256,10 +1526,10 @@
       <c r="AG2" s="8"/>
       <c r="AH2" s="8"/>
       <c r="AI2" s="8"/>
-      <c r="AJ2" s="8" t="n">
+      <c r="AJ2" s="8">
         <v>1</v>
       </c>
-      <c r="AK2" s="8" t="n">
+      <c r="AK2" s="8">
         <v>300</v>
       </c>
       <c r="AL2" s="10" t="s">
@@ -1267,8 +1537,8 @@
       </c>
       <c r="AM2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+    <row r="3" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1323,21 +1593,21 @@
       <c r="AG3" s="8"/>
       <c r="AH3" s="8"/>
       <c r="AI3" s="8"/>
-      <c r="AJ3" s="8" t="n">
+      <c r="AJ3" s="8">
         <v>2</v>
       </c>
-      <c r="AK3" s="8" t="n">
+      <c r="AK3" s="8">
         <v>1</v>
       </c>
       <c r="AL3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AM3" s="8" t="n">
+      <c r="AM3" s="8">
         <v>300</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+    <row r="4" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1362,7 +1632,7 @@
         <v>54</v>
       </c>
       <c r="I4" s="8"/>
-      <c r="J4" s="8" t="n">
+      <c r="J4" s="8">
         <v>1</v>
       </c>
       <c r="K4" s="8"/>
@@ -1401,26 +1671,26 @@
       <c r="AD4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE4" s="9" t="n">
-        <v>0.04198</v>
+      <c r="AE4" s="9">
+        <v>4.1980000000000003E-2</v>
       </c>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
-      <c r="AJ4" s="8" t="n">
+      <c r="AJ4" s="8">
         <v>3</v>
       </c>
-      <c r="AK4" s="8" t="n">
+      <c r="AK4" s="8">
         <v>2</v>
       </c>
       <c r="AL4" s="11"/>
-      <c r="AM4" s="8" t="n">
+      <c r="AM4" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+    <row r="5" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1445,7 +1715,7 @@
         <v>54</v>
       </c>
       <c r="I5" s="8"/>
-      <c r="J5" s="8" t="n">
+      <c r="J5" s="8">
         <v>1</v>
       </c>
       <c r="K5" s="8"/>
@@ -1484,26 +1754,26 @@
       <c r="AD5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE5" s="9" t="n">
-        <v>0.04198</v>
+      <c r="AE5" s="9">
+        <v>4.1980000000000003E-2</v>
       </c>
       <c r="AF5" s="8"/>
       <c r="AG5" s="8"/>
       <c r="AH5" s="8"/>
       <c r="AI5" s="8"/>
-      <c r="AJ5" s="8" t="n">
+      <c r="AJ5" s="8">
         <v>3</v>
       </c>
-      <c r="AK5" s="8" t="n">
+      <c r="AK5" s="8">
         <v>3</v>
       </c>
       <c r="AL5" s="11"/>
-      <c r="AM5" s="8" t="n">
+      <c r="AM5" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+    <row r="6" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1528,7 +1798,7 @@
         <v>54</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="8" t="n">
+      <c r="J6" s="8">
         <v>1</v>
       </c>
       <c r="K6" s="8"/>
@@ -1567,26 +1837,26 @@
       <c r="AD6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE6" s="9" t="n">
-        <v>0.04198</v>
+      <c r="AE6" s="9">
+        <v>4.1980000000000003E-2</v>
       </c>
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="8"/>
-      <c r="AJ6" s="8" t="n">
+      <c r="AJ6" s="8">
         <v>3</v>
       </c>
-      <c r="AK6" s="8" t="n">
+      <c r="AK6" s="8">
         <v>4</v>
       </c>
       <c r="AL6" s="11"/>
-      <c r="AM6" s="8" t="n">
+      <c r="AM6" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+    <row r="7" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1611,7 +1881,7 @@
         <v>54</v>
       </c>
       <c r="I7" s="8"/>
-      <c r="J7" s="8" t="n">
+      <c r="J7" s="8">
         <v>1</v>
       </c>
       <c r="K7" s="8"/>
@@ -1650,26 +1920,26 @@
       <c r="AD7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE7" s="9" t="n">
-        <v>0.04198</v>
+      <c r="AE7" s="9">
+        <v>4.1980000000000003E-2</v>
       </c>
       <c r="AF7" s="8"/>
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
       <c r="AI7" s="8"/>
-      <c r="AJ7" s="8" t="n">
+      <c r="AJ7" s="8">
         <v>3</v>
       </c>
-      <c r="AK7" s="8" t="n">
+      <c r="AK7" s="8">
         <v>5</v>
       </c>
       <c r="AL7" s="11"/>
-      <c r="AM7" s="8" t="n">
+      <c r="AM7" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+    <row r="8" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1694,7 +1964,7 @@
         <v>54</v>
       </c>
       <c r="I8" s="8"/>
-      <c r="J8" s="8" t="n">
+      <c r="J8" s="8">
         <v>1</v>
       </c>
       <c r="K8" s="8"/>
@@ -1733,26 +2003,26 @@
       <c r="AD8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE8" s="9" t="n">
-        <v>0.0217</v>
+      <c r="AE8" s="9">
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
       <c r="AH8" s="8"/>
       <c r="AI8" s="8"/>
-      <c r="AJ8" s="8" t="n">
+      <c r="AJ8" s="8">
         <v>3</v>
       </c>
-      <c r="AK8" s="8" t="n">
+      <c r="AK8" s="8">
         <v>606</v>
       </c>
       <c r="AL8" s="11"/>
-      <c r="AM8" s="8" t="n">
+      <c r="AM8" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+    <row r="9" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1777,7 +2047,7 @@
         <v>54</v>
       </c>
       <c r="I9" s="8"/>
-      <c r="J9" s="8" t="n">
+      <c r="J9" s="8">
         <v>1</v>
       </c>
       <c r="K9" s="8"/>
@@ -1814,26 +2084,26 @@
       <c r="AD9" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE9" s="9" t="n">
-        <v>0.0217</v>
+      <c r="AE9" s="9">
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
       <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
-      <c r="AJ9" s="8" t="n">
+      <c r="AJ9" s="8">
         <v>3</v>
       </c>
-      <c r="AK9" s="8" t="n">
+      <c r="AK9" s="8">
         <v>603</v>
       </c>
       <c r="AL9" s="11"/>
-      <c r="AM9" s="8" t="n">
+      <c r="AM9" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+    <row r="10" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1858,7 +2128,7 @@
         <v>54</v>
       </c>
       <c r="I10" s="8"/>
-      <c r="J10" s="8" t="n">
+      <c r="J10" s="8">
         <v>1</v>
       </c>
       <c r="K10" s="8"/>
@@ -1897,26 +2167,26 @@
       <c r="AD10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE10" s="9" t="n">
-        <v>0.0217</v>
+      <c r="AE10" s="9">
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
       <c r="AH10" s="8"/>
       <c r="AI10" s="8"/>
-      <c r="AJ10" s="8" t="n">
+      <c r="AJ10" s="8">
         <v>3</v>
       </c>
-      <c r="AK10" s="8" t="n">
+      <c r="AK10" s="8">
         <v>607</v>
       </c>
       <c r="AL10" s="11"/>
-      <c r="AM10" s="8" t="n">
+      <c r="AM10" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+    <row r="11" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>12</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1971,21 +2241,21 @@
       <c r="AG11" s="8"/>
       <c r="AH11" s="8"/>
       <c r="AI11" s="8"/>
-      <c r="AJ11" s="8" t="n">
+      <c r="AJ11" s="8">
         <v>2</v>
       </c>
-      <c r="AK11" s="8" t="n">
+      <c r="AK11" s="8">
         <v>8</v>
       </c>
       <c r="AL11" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="AM11" s="8" t="n">
+      <c r="AM11" s="8">
         <v>300</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+    <row r="12" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>13</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -2010,7 +2280,7 @@
         <v>54</v>
       </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="8" t="n">
+      <c r="J12" s="8">
         <v>1</v>
       </c>
       <c r="K12" s="8"/>
@@ -2049,26 +2319,26 @@
       <c r="AD12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE12" s="9" t="n">
-        <v>0.0225</v>
+      <c r="AE12" s="9">
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="AF12" s="8"/>
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
       <c r="AI12" s="8"/>
-      <c r="AJ12" s="8" t="n">
+      <c r="AJ12" s="8">
         <v>3</v>
       </c>
-      <c r="AK12" s="8" t="n">
+      <c r="AK12" s="8">
         <v>9</v>
       </c>
       <c r="AL12" s="11"/>
-      <c r="AM12" s="8" t="n">
+      <c r="AM12" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+    <row r="13" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>14</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -2093,7 +2363,7 @@
         <v>54</v>
       </c>
       <c r="I13" s="8"/>
-      <c r="J13" s="8" t="n">
+      <c r="J13" s="8">
         <v>1</v>
       </c>
       <c r="K13" s="8"/>
@@ -2132,26 +2402,26 @@
       <c r="AD13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE13" s="9" t="n">
-        <v>0.012696</v>
+      <c r="AE13" s="9">
+        <v>1.2696000000000001E-2</v>
       </c>
       <c r="AF13" s="8"/>
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
       <c r="AI13" s="8"/>
-      <c r="AJ13" s="8" t="n">
+      <c r="AJ13" s="8">
         <v>3</v>
       </c>
-      <c r="AK13" s="8" t="n">
+      <c r="AK13" s="8">
         <v>10</v>
       </c>
       <c r="AL13" s="11"/>
-      <c r="AM13" s="8" t="n">
+      <c r="AM13" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
+    <row r="14" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>15</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -2206,21 +2476,21 @@
       <c r="AG14" s="8"/>
       <c r="AH14" s="8"/>
       <c r="AI14" s="8"/>
-      <c r="AJ14" s="8" t="n">
+      <c r="AJ14" s="8">
         <v>2</v>
       </c>
-      <c r="AK14" s="8" t="n">
+      <c r="AK14" s="8">
         <v>11</v>
       </c>
       <c r="AL14" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AM14" s="8" t="n">
+      <c r="AM14" s="8">
         <v>300</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
+    <row r="15" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>16</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -2245,7 +2515,7 @@
         <v>54</v>
       </c>
       <c r="I15" s="8"/>
-      <c r="J15" s="8" t="n">
+      <c r="J15" s="8">
         <v>1</v>
       </c>
       <c r="K15" s="8"/>
@@ -2253,7 +2523,7 @@
       <c r="M15" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="N15" s="8" t="n">
+      <c r="N15" s="8">
         <v>5449000131768</v>
       </c>
       <c r="O15" s="8"/>
@@ -2284,26 +2554,26 @@
       <c r="AD15" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE15" s="9" t="n">
-        <v>0.012696</v>
+      <c r="AE15" s="9">
+        <v>1.2696000000000001E-2</v>
       </c>
       <c r="AF15" s="8"/>
       <c r="AG15" s="8"/>
       <c r="AH15" s="8"/>
       <c r="AI15" s="8"/>
-      <c r="AJ15" s="8" t="n">
+      <c r="AJ15" s="8">
         <v>3</v>
       </c>
-      <c r="AK15" s="8" t="n">
+      <c r="AK15" s="8">
         <v>12</v>
       </c>
       <c r="AL15" s="11"/>
-      <c r="AM15" s="8" t="n">
+      <c r="AM15" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
+    <row r="16" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>17</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -2328,7 +2598,7 @@
         <v>54</v>
       </c>
       <c r="I16" s="8"/>
-      <c r="J16" s="8" t="n">
+      <c r="J16" s="8">
         <v>1</v>
       </c>
       <c r="K16" s="8"/>
@@ -2365,26 +2635,26 @@
       <c r="AD16" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE16" s="9" t="n">
-        <v>0.009</v>
+      <c r="AE16" s="9">
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
       <c r="AI16" s="8"/>
-      <c r="AJ16" s="8" t="n">
+      <c r="AJ16" s="8">
         <v>3</v>
       </c>
-      <c r="AK16" s="8" t="n">
+      <c r="AK16" s="8">
         <v>62</v>
       </c>
       <c r="AL16" s="11"/>
-      <c r="AM16" s="8" t="n">
+      <c r="AM16" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
+    <row r="17" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>19</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -2439,21 +2709,21 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
       <c r="AI17" s="8"/>
-      <c r="AJ17" s="8" t="n">
+      <c r="AJ17" s="8">
         <v>2</v>
       </c>
-      <c r="AK17" s="8" t="n">
+      <c r="AK17" s="8">
         <v>14</v>
       </c>
       <c r="AL17" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="AM17" s="8" t="n">
+      <c r="AM17" s="8">
         <v>300</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="n">
+    <row r="18" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>20</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -2478,7 +2748,7 @@
         <v>54</v>
       </c>
       <c r="I18" s="8"/>
-      <c r="J18" s="8" t="n">
+      <c r="J18" s="8">
         <v>1</v>
       </c>
       <c r="K18" s="8"/>
@@ -2517,26 +2787,26 @@
       <c r="AD18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE18" s="9" t="n">
-        <v>0.0225</v>
+      <c r="AE18" s="9">
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
       <c r="AH18" s="8"/>
       <c r="AI18" s="8"/>
-      <c r="AJ18" s="8" t="n">
+      <c r="AJ18" s="8">
         <v>3</v>
       </c>
-      <c r="AK18" s="8" t="n">
+      <c r="AK18" s="8">
         <v>17</v>
       </c>
       <c r="AL18" s="11"/>
-      <c r="AM18" s="8" t="n">
+      <c r="AM18" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
+    <row r="19" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>21</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -2561,7 +2831,7 @@
         <v>54</v>
       </c>
       <c r="I19" s="8"/>
-      <c r="J19" s="8" t="n">
+      <c r="J19" s="8">
         <v>1</v>
       </c>
       <c r="K19" s="8"/>
@@ -2569,7 +2839,7 @@
       <c r="M19" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="N19" s="8" t="n">
+      <c r="N19" s="8">
         <v>4607042430879</v>
       </c>
       <c r="O19" s="8"/>
@@ -2600,26 +2870,26 @@
       <c r="AD19" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE19" s="9" t="n">
-        <v>0.012696</v>
+      <c r="AE19" s="9">
+        <v>1.2696000000000001E-2</v>
       </c>
       <c r="AF19" s="8"/>
       <c r="AG19" s="8"/>
       <c r="AH19" s="8"/>
       <c r="AI19" s="8"/>
-      <c r="AJ19" s="8" t="n">
+      <c r="AJ19" s="8">
         <v>3</v>
       </c>
-      <c r="AK19" s="8" t="n">
+      <c r="AK19" s="8">
         <v>215</v>
       </c>
       <c r="AL19" s="11"/>
-      <c r="AM19" s="8" t="n">
+      <c r="AM19" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="n">
+    <row r="20" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>22</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -2644,7 +2914,7 @@
         <v>54</v>
       </c>
       <c r="I20" s="8"/>
-      <c r="J20" s="8" t="n">
+      <c r="J20" s="8">
         <v>1</v>
       </c>
       <c r="K20" s="8"/>
@@ -2683,26 +2953,26 @@
       <c r="AD20" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE20" s="9" t="n">
-        <v>0.012696</v>
+      <c r="AE20" s="9">
+        <v>1.2696000000000001E-2</v>
       </c>
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
       <c r="AH20" s="8"/>
       <c r="AI20" s="8"/>
-      <c r="AJ20" s="8" t="n">
+      <c r="AJ20" s="8">
         <v>3</v>
       </c>
-      <c r="AK20" s="8" t="n">
+      <c r="AK20" s="8">
         <v>216</v>
       </c>
       <c r="AL20" s="11"/>
-      <c r="AM20" s="8" t="n">
+      <c r="AM20" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="n">
+    <row r="21" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
         <v>23</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -2727,7 +2997,7 @@
         <v>54</v>
       </c>
       <c r="I21" s="8"/>
-      <c r="J21" s="8" t="n">
+      <c r="J21" s="8">
         <v>1</v>
       </c>
       <c r="K21" s="8"/>
@@ -2735,7 +3005,7 @@
       <c r="M21" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="N21" s="8" t="n">
+      <c r="N21" s="8">
         <v>5449000233615</v>
       </c>
       <c r="O21" s="8"/>
@@ -2766,26 +3036,26 @@
       <c r="AD21" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE21" s="9" t="n">
-        <v>0.009</v>
+      <c r="AE21" s="9">
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
       <c r="AH21" s="8"/>
       <c r="AI21" s="8"/>
-      <c r="AJ21" s="8" t="n">
+      <c r="AJ21" s="8">
         <v>3</v>
       </c>
-      <c r="AK21" s="8" t="n">
+      <c r="AK21" s="8">
         <v>18</v>
       </c>
       <c r="AL21" s="11"/>
-      <c r="AM21" s="8" t="n">
+      <c r="AM21" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="n">
+    <row r="22" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>27</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -2840,21 +3110,21 @@
       <c r="AG22" s="8"/>
       <c r="AH22" s="8"/>
       <c r="AI22" s="8"/>
-      <c r="AJ22" s="8" t="n">
+      <c r="AJ22" s="8">
         <v>2</v>
       </c>
-      <c r="AK22" s="8" t="n">
+      <c r="AK22" s="8">
         <v>20</v>
       </c>
       <c r="AL22" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="AM22" s="8" t="n">
+      <c r="AM22" s="8">
         <v>300</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="n">
+    <row r="23" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
         <v>28</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -2879,7 +3149,7 @@
         <v>54</v>
       </c>
       <c r="I23" s="8"/>
-      <c r="J23" s="8" t="n">
+      <c r="J23" s="8">
         <v>1</v>
       </c>
       <c r="K23" s="8"/>
@@ -2918,26 +3188,26 @@
       <c r="AD23" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE23" s="9" t="n">
-        <v>0.0225</v>
+      <c r="AE23" s="9">
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="AF23" s="8"/>
       <c r="AG23" s="8"/>
       <c r="AH23" s="8"/>
       <c r="AI23" s="8"/>
-      <c r="AJ23" s="8" t="n">
+      <c r="AJ23" s="8">
         <v>3</v>
       </c>
-      <c r="AK23" s="8" t="n">
+      <c r="AK23" s="8">
         <v>222</v>
       </c>
       <c r="AL23" s="11"/>
-      <c r="AM23" s="8" t="n">
+      <c r="AM23" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="n">
+    <row r="24" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
         <v>29</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -2962,7 +3232,7 @@
         <v>54</v>
       </c>
       <c r="I24" s="8"/>
-      <c r="J24" s="8" t="n">
+      <c r="J24" s="8">
         <v>1</v>
       </c>
       <c r="K24" s="8"/>
@@ -3001,26 +3271,26 @@
       <c r="AD24" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE24" s="9" t="n">
-        <v>0.012696</v>
+      <c r="AE24" s="9">
+        <v>1.2696000000000001E-2</v>
       </c>
       <c r="AF24" s="8"/>
       <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
       <c r="AI24" s="8"/>
-      <c r="AJ24" s="8" t="n">
+      <c r="AJ24" s="8">
         <v>3</v>
       </c>
-      <c r="AK24" s="8" t="n">
+      <c r="AK24" s="8">
         <v>221</v>
       </c>
       <c r="AL24" s="11"/>
-      <c r="AM24" s="8" t="n">
+      <c r="AM24" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="n">
+    <row r="25" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
         <v>30</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -3045,7 +3315,7 @@
         <v>54</v>
       </c>
       <c r="I25" s="8"/>
-      <c r="J25" s="8" t="n">
+      <c r="J25" s="8">
         <v>1</v>
       </c>
       <c r="K25" s="8"/>
@@ -3082,26 +3352,26 @@
       <c r="AD25" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE25" s="9" t="n">
-        <v>0.009</v>
+      <c r="AE25" s="9">
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
       <c r="AI25" s="8"/>
-      <c r="AJ25" s="8" t="n">
+      <c r="AJ25" s="8">
         <v>3</v>
       </c>
-      <c r="AK25" s="8" t="n">
+      <c r="AK25" s="8">
         <v>168</v>
       </c>
       <c r="AL25" s="11"/>
-      <c r="AM25" s="8" t="n">
+      <c r="AM25" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="n">
+    <row r="26" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <v>31</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -3126,7 +3396,7 @@
         <v>54</v>
       </c>
       <c r="I26" s="8"/>
-      <c r="J26" s="8" t="n">
+      <c r="J26" s="8">
         <v>1</v>
       </c>
       <c r="K26" s="8"/>
@@ -3165,26 +3435,26 @@
       <c r="AD26" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE26" s="9" t="n">
-        <v>0.009</v>
+      <c r="AE26" s="9">
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AF26" s="8"/>
       <c r="AG26" s="8"/>
       <c r="AH26" s="8"/>
       <c r="AI26" s="8"/>
-      <c r="AJ26" s="8" t="n">
+      <c r="AJ26" s="8">
         <v>3</v>
       </c>
-      <c r="AK26" s="8" t="n">
+      <c r="AK26" s="8">
         <v>223</v>
       </c>
       <c r="AL26" s="11"/>
-      <c r="AM26" s="8" t="n">
+      <c r="AM26" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="n">
+    <row r="27" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
         <v>37</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -3233,10 +3503,10 @@
       <c r="AG27" s="8"/>
       <c r="AH27" s="8"/>
       <c r="AI27" s="8"/>
-      <c r="AJ27" s="8" t="n">
+      <c r="AJ27" s="8">
         <v>1</v>
       </c>
-      <c r="AK27" s="8" t="n">
+      <c r="AK27" s="8">
         <v>310</v>
       </c>
       <c r="AL27" s="10" t="s">
@@ -3244,8 +3514,8 @@
       </c>
       <c r="AM27" s="8"/>
     </row>
-    <row r="28" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="n">
+    <row r="28" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
         <v>38</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -3294,21 +3564,21 @@
       <c r="AG28" s="8"/>
       <c r="AH28" s="8"/>
       <c r="AI28" s="8"/>
-      <c r="AJ28" s="8" t="n">
+      <c r="AJ28" s="8">
         <v>1</v>
       </c>
-      <c r="AK28" s="8" t="n">
+      <c r="AK28" s="8">
         <v>311</v>
       </c>
-      <c r="AL28" s="11" t="n">
+      <c r="AL28" s="11">
         <v>26</v>
       </c>
-      <c r="AM28" s="8" t="n">
+      <c r="AM28" s="8">
         <v>310</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="n">
+    <row r="29" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
         <v>39</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -3360,7 +3630,7 @@
       <c r="AD29" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="AE29" s="9" t="n">
+      <c r="AE29" s="9">
         <v>0.08</v>
       </c>
       <c r="AF29" s="8"/>
@@ -3369,21 +3639,21 @@
         <v>150</v>
       </c>
       <c r="AI29" s="8"/>
-      <c r="AJ29" s="8" t="n">
+      <c r="AJ29" s="8">
         <v>2</v>
       </c>
-      <c r="AK29" s="8" t="n">
+      <c r="AK29" s="8">
         <v>26</v>
       </c>
       <c r="AL29" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="AM29" s="8" t="n">
+      <c r="AM29" s="8">
         <v>311</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="n">
+    <row r="30" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
         <v>40</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -3408,7 +3678,7 @@
         <v>154</v>
       </c>
       <c r="I30" s="8"/>
-      <c r="J30" s="8" t="n">
+      <c r="J30" s="8">
         <v>1</v>
       </c>
       <c r="K30" s="8"/>
@@ -3450,19 +3720,19 @@
         <v>159</v>
       </c>
       <c r="AI30" s="8"/>
-      <c r="AJ30" s="8" t="n">
+      <c r="AJ30" s="8">
         <v>3</v>
       </c>
-      <c r="AK30" s="8" t="n">
+      <c r="AK30" s="8">
         <v>27</v>
       </c>
       <c r="AL30" s="11"/>
-      <c r="AM30" s="8" t="n">
+      <c r="AM30" s="8">
         <v>26</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="n">
+    <row r="31" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
         <v>41</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -3487,7 +3757,7 @@
         <v>162</v>
       </c>
       <c r="I31" s="8"/>
-      <c r="J31" s="8" t="n">
+      <c r="J31" s="8">
         <v>0.01</v>
       </c>
       <c r="K31" s="8"/>
@@ -3527,19 +3797,19 @@
       <c r="AG31" s="8"/>
       <c r="AH31" s="8"/>
       <c r="AI31" s="8"/>
-      <c r="AJ31" s="8" t="n">
+      <c r="AJ31" s="8">
         <v>3</v>
       </c>
-      <c r="AK31" s="8" t="n">
+      <c r="AK31" s="8">
         <v>28</v>
       </c>
       <c r="AL31" s="11"/>
-      <c r="AM31" s="8" t="n">
+      <c r="AM31" s="8">
         <v>26</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="n">
+    <row r="32" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
         <v>42</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -3588,21 +3858,21 @@
       <c r="AG32" s="8"/>
       <c r="AH32" s="8"/>
       <c r="AI32" s="8"/>
-      <c r="AJ32" s="8" t="n">
+      <c r="AJ32" s="8">
         <v>1</v>
       </c>
-      <c r="AK32" s="8" t="n">
+      <c r="AK32" s="8">
         <v>312</v>
       </c>
       <c r="AL32" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="AM32" s="8" t="n">
+      <c r="AM32" s="8">
         <v>310</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="n">
+    <row r="33" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
         <v>43</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -3627,7 +3897,7 @@
         <v>170</v>
       </c>
       <c r="I33" s="8"/>
-      <c r="J33" s="8" t="n">
+      <c r="J33" s="8">
         <v>1</v>
       </c>
       <c r="K33" s="8"/>
@@ -3662,7 +3932,7 @@
       <c r="AD33" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE33" s="9" t="n">
+      <c r="AE33" s="9">
         <v>0.04</v>
       </c>
       <c r="AF33" s="8"/>
@@ -3673,19 +3943,19 @@
       <c r="AI33" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="AJ33" s="8" t="n">
+      <c r="AJ33" s="8">
         <v>2</v>
       </c>
-      <c r="AK33" s="8" t="n">
+      <c r="AK33" s="8">
         <v>29</v>
       </c>
       <c r="AL33" s="11"/>
-      <c r="AM33" s="8" t="n">
+      <c r="AM33" s="8">
         <v>312</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="n">
+    <row r="34" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
         <v>44</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -3710,7 +3980,7 @@
         <v>176</v>
       </c>
       <c r="I34" s="8"/>
-      <c r="J34" s="8" t="n">
+      <c r="J34" s="8">
         <v>1</v>
       </c>
       <c r="K34" s="8"/>
@@ -3745,7 +4015,7 @@
       <c r="AD34" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="AE34" s="9" t="n">
+      <c r="AE34" s="9">
         <v>0.04</v>
       </c>
       <c r="AF34" s="8"/>
@@ -3756,19 +4026,19 @@
       <c r="AI34" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="AJ34" s="8" t="n">
+      <c r="AJ34" s="8">
         <v>2</v>
       </c>
-      <c r="AK34" s="8" t="n">
+      <c r="AK34" s="8">
         <v>30</v>
       </c>
       <c r="AL34" s="11"/>
-      <c r="AM34" s="8" t="n">
+      <c r="AM34" s="8">
         <v>312</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="n">
+    <row r="35" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
         <v>45</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -3794,10 +4064,10 @@
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="8" t="n">
+      <c r="K35" s="8">
         <v>1</v>
       </c>
-      <c r="L35" s="8" t="n">
+      <c r="L35" s="8">
         <v>15</v>
       </c>
       <c r="M35" s="8" t="s">
@@ -3830,7 +4100,7 @@
       <c r="AD35" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE35" s="9" t="n">
+      <c r="AE35" s="9">
         <v>0.04</v>
       </c>
       <c r="AF35" s="8"/>
@@ -3841,19 +4111,19 @@
       <c r="AI35" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="AJ35" s="8" t="n">
+      <c r="AJ35" s="8">
         <v>2</v>
       </c>
-      <c r="AK35" s="8" t="n">
+      <c r="AK35" s="8">
         <v>31</v>
       </c>
       <c r="AL35" s="11"/>
-      <c r="AM35" s="8" t="n">
+      <c r="AM35" s="8">
         <v>312</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="n">
+    <row r="36" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
         <v>46</v>
       </c>
       <c r="B36" s="8" t="s">
@@ -3902,19 +4172,19 @@
       <c r="AG36" s="8"/>
       <c r="AH36" s="8"/>
       <c r="AI36" s="8"/>
-      <c r="AJ36" s="8" t="n">
+      <c r="AJ36" s="8">
         <v>1</v>
       </c>
-      <c r="AK36" s="8" t="n">
+      <c r="AK36" s="8">
         <v>400</v>
       </c>
-      <c r="AL36" s="10" t="s">
-        <v>183</v>
+      <c r="AL36" s="13" t="s">
+        <v>264</v>
       </c>
       <c r="AM36" s="8"/>
     </row>
-    <row r="37" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="n">
+    <row r="37" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
         <v>48</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -3927,19 +4197,19 @@
         <v>41</v>
       </c>
       <c r="E37" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="G37" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>186</v>
       </c>
       <c r="H37" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I37" s="8"/>
-      <c r="J37" s="8" t="n">
+      <c r="J37" s="8">
         <v>4</v>
       </c>
       <c r="K37" s="8"/>
@@ -3963,10 +4233,10 @@
       <c r="U37" s="8"/>
       <c r="V37" s="8"/>
       <c r="W37" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="X37" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="X37" s="8" t="s">
-        <v>188</v>
       </c>
       <c r="Y37" s="8"/>
       <c r="Z37" s="8"/>
@@ -3978,26 +4248,26 @@
       <c r="AD37" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE37" s="9" t="n">
+      <c r="AE37" s="9">
         <v>0.05</v>
       </c>
       <c r="AF37" s="8"/>
       <c r="AG37" s="8"/>
       <c r="AH37" s="8"/>
       <c r="AI37" s="8"/>
-      <c r="AJ37" s="8" t="n">
+      <c r="AJ37" s="8">
         <v>2</v>
       </c>
-      <c r="AK37" s="8" t="n">
+      <c r="AK37" s="8">
         <v>33</v>
       </c>
       <c r="AL37" s="11"/>
-      <c r="AM37" s="8" t="n">
+      <c r="AM37" s="8">
         <v>400</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="n">
+    <row r="38" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
         <v>49</v>
       </c>
       <c r="B38" s="8" t="s">
@@ -4010,19 +4280,19 @@
         <v>41</v>
       </c>
       <c r="E38" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="G38" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="H38" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="H38" s="8" t="s">
-        <v>192</v>
-      </c>
       <c r="I38" s="8"/>
-      <c r="J38" s="8" t="n">
+      <c r="J38" s="8">
         <v>2</v>
       </c>
       <c r="K38" s="8"/>
@@ -4032,7 +4302,7 @@
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
@@ -4040,10 +4310,10 @@
       <c r="U38" s="8"/>
       <c r="V38" s="8"/>
       <c r="W38" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X38" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y38" s="8"/>
       <c r="Z38" s="8"/>
@@ -4055,28 +4325,28 @@
       <c r="AD38" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE38" s="9" t="n">
-        <v>0.28</v>
+      <c r="AE38" s="9">
+        <v>0.28000000000000003</v>
       </c>
       <c r="AF38" s="8"/>
       <c r="AG38" s="8"/>
       <c r="AH38" s="8"/>
       <c r="AI38" s="8"/>
-      <c r="AJ38" s="8" t="n">
+      <c r="AJ38" s="8">
         <v>2</v>
       </c>
-      <c r="AK38" s="8" t="n">
+      <c r="AK38" s="8">
         <v>34</v>
       </c>
       <c r="AL38" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="AM38" s="8" t="n">
+        <v>194</v>
+      </c>
+      <c r="AM38" s="8">
         <v>400</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="n">
+    <row r="39" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
         <v>50</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -4089,31 +4359,31 @@
         <v>41</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F39" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>197</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I39" s="8"/>
-      <c r="J39" s="8" t="n">
+      <c r="J39" s="8">
         <v>1</v>
       </c>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="N39" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="N39" s="8" t="s">
+      <c r="O39" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>200</v>
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="8" t="s">
@@ -4127,10 +4397,10 @@
       <c r="U39" s="8"/>
       <c r="V39" s="8"/>
       <c r="W39" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X39" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y39" s="8"/>
       <c r="Z39" s="8"/>
@@ -4147,19 +4417,19 @@
       <c r="AG39" s="8"/>
       <c r="AH39" s="8"/>
       <c r="AI39" s="8"/>
-      <c r="AJ39" s="8" t="n">
+      <c r="AJ39" s="8">
         <v>3</v>
       </c>
-      <c r="AK39" s="8" t="n">
+      <c r="AK39" s="8">
         <v>35</v>
       </c>
       <c r="AL39" s="11"/>
-      <c r="AM39" s="8" t="n">
+      <c r="AM39" s="8">
         <v>34</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="n">
+    <row r="40" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
         <v>51</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -4172,28 +4442,28 @@
         <v>41</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F40" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="H40" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="H40" s="8" t="s">
-        <v>203</v>
-      </c>
       <c r="I40" s="8"/>
-      <c r="J40" s="8" t="n">
+      <c r="J40" s="8">
         <v>1</v>
       </c>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="N40" s="8" t="s">
         <v>204</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
@@ -4208,10 +4478,10 @@
       <c r="U40" s="8"/>
       <c r="V40" s="8"/>
       <c r="W40" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X40" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
@@ -4227,22 +4497,22 @@
       <c r="AF40" s="8"/>
       <c r="AG40" s="8"/>
       <c r="AH40" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AI40" s="8"/>
-      <c r="AJ40" s="8" t="n">
+      <c r="AJ40" s="8">
         <v>3</v>
       </c>
-      <c r="AK40" s="8" t="n">
+      <c r="AK40" s="8">
         <v>36</v>
       </c>
       <c r="AL40" s="11"/>
-      <c r="AM40" s="8" t="n">
+      <c r="AM40" s="8">
         <v>34</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="n">
+    <row r="41" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
         <v>52</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -4255,19 +4525,19 @@
         <v>41</v>
       </c>
       <c r="E41" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="G41" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="G41" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="H41" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I41" s="8"/>
-      <c r="J41" s="8" t="n">
+      <c r="J41" s="8">
         <v>1</v>
       </c>
       <c r="K41" s="8"/>
@@ -4277,7 +4547,7 @@
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
       <c r="Q41" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R41" s="8"/>
       <c r="S41" s="8"/>
@@ -4285,10 +4555,10 @@
       <c r="U41" s="8"/>
       <c r="V41" s="8"/>
       <c r="W41" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X41" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y41" s="8"/>
       <c r="Z41" s="8"/>
@@ -4298,28 +4568,28 @@
       <c r="AD41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE41" s="9" t="n">
-        <v>0.07</v>
+      <c r="AE41" s="9">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AF41" s="8"/>
       <c r="AG41" s="8"/>
       <c r="AH41" s="8"/>
       <c r="AI41" s="8"/>
-      <c r="AJ41" s="8" t="n">
+      <c r="AJ41" s="8">
         <v>2</v>
       </c>
-      <c r="AK41" s="8" t="n">
+      <c r="AK41" s="8">
         <v>680</v>
       </c>
       <c r="AL41" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="AM41" s="8" t="n">
+        <v>209</v>
+      </c>
+      <c r="AM41" s="8">
         <v>400</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="n">
+    <row r="42" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
         <v>53</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -4332,19 +4602,19 @@
         <v>41</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F42" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G42" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="H42" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="H42" s="8" t="s">
-        <v>213</v>
-      </c>
       <c r="I42" s="8"/>
-      <c r="J42" s="8" t="n">
+      <c r="J42" s="8">
         <v>2</v>
       </c>
       <c r="K42" s="8"/>
@@ -4354,7 +4624,7 @@
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
       <c r="Q42" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
@@ -4362,10 +4632,10 @@
       <c r="U42" s="8"/>
       <c r="V42" s="8"/>
       <c r="W42" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X42" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y42" s="8"/>
       <c r="Z42" s="8"/>
@@ -4382,21 +4652,21 @@
       <c r="AG42" s="8"/>
       <c r="AH42" s="8"/>
       <c r="AI42" s="8"/>
-      <c r="AJ42" s="8" t="n">
+      <c r="AJ42" s="8">
         <v>3</v>
       </c>
-      <c r="AK42" s="8" t="n">
+      <c r="AK42" s="8">
         <v>72</v>
       </c>
       <c r="AL42" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="AM42" s="8" t="n">
+        <v>213</v>
+      </c>
+      <c r="AM42" s="8">
         <v>680</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="n">
+    <row r="43" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
         <v>54</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -4409,50 +4679,50 @@
         <v>41</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F43" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G43" s="8" t="s">
         <v>215</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>216</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I43" s="8"/>
-      <c r="J43" s="8" t="n">
+      <c r="J43" s="8">
         <v>1</v>
       </c>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q43" s="8" t="s">
         <v>57</v>
       </c>
       <c r="R43" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
       <c r="U43" s="8"/>
       <c r="V43" s="8"/>
       <c r="W43" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X43" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y43" s="8"/>
       <c r="Z43" s="8"/>
@@ -4469,19 +4739,19 @@
       <c r="AG43" s="8"/>
       <c r="AH43" s="8"/>
       <c r="AI43" s="8"/>
-      <c r="AJ43" s="8" t="n">
+      <c r="AJ43" s="8">
         <v>4</v>
       </c>
-      <c r="AK43" s="8" t="n">
+      <c r="AK43" s="8">
         <v>73</v>
       </c>
       <c r="AL43" s="11"/>
-      <c r="AM43" s="8" t="n">
+      <c r="AM43" s="8">
         <v>72</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="n">
+    <row r="44" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
         <v>55</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -4494,28 +4764,28 @@
         <v>41</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F44" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G44" s="8" t="s">
         <v>219</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>220</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I44" s="8"/>
-      <c r="J44" s="8" t="n">
+      <c r="J44" s="8">
         <v>1</v>
       </c>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="N44" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="N44" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
@@ -4530,10 +4800,10 @@
       <c r="U44" s="8"/>
       <c r="V44" s="8"/>
       <c r="W44" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X44" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y44" s="8"/>
       <c r="Z44" s="8"/>
@@ -4550,19 +4820,19 @@
       <c r="AG44" s="8"/>
       <c r="AH44" s="8"/>
       <c r="AI44" s="8"/>
-      <c r="AJ44" s="8" t="n">
+      <c r="AJ44" s="8">
         <v>4</v>
       </c>
-      <c r="AK44" s="8" t="n">
+      <c r="AK44" s="8">
         <v>74</v>
       </c>
       <c r="AL44" s="11"/>
-      <c r="AM44" s="8" t="n">
+      <c r="AM44" s="8">
         <v>72</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8" t="n">
+    <row r="45" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
         <v>56</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -4575,19 +4845,19 @@
         <v>41</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F45" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="G45" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="G45" s="8" t="s">
-        <v>224</v>
-      </c>
       <c r="H45" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I45" s="8"/>
-      <c r="J45" s="8" t="n">
+      <c r="J45" s="8">
         <v>2</v>
       </c>
       <c r="K45" s="8"/>
@@ -4597,7 +4867,7 @@
       <c r="O45" s="8"/>
       <c r="P45" s="8"/>
       <c r="Q45" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
@@ -4605,10 +4875,10 @@
       <c r="U45" s="8"/>
       <c r="V45" s="8"/>
       <c r="W45" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X45" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y45" s="8"/>
       <c r="Z45" s="8"/>
@@ -4625,21 +4895,21 @@
       <c r="AG45" s="8"/>
       <c r="AH45" s="8"/>
       <c r="AI45" s="8"/>
-      <c r="AJ45" s="8" t="n">
+      <c r="AJ45" s="8">
         <v>3</v>
       </c>
-      <c r="AK45" s="8" t="n">
+      <c r="AK45" s="8">
         <v>769</v>
       </c>
       <c r="AL45" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="AM45" s="8" t="n">
+        <v>224</v>
+      </c>
+      <c r="AM45" s="8">
         <v>680</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8" t="n">
+    <row r="46" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
         <v>57</v>
       </c>
       <c r="B46" s="8" t="s">
@@ -4652,50 +4922,50 @@
         <v>41</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F46" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G46" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>227</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I46" s="8"/>
-      <c r="J46" s="8" t="n">
+      <c r="J46" s="8">
         <v>1</v>
       </c>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P46" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q46" s="8" t="s">
         <v>57</v>
       </c>
       <c r="R46" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S46" s="8"/>
       <c r="T46" s="8"/>
       <c r="U46" s="8"/>
       <c r="V46" s="8"/>
       <c r="W46" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X46" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y46" s="8"/>
       <c r="Z46" s="8"/>
@@ -4712,19 +4982,19 @@
       <c r="AG46" s="8"/>
       <c r="AH46" s="8"/>
       <c r="AI46" s="8"/>
-      <c r="AJ46" s="8" t="n">
+      <c r="AJ46" s="8">
         <v>4</v>
       </c>
-      <c r="AK46" s="8" t="n">
+      <c r="AK46" s="8">
         <v>770</v>
       </c>
       <c r="AL46" s="11"/>
-      <c r="AM46" s="8" t="n">
+      <c r="AM46" s="8">
         <v>769</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="n">
+    <row r="47" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
         <v>58</v>
       </c>
       <c r="B47" s="8" t="s">
@@ -4737,28 +5007,28 @@
         <v>41</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F47" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G47" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="G47" s="8" t="s">
-        <v>230</v>
-      </c>
       <c r="H47" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I47" s="8"/>
-      <c r="J47" s="8" t="n">
+      <c r="J47" s="8">
         <v>1</v>
       </c>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="N47" s="8" t="s">
         <v>204</v>
-      </c>
-      <c r="N47" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="O47" s="8"/>
       <c r="P47" s="8"/>
@@ -4773,10 +5043,10 @@
       <c r="U47" s="8"/>
       <c r="V47" s="8"/>
       <c r="W47" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X47" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y47" s="8"/>
       <c r="Z47" s="8"/>
@@ -4792,22 +5062,22 @@
       <c r="AF47" s="8"/>
       <c r="AG47" s="8"/>
       <c r="AH47" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AI47" s="8"/>
-      <c r="AJ47" s="8" t="n">
+      <c r="AJ47" s="8">
         <v>4</v>
       </c>
-      <c r="AK47" s="8" t="n">
+      <c r="AK47" s="8">
         <v>771</v>
       </c>
       <c r="AL47" s="11"/>
-      <c r="AM47" s="8" t="n">
+      <c r="AM47" s="8">
         <v>769</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8" t="n">
+    <row r="48" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
         <v>59</v>
       </c>
       <c r="B48" s="8" t="s">
@@ -4817,22 +5087,22 @@
         <v>40</v>
       </c>
       <c r="D48" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E48" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="F48" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="G48" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="H48" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="I48" s="8" t="s">
         <v>235</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>236</v>
       </c>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
@@ -4843,7 +5113,7 @@
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
@@ -4863,16 +5133,16 @@
       <c r="AH48" s="8"/>
       <c r="AI48" s="8"/>
       <c r="AJ48" s="8"/>
-      <c r="AK48" s="8" t="n">
+      <c r="AK48" s="8">
         <v>37</v>
       </c>
       <c r="AL48" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM48" s="8"/>
     </row>
-    <row r="49" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8" t="n">
+    <row r="49" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
         <v>60</v>
       </c>
       <c r="B49" s="8" t="s">
@@ -4882,35 +5152,35 @@
         <v>40</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E49" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F49" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="G49" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="H49" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="I49" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>243</v>
       </c>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
       <c r="N49" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O49" s="8"/>
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S49" s="8"/>
       <c r="T49" s="8"/>
@@ -4930,16 +5200,16 @@
       <c r="AH49" s="8"/>
       <c r="AI49" s="8"/>
       <c r="AJ49" s="8"/>
-      <c r="AK49" s="8" t="n">
+      <c r="AK49" s="8">
         <v>38</v>
       </c>
-      <c r="AL49" s="11" t="n">
+      <c r="AL49" s="11">
         <v>32</v>
       </c>
       <c r="AM49" s="8"/>
     </row>
-    <row r="50" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="8" t="n">
+    <row r="50" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
         <v>61</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -4949,35 +5219,35 @@
         <v>40</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F50" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="G50" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="G50" s="8" t="s">
-        <v>246</v>
-      </c>
       <c r="H50" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="I50" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>243</v>
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O50" s="8"/>
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S50" s="8"/>
       <c r="T50" s="8"/>
@@ -4997,16 +5267,16 @@
       <c r="AH50" s="8"/>
       <c r="AI50" s="8"/>
       <c r="AJ50" s="8"/>
-      <c r="AK50" s="8" t="n">
+      <c r="AK50" s="8">
         <v>39</v>
       </c>
-      <c r="AL50" s="11" t="n">
+      <c r="AL50" s="11">
         <v>33</v>
       </c>
       <c r="AM50" s="8"/>
     </row>
-    <row r="51" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8" t="n">
+    <row r="51" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
         <v>62</v>
       </c>
       <c r="B51" s="8" t="s">
@@ -5016,37 +5286,37 @@
         <v>40</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E51" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F51" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="F51" s="8" t="s">
-        <v>249</v>
-      </c>
       <c r="G51" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H51" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="I51" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>243</v>
       </c>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
       <c r="M51" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="N51" s="12" t="s">
         <v>250</v>
-      </c>
-      <c r="N51" s="12" t="s">
-        <v>251</v>
       </c>
       <c r="O51" s="8"/>
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S51" s="8"/>
       <c r="T51" s="8"/>
@@ -5066,16 +5336,16 @@
       <c r="AH51" s="8"/>
       <c r="AI51" s="8"/>
       <c r="AJ51" s="8"/>
-      <c r="AK51" s="8" t="n">
+      <c r="AK51" s="8">
         <v>40</v>
       </c>
-      <c r="AL51" s="11" t="n">
+      <c r="AL51" s="11">
         <v>34</v>
       </c>
       <c r="AM51" s="8"/>
     </row>
-    <row r="52" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8" t="n">
+    <row r="52" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
         <v>63</v>
       </c>
       <c r="B52" s="8" t="s">
@@ -5085,37 +5355,37 @@
         <v>40</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F52" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G52" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="G52" s="8" t="s">
-        <v>253</v>
-      </c>
       <c r="H52" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="I52" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>243</v>
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
       <c r="M52" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N52" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O52" s="8"/>
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
       <c r="R52" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S52" s="8"/>
       <c r="T52" s="8"/>
@@ -5135,16 +5405,16 @@
       <c r="AH52" s="8"/>
       <c r="AI52" s="8"/>
       <c r="AJ52" s="8"/>
-      <c r="AK52" s="8" t="n">
+      <c r="AK52" s="8">
         <v>42</v>
       </c>
       <c r="AL52" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AM52" s="8"/>
     </row>
-    <row r="53" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8" t="n">
+    <row r="53" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
         <v>64</v>
       </c>
       <c r="B53" s="8" t="s">
@@ -5154,35 +5424,35 @@
         <v>40</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E53" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F53" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="G53" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="H53" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="H53" s="8" t="s">
-        <v>259</v>
-      </c>
       <c r="I53" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
       <c r="N53" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O53" s="8"/>
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S53" s="8"/>
       <c r="T53" s="8"/>
@@ -5204,14 +5474,14 @@
       <c r="AH53" s="8"/>
       <c r="AI53" s="8"/>
       <c r="AJ53" s="8"/>
-      <c r="AK53" s="8" t="n">
+      <c r="AK53" s="8">
         <v>43</v>
       </c>
       <c r="AL53" s="11"/>
       <c r="AM53" s="8"/>
     </row>
-    <row r="54" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8" t="n">
+    <row r="54" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
         <v>65</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -5221,20 +5491,20 @@
         <v>40</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="G54" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="G54" s="8" t="s">
+      <c r="H54" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="I54" s="8" t="s">
         <v>263</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>264</v>
       </c>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
@@ -5245,7 +5515,7 @@
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S54" s="8"/>
       <c r="T54" s="8"/>
@@ -5265,21 +5535,15 @@
       <c r="AH54" s="8"/>
       <c r="AI54" s="8"/>
       <c r="AJ54" s="8"/>
-      <c r="AK54" s="8" t="n">
+      <c r="AK54" s="8">
         <v>401</v>
       </c>
       <c r="AL54" s="11"/>
       <c r="AM54" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM54"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:AM54" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New folder (243)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS_20190710_0912\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB6CEA1-C9F0-43D5-BB87-C89CA07B395C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B967AC-12E0-4496-8A4C-20B37C0AD4A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11025" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11030" tabRatio="744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QSR" sheetId="1" r:id="rId1"/>
@@ -655,12 +655,6 @@
     <t xml:space="preserve">Комбо : Кока-Кола </t>
   </si>
   <si>
-    <t>Coca Cola Zero Bottle Nrgb, Coca Cola Zero Bottle, Coca Cola Zero Logo, Coca Cola Zero Can</t>
-  </si>
-  <si>
-    <t>50111111, 50111112, 50111113, 50111114, 5000101</t>
-  </si>
-  <si>
     <t>IC Activation</t>
   </si>
   <si>
@@ -874,6 +868,12 @@
     <t>33
 34
 680</t>
+  </si>
+  <si>
+    <t>Coke+Coca Cola Zero Bottle Nrgb, Coca Cola Zero Bottle, Coca Cola Zero Logo, Coca Cola Zero Can</t>
+  </si>
+  <si>
+    <t>50111111, 50111112, 50111113, 50111114, 5000006, 5000004, 5000005, 5000006, 5050570, 5000101</t>
   </si>
 </sst>
 </file>
@@ -908,7 +908,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -918,6 +918,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,7 +956,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -990,6 +996,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1308,56 +1317,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK54"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="AH46" sqref="AH46"/>
+      <selection pane="bottomLeft" activeCell="M39" sqref="M39:N39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="1"/>
+    <col min="1" max="1" width="16.453125" style="1"/>
     <col min="2" max="2" width="19" style="1"/>
-    <col min="3" max="3" width="18.140625" style="1"/>
-    <col min="4" max="4" width="18.7109375" style="1"/>
-    <col min="5" max="5" width="18.140625" style="1"/>
-    <col min="6" max="6" width="81.140625" style="1"/>
-    <col min="7" max="7" width="83.140625" style="1"/>
-    <col min="8" max="8" width="46.28515625" style="1"/>
-    <col min="9" max="9" width="24.85546875" style="1"/>
+    <col min="3" max="3" width="18.1796875" style="1"/>
+    <col min="4" max="4" width="18.7265625" style="1"/>
+    <col min="5" max="5" width="18.1796875" style="1"/>
+    <col min="6" max="6" width="81.1796875" style="1"/>
+    <col min="7" max="7" width="83.1796875" style="1"/>
+    <col min="8" max="8" width="46.26953125" style="1"/>
+    <col min="9" max="9" width="24.81640625" style="1"/>
     <col min="10" max="10" width="16" style="1"/>
     <col min="11" max="11" width="21" style="1"/>
-    <col min="12" max="12" width="21.7109375" style="1"/>
-    <col min="13" max="14" width="32.7109375" style="1"/>
-    <col min="15" max="15" width="29.42578125" style="1"/>
+    <col min="12" max="12" width="21.7265625" style="1"/>
+    <col min="13" max="14" width="32.7265625" style="1"/>
+    <col min="15" max="15" width="29.453125" style="1"/>
     <col min="16" max="16" width="21" style="1"/>
-    <col min="17" max="17" width="28.42578125" style="1"/>
-    <col min="18" max="18" width="14.7109375" style="1"/>
-    <col min="19" max="19" width="13.42578125" style="1"/>
-    <col min="20" max="20" width="22.5703125" style="1"/>
-    <col min="21" max="21" width="27.140625" style="1"/>
-    <col min="22" max="22" width="33.5703125" style="1"/>
-    <col min="23" max="23" width="32.85546875" style="1"/>
-    <col min="24" max="24" width="30.140625" style="1"/>
-    <col min="25" max="25" width="30.85546875" style="1"/>
-    <col min="26" max="26" width="37.5703125" style="1"/>
+    <col min="17" max="17" width="28.453125" style="1"/>
+    <col min="18" max="18" width="14.7265625" style="1"/>
+    <col min="19" max="19" width="13.453125" style="1"/>
+    <col min="20" max="20" width="22.54296875" style="1"/>
+    <col min="21" max="21" width="27.1796875" style="1"/>
+    <col min="22" max="22" width="33.54296875" style="1"/>
+    <col min="23" max="23" width="32.81640625" style="1"/>
+    <col min="24" max="24" width="30.1796875" style="1"/>
+    <col min="25" max="25" width="30.81640625" style="1"/>
+    <col min="26" max="26" width="37.54296875" style="1"/>
     <col min="27" max="27" width="38" style="1"/>
-    <col min="28" max="28" width="24.7109375" style="1"/>
-    <col min="29" max="29" width="22.42578125" style="1"/>
-    <col min="30" max="30" width="22.28515625" style="1"/>
-    <col min="31" max="31" width="21.140625" style="2"/>
-    <col min="32" max="32" width="20.42578125" style="1"/>
-    <col min="33" max="33" width="21.140625" style="1"/>
-    <col min="34" max="34" width="69.42578125" style="1"/>
-    <col min="35" max="35" width="24.5703125" style="1"/>
-    <col min="36" max="36" width="13.5703125" style="1"/>
-    <col min="37" max="37" width="15.42578125" style="1"/>
-    <col min="38" max="38" width="22.85546875" style="3"/>
-    <col min="39" max="39" width="16.28515625" style="1"/>
-    <col min="40" max="1025" width="9.140625" style="1"/>
+    <col min="28" max="28" width="24.7265625" style="1"/>
+    <col min="29" max="29" width="22.453125" style="1"/>
+    <col min="30" max="30" width="22.26953125" style="1"/>
+    <col min="31" max="31" width="21.1796875" style="2"/>
+    <col min="32" max="32" width="20.453125" style="1"/>
+    <col min="33" max="33" width="21.1796875" style="1"/>
+    <col min="34" max="34" width="69.453125" style="1"/>
+    <col min="35" max="35" width="24.54296875" style="1"/>
+    <col min="36" max="36" width="13.54296875" style="1"/>
+    <col min="37" max="37" width="15.453125" style="1"/>
+    <col min="38" max="38" width="22.81640625" style="3"/>
+    <col min="39" max="39" width="16.26953125" style="1"/>
+    <col min="40" max="1025" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1476,7 +1485,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1537,7 +1546,7 @@
       </c>
       <c r="AM2" s="8"/>
     </row>
-    <row r="3" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1606,7 +1615,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1689,7 +1698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1772,7 +1781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1855,7 +1864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1938,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -2021,7 +2030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -2102,7 +2111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -2185,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>12</v>
       </c>
@@ -2254,7 +2263,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>13</v>
       </c>
@@ -2337,7 +2346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>14</v>
       </c>
@@ -2420,7 +2429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>15</v>
       </c>
@@ -2489,7 +2498,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>16</v>
       </c>
@@ -2572,7 +2581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>17</v>
       </c>
@@ -2653,7 +2662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>19</v>
       </c>
@@ -2722,7 +2731,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>20</v>
       </c>
@@ -2805,7 +2814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>21</v>
       </c>
@@ -2888,7 +2897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>22</v>
       </c>
@@ -2971,7 +2980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>23</v>
       </c>
@@ -3054,7 +3063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>27</v>
       </c>
@@ -3123,7 +3132,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>28</v>
       </c>
@@ -3206,7 +3215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>29</v>
       </c>
@@ -3289,7 +3298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>30</v>
       </c>
@@ -3370,7 +3379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>31</v>
       </c>
@@ -3453,7 +3462,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>37</v>
       </c>
@@ -3514,7 +3523,7 @@
       </c>
       <c r="AM27" s="8"/>
     </row>
-    <row r="28" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>38</v>
       </c>
@@ -3577,7 +3586,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>39</v>
       </c>
@@ -3652,7 +3661,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>40</v>
       </c>
@@ -3731,7 +3740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>41</v>
       </c>
@@ -3808,7 +3817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>42</v>
       </c>
@@ -3871,7 +3880,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>43</v>
       </c>
@@ -3954,7 +3963,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>44</v>
       </c>
@@ -4037,7 +4046,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
         <v>45</v>
       </c>
@@ -4122,7 +4131,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
         <v>46</v>
       </c>
@@ -4179,11 +4188,11 @@
         <v>400</v>
       </c>
       <c r="AL36" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AM36" s="8"/>
     </row>
-    <row r="37" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
         <v>48</v>
       </c>
@@ -4266,7 +4275,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8">
         <v>49</v>
       </c>
@@ -4345,7 +4354,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8">
         <v>50</v>
       </c>
@@ -4376,14 +4385,14 @@
       </c>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
-      <c r="M39" s="8" t="s">
+      <c r="M39" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="N39" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="O39" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>199</v>
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="8" t="s">
@@ -4428,7 +4437,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
         <v>51</v>
       </c>
@@ -4445,13 +4454,13 @@
         <v>188</v>
       </c>
       <c r="F40" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="H40" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>202</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8">
@@ -4460,10 +4469,10 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
@@ -4497,7 +4506,7 @@
       <c r="AF40" s="8"/>
       <c r="AG40" s="8"/>
       <c r="AH40" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AI40" s="8"/>
       <c r="AJ40" s="8">
@@ -4511,7 +4520,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8">
         <v>52</v>
       </c>
@@ -4525,13 +4534,13 @@
         <v>41</v>
       </c>
       <c r="E41" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G41" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>208</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>191</v>
@@ -4582,13 +4591,13 @@
         <v>680</v>
       </c>
       <c r="AL41" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AM41" s="8">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
         <v>53</v>
       </c>
@@ -4605,13 +4614,13 @@
         <v>188</v>
       </c>
       <c r="F42" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H42" s="8" t="s">
         <v>210</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>212</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8">
@@ -4659,13 +4668,13 @@
         <v>72</v>
       </c>
       <c r="AL42" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM42" s="8">
         <v>680</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
         <v>54</v>
       </c>
@@ -4682,10 +4691,10 @@
         <v>188</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>54</v>
@@ -4697,22 +4706,22 @@
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q43" s="8" t="s">
         <v>57</v>
       </c>
       <c r="R43" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
@@ -4750,7 +4759,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
         <v>55</v>
       </c>
@@ -4767,10 +4776,10 @@
         <v>188</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>54</v>
@@ -4782,10 +4791,10 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
@@ -4831,7 +4840,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
         <v>56</v>
       </c>
@@ -4848,13 +4857,13 @@
         <v>188</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8">
@@ -4902,13 +4911,13 @@
         <v>769</v>
       </c>
       <c r="AL45" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AM45" s="8">
         <v>680</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>57</v>
       </c>
@@ -4925,10 +4934,10 @@
         <v>188</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>54</v>
@@ -4940,22 +4949,22 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P46" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Q46" s="8" t="s">
         <v>57</v>
       </c>
       <c r="R46" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S46" s="8"/>
       <c r="T46" s="8"/>
@@ -4993,7 +5002,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8">
         <v>58</v>
       </c>
@@ -5010,13 +5019,13 @@
         <v>188</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8">
@@ -5025,10 +5034,10 @@
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O47" s="8"/>
       <c r="P47" s="8"/>
@@ -5062,7 +5071,7 @@
       <c r="AF47" s="8"/>
       <c r="AG47" s="8"/>
       <c r="AH47" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AI47" s="8"/>
       <c r="AJ47" s="8">
@@ -5076,7 +5085,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="8">
         <v>59</v>
       </c>
@@ -5087,22 +5096,22 @@
         <v>40</v>
       </c>
       <c r="D48" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F48" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="G48" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="H48" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="I48" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>235</v>
       </c>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
@@ -5113,7 +5122,7 @@
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
@@ -5137,11 +5146,11 @@
         <v>37</v>
       </c>
       <c r="AL48" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AM48" s="8"/>
     </row>
-    <row r="49" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="8">
         <v>60</v>
       </c>
@@ -5152,35 +5161,35 @@
         <v>40</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E49" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="G49" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="H49" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="I49" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>242</v>
       </c>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
       <c r="N49" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O49" s="8"/>
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="S49" s="8"/>
       <c r="T49" s="8"/>
@@ -5208,7 +5217,7 @@
       </c>
       <c r="AM49" s="8"/>
     </row>
-    <row r="50" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="8">
         <v>61</v>
       </c>
@@ -5219,35 +5228,35 @@
         <v>40</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>183</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O50" s="8"/>
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="S50" s="8"/>
       <c r="T50" s="8"/>
@@ -5275,7 +5284,7 @@
       </c>
       <c r="AM50" s="8"/>
     </row>
-    <row r="51" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="8">
         <v>62</v>
       </c>
@@ -5286,37 +5295,37 @@
         <v>40</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
       <c r="M51" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N51" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O51" s="8"/>
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="S51" s="8"/>
       <c r="T51" s="8"/>
@@ -5344,7 +5353,7 @@
       </c>
       <c r="AM51" s="8"/>
     </row>
-    <row r="52" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="8">
         <v>63</v>
       </c>
@@ -5355,37 +5364,37 @@
         <v>40</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>188</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
       <c r="M52" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N52" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O52" s="8"/>
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
       <c r="R52" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="S52" s="8"/>
       <c r="T52" s="8"/>
@@ -5409,11 +5418,11 @@
         <v>42</v>
       </c>
       <c r="AL52" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AM52" s="8"/>
     </row>
-    <row r="53" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="8">
         <v>64</v>
       </c>
@@ -5424,35 +5433,35 @@
         <v>40</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E53" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="G53" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="H53" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="G53" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>258</v>
-      </c>
       <c r="I53" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
       <c r="N53" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O53" s="8"/>
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="S53" s="8"/>
       <c r="T53" s="8"/>
@@ -5480,7 +5489,7 @@
       <c r="AL53" s="11"/>
       <c r="AM53" s="8"/>
     </row>
-    <row r="54" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="8">
         <v>65</v>
       </c>
@@ -5491,20 +5500,20 @@
         <v>40</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="I54" s="8" t="s">
         <v>261</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>263</v>
       </c>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
@@ -5515,7 +5524,7 @@
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="S54" s="8"/>
       <c r="T54" s="8"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS_20190710_0912\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B967AC-12E0-4496-8A4C-20B37C0AD4A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection lockWindows="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11030" tabRatio="744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="QSR" sheetId="1" r:id="rId1"/>
+    <sheet name="QSR" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">QSR!$A$1:$AM$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">QSR!$A$1:$AM$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="0">QSR!$A$1:$AM$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">QSR!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">QSR!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">QSR!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AM$1</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -32,138 +27,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="265">
-  <si>
-    <t>Sorting</t>
-  </si>
-  <si>
-    <t>SAP PoS</t>
-  </si>
-  <si>
-    <t>Channel</t>
-  </si>
-  <si>
-    <t>KPI Type</t>
-  </si>
-  <si>
-    <t>SAP KPI</t>
-  </si>
-  <si>
-    <t>KPI name Eng</t>
-  </si>
-  <si>
-    <t>KPI name Rus</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Result Format</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>target_min</t>
-  </si>
-  <si>
-    <t>target_max</t>
-  </si>
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>Values</t>
-  </si>
-  <si>
-    <t>Product Category</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Logical Operator</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Form Factor</t>
-  </si>
-  <si>
-    <t>Zone to include</t>
-  </si>
-  <si>
-    <t>Locations to exclude</t>
-  </si>
-  <si>
-    <t>Locations to include</t>
-  </si>
-  <si>
-    <t>Scenes to include</t>
-  </si>
-  <si>
-    <t>Scenes to exclude</t>
-  </si>
-  <si>
-    <t>Sub locations to include</t>
-  </si>
-  <si>
-    <t>Sub locations to exclude</t>
-  </si>
-  <si>
-    <t>shelf_number</t>
-  </si>
-  <si>
-    <t>Converted?</t>
-  </si>
-  <si>
-    <t>score_func</t>
-  </si>
-  <si>
-    <t>KPI Weight</t>
-  </si>
-  <si>
-    <t>score_min</t>
-  </si>
-  <si>
-    <t>score_max</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>depends on</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>KPI ID</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>RD38010022</t>
-  </si>
-  <si>
-    <t>QSR</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Availability</t>
-  </si>
-  <si>
-    <t>Представленность</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="266">
+  <si>
+    <t xml:space="preserve">Sorting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP PoS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP KPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Rus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logical Operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zone to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub locations to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub locations to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelf_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converted?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_func</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depends on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RD38010022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность</t>
   </si>
   <si>
     <t xml:space="preserve">1
@@ -174,19 +169,19 @@
 </t>
   </si>
   <si>
-    <t>STANDARD 1</t>
-  </si>
-  <si>
-    <t>SSD Availability</t>
-  </si>
-  <si>
-    <t>Представленность SSD</t>
-  </si>
-  <si>
-    <t>Weighted Average</t>
-  </si>
-  <si>
-    <t>Y</t>
+    <t xml:space="preserve">STANDARD 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve">Weighted Average </t>
@@ -202,174 +197,174 @@
 </t>
   </si>
   <si>
-    <t>Coca-Cola - 0.5L/Coca-Cola - 0.33L Glass</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.5л/Кока-Кола - 0.33л стекло</t>
-  </si>
-  <si>
-    <t>number of facings</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.5L, Coca-Cola - 0.33L Glass</t>
-  </si>
-  <si>
-    <t>54491472, 50112128</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>SKUs</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Panoramic Photo</t>
-  </si>
-  <si>
-    <t>BINARY</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.5L/Coca-Cola Zero - 0.33L Glass</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.5л/Кока-Кола Зеро - 0.33л стекло</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.5L, Coca-Cola Zero - 0.33L Glass</t>
-  </si>
-  <si>
-    <t>5449000131836, 90375408</t>
-  </si>
-  <si>
-    <t>Sprite - 0.5L/Sprite - 0.33L Glass</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.5л/Спрайт - 0.33л стекло</t>
-  </si>
-  <si>
-    <t>Sprite - 0.5L, Sprite - 0.25L Glass</t>
-  </si>
-  <si>
-    <t>54491069, 54490970, 50112135</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.5L/Fanta Orange - 0.33L Glass</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.5л/Фанта Апельсин - 0.33л стекло</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.5L, Fanta Orange - 0.25L Glass</t>
-  </si>
-  <si>
-    <t>40822938, 40822419, 87126860</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero Cherry - 0.5L/Schweppes Bitter Lemon - 0.25L/Schweppes Tonic - 0.25L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро Чери - 0.5л/Швеппс Тоник - 0.25л/Швеппс Биттер Лемон - 0.25л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero Cherry - 0.5L, Schweppes Bitter Lemon - 0.25L, Schweppes Tonic - 0.25L</t>
-  </si>
-  <si>
-    <t>5449000214744, 40822341, 40822549</t>
-  </si>
-  <si>
-    <t>Coca-Cola Vanilla - 0.5L/Coca-Cola Vanila - 0.33L Glass</t>
-  </si>
-  <si>
-    <t>Кока-Кола Ванила - 0.5л/Кока-Кола Ванила - 0.33л стекло</t>
-  </si>
-  <si>
-    <t>Coca-Cola Vanilla - 0.5L, Coca-Cola Vanila - 0.33L Glass</t>
-  </si>
-  <si>
-    <t>42099697, 111111</t>
-  </si>
-  <si>
-    <t>Fanta Pear - 0.5L/Fanta Citrus - 0.5L</t>
-  </si>
-  <si>
-    <t>Фанта Груша - 0.5л/Фанта Цитрус - 0.5л</t>
-  </si>
-  <si>
-    <t>Fanta Pear - 0.5L, Fanta Citrus - 0.5L</t>
-  </si>
-  <si>
-    <t>5449000172228, 5449000213631</t>
-  </si>
-  <si>
-    <t>STANDARD 2</t>
-  </si>
-  <si>
-    <t>Water Availability</t>
-  </si>
-  <si>
-    <t>Представленность Воды</t>
-  </si>
-  <si>
-    <t>9
+    <t xml:space="preserve">Coca-Cola - 0.5L/Coca-Cola - 0.33L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.5л/Кока-Кола - 0.33л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.5L, Coca-Cola - 0.33L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54491472, 50112128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panoramic Photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BINARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.5L/Coca-Cola Zero - 0.33L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.5л/Кока-Кола Зеро - 0.33л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.5L, Coca-Cola Zero - 0.33L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000131836, 90375408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.5L/Sprite - 0.33L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.5л/Спрайт - 0.33л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.5L, Sprite - 0.25L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54491069, 54490970, 50112135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.5L/Fanta Orange - 0.33L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.5л/Фанта Апельсин - 0.33л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.5L, Fanta Orange - 0.25L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40822938, 40822419, 87126860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero Cherry - 0.5L/Schweppes Bitter Lemon - 0.25L/Schweppes Tonic - 0.25L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Чери - 0.5л/Швеппс Тоник - 0.25л/Швеппс Биттер Лемон - 0.25л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero Cherry - 0.5L, Schweppes Bitter Lemon - 0.25L, Schweppes Tonic - 0.25L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000214744, 40822341, 40822549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Vanilla - 0.5L/Coca-Cola Vanila - 0.33L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Ванила - 0.5л/Кока-Кола Ванила - 0.33л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Vanilla - 0.5L, Coca-Cola Vanila - 0.33L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42099697, 111111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Pear - 0.5L/Fanta Citrus - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Груша - 0.5л/Фанта Цитрус - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Pear - 0.5L, Fanta Citrus - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000172228, 5449000213631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Воды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9
 10</t>
   </si>
   <si>
-    <t>BonAqua Still - 0.5L/BonAqua Still - 0.33L Glass</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 0.5л/БонАква Негаз - 0.33л стекло</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 0.5L, BonAqua Still - 0.33L Glas</t>
-  </si>
-  <si>
-    <t>40822426, 90418822</t>
-  </si>
-  <si>
-    <t>BonAqua Carb - 0.5L/BonAqua Carb - 0.33L Glass/SmartWater Still - 0.6L</t>
-  </si>
-  <si>
-    <t>БонАква Газ - 0.5л/БонАква Газ - 0.33л стекло/Смарт Вода Негаз - 0.6л</t>
-  </si>
-  <si>
-    <t>BonAqua Carb - 0.5L, BonAqua Carb - 0.33L Glass, SmartWater Still - 0.6L</t>
-  </si>
-  <si>
-    <t>90494406, 90382741, 5449000034335</t>
-  </si>
-  <si>
-    <t>Energy Availability</t>
-  </si>
-  <si>
-    <t>Представленность Энергетиков</t>
-  </si>
-  <si>
-    <t>12
+    <t xml:space="preserve">BonAqua Still - 0.5L/BonAqua Still - 0.33L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 0.5л/БонАква Негаз - 0.33л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 0.5L, BonAqua Still - 0.33L Glas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40822426, 90418822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Carb - 0.5L/BonAqua Carb - 0.33L Glass/SmartWater Still - 0.6L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Газ - 0.5л/БонАква Газ - 0.33л стекло/Смарт Вода Негаз - 0.6л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Carb - 0.5L, BonAqua Carb - 0.33L Glass, SmartWater Still - 0.6L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90494406, 90382741, 5449000034335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Энергетиков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12
 62</t>
   </si>
   <si>
-    <t>Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t>Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t>Burn Apple Kiwi - 0.5L</t>
-  </si>
-  <si>
-    <t>Берн Яблоко-Киви - 0.5л</t>
-  </si>
-  <si>
-    <t>5060466510869</t>
-  </si>
-  <si>
-    <t>Tea Availability</t>
-  </si>
-  <si>
-    <t>Представленность Чая</t>
+    <t xml:space="preserve">Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn Apple Kiwi - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Яблоко-Киви - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5060466510869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Чая</t>
   </si>
   <si>
     <t xml:space="preserve">17
@@ -379,43 +374,43 @@
 </t>
   </si>
   <si>
-    <t>Fuze Berry-Hibiscus - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лесн.ягоды - 0.5л</t>
-  </si>
-  <si>
-    <t>5449000193124, 5449000259455</t>
-  </si>
-  <si>
-    <t>Fuze Mango-Camomile - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Манго-Ромашка - 0.5л</t>
+    <t xml:space="preserve">Fuze Berry-Hibiscus - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лесн.ягоды - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000193124, 5449000259455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Mango-Camomile - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Манго-Ромашка - 0.5л</t>
   </si>
   <si>
     <t xml:space="preserve"> Fuze Mango-Camomile - 0.5L</t>
   </si>
   <si>
-    <t>Fuze Lemon-Lemongrass - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t>5449000235947, 5449000189301</t>
-  </si>
-  <si>
-    <t>Fuze Green Strawberry-Raspberry - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Зеленый Клубника-Малина - 0.5л</t>
-  </si>
-  <si>
-    <t>Juice Availability</t>
-  </si>
-  <si>
-    <t>Представленность Сока</t>
+    <t xml:space="preserve">Fuze Lemon-Lemongrass - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000235947, 5449000189301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Сока</t>
   </si>
   <si>
     <t xml:space="preserve">222
@@ -425,89 +420,89 @@
 </t>
   </si>
   <si>
-    <t>Dobriy - Apple - 0.33L/Dobriy Apple - 0.2L/Rich - Apple - 0.3L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 0.33л/0.2л/Рич - Яблоко PET - 0.3л ПЭТ/Рич - Яблоко PET - 0.3л ПЭТ</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 0.33L, Dobriy Apple  - 0.2L, Rich - Apple - 0.3L</t>
-  </si>
-  <si>
-    <t>4607174579309, 4607042430619, 4650075421000</t>
-  </si>
-  <si>
-    <t>Pulpy - Orange - 0.45L/Dobriy - Multifruit - 0.2L/Rich - Apple - 0.2L Glass</t>
-  </si>
-  <si>
-    <t>Палпи - Апельсин - 0.45л/Добрый - Мультифрут - 0.2л/Рич - Яблоко - 0.2л стекло</t>
-  </si>
-  <si>
-    <t>Pulpy - Orange - 0.45L, Dobriy - Multifruit - 0.2L, Rich - Apple - 0.2L Glass</t>
-  </si>
-  <si>
-    <t>4607174577787, 4607042430565, 4650075420386</t>
-  </si>
-  <si>
-    <t>Rich - Orange - 0.3L/Dobriy - Multifruit - 0.33L</t>
-  </si>
-  <si>
-    <t>Рич - Апельсин PET - 0.3л ПЭТ/Добрый - Мультифрут - 0.33л</t>
-  </si>
-  <si>
-    <t>Rich - Orange - 0.3L, Dobriy - Multifruit - 0.33L</t>
-  </si>
-  <si>
-    <t>4650075421024, 4607174579286</t>
-  </si>
-  <si>
-    <t>Pulpy - Mango Pineapple - 0.45L/Rich - Peach - 0.2L Glass/Rich - Orange - 0.2L Glass</t>
-  </si>
-  <si>
-    <t>Палпи - Манго Ананас - 0.45л/Рич - Апельсин - 0.2л стекло/Рич - Персик - 0.2л стекло</t>
-  </si>
-  <si>
-    <t>Pulpy - Mango Pineapple - 0.45L, Rich - Peach - 0.2L Glass, Rich - Orange - 0.2L Glass</t>
-  </si>
-  <si>
-    <t>4650075420980, 4650075420362, 4650075420423</t>
-  </si>
-  <si>
-    <t>Coolers</t>
-  </si>
-  <si>
-    <t>Холодильники</t>
-  </si>
-  <si>
-    <t>311
+    <t xml:space="preserve">Dobriy - Apple - 0.33L/Dobriy Apple - 0.2L/Rich - Apple - 0.3L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 0.33л/0.2л/Рич - Яблоко PET - 0.3л ПЭТ/Рич - Яблоко PET - 0.3л ПЭТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 0.33L, Dobriy Apple  - 0.2L, Rich - Apple - 0.3L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607174579309, 4607042430619, 4650075421000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Orange - 0.45L/Dobriy - Multifruit - 0.2L/Rich - Apple - 0.2L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Апельсин - 0.45л/Добрый - Мультифрут - 0.2л/Рич - Яблоко - 0.2л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Orange - 0.45L, Dobriy - Multifruit - 0.2L, Rich - Apple - 0.2L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607174577787, 4607042430565, 4650075420386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Orange - 0.3L/Dobriy - Multifruit - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Апельсин PET - 0.3л ПЭТ/Добрый - Мультифрут - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Orange - 0.3L, Dobriy - Multifruit - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4650075421024, 4607174579286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Mango Pineapple - 0.45L/Rich - Peach - 0.2L Glass/Rich - Orange - 0.2L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Манго Ананас - 0.45л/Рич - Апельсин - 0.2л стекло/Рич - Персик - 0.2л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Mango Pineapple - 0.45L, Rich - Peach - 0.2L Glass, Rich - Orange - 0.2L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4650075420980, 4650075420362, 4650075420423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311
 312</t>
   </si>
   <si>
-    <t>Coolers: Doors</t>
-  </si>
-  <si>
-    <t>Холодильник: Двери</t>
-  </si>
-  <si>
-    <t>STANDARD 22</t>
-  </si>
-  <si>
-    <t>Cooler: Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей</t>
-  </si>
-  <si>
-    <t>sum of atomic KPI result</t>
-  </si>
-  <si>
-    <t>Plus</t>
-  </si>
-  <si>
-    <t>PROPORTIONAL</t>
-  </si>
-  <si>
-    <t>Store Master Data attr15</t>
+    <t xml:space="preserve">Coolers: Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильник: Двери</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of atomic KPI result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPORTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store Master Data attr15</t>
   </si>
   <si>
     <t xml:space="preserve">27
@@ -515,46 +510,46 @@
 </t>
   </si>
   <si>
-    <t>Cooler: CCH Cooler Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей Холодильников Компании</t>
-  </si>
-  <si>
-    <t>number of doors of filled Coolers</t>
-  </si>
-  <si>
-    <t>Manufacturer: TCCC</t>
-  </si>
-  <si>
-    <t>TCCC</t>
-  </si>
-  <si>
-    <t>MAN</t>
-  </si>
-  <si>
-    <t>Cooler</t>
-  </si>
-  <si>
-    <t>SOS with empty more than 80%</t>
-  </si>
-  <si>
-    <t>Cooler: Customer Cooler Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей Холодильников Клиента</t>
-  </si>
-  <si>
-    <t>facings TCCC/40</t>
-  </si>
-  <si>
-    <t>Other Coolers, Cold Shelf</t>
-  </si>
-  <si>
-    <t>Coolers: Quality</t>
-  </si>
-  <si>
-    <t>Холодильник: Качество</t>
+    <t xml:space="preserve">Cooler: CCH Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Компании</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of doors of filled Coolers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer: TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS with empty more than 80%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Customer Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Клиента</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facings TCCC/40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Coolers, Cold Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers: Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильник: Качество</t>
   </si>
   <si>
     <t xml:space="preserve">28
@@ -564,212 +559,226 @@
 </t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Cooler: Prime Position</t>
-  </si>
-  <si>
-    <t>Холодильники: Лучшее место</t>
-  </si>
-  <si>
-    <t>Scenes with no tagging</t>
-  </si>
-  <si>
-    <t>Panoramic photo of Cooler</t>
-  </si>
-  <si>
-    <t>NUM_SCENES</t>
-  </si>
-  <si>
-    <t>Calculate if at least one door was passed KPI "Cooler: CCH Cooler Doors"</t>
-  </si>
-  <si>
-    <t>Cooler: w/o other products</t>
-  </si>
-  <si>
-    <t>Холодильники: Без чужой продукции</t>
-  </si>
-  <si>
-    <t>Share of CCH doors which have 98% TCCC facings</t>
-  </si>
-  <si>
-    <t>Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
-  </si>
-  <si>
-    <t>Cooler: Max 15</t>
-  </si>
-  <si>
-    <t>Холодильники: Максимум 15 СКЮ на дверь</t>
-  </si>
-  <si>
-    <t>number of SKU per Door RANGE TOTAL</t>
-  </si>
-  <si>
-    <t>Activations</t>
-  </si>
-  <si>
-    <t>Активации</t>
-  </si>
-  <si>
-    <t>STANDARD 17</t>
-  </si>
-  <si>
-    <t>Impulse Activation</t>
-  </si>
-  <si>
-    <t>Активация Импульсной зоны</t>
-  </si>
-  <si>
-    <t>Activation</t>
-  </si>
-  <si>
-    <t>Cash Zone</t>
-  </si>
-  <si>
-    <t>OCCASIONS</t>
-  </si>
-  <si>
-    <t>Combo</t>
-  </si>
-  <si>
-    <t>Комбо</t>
-  </si>
-  <si>
-    <t>number of atomic KPI Passed</t>
-  </si>
-  <si>
-    <t>AND</t>
-  </si>
-  <si>
-    <t>Menu Board, Cash Zone</t>
-  </si>
-  <si>
-    <t>35
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Prime Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Лучшее место</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes with no tagging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panoramic photo of Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUM_SCENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate if at least one door was passed KPI "Cooler: CCH Cooler Doors"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: w/o other products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Без чужой продукции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of CCH doors which have 98% TCCC facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Max 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of SKU per Door RANGE TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33
+34
+680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impulse Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активация Импульсной зоны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCCASIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Комбо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of atomic KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu Board, Cash Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35
 36</t>
   </si>
   <si>
-    <t>Combo: Coca-Cola</t>
+    <t xml:space="preserve">Combo: Coca-Cola</t>
   </si>
   <si>
     <t xml:space="preserve">Комбо : Кока-Кола </t>
   </si>
   <si>
-    <t>IC Activation</t>
-  </si>
-  <si>
-    <t>Combo: Food</t>
-  </si>
-  <si>
-    <t>Комбо : Еда</t>
-  </si>
-  <si>
-    <t>number of facings near food</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>5000034, A5B10138, A5B10137, A5B10136, A5B10135, A5B10125, A5B10124, A5B10123, A5B10123, A5B10122, A5B10121, A5B10120, A5B10119, A5B10118, A5B10117, A5B10116, A5B10091, A5B10090, A5B10089, A5B10088, A5B10087, A5B10086, A5B10085, A5B10057, 5000044, 5000042</t>
-  </si>
-  <si>
-    <t>Food should be near Image</t>
-  </si>
-  <si>
-    <t>STANDART 17</t>
-  </si>
-  <si>
-    <t>Combo other</t>
-  </si>
-  <si>
-    <t>Другие Комбо</t>
-  </si>
-  <si>
-    <t>72
+    <t xml:space="preserve">Coke+Coca Cola Zero Bottle Nrgb, Coca Cola Zero Bottle, Coca Cola Zero Logo, Coca Cola Zero Can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50111111, 50111112, 50111113, 50111114, 5000006, 5000004, 5000005, 5000006, 5050570, 5000101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combo: Food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Комбо : Еда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of facings near food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000034, A5B10138, A5B10137, A5B10136, A5B10135, A5B10125, A5B10124, A5B10123, A5B10123, A5B10122, A5B10121, A5B10120, A5B10119, A5B10118, A5B10117, A5B10116, A5B10091, A5B10090, A5B10089, A5B10088, A5B10087, A5B10086, A5B10085, A5B10057, 5000044, 5000042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food should be near Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDART 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combo other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Другие Комбо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72
 769</t>
   </si>
   <si>
-    <t>Start the day</t>
-  </si>
-  <si>
-    <t>Взбодриться кофе</t>
-  </si>
-  <si>
-    <t>number of sub atomic KPI Passed</t>
-  </si>
-  <si>
-    <t>73
+    <t xml:space="preserve">Start the day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Взбодриться кофе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of sub atomic KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73
 74</t>
   </si>
   <si>
-    <t>Start the day: Image</t>
-  </si>
-  <si>
-    <t>Взбодриться кофе: Имидж</t>
-  </si>
-  <si>
-    <t>Bonaqua, SmartWater</t>
-  </si>
-  <si>
-    <t>BRAND</t>
-  </si>
-  <si>
-    <t>Start the day: Coffee</t>
-  </si>
-  <si>
-    <t>Взбодриться кофе: Кофе</t>
-  </si>
-  <si>
-    <t>Coffee</t>
-  </si>
-  <si>
-    <t>A5B10102</t>
-  </si>
-  <si>
-    <t>Juice and meal</t>
-  </si>
-  <si>
-    <t>Сок и еда</t>
-  </si>
-  <si>
-    <t>770
+    <t xml:space="preserve">Start the day: Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Взбодриться кофе: Имидж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonaqua, SmartWater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start the day: Coffee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Взбодриться кофе: Кофе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coffee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A5B10102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice and meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок и еда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">770
 771</t>
   </si>
   <si>
-    <t>Coke and meal: Image</t>
-  </si>
-  <si>
-    <t>Сок и еда: Имидж</t>
-  </si>
-  <si>
-    <t>Rich, Dobriy</t>
-  </si>
-  <si>
-    <t>Coke and meal: Food</t>
-  </si>
-  <si>
-    <t>Сок и еда: Еда</t>
-  </si>
-  <si>
-    <t>Hidden</t>
-  </si>
-  <si>
-    <t>STANDARD 18</t>
-  </si>
-  <si>
-    <t>COOLER_QUALITY</t>
-  </si>
-  <si>
-    <t>CCH coolers quality (Prime Pos- Max15- Merch STD- Occupancy- Lights&amp;clean)</t>
-  </si>
-  <si>
-    <t>sum of atomic scores</t>
-  </si>
-  <si>
-    <t>Decimal.2</t>
-  </si>
-  <si>
-    <t>SESSION LEVEL</t>
+    <t xml:space="preserve">Juice and meal: Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок и еда: Имидж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich, Dobriy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice and meal: Food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок и еда: Еда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000034, A5B10138, A5B10137, A5B10136, A5B10135, A5B10125, A5B10124, A5B10123, A5B10123, A5B10122, A5B10121, A5B10120, A5B10119, A5B10118, A5B10117, A5B10116, A5B10091, A5B10090, A5B10089, A5B10088, A5B10087, A5B10086, A5B10085, A5B10057, 5000044, 5000042, 5000041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COOLER_QUALITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCH coolers quality (Prime Pos- Max15- Merch STD- Occupancy- Lights&amp;clean)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of atomic scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decimal.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SESSION LEVEL</t>
   </si>
   <si>
     <t xml:space="preserve">29
@@ -778,59 +787,59 @@
 </t>
   </si>
   <si>
-    <t>STANDARD 16</t>
-  </si>
-  <si>
-    <t>CCH_PROD_MENU</t>
-  </si>
-  <si>
-    <t>CCH products present in Customer's menu</t>
-  </si>
-  <si>
-    <t>Passed or Failed Value</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>MenuC1
+    <t xml:space="preserve">STANDARD 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCH_PROD_MENU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCH products present in Customer's menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passed or Failed Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MenuC1
 No_MenuC1</t>
   </si>
   <si>
-    <t>ACTIVATION_SSD</t>
-  </si>
-  <si>
-    <t>Number of CCH activation points in SSD</t>
-  </si>
-  <si>
-    <t>IMPU
+    <t xml:space="preserve">ACTIVATION_SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of CCH activation points in SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPU
 No_IMPU</t>
   </si>
   <si>
-    <t>Local 21</t>
-  </si>
-  <si>
-    <t>ANY OTHER ACTIVATION</t>
-  </si>
-  <si>
-    <t>SEND VALUE if one KPI from lis is Passed , other No_O_A</t>
-  </si>
-  <si>
-    <t>OTMove
+    <t xml:space="preserve">Local 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANY OTHER ACTIVATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEND VALUE if one KPI from lis is Passed , other No_O_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTMove
 No_O_A</t>
   </si>
   <si>
-    <t>PRIORITY_OCC</t>
-  </si>
-  <si>
-    <t>Number of Priority Occasions activated in the outlet</t>
-  </si>
-  <si>
-    <t>EO
+    <t xml:space="preserve">PRIORITY_OCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Priority Occasions activated in the outlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EO
 No_O_A</t>
   </si>
   <si>
-    <t>29
+    <t xml:space="preserve">29
 30
 31
 32
@@ -838,53 +847,43 @@
 34</t>
   </si>
   <si>
-    <t>Scene Sub Type 2</t>
-  </si>
-  <si>
-    <t>COOLER_DOORS</t>
-  </si>
-  <si>
-    <t>Number of Cooler Doors</t>
-  </si>
-  <si>
-    <t>Attribute</t>
-  </si>
-  <si>
-    <t>template.additional_attribute_1</t>
-  </si>
-  <si>
-    <t>SCENE LEVEL</t>
-  </si>
-  <si>
-    <t>PLAN</t>
-  </si>
-  <si>
-    <t>Plan</t>
-  </si>
-  <si>
-    <t>Integer</t>
-  </si>
-  <si>
-    <t>33
-34
-680</t>
-  </si>
-  <si>
-    <t>Coke+Coca Cola Zero Bottle Nrgb, Coca Cola Zero Bottle, Coca Cola Zero Logo, Coca Cola Zero Can</t>
-  </si>
-  <si>
-    <t>50111111, 50111112, 50111113, 50111114, 5000006, 5000004, 5000005, 5000006, 5050570, 5000101</t>
+    <t xml:space="preserve">Scene Sub Type 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COOLER_DOORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">template.additional_attribute_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCENE LEVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* \-??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -893,22 +892,30 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -917,456 +924,245 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="dashed">
-        <color auto="1"/>
-      </top>
-      <bottom style="dashed">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dashed"/>
+      <right style="dashed"/>
+      <top style="dashed"/>
+      <bottom style="dashed"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+  <cellXfs count="14">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="1:54"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="M39" sqref="M39:N39"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="16.453125" style="1"/>
-    <col min="2" max="2" width="19" style="1"/>
-    <col min="3" max="3" width="18.1796875" style="1"/>
-    <col min="4" max="4" width="18.7265625" style="1"/>
-    <col min="5" max="5" width="18.1796875" style="1"/>
-    <col min="6" max="6" width="81.1796875" style="1"/>
-    <col min="7" max="7" width="83.1796875" style="1"/>
-    <col min="8" max="8" width="46.26953125" style="1"/>
-    <col min="9" max="9" width="24.81640625" style="1"/>
-    <col min="10" max="10" width="16" style="1"/>
-    <col min="11" max="11" width="21" style="1"/>
-    <col min="12" max="12" width="21.7265625" style="1"/>
-    <col min="13" max="14" width="32.7265625" style="1"/>
-    <col min="15" max="15" width="29.453125" style="1"/>
-    <col min="16" max="16" width="21" style="1"/>
-    <col min="17" max="17" width="28.453125" style="1"/>
-    <col min="18" max="18" width="14.7265625" style="1"/>
-    <col min="19" max="19" width="13.453125" style="1"/>
-    <col min="20" max="20" width="22.54296875" style="1"/>
-    <col min="21" max="21" width="27.1796875" style="1"/>
-    <col min="22" max="22" width="33.54296875" style="1"/>
-    <col min="23" max="23" width="32.81640625" style="1"/>
-    <col min="24" max="24" width="30.1796875" style="1"/>
-    <col min="25" max="25" width="30.81640625" style="1"/>
-    <col min="26" max="26" width="37.54296875" style="1"/>
-    <col min="27" max="27" width="38" style="1"/>
-    <col min="28" max="28" width="24.7265625" style="1"/>
-    <col min="29" max="29" width="22.453125" style="1"/>
-    <col min="30" max="30" width="22.26953125" style="1"/>
-    <col min="31" max="31" width="21.1796875" style="2"/>
-    <col min="32" max="32" width="20.453125" style="1"/>
-    <col min="33" max="33" width="21.1796875" style="1"/>
-    <col min="34" max="34" width="69.453125" style="1"/>
-    <col min="35" max="35" width="24.54296875" style="1"/>
-    <col min="36" max="36" width="13.54296875" style="1"/>
-    <col min="37" max="37" width="15.453125" style="1"/>
-    <col min="38" max="38" width="22.81640625" style="3"/>
-    <col min="39" max="39" width="16.26953125" style="1"/>
-    <col min="40" max="1025" width="9.1796875" style="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="81.9473684210526"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="83.9797570850202"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="70.0566801619433"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="13.6032388663968"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="3" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1023" min="40" style="1" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.21052631578947"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" s="7" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1484,9 +1280,10 @@
       <c r="AM1" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8">
+    <row r="2" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1535,10 +1332,10 @@
       <c r="AG2" s="8"/>
       <c r="AH2" s="8"/>
       <c r="AI2" s="8"/>
-      <c r="AJ2" s="8">
+      <c r="AJ2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="AK2" s="8">
+      <c r="AK2" s="8" t="n">
         <v>300</v>
       </c>
       <c r="AL2" s="10" t="s">
@@ -1546,8 +1343,8 @@
       </c>
       <c r="AM2" s="8"/>
     </row>
-    <row r="3" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
+    <row r="3" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1602,21 +1399,21 @@
       <c r="AG3" s="8"/>
       <c r="AH3" s="8"/>
       <c r="AI3" s="8"/>
-      <c r="AJ3" s="8">
+      <c r="AJ3" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK3" s="8">
+      <c r="AK3" s="8" t="n">
         <v>1</v>
       </c>
       <c r="AL3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AM3" s="8">
+      <c r="AM3" s="8" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
+    <row r="4" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1641,7 +1438,7 @@
         <v>54</v>
       </c>
       <c r="I4" s="8"/>
-      <c r="J4" s="8">
+      <c r="J4" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="8"/>
@@ -1680,26 +1477,26 @@
       <c r="AD4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE4" s="9">
-        <v>4.1980000000000003E-2</v>
+      <c r="AE4" s="9" t="n">
+        <v>0.04198</v>
       </c>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
-      <c r="AJ4" s="8">
+      <c r="AJ4" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK4" s="8">
+      <c r="AK4" s="8" t="n">
         <v>2</v>
       </c>
       <c r="AL4" s="11"/>
-      <c r="AM4" s="8">
+      <c r="AM4" s="8" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
+    <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1724,7 +1521,7 @@
         <v>54</v>
       </c>
       <c r="I5" s="8"/>
-      <c r="J5" s="8">
+      <c r="J5" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="8"/>
@@ -1763,26 +1560,26 @@
       <c r="AD5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE5" s="9">
-        <v>4.1980000000000003E-2</v>
+      <c r="AE5" s="9" t="n">
+        <v>0.04198</v>
       </c>
       <c r="AF5" s="8"/>
       <c r="AG5" s="8"/>
       <c r="AH5" s="8"/>
       <c r="AI5" s="8"/>
-      <c r="AJ5" s="8">
+      <c r="AJ5" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK5" s="8">
+      <c r="AK5" s="8" t="n">
         <v>3</v>
       </c>
       <c r="AL5" s="11"/>
-      <c r="AM5" s="8">
+      <c r="AM5" s="8" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
+    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1807,7 +1604,7 @@
         <v>54</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="8">
+      <c r="J6" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="8"/>
@@ -1846,26 +1643,26 @@
       <c r="AD6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE6" s="9">
-        <v>4.1980000000000003E-2</v>
+      <c r="AE6" s="9" t="n">
+        <v>0.04198</v>
       </c>
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="8"/>
-      <c r="AJ6" s="8">
+      <c r="AJ6" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK6" s="8">
+      <c r="AK6" s="8" t="n">
         <v>4</v>
       </c>
       <c r="AL6" s="11"/>
-      <c r="AM6" s="8">
+      <c r="AM6" s="8" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
+    <row r="7" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1890,7 +1687,7 @@
         <v>54</v>
       </c>
       <c r="I7" s="8"/>
-      <c r="J7" s="8">
+      <c r="J7" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K7" s="8"/>
@@ -1929,26 +1726,26 @@
       <c r="AD7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE7" s="9">
-        <v>4.1980000000000003E-2</v>
+      <c r="AE7" s="9" t="n">
+        <v>0.04198</v>
       </c>
       <c r="AF7" s="8"/>
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
       <c r="AI7" s="8"/>
-      <c r="AJ7" s="8">
+      <c r="AJ7" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK7" s="8">
+      <c r="AK7" s="8" t="n">
         <v>5</v>
       </c>
       <c r="AL7" s="11"/>
-      <c r="AM7" s="8">
+      <c r="AM7" s="8" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
+    <row r="8" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1973,7 +1770,7 @@
         <v>54</v>
       </c>
       <c r="I8" s="8"/>
-      <c r="J8" s="8">
+      <c r="J8" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="8"/>
@@ -2012,26 +1809,26 @@
       <c r="AD8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE8" s="9">
-        <v>2.1700000000000001E-2</v>
+      <c r="AE8" s="9" t="n">
+        <v>0.0217</v>
       </c>
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
       <c r="AH8" s="8"/>
       <c r="AI8" s="8"/>
-      <c r="AJ8" s="8">
+      <c r="AJ8" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK8" s="8">
+      <c r="AK8" s="8" t="n">
         <v>606</v>
       </c>
       <c r="AL8" s="11"/>
-      <c r="AM8" s="8">
+      <c r="AM8" s="8" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
+    <row r="9" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -2056,7 +1853,7 @@
         <v>54</v>
       </c>
       <c r="I9" s="8"/>
-      <c r="J9" s="8">
+      <c r="J9" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K9" s="8"/>
@@ -2093,26 +1890,26 @@
       <c r="AD9" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE9" s="9">
-        <v>2.1700000000000001E-2</v>
+      <c r="AE9" s="9" t="n">
+        <v>0.0217</v>
       </c>
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
       <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
-      <c r="AJ9" s="8">
+      <c r="AJ9" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK9" s="8">
+      <c r="AK9" s="8" t="n">
         <v>603</v>
       </c>
       <c r="AL9" s="11"/>
-      <c r="AM9" s="8">
+      <c r="AM9" s="8" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
+    <row r="10" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -2137,7 +1934,7 @@
         <v>54</v>
       </c>
       <c r="I10" s="8"/>
-      <c r="J10" s="8">
+      <c r="J10" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="8"/>
@@ -2176,26 +1973,26 @@
       <c r="AD10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE10" s="9">
-        <v>2.1700000000000001E-2</v>
+      <c r="AE10" s="9" t="n">
+        <v>0.0217</v>
       </c>
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
       <c r="AH10" s="8"/>
       <c r="AI10" s="8"/>
-      <c r="AJ10" s="8">
+      <c r="AJ10" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK10" s="8">
+      <c r="AK10" s="8" t="n">
         <v>607</v>
       </c>
       <c r="AL10" s="11"/>
-      <c r="AM10" s="8">
+      <c r="AM10" s="8" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
+    <row r="11" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="n">
         <v>12</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -2250,21 +2047,21 @@
       <c r="AG11" s="8"/>
       <c r="AH11" s="8"/>
       <c r="AI11" s="8"/>
-      <c r="AJ11" s="8">
+      <c r="AJ11" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK11" s="8">
+      <c r="AK11" s="8" t="n">
         <v>8</v>
       </c>
       <c r="AL11" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="AM11" s="8">
+      <c r="AM11" s="8" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
+    <row r="12" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="n">
         <v>13</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -2289,7 +2086,7 @@
         <v>54</v>
       </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="8">
+      <c r="J12" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K12" s="8"/>
@@ -2328,26 +2125,26 @@
       <c r="AD12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE12" s="9">
-        <v>2.2499999999999999E-2</v>
+      <c r="AE12" s="9" t="n">
+        <v>0.0225</v>
       </c>
       <c r="AF12" s="8"/>
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
       <c r="AI12" s="8"/>
-      <c r="AJ12" s="8">
+      <c r="AJ12" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK12" s="8">
+      <c r="AK12" s="8" t="n">
         <v>9</v>
       </c>
       <c r="AL12" s="11"/>
-      <c r="AM12" s="8">
+      <c r="AM12" s="8" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
+    <row r="13" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="n">
         <v>14</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -2372,7 +2169,7 @@
         <v>54</v>
       </c>
       <c r="I13" s="8"/>
-      <c r="J13" s="8">
+      <c r="J13" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="8"/>
@@ -2411,26 +2208,26 @@
       <c r="AD13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE13" s="9">
-        <v>1.2696000000000001E-2</v>
+      <c r="AE13" s="9" t="n">
+        <v>0.012696</v>
       </c>
       <c r="AF13" s="8"/>
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
       <c r="AI13" s="8"/>
-      <c r="AJ13" s="8">
+      <c r="AJ13" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK13" s="8">
+      <c r="AK13" s="8" t="n">
         <v>10</v>
       </c>
       <c r="AL13" s="11"/>
-      <c r="AM13" s="8">
+      <c r="AM13" s="8" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
+    <row r="14" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="n">
         <v>15</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -2485,21 +2282,21 @@
       <c r="AG14" s="8"/>
       <c r="AH14" s="8"/>
       <c r="AI14" s="8"/>
-      <c r="AJ14" s="8">
+      <c r="AJ14" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK14" s="8">
+      <c r="AK14" s="8" t="n">
         <v>11</v>
       </c>
       <c r="AL14" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AM14" s="8">
+      <c r="AM14" s="8" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
+    <row r="15" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="n">
         <v>16</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -2524,7 +2321,7 @@
         <v>54</v>
       </c>
       <c r="I15" s="8"/>
-      <c r="J15" s="8">
+      <c r="J15" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K15" s="8"/>
@@ -2532,7 +2329,7 @@
       <c r="M15" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="8" t="n">
         <v>5449000131768</v>
       </c>
       <c r="O15" s="8"/>
@@ -2563,26 +2360,26 @@
       <c r="AD15" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE15" s="9">
-        <v>1.2696000000000001E-2</v>
+      <c r="AE15" s="9" t="n">
+        <v>0.012696</v>
       </c>
       <c r="AF15" s="8"/>
       <c r="AG15" s="8"/>
       <c r="AH15" s="8"/>
       <c r="AI15" s="8"/>
-      <c r="AJ15" s="8">
+      <c r="AJ15" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK15" s="8">
+      <c r="AK15" s="8" t="n">
         <v>12</v>
       </c>
       <c r="AL15" s="11"/>
-      <c r="AM15" s="8">
+      <c r="AM15" s="8" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
+    <row r="16" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="n">
         <v>17</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -2607,7 +2404,7 @@
         <v>54</v>
       </c>
       <c r="I16" s="8"/>
-      <c r="J16" s="8">
+      <c r="J16" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="8"/>
@@ -2644,26 +2441,26 @@
       <c r="AD16" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE16" s="9">
-        <v>8.9999999999999993E-3</v>
+      <c r="AE16" s="9" t="n">
+        <v>0.009</v>
       </c>
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
       <c r="AI16" s="8"/>
-      <c r="AJ16" s="8">
+      <c r="AJ16" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK16" s="8">
+      <c r="AK16" s="8" t="n">
         <v>62</v>
       </c>
       <c r="AL16" s="11"/>
-      <c r="AM16" s="8">
+      <c r="AM16" s="8" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
+    <row r="17" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="n">
         <v>19</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -2718,21 +2515,21 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
       <c r="AI17" s="8"/>
-      <c r="AJ17" s="8">
+      <c r="AJ17" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK17" s="8">
+      <c r="AK17" s="8" t="n">
         <v>14</v>
       </c>
       <c r="AL17" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="AM17" s="8">
+      <c r="AM17" s="8" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
+    <row r="18" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="n">
         <v>20</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -2757,7 +2554,7 @@
         <v>54</v>
       </c>
       <c r="I18" s="8"/>
-      <c r="J18" s="8">
+      <c r="J18" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="8"/>
@@ -2796,26 +2593,26 @@
       <c r="AD18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE18" s="9">
-        <v>2.2499999999999999E-2</v>
+      <c r="AE18" s="9" t="n">
+        <v>0.0225</v>
       </c>
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
       <c r="AH18" s="8"/>
       <c r="AI18" s="8"/>
-      <c r="AJ18" s="8">
+      <c r="AJ18" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK18" s="8">
+      <c r="AK18" s="8" t="n">
         <v>17</v>
       </c>
       <c r="AL18" s="11"/>
-      <c r="AM18" s="8">
+      <c r="AM18" s="8" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8">
+    <row r="19" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="n">
         <v>21</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -2840,7 +2637,7 @@
         <v>54</v>
       </c>
       <c r="I19" s="8"/>
-      <c r="J19" s="8">
+      <c r="J19" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K19" s="8"/>
@@ -2848,7 +2645,7 @@
       <c r="M19" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="8" t="n">
         <v>4607042430879</v>
       </c>
       <c r="O19" s="8"/>
@@ -2879,26 +2676,26 @@
       <c r="AD19" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE19" s="9">
-        <v>1.2696000000000001E-2</v>
+      <c r="AE19" s="9" t="n">
+        <v>0.012696</v>
       </c>
       <c r="AF19" s="8"/>
       <c r="AG19" s="8"/>
       <c r="AH19" s="8"/>
       <c r="AI19" s="8"/>
-      <c r="AJ19" s="8">
+      <c r="AJ19" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK19" s="8">
+      <c r="AK19" s="8" t="n">
         <v>215</v>
       </c>
       <c r="AL19" s="11"/>
-      <c r="AM19" s="8">
+      <c r="AM19" s="8" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8">
+    <row r="20" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="n">
         <v>22</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -2923,7 +2720,7 @@
         <v>54</v>
       </c>
       <c r="I20" s="8"/>
-      <c r="J20" s="8">
+      <c r="J20" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="8"/>
@@ -2962,26 +2759,26 @@
       <c r="AD20" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE20" s="9">
-        <v>1.2696000000000001E-2</v>
+      <c r="AE20" s="9" t="n">
+        <v>0.012696</v>
       </c>
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
       <c r="AH20" s="8"/>
       <c r="AI20" s="8"/>
-      <c r="AJ20" s="8">
+      <c r="AJ20" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK20" s="8">
+      <c r="AK20" s="8" t="n">
         <v>216</v>
       </c>
       <c r="AL20" s="11"/>
-      <c r="AM20" s="8">
+      <c r="AM20" s="8" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8">
+    <row r="21" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="n">
         <v>23</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -3006,7 +2803,7 @@
         <v>54</v>
       </c>
       <c r="I21" s="8"/>
-      <c r="J21" s="8">
+      <c r="J21" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K21" s="8"/>
@@ -3014,7 +2811,7 @@
       <c r="M21" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="8" t="n">
         <v>5449000233615</v>
       </c>
       <c r="O21" s="8"/>
@@ -3045,26 +2842,26 @@
       <c r="AD21" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE21" s="9">
-        <v>8.9999999999999993E-3</v>
+      <c r="AE21" s="9" t="n">
+        <v>0.009</v>
       </c>
       <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
       <c r="AH21" s="8"/>
       <c r="AI21" s="8"/>
-      <c r="AJ21" s="8">
+      <c r="AJ21" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK21" s="8">
+      <c r="AK21" s="8" t="n">
         <v>18</v>
       </c>
       <c r="AL21" s="11"/>
-      <c r="AM21" s="8">
+      <c r="AM21" s="8" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8">
+    <row r="22" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="n">
         <v>27</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -3119,21 +2916,21 @@
       <c r="AG22" s="8"/>
       <c r="AH22" s="8"/>
       <c r="AI22" s="8"/>
-      <c r="AJ22" s="8">
+      <c r="AJ22" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK22" s="8">
+      <c r="AK22" s="8" t="n">
         <v>20</v>
       </c>
       <c r="AL22" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="AM22" s="8">
+      <c r="AM22" s="8" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8">
+    <row r="23" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="n">
         <v>28</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -3158,7 +2955,7 @@
         <v>54</v>
       </c>
       <c r="I23" s="8"/>
-      <c r="J23" s="8">
+      <c r="J23" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K23" s="8"/>
@@ -3197,26 +2994,26 @@
       <c r="AD23" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE23" s="9">
-        <v>2.2499999999999999E-2</v>
+      <c r="AE23" s="9" t="n">
+        <v>0.0225</v>
       </c>
       <c r="AF23" s="8"/>
       <c r="AG23" s="8"/>
       <c r="AH23" s="8"/>
       <c r="AI23" s="8"/>
-      <c r="AJ23" s="8">
+      <c r="AJ23" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK23" s="8">
+      <c r="AK23" s="8" t="n">
         <v>222</v>
       </c>
       <c r="AL23" s="11"/>
-      <c r="AM23" s="8">
+      <c r="AM23" s="8" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8">
+    <row r="24" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="n">
         <v>29</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -3241,7 +3038,7 @@
         <v>54</v>
       </c>
       <c r="I24" s="8"/>
-      <c r="J24" s="8">
+      <c r="J24" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K24" s="8"/>
@@ -3280,26 +3077,26 @@
       <c r="AD24" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE24" s="9">
-        <v>1.2696000000000001E-2</v>
+      <c r="AE24" s="9" t="n">
+        <v>0.012696</v>
       </c>
       <c r="AF24" s="8"/>
       <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
       <c r="AI24" s="8"/>
-      <c r="AJ24" s="8">
+      <c r="AJ24" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK24" s="8">
+      <c r="AK24" s="8" t="n">
         <v>221</v>
       </c>
       <c r="AL24" s="11"/>
-      <c r="AM24" s="8">
+      <c r="AM24" s="8" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="8">
+    <row r="25" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="n">
         <v>30</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -3324,7 +3121,7 @@
         <v>54</v>
       </c>
       <c r="I25" s="8"/>
-      <c r="J25" s="8">
+      <c r="J25" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K25" s="8"/>
@@ -3361,26 +3158,26 @@
       <c r="AD25" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE25" s="9">
-        <v>8.9999999999999993E-3</v>
+      <c r="AE25" s="9" t="n">
+        <v>0.009</v>
       </c>
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
       <c r="AI25" s="8"/>
-      <c r="AJ25" s="8">
+      <c r="AJ25" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK25" s="8">
+      <c r="AK25" s="8" t="n">
         <v>168</v>
       </c>
       <c r="AL25" s="11"/>
-      <c r="AM25" s="8">
+      <c r="AM25" s="8" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8">
+    <row r="26" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="n">
         <v>31</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -3405,7 +3202,7 @@
         <v>54</v>
       </c>
       <c r="I26" s="8"/>
-      <c r="J26" s="8">
+      <c r="J26" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="8"/>
@@ -3444,26 +3241,26 @@
       <c r="AD26" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE26" s="9">
-        <v>8.9999999999999993E-3</v>
+      <c r="AE26" s="9" t="n">
+        <v>0.009</v>
       </c>
       <c r="AF26" s="8"/>
       <c r="AG26" s="8"/>
       <c r="AH26" s="8"/>
       <c r="AI26" s="8"/>
-      <c r="AJ26" s="8">
+      <c r="AJ26" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK26" s="8">
+      <c r="AK26" s="8" t="n">
         <v>223</v>
       </c>
       <c r="AL26" s="11"/>
-      <c r="AM26" s="8">
+      <c r="AM26" s="8" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="8">
+    <row r="27" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="n">
         <v>37</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -3512,10 +3309,10 @@
       <c r="AG27" s="8"/>
       <c r="AH27" s="8"/>
       <c r="AI27" s="8"/>
-      <c r="AJ27" s="8">
+      <c r="AJ27" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="AK27" s="8">
+      <c r="AK27" s="8" t="n">
         <v>310</v>
       </c>
       <c r="AL27" s="10" t="s">
@@ -3523,8 +3320,8 @@
       </c>
       <c r="AM27" s="8"/>
     </row>
-    <row r="28" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="8">
+    <row r="28" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="n">
         <v>38</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -3573,21 +3370,21 @@
       <c r="AG28" s="8"/>
       <c r="AH28" s="8"/>
       <c r="AI28" s="8"/>
-      <c r="AJ28" s="8">
+      <c r="AJ28" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="AK28" s="8">
+      <c r="AK28" s="8" t="n">
         <v>311</v>
       </c>
-      <c r="AL28" s="11">
+      <c r="AL28" s="11" t="n">
         <v>26</v>
       </c>
-      <c r="AM28" s="8">
+      <c r="AM28" s="8" t="n">
         <v>310</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="8">
+    <row r="29" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="n">
         <v>39</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -3639,7 +3436,7 @@
       <c r="AD29" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="AE29" s="9">
+      <c r="AE29" s="9" t="n">
         <v>0.08</v>
       </c>
       <c r="AF29" s="8"/>
@@ -3648,21 +3445,21 @@
         <v>150</v>
       </c>
       <c r="AI29" s="8"/>
-      <c r="AJ29" s="8">
+      <c r="AJ29" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK29" s="8">
+      <c r="AK29" s="8" t="n">
         <v>26</v>
       </c>
       <c r="AL29" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="AM29" s="8">
+      <c r="AM29" s="8" t="n">
         <v>311</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8">
+    <row r="30" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="n">
         <v>40</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -3687,7 +3484,7 @@
         <v>154</v>
       </c>
       <c r="I30" s="8"/>
-      <c r="J30" s="8">
+      <c r="J30" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K30" s="8"/>
@@ -3729,19 +3526,19 @@
         <v>159</v>
       </c>
       <c r="AI30" s="8"/>
-      <c r="AJ30" s="8">
+      <c r="AJ30" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK30" s="8">
+      <c r="AK30" s="8" t="n">
         <v>27</v>
       </c>
       <c r="AL30" s="11"/>
-      <c r="AM30" s="8">
+      <c r="AM30" s="8" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="8">
+    <row r="31" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="n">
         <v>41</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -3766,7 +3563,7 @@
         <v>162</v>
       </c>
       <c r="I31" s="8"/>
-      <c r="J31" s="8">
+      <c r="J31" s="8" t="n">
         <v>0.01</v>
       </c>
       <c r="K31" s="8"/>
@@ -3806,19 +3603,19 @@
       <c r="AG31" s="8"/>
       <c r="AH31" s="8"/>
       <c r="AI31" s="8"/>
-      <c r="AJ31" s="8">
+      <c r="AJ31" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK31" s="8">
+      <c r="AK31" s="8" t="n">
         <v>28</v>
       </c>
       <c r="AL31" s="11"/>
-      <c r="AM31" s="8">
+      <c r="AM31" s="8" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="8">
+    <row r="32" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="n">
         <v>42</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -3867,21 +3664,21 @@
       <c r="AG32" s="8"/>
       <c r="AH32" s="8"/>
       <c r="AI32" s="8"/>
-      <c r="AJ32" s="8">
+      <c r="AJ32" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="AK32" s="8">
+      <c r="AK32" s="8" t="n">
         <v>312</v>
       </c>
       <c r="AL32" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="AM32" s="8">
+      <c r="AM32" s="8" t="n">
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="8">
+    <row r="33" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="n">
         <v>43</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -3906,7 +3703,7 @@
         <v>170</v>
       </c>
       <c r="I33" s="8"/>
-      <c r="J33" s="8">
+      <c r="J33" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K33" s="8"/>
@@ -3941,7 +3738,7 @@
       <c r="AD33" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE33" s="9">
+      <c r="AE33" s="9" t="n">
         <v>0.04</v>
       </c>
       <c r="AF33" s="8"/>
@@ -3952,19 +3749,19 @@
       <c r="AI33" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="AJ33" s="8">
+      <c r="AJ33" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK33" s="8">
+      <c r="AK33" s="8" t="n">
         <v>29</v>
       </c>
       <c r="AL33" s="11"/>
-      <c r="AM33" s="8">
+      <c r="AM33" s="8" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="8">
+    <row r="34" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="n">
         <v>44</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -3989,7 +3786,7 @@
         <v>176</v>
       </c>
       <c r="I34" s="8"/>
-      <c r="J34" s="8">
+      <c r="J34" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K34" s="8"/>
@@ -4024,7 +3821,7 @@
       <c r="AD34" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="AE34" s="9">
+      <c r="AE34" s="9" t="n">
         <v>0.04</v>
       </c>
       <c r="AF34" s="8"/>
@@ -4035,19 +3832,19 @@
       <c r="AI34" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="AJ34" s="8">
+      <c r="AJ34" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK34" s="8">
+      <c r="AK34" s="8" t="n">
         <v>30</v>
       </c>
       <c r="AL34" s="11"/>
-      <c r="AM34" s="8">
+      <c r="AM34" s="8" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="8">
+    <row r="35" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="n">
         <v>45</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -4073,10 +3870,10 @@
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="8">
+      <c r="K35" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L35" s="8">
+      <c r="L35" s="8" t="n">
         <v>15</v>
       </c>
       <c r="M35" s="8" t="s">
@@ -4109,7 +3906,7 @@
       <c r="AD35" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE35" s="9">
+      <c r="AE35" s="9" t="n">
         <v>0.04</v>
       </c>
       <c r="AF35" s="8"/>
@@ -4120,19 +3917,19 @@
       <c r="AI35" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="AJ35" s="8">
+      <c r="AJ35" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK35" s="8">
+      <c r="AK35" s="8" t="n">
         <v>31</v>
       </c>
       <c r="AL35" s="11"/>
-      <c r="AM35" s="8">
+      <c r="AM35" s="8" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="8">
+    <row r="36" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="n">
         <v>46</v>
       </c>
       <c r="B36" s="8" t="s">
@@ -4181,19 +3978,19 @@
       <c r="AG36" s="8"/>
       <c r="AH36" s="8"/>
       <c r="AI36" s="8"/>
-      <c r="AJ36" s="8">
+      <c r="AJ36" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="AK36" s="8">
+      <c r="AK36" s="8" t="n">
         <v>400</v>
       </c>
-      <c r="AL36" s="13" t="s">
-        <v>262</v>
+      <c r="AL36" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="AM36" s="8"/>
     </row>
-    <row r="37" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="8">
+    <row r="37" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="n">
         <v>48</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -4206,19 +4003,19 @@
         <v>41</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H37" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I37" s="8"/>
-      <c r="J37" s="8">
+      <c r="J37" s="8" t="n">
         <v>4</v>
       </c>
       <c r="K37" s="8"/>
@@ -4242,10 +4039,10 @@
       <c r="U37" s="8"/>
       <c r="V37" s="8"/>
       <c r="W37" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X37" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y37" s="8"/>
       <c r="Z37" s="8"/>
@@ -4257,26 +4054,26 @@
       <c r="AD37" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE37" s="9">
+      <c r="AE37" s="9" t="n">
         <v>0.05</v>
       </c>
       <c r="AF37" s="8"/>
       <c r="AG37" s="8"/>
       <c r="AH37" s="8"/>
       <c r="AI37" s="8"/>
-      <c r="AJ37" s="8">
+      <c r="AJ37" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK37" s="8">
+      <c r="AK37" s="8" t="n">
         <v>33</v>
       </c>
       <c r="AL37" s="11"/>
-      <c r="AM37" s="8">
+      <c r="AM37" s="8" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="8">
+    <row r="38" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="n">
         <v>49</v>
       </c>
       <c r="B38" s="8" t="s">
@@ -4289,19 +4086,19 @@
         <v>41</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I38" s="8"/>
-      <c r="J38" s="8">
+      <c r="J38" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K38" s="8"/>
@@ -4311,7 +4108,7 @@
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
@@ -4319,10 +4116,10 @@
       <c r="U38" s="8"/>
       <c r="V38" s="8"/>
       <c r="W38" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X38" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y38" s="8"/>
       <c r="Z38" s="8"/>
@@ -4334,28 +4131,28 @@
       <c r="AD38" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE38" s="9">
-        <v>0.28000000000000003</v>
+      <c r="AE38" s="9" t="n">
+        <v>0.28</v>
       </c>
       <c r="AF38" s="8"/>
       <c r="AG38" s="8"/>
       <c r="AH38" s="8"/>
       <c r="AI38" s="8"/>
-      <c r="AJ38" s="8">
+      <c r="AJ38" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK38" s="8">
+      <c r="AK38" s="8" t="n">
         <v>34</v>
       </c>
       <c r="AL38" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="AM38" s="8">
+        <v>195</v>
+      </c>
+      <c r="AM38" s="8" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="8">
+    <row r="39" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="n">
         <v>50</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -4368,31 +4165,31 @@
         <v>41</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I39" s="8"/>
-      <c r="J39" s="8">
+      <c r="J39" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
-      <c r="M39" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="N39" s="14" t="s">
-        <v>264</v>
+      <c r="M39" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="8" t="s">
@@ -4406,10 +4203,10 @@
       <c r="U39" s="8"/>
       <c r="V39" s="8"/>
       <c r="W39" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X39" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y39" s="8"/>
       <c r="Z39" s="8"/>
@@ -4426,19 +4223,19 @@
       <c r="AG39" s="8"/>
       <c r="AH39" s="8"/>
       <c r="AI39" s="8"/>
-      <c r="AJ39" s="8">
+      <c r="AJ39" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK39" s="8">
+      <c r="AK39" s="8" t="n">
         <v>35</v>
       </c>
       <c r="AL39" s="11"/>
-      <c r="AM39" s="8">
+      <c r="AM39" s="8" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="8">
+    <row r="40" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="n">
         <v>51</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -4451,28 +4248,28 @@
         <v>41</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I40" s="8"/>
-      <c r="J40" s="8">
+      <c r="J40" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
@@ -4487,10 +4284,10 @@
       <c r="U40" s="8"/>
       <c r="V40" s="8"/>
       <c r="W40" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X40" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
@@ -4506,22 +4303,22 @@
       <c r="AF40" s="8"/>
       <c r="AG40" s="8"/>
       <c r="AH40" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AI40" s="8"/>
-      <c r="AJ40" s="8">
+      <c r="AJ40" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK40" s="8">
+      <c r="AK40" s="8" t="n">
         <v>36</v>
       </c>
       <c r="AL40" s="11"/>
-      <c r="AM40" s="8">
+      <c r="AM40" s="8" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="8">
+    <row r="41" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="n">
         <v>52</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -4534,19 +4331,19 @@
         <v>41</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I41" s="8"/>
-      <c r="J41" s="8">
+      <c r="J41" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="8"/>
@@ -4556,7 +4353,7 @@
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
       <c r="Q41" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R41" s="8"/>
       <c r="S41" s="8"/>
@@ -4564,10 +4361,10 @@
       <c r="U41" s="8"/>
       <c r="V41" s="8"/>
       <c r="W41" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X41" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y41" s="8"/>
       <c r="Z41" s="8"/>
@@ -4577,28 +4374,28 @@
       <c r="AD41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE41" s="9">
-        <v>7.0000000000000007E-2</v>
+      <c r="AE41" s="9" t="n">
+        <v>0.07</v>
       </c>
       <c r="AF41" s="8"/>
       <c r="AG41" s="8"/>
       <c r="AH41" s="8"/>
       <c r="AI41" s="8"/>
-      <c r="AJ41" s="8">
+      <c r="AJ41" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK41" s="8">
+      <c r="AK41" s="8" t="n">
         <v>680</v>
       </c>
       <c r="AL41" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="AM41" s="8">
+        <v>210</v>
+      </c>
+      <c r="AM41" s="8" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="8">
+    <row r="42" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="n">
         <v>53</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -4611,19 +4408,19 @@
         <v>41</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I42" s="8"/>
-      <c r="J42" s="8">
+      <c r="J42" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K42" s="8"/>
@@ -4633,7 +4430,7 @@
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
       <c r="Q42" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
@@ -4641,10 +4438,10 @@
       <c r="U42" s="8"/>
       <c r="V42" s="8"/>
       <c r="W42" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X42" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y42" s="8"/>
       <c r="Z42" s="8"/>
@@ -4661,21 +4458,21 @@
       <c r="AG42" s="8"/>
       <c r="AH42" s="8"/>
       <c r="AI42" s="8"/>
-      <c r="AJ42" s="8">
+      <c r="AJ42" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK42" s="8">
+      <c r="AK42" s="8" t="n">
         <v>72</v>
       </c>
       <c r="AL42" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="AM42" s="8">
+        <v>214</v>
+      </c>
+      <c r="AM42" s="8" t="n">
         <v>680</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="8">
+    <row r="43" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8" t="n">
         <v>54</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -4688,50 +4485,50 @@
         <v>41</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I43" s="8"/>
-      <c r="J43" s="8">
+      <c r="J43" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q43" s="8" t="s">
         <v>57</v>
       </c>
       <c r="R43" s="8" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
       <c r="U43" s="8"/>
       <c r="V43" s="8"/>
       <c r="W43" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X43" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y43" s="8"/>
       <c r="Z43" s="8"/>
@@ -4748,19 +4545,19 @@
       <c r="AG43" s="8"/>
       <c r="AH43" s="8"/>
       <c r="AI43" s="8"/>
-      <c r="AJ43" s="8">
+      <c r="AJ43" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="AK43" s="8">
+      <c r="AK43" s="8" t="n">
         <v>73</v>
       </c>
       <c r="AL43" s="11"/>
-      <c r="AM43" s="8">
+      <c r="AM43" s="8" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8">
+    <row r="44" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="n">
         <v>55</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -4773,28 +4570,28 @@
         <v>41</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I44" s="8"/>
-      <c r="J44" s="8">
+      <c r="J44" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
@@ -4809,10 +4606,10 @@
       <c r="U44" s="8"/>
       <c r="V44" s="8"/>
       <c r="W44" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X44" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y44" s="8"/>
       <c r="Z44" s="8"/>
@@ -4829,19 +4626,19 @@
       <c r="AG44" s="8"/>
       <c r="AH44" s="8"/>
       <c r="AI44" s="8"/>
-      <c r="AJ44" s="8">
+      <c r="AJ44" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="AK44" s="8">
+      <c r="AK44" s="8" t="n">
         <v>74</v>
       </c>
       <c r="AL44" s="11"/>
-      <c r="AM44" s="8">
+      <c r="AM44" s="8" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="8">
+    <row r="45" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8" t="n">
         <v>56</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -4854,19 +4651,19 @@
         <v>41</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I45" s="8"/>
-      <c r="J45" s="8">
+      <c r="J45" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K45" s="8"/>
@@ -4876,7 +4673,7 @@
       <c r="O45" s="8"/>
       <c r="P45" s="8"/>
       <c r="Q45" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
@@ -4884,10 +4681,10 @@
       <c r="U45" s="8"/>
       <c r="V45" s="8"/>
       <c r="W45" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X45" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y45" s="8"/>
       <c r="Z45" s="8"/>
@@ -4904,21 +4701,21 @@
       <c r="AG45" s="8"/>
       <c r="AH45" s="8"/>
       <c r="AI45" s="8"/>
-      <c r="AJ45" s="8">
+      <c r="AJ45" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK45" s="8">
+      <c r="AK45" s="8" t="n">
         <v>769</v>
       </c>
       <c r="AL45" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="AM45" s="8">
+        <v>225</v>
+      </c>
+      <c r="AM45" s="8" t="n">
         <v>680</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8">
+    <row r="46" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8" t="n">
         <v>57</v>
       </c>
       <c r="B46" s="8" t="s">
@@ -4931,50 +4728,50 @@
         <v>41</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>223</v>
+        <v>189</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I46" s="8"/>
-      <c r="J46" s="8">
+      <c r="J46" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P46" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q46" s="8" t="s">
         <v>57</v>
       </c>
       <c r="R46" s="8" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="S46" s="8"/>
       <c r="T46" s="8"/>
       <c r="U46" s="8"/>
       <c r="V46" s="8"/>
       <c r="W46" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X46" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y46" s="8"/>
       <c r="Z46" s="8"/>
@@ -4991,19 +4788,19 @@
       <c r="AG46" s="8"/>
       <c r="AH46" s="8"/>
       <c r="AI46" s="8"/>
-      <c r="AJ46" s="8">
+      <c r="AJ46" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="AK46" s="8">
+      <c r="AK46" s="8" t="n">
         <v>770</v>
       </c>
       <c r="AL46" s="11"/>
-      <c r="AM46" s="8">
+      <c r="AM46" s="8" t="n">
         <v>769</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="8">
+    <row r="47" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8" t="n">
         <v>58</v>
       </c>
       <c r="B47" s="8" t="s">
@@ -5016,28 +4813,28 @@
         <v>41</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>226</v>
+        <v>189</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I47" s="8"/>
-      <c r="J47" s="8">
+      <c r="J47" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="N47" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
+      </c>
+      <c r="N47" s="12" t="s">
+        <v>231</v>
       </c>
       <c r="O47" s="8"/>
       <c r="P47" s="8"/>
@@ -5052,10 +4849,10 @@
       <c r="U47" s="8"/>
       <c r="V47" s="8"/>
       <c r="W47" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X47" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y47" s="8"/>
       <c r="Z47" s="8"/>
@@ -5071,22 +4868,22 @@
       <c r="AF47" s="8"/>
       <c r="AG47" s="8"/>
       <c r="AH47" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AI47" s="8"/>
-      <c r="AJ47" s="8">
+      <c r="AJ47" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="AK47" s="8">
+      <c r="AK47" s="8" t="n">
         <v>771</v>
       </c>
       <c r="AL47" s="11"/>
-      <c r="AM47" s="8">
+      <c r="AM47" s="8" t="n">
         <v>769</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="8">
+    <row r="48" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="8" t="n">
         <v>59</v>
       </c>
       <c r="B48" s="8" t="s">
@@ -5096,22 +4893,22 @@
         <v>40</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
@@ -5122,7 +4919,7 @@
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
@@ -5142,16 +4939,16 @@
       <c r="AH48" s="8"/>
       <c r="AI48" s="8"/>
       <c r="AJ48" s="8"/>
-      <c r="AK48" s="8">
+      <c r="AK48" s="8" t="n">
         <v>37</v>
       </c>
       <c r="AL48" s="10" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AM48" s="8"/>
     </row>
-    <row r="49" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8">
+    <row r="49" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="8" t="n">
         <v>60</v>
       </c>
       <c r="B49" s="8" t="s">
@@ -5161,35 +4958,35 @@
         <v>40</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
-      <c r="N49" s="12" t="s">
-        <v>241</v>
+      <c r="N49" s="13" t="s">
+        <v>245</v>
       </c>
       <c r="O49" s="8"/>
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="8" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="S49" s="8"/>
       <c r="T49" s="8"/>
@@ -5209,16 +5006,16 @@
       <c r="AH49" s="8"/>
       <c r="AI49" s="8"/>
       <c r="AJ49" s="8"/>
-      <c r="AK49" s="8">
+      <c r="AK49" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="AL49" s="11">
+      <c r="AL49" s="11" t="n">
         <v>32</v>
       </c>
       <c r="AM49" s="8"/>
     </row>
-    <row r="50" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="8">
+    <row r="50" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="8" t="n">
         <v>61</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -5228,35 +5025,35 @@
         <v>40</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G50" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="H50" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="H50" s="8" t="s">
-        <v>239</v>
-      </c>
       <c r="I50" s="8" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
-      <c r="N50" s="12" t="s">
-        <v>244</v>
+      <c r="N50" s="13" t="s">
+        <v>248</v>
       </c>
       <c r="O50" s="8"/>
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="8" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="S50" s="8"/>
       <c r="T50" s="8"/>
@@ -5276,16 +5073,16 @@
       <c r="AH50" s="8"/>
       <c r="AI50" s="8"/>
       <c r="AJ50" s="8"/>
-      <c r="AK50" s="8">
-        <v>39</v>
-      </c>
-      <c r="AL50" s="11">
+      <c r="AK50" s="8" t="n">
+        <v>39</v>
+      </c>
+      <c r="AL50" s="11" t="n">
         <v>33</v>
       </c>
       <c r="AM50" s="8"/>
     </row>
-    <row r="51" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="8">
+    <row r="51" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="8" t="n">
         <v>62</v>
       </c>
       <c r="B51" s="8" t="s">
@@ -5295,37 +5092,37 @@
         <v>40</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
       <c r="M51" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="N51" s="12" t="s">
-        <v>248</v>
+        <v>251</v>
+      </c>
+      <c r="N51" s="13" t="s">
+        <v>252</v>
       </c>
       <c r="O51" s="8"/>
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="8" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="S51" s="8"/>
       <c r="T51" s="8"/>
@@ -5345,16 +5142,16 @@
       <c r="AH51" s="8"/>
       <c r="AI51" s="8"/>
       <c r="AJ51" s="8"/>
-      <c r="AK51" s="8">
-        <v>40</v>
-      </c>
-      <c r="AL51" s="11">
+      <c r="AK51" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL51" s="11" t="n">
         <v>34</v>
       </c>
       <c r="AM51" s="8"/>
     </row>
-    <row r="52" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="8">
+    <row r="52" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="8" t="n">
         <v>63</v>
       </c>
       <c r="B52" s="8" t="s">
@@ -5364,37 +5161,37 @@
         <v>40</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
       <c r="M52" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="N52" s="12" t="s">
         <v>251</v>
+      </c>
+      <c r="N52" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="O52" s="8"/>
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
       <c r="R52" s="8" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="S52" s="8"/>
       <c r="T52" s="8"/>
@@ -5414,16 +5211,16 @@
       <c r="AH52" s="8"/>
       <c r="AI52" s="8"/>
       <c r="AJ52" s="8"/>
-      <c r="AK52" s="8">
+      <c r="AK52" s="8" t="n">
         <v>42</v>
       </c>
       <c r="AL52" s="10" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AM52" s="8"/>
     </row>
-    <row r="53" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="8">
+    <row r="53" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="8" t="n">
         <v>64</v>
       </c>
       <c r="B53" s="8" t="s">
@@ -5433,35 +5230,35 @@
         <v>40</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
       <c r="N53" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="O53" s="8"/>
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="S53" s="8"/>
       <c r="T53" s="8"/>
@@ -5483,14 +5280,14 @@
       <c r="AH53" s="8"/>
       <c r="AI53" s="8"/>
       <c r="AJ53" s="8"/>
-      <c r="AK53" s="8">
+      <c r="AK53" s="8" t="n">
         <v>43</v>
       </c>
       <c r="AL53" s="11"/>
       <c r="AM53" s="8"/>
     </row>
-    <row r="54" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="8">
+    <row r="54" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="8" t="n">
         <v>65</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -5500,20 +5297,20 @@
         <v>40</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
@@ -5524,7 +5321,7 @@
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="8" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="S54" s="8"/>
       <c r="T54" s="8"/>
@@ -5544,15 +5341,21 @@
       <c r="AH54" s="8"/>
       <c r="AI54" s="8"/>
       <c r="AJ54" s="8"/>
-      <c r="AK54" s="8">
+      <c r="AK54" s="8" t="n">
         <v>401</v>
       </c>
       <c r="AL54" s="11"/>
       <c r="AM54" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM54" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <autoFilter ref="A1:AM1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_20190815_1845\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678B9367-EBFC-400B-9D4D-6B9E35FB3FF8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DB3DA7-32E8-4E2E-A51B-39D3622CC432}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1200" windowWidth="21840" windowHeight="13140" tabRatio="702" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="702" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QSR" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_FilterDatabase_0_0" localSheetId="0">QSR!$A$1:$AM$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">QSR!$A$1:$AM$1</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="264">
   <si>
     <t>Sorting</t>
   </si>
@@ -675,9 +675,6 @@
     <t>Комбо : Еда</t>
   </si>
   <si>
-    <t>number of facings near food</t>
-  </si>
-  <si>
     <t>food</t>
   </si>
   <si>
@@ -874,9 +871,6 @@
   </si>
   <si>
     <t>Integer</t>
-  </si>
-  <si>
-    <t>number of atomic KPI Passed on the same scene</t>
   </si>
 </sst>
 </file>
@@ -1383,9 +1377,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ54"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="D1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+    <sheetView windowProtection="1" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
+      <selection pane="bottomLeft" activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4366,7 +4360,7 @@
         <v>191</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>265</v>
+        <v>192</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6">
@@ -4527,7 +4521,7 @@
       <c r="G40" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="6" t="s">
         <v>54</v>
       </c>
       <c r="I40" s="6"/>
@@ -4537,10 +4531,10 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="N40" s="11" t="s">
         <v>204</v>
-      </c>
-      <c r="N40" s="11" t="s">
-        <v>205</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -4574,7 +4568,7 @@
       <c r="AF40" s="6"/>
       <c r="AG40" s="6"/>
       <c r="AH40" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AI40" s="6"/>
       <c r="AJ40" s="6">
@@ -4602,16 +4596,16 @@
         <v>41</v>
       </c>
       <c r="E41" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="G41" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="G41" s="6" t="s">
-        <v>209</v>
-      </c>
       <c r="H41" s="15" t="s">
-        <v>265</v>
+        <v>192</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6">
@@ -4659,7 +4653,7 @@
         <v>680</v>
       </c>
       <c r="AL41" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AM41" s="6">
         <v>400</v>
@@ -4682,13 +4676,13 @@
         <v>189</v>
       </c>
       <c r="F42" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="H42" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6">
@@ -4736,7 +4730,7 @@
         <v>72</v>
       </c>
       <c r="AL42" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AM42" s="6">
         <v>680</v>
@@ -4759,10 +4753,10 @@
         <v>189</v>
       </c>
       <c r="F43" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>216</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>54</v>
@@ -4774,22 +4768,22 @@
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O43" s="6" t="s">
         <v>200</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q43" s="6" t="s">
         <v>57</v>
       </c>
       <c r="R43" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
@@ -4844,10 +4838,10 @@
         <v>189</v>
       </c>
       <c r="F44" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>54</v>
@@ -4859,10 +4853,10 @@
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="N44" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="N44" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
@@ -4925,13 +4919,13 @@
         <v>189</v>
       </c>
       <c r="F45" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="G45" s="6" t="s">
-        <v>224</v>
-      </c>
       <c r="H45" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6">
@@ -4979,7 +4973,7 @@
         <v>769</v>
       </c>
       <c r="AL45" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AM45" s="6">
         <v>680</v>
@@ -5002,10 +4996,10 @@
         <v>189</v>
       </c>
       <c r="F46" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>54</v>
@@ -5017,22 +5011,22 @@
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O46" s="6" t="s">
         <v>200</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q46" s="6" t="s">
         <v>57</v>
       </c>
       <c r="R46" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
@@ -5087,12 +5081,12 @@
         <v>189</v>
       </c>
       <c r="F47" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="G47" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="H47" s="15" t="s">
+      <c r="H47" s="6" t="s">
         <v>54</v>
       </c>
       <c r="I47" s="6"/>
@@ -5102,10 +5096,10 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="N47" s="11" t="s">
         <v>204</v>
-      </c>
-      <c r="N47" s="11" t="s">
-        <v>205</v>
       </c>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
@@ -5139,7 +5133,7 @@
       <c r="AF47" s="6"/>
       <c r="AG47" s="6"/>
       <c r="AH47" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AI47" s="6"/>
       <c r="AJ47" s="6">
@@ -5164,22 +5158,22 @@
         <v>40</v>
       </c>
       <c r="D48" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="F48" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="G48" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="H48" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="I48" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
@@ -5190,7 +5184,7 @@
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
@@ -5214,7 +5208,7 @@
         <v>37</v>
       </c>
       <c r="AL48" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM48" s="6"/>
     </row>
@@ -5229,35 +5223,35 @@
         <v>40</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E49" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="G49" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="H49" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="I49" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>243</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
@@ -5296,35 +5290,35 @@
         <v>40</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>184</v>
       </c>
       <c r="F50" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="G50" s="6" t="s">
-        <v>246</v>
-      </c>
       <c r="H50" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="I50" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>243</v>
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
       <c r="R50" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
@@ -5363,37 +5357,37 @@
         <v>40</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E51" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="F51" s="6" t="s">
-        <v>249</v>
-      </c>
       <c r="G51" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H51" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="I51" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>243</v>
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="N51" s="12" t="s">
         <v>250</v>
-      </c>
-      <c r="N51" s="12" t="s">
-        <v>251</v>
       </c>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
       <c r="R51" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S51" s="6"/>
       <c r="T51" s="6"/>
@@ -5432,37 +5426,37 @@
         <v>40</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>189</v>
       </c>
       <c r="F52" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="G52" s="6" t="s">
-        <v>253</v>
-      </c>
       <c r="H52" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="I52" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>243</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N52" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
       <c r="R52" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S52" s="6"/>
       <c r="T52" s="6"/>
@@ -5486,7 +5480,7 @@
         <v>42</v>
       </c>
       <c r="AL52" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AM52" s="6"/>
     </row>
@@ -5501,35 +5495,35 @@
         <v>40</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E53" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="G53" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="H53" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="H53" s="6" t="s">
-        <v>259</v>
-      </c>
       <c r="I53" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
       <c r="R53" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S53" s="6"/>
       <c r="T53" s="6"/>
@@ -5568,20 +5562,20 @@
         <v>40</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="H54" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="I54" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
@@ -5592,7 +5586,7 @@
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
       <c r="R54" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S54" s="6"/>
       <c r="T54" s="6"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_20190815_1845\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DB3DA7-32E8-4E2E-A51B-39D3622CC432}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678B9367-EBFC-400B-9D4D-6B9E35FB3FF8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="702" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1200" windowWidth="21840" windowHeight="13140" tabRatio="702" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QSR" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_FilterDatabase_0_0" localSheetId="0">QSR!$A$1:$AM$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">QSR!$A$1:$AM$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="266">
   <si>
     <t>Sorting</t>
   </si>
@@ -675,6 +675,9 @@
     <t>Комбо : Еда</t>
   </si>
   <si>
+    <t>number of facings near food</t>
+  </si>
+  <si>
     <t>food</t>
   </si>
   <si>
@@ -871,6 +874,9 @@
   </si>
   <si>
     <t>Integer</t>
+  </si>
+  <si>
+    <t>number of atomic KPI Passed on the same scene</t>
   </si>
 </sst>
 </file>
@@ -1377,9 +1383,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ54"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="D1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J43" sqref="J43"/>
+      <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4360,7 +4366,7 @@
         <v>191</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>192</v>
+        <v>265</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6">
@@ -4521,7 +4527,7 @@
       <c r="G40" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="15" t="s">
         <v>54</v>
       </c>
       <c r="I40" s="6"/>
@@ -4531,10 +4537,10 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -4568,7 +4574,7 @@
       <c r="AF40" s="6"/>
       <c r="AG40" s="6"/>
       <c r="AH40" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AI40" s="6"/>
       <c r="AJ40" s="6">
@@ -4596,16 +4602,16 @@
         <v>41</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>192</v>
+        <v>265</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6">
@@ -4653,7 +4659,7 @@
         <v>680</v>
       </c>
       <c r="AL41" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM41" s="6">
         <v>400</v>
@@ -4676,13 +4682,13 @@
         <v>189</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6">
@@ -4730,7 +4736,7 @@
         <v>72</v>
       </c>
       <c r="AL42" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM42" s="6">
         <v>680</v>
@@ -4753,10 +4759,10 @@
         <v>189</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>54</v>
@@ -4768,22 +4774,22 @@
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O43" s="6" t="s">
         <v>200</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q43" s="6" t="s">
         <v>57</v>
       </c>
       <c r="R43" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
@@ -4838,10 +4844,10 @@
         <v>189</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>54</v>
@@ -4853,10 +4859,10 @@
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
@@ -4919,13 +4925,13 @@
         <v>189</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6">
@@ -4973,7 +4979,7 @@
         <v>769</v>
       </c>
       <c r="AL45" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM45" s="6">
         <v>680</v>
@@ -4996,10 +5002,10 @@
         <v>189</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>54</v>
@@ -5011,22 +5017,22 @@
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O46" s="6" t="s">
         <v>200</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q46" s="6" t="s">
         <v>57</v>
       </c>
       <c r="R46" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
@@ -5081,12 +5087,12 @@
         <v>189</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="H47" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="H47" s="15" t="s">
         <v>54</v>
       </c>
       <c r="I47" s="6"/>
@@ -5096,10 +5102,10 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
@@ -5133,7 +5139,7 @@
       <c r="AF47" s="6"/>
       <c r="AG47" s="6"/>
       <c r="AH47" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AI47" s="6"/>
       <c r="AJ47" s="6">
@@ -5158,22 +5164,22 @@
         <v>40</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
@@ -5184,7 +5190,7 @@
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
@@ -5208,7 +5214,7 @@
         <v>37</v>
       </c>
       <c r="AL48" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM48" s="6"/>
     </row>
@@ -5223,35 +5229,35 @@
         <v>40</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
@@ -5290,35 +5296,35 @@
         <v>40</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>184</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
       <c r="R50" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
@@ -5357,37 +5363,37 @@
         <v>40</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N51" s="12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
       <c r="R51" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="S51" s="6"/>
       <c r="T51" s="6"/>
@@ -5426,37 +5432,37 @@
         <v>40</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>189</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N52" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
       <c r="R52" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="S52" s="6"/>
       <c r="T52" s="6"/>
@@ -5480,7 +5486,7 @@
         <v>42</v>
       </c>
       <c r="AL52" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM52" s="6"/>
     </row>
@@ -5495,35 +5501,35 @@
         <v>40</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
       <c r="R53" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S53" s="6"/>
       <c r="T53" s="6"/>
@@ -5562,20 +5568,20 @@
         <v>40</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
@@ -5586,7 +5592,7 @@
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
       <c r="R54" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="S54" s="6"/>
       <c r="T54" s="6"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_20190729_1304\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_20190815_1845\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97259F81-DF86-4DC6-A6A4-22CF34F00B2F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678B9367-EBFC-400B-9D4D-6B9E35FB3FF8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="717" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1200" windowWidth="21840" windowHeight="13140" tabRatio="702" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QSR" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="266">
   <si>
     <t>Sorting</t>
   </si>
@@ -663,6 +663,9 @@
     <t>Coke+Coca Cola Zero Bottle Nrgb, Coca Cola Zero Bottle, Coca Cola Zero Logo, Coca Cola Zero Can</t>
   </si>
   <si>
+    <t>50111111, 50111112, 50111113, 50111114, 5000006, 5000004, 5000005, 5000006, 5050570, 5000101, 5000009</t>
+  </si>
+  <si>
     <t>IC Activation</t>
   </si>
   <si>
@@ -676,6 +679,9 @@
   </si>
   <si>
     <t>food</t>
+  </si>
+  <si>
+    <t>5000034, A5B10138, A5B10137, A5B10136, A5B10135, A5B10125, A5B10124, A5B10123, A5B10123, A5B10122, A5B10121, A5B10120, A5B10119, A5B10118, A5B10117, A5B10116, A5B10091, A5B10090, A5B10089, A5B10088, A5B10087, A5B10086, A5B10085, A5B10057</t>
   </si>
   <si>
     <t>Food should be near Image</t>
@@ -754,9 +760,6 @@
   </si>
   <si>
     <t>Сок и еда: Еда</t>
-  </si>
-  <si>
-    <t>5000034, A5B10138, A5B10137, A5B10136, A5B10135, A5B10125, A5B10124, A5B10123, A5B10123, A5B10122, A5B10121, A5B10120, A5B10119, A5B10118, A5B10117, A5B10116, A5B10091, A5B10090, A5B10089, A5B10088, A5B10087, A5B10086, A5B10085, A5B10057, 5000044, 5000042, 5000041</t>
   </si>
   <si>
     <t>Hidden</t>
@@ -873,10 +876,7 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>50111111, 50111112, 50111113, 50111114, 5000006, 5000004, 5000005, 5000006, 5050570, 5000101, 5000009</t>
-  </si>
-  <si>
-    <t>5000034, A5B10138, A5B10137, A5B10136, A5B10135, A5B10125, A5B10124, A5B10123, A5B10123, A5B10122, A5B10121, A5B10120, A5B10119, A5B10118, A5B10117, A5B10116, A5B10091, A5B10090, A5B10089, A5B10088, A5B10087, A5B10086, A5B10085, A5B10057</t>
+    <t>number of atomic KPI Passed on the same scene</t>
   </si>
 </sst>
 </file>
@@ -953,7 +953,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -996,9 +996,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1052,8 +1049,8 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -1386,50 +1383,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ54"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N47" sqref="N47"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="D1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.44140625" style="9"/>
-    <col min="2" max="2" width="19.21875" style="9"/>
-    <col min="3" max="3" width="18.33203125" style="9"/>
-    <col min="4" max="4" width="18.88671875" style="9"/>
-    <col min="5" max="5" width="18.33203125" style="9"/>
-    <col min="6" max="6" width="82" style="9"/>
-    <col min="7" max="7" width="84" style="9"/>
-    <col min="8" max="8" width="46.5546875" style="9"/>
-    <col min="9" max="9" width="25" style="9"/>
-    <col min="10" max="10" width="16.109375" style="9"/>
-    <col min="11" max="11" width="21.109375" style="9"/>
-    <col min="12" max="12" width="22" style="9"/>
-    <col min="13" max="14" width="33" style="9"/>
-    <col min="15" max="15" width="29.6640625" style="9"/>
-    <col min="16" max="16" width="21.109375" style="9"/>
-    <col min="17" max="17" width="28.6640625" style="9"/>
-    <col min="18" max="18" width="14.88671875" style="9"/>
+    <col min="2" max="2" width="19.33203125" style="9"/>
+    <col min="3" max="3" width="18.44140625" style="9"/>
+    <col min="4" max="4" width="19" style="9"/>
+    <col min="5" max="5" width="18.44140625" style="9"/>
+    <col min="6" max="6" width="82.6640625" style="9"/>
+    <col min="7" max="7" width="84.77734375" style="9"/>
+    <col min="8" max="8" width="46.88671875" style="9"/>
+    <col min="9" max="9" width="25.21875" style="9"/>
+    <col min="10" max="10" width="16.21875" style="9"/>
+    <col min="11" max="11" width="21.21875" style="9"/>
+    <col min="12" max="12" width="22.21875" style="9"/>
+    <col min="13" max="14" width="33.21875" style="9"/>
+    <col min="15" max="15" width="29.88671875" style="9"/>
+    <col min="16" max="16" width="21.21875" style="9"/>
+    <col min="17" max="17" width="28.88671875" style="9"/>
+    <col min="18" max="18" width="15" style="9"/>
     <col min="19" max="19" width="13.44140625" style="9"/>
-    <col min="20" max="20" width="22.6640625" style="9"/>
-    <col min="21" max="21" width="27.44140625" style="9"/>
-    <col min="22" max="22" width="33.88671875" style="9"/>
-    <col min="23" max="23" width="33" style="9"/>
-    <col min="24" max="24" width="30.44140625" style="9"/>
-    <col min="25" max="25" width="31.109375" style="9"/>
-    <col min="26" max="26" width="37.77734375" style="9"/>
-    <col min="27" max="27" width="38.33203125" style="9"/>
-    <col min="28" max="28" width="25" style="9"/>
-    <col min="29" max="29" width="22.5546875" style="9"/>
-    <col min="30" max="30" width="22.33203125" style="9"/>
-    <col min="31" max="31" width="21.33203125" style="13"/>
-    <col min="32" max="32" width="20.5546875" style="9"/>
-    <col min="33" max="33" width="21.33203125" style="9"/>
-    <col min="34" max="34" width="70" style="9"/>
-    <col min="35" max="35" width="24.77734375" style="9"/>
+    <col min="20" max="20" width="22.77734375" style="9"/>
+    <col min="21" max="21" width="27.6640625" style="9"/>
+    <col min="22" max="22" width="34.21875" style="9"/>
+    <col min="23" max="23" width="33.21875" style="9"/>
+    <col min="24" max="24" width="30.6640625" style="9"/>
+    <col min="25" max="25" width="31.33203125" style="9"/>
+    <col min="26" max="26" width="38" style="9"/>
+    <col min="27" max="27" width="38.6640625" style="9"/>
+    <col min="28" max="28" width="25.21875" style="9"/>
+    <col min="29" max="29" width="22.6640625" style="9"/>
+    <col min="30" max="30" width="22.44140625" style="9"/>
+    <col min="31" max="31" width="21.5546875" style="13"/>
+    <col min="32" max="32" width="20.6640625" style="9"/>
+    <col min="33" max="33" width="21.5546875" style="9"/>
+    <col min="34" max="34" width="70.5546875" style="9"/>
+    <col min="35" max="35" width="25" style="9"/>
     <col min="36" max="36" width="13.5546875" style="9"/>
-    <col min="37" max="37" width="15.5546875" style="9"/>
-    <col min="38" max="38" width="22.88671875" style="14"/>
+    <col min="37" max="37" width="15.6640625" style="9"/>
+    <col min="38" max="38" width="23" style="14"/>
     <col min="39" max="39" width="16.33203125" style="9"/>
     <col min="40" max="1023" width="9.21875" style="9"/>
     <col min="1024" max="1025" width="9.21875" style="5"/>
@@ -4368,8 +4365,8 @@
       <c r="G38" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>192</v>
+      <c r="H38" s="15" t="s">
+        <v>265</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6">
@@ -4459,11 +4456,11 @@
       <c r="M39" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="N39" s="15" t="s">
-        <v>264</v>
+      <c r="N39" s="11" t="s">
+        <v>199</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P39" s="6"/>
       <c r="Q39" s="6" t="s">
@@ -4525,13 +4522,13 @@
         <v>189</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="H40" s="6" t="s">
         <v>202</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="6">
@@ -4540,10 +4537,10 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="N40" s="15" t="s">
-        <v>265</v>
+        <v>204</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -4577,7 +4574,7 @@
       <c r="AF40" s="6"/>
       <c r="AG40" s="6"/>
       <c r="AH40" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AI40" s="6"/>
       <c r="AJ40" s="6">
@@ -4605,16 +4602,16 @@
         <v>41</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>192</v>
+        <v>209</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>265</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6">
@@ -4662,7 +4659,7 @@
         <v>680</v>
       </c>
       <c r="AL41" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AM41" s="6">
         <v>400</v>
@@ -4685,13 +4682,13 @@
         <v>189</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6">
@@ -4739,7 +4736,7 @@
         <v>72</v>
       </c>
       <c r="AL42" s="8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AM42" s="6">
         <v>680</v>
@@ -4762,10 +4759,10 @@
         <v>189</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>54</v>
@@ -4777,22 +4774,22 @@
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q43" s="6" t="s">
         <v>57</v>
       </c>
       <c r="R43" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
@@ -4847,10 +4844,10 @@
         <v>189</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>54</v>
@@ -4862,10 +4859,10 @@
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
@@ -4928,13 +4925,13 @@
         <v>189</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6">
@@ -4982,7 +4979,7 @@
         <v>769</v>
       </c>
       <c r="AL45" s="8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AM45" s="6">
         <v>680</v>
@@ -5005,10 +5002,10 @@
         <v>189</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>54</v>
@@ -5020,22 +5017,22 @@
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q46" s="6" t="s">
         <v>57</v>
       </c>
       <c r="R46" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
@@ -5090,13 +5087,13 @@
         <v>189</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>202</v>
+        <v>230</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6">
@@ -5105,10 +5102,10 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="N47" s="16" t="s">
-        <v>265</v>
+        <v>204</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
@@ -5142,7 +5139,7 @@
       <c r="AF47" s="6"/>
       <c r="AG47" s="6"/>
       <c r="AH47" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AI47" s="6"/>
       <c r="AJ47" s="6">
@@ -5167,22 +5164,22 @@
         <v>40</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
@@ -5193,7 +5190,7 @@
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
@@ -5217,7 +5214,7 @@
         <v>37</v>
       </c>
       <c r="AL48" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM48" s="6"/>
     </row>
@@ -5232,35 +5229,35 @@
         <v>40</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
@@ -5299,35 +5296,35 @@
         <v>40</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>184</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
       <c r="R50" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
@@ -5366,37 +5363,37 @@
         <v>40</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N51" s="12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
       <c r="R51" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="S51" s="6"/>
       <c r="T51" s="6"/>
@@ -5435,37 +5432,37 @@
         <v>40</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>189</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N52" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
       <c r="R52" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="S52" s="6"/>
       <c r="T52" s="6"/>
@@ -5489,7 +5486,7 @@
         <v>42</v>
       </c>
       <c r="AL52" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM52" s="6"/>
     </row>
@@ -5504,35 +5501,35 @@
         <v>40</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
       <c r="R53" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S53" s="6"/>
       <c r="T53" s="6"/>
@@ -5571,20 +5568,20 @@
         <v>40</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
@@ -5595,7 +5592,7 @@
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
       <c r="R54" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="S54" s="6"/>
       <c r="T54" s="6"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -16,6 +16,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">QSR!$A$1:$AM$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">QSR!$A$1:$AM$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AM$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -284,7 +285,7 @@
     <t xml:space="preserve">Coca-Cola Vanilla - 0.5L, Coca-Cola Vanila - 0.33L Glass</t>
   </si>
   <si>
-    <t xml:space="preserve">42099697, 111111</t>
+    <t xml:space="preserve">42099697, 87303377</t>
   </si>
   <si>
     <t xml:space="preserve">Fanta Pear - 0.5L/Fanta Citrus - 0.5L</t>
@@ -918,14 +919,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -972,7 +973,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -987,10 +988,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1127,4237 +1124,4237 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="83.3400809716599"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="85.4817813765182"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.2388663967611"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="84.0890688259109"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="86.2307692307692"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="38.3481781376518"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="71.1255060728745"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="71.7692307692308"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="3" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="3" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1023" min="40" style="1" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="4" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.21052631578947"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="7" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AK1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AL1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AM1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AMJ1" s="4"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="n">
+      <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9" t="n">
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="AK2" s="9" t="n">
+      <c r="AK2" s="8" t="n">
         <v>300</v>
       </c>
-      <c r="AL2" s="11" t="s">
+      <c r="AL2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AM2" s="9"/>
+      <c r="AM2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9" t="s">
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AD3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9" t="n">
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK3" s="9" t="n">
+      <c r="AK3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="AL3" s="11" t="s">
+      <c r="AL3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AM3" s="9" t="n">
+      <c r="AM3" s="8" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="B4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9" t="n">
+      <c r="I4" s="8"/>
+      <c r="J4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9" t="s">
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9" t="s">
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9" t="s">
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9" t="s">
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9" t="s">
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AD4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE4" s="10" t="n">
+      <c r="AE4" s="9" t="n">
         <v>0.04198</v>
       </c>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9" t="n">
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK4" s="9" t="n">
+      <c r="AK4" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="9" t="n">
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
+      <c r="A5" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="B5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9" t="n">
+      <c r="I5" s="8"/>
+      <c r="J5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9" t="s">
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9" t="s">
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="R5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9" t="s">
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9" t="s">
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9" t="s">
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD5" s="9" t="s">
+      <c r="AD5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE5" s="10" t="n">
+      <c r="AE5" s="9" t="n">
         <v>0.04198</v>
       </c>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="9" t="n">
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK5" s="9" t="n">
+      <c r="AK5" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="9" t="n">
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
+      <c r="A6" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="B6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9" t="n">
+      <c r="I6" s="8"/>
+      <c r="J6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9" t="s">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9" t="s">
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9" t="s">
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9" t="s">
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9" t="s">
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD6" s="9" t="s">
+      <c r="AD6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE6" s="10" t="n">
+      <c r="AE6" s="9" t="n">
         <v>0.04198</v>
       </c>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9" t="n">
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK6" s="9" t="n">
+      <c r="AK6" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="9" t="n">
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
+      <c r="A7" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9" t="n">
+      <c r="I7" s="8"/>
+      <c r="J7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9" t="s">
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9" t="s">
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="R7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9" t="s">
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9" t="s">
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9" t="s">
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD7" s="9" t="s">
+      <c r="AD7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE7" s="10" t="n">
+      <c r="AE7" s="9" t="n">
         <v>0.04198</v>
       </c>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="9" t="n">
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK7" s="9" t="n">
+      <c r="AK7" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="9" t="n">
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
+      <c r="A8" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9" t="n">
+      <c r="I8" s="8"/>
+      <c r="J8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9" t="s">
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9" t="s">
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="R8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9" t="s">
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9" t="s">
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9" t="s">
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD8" s="9" t="s">
+      <c r="AD8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE8" s="10" t="n">
+      <c r="AE8" s="9" t="n">
         <v>0.0217</v>
       </c>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="9" t="n">
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK8" s="9" t="n">
+      <c r="AK8" s="8" t="n">
         <v>606</v>
       </c>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="9" t="n">
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
+      <c r="A9" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9" t="n">
+      <c r="I9" s="8"/>
+      <c r="J9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9" t="s">
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9" t="s">
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="R9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9" t="s">
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9" t="s">
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9" t="s">
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE9" s="10" t="n">
+      <c r="AE9" s="9" t="n">
         <v>0.0217</v>
       </c>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="9"/>
-      <c r="AI9" s="9"/>
-      <c r="AJ9" s="9" t="n">
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK9" s="9" t="n">
+      <c r="AK9" s="8" t="n">
         <v>603</v>
       </c>
-      <c r="AL9" s="12"/>
-      <c r="AM9" s="9" t="n">
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
+      <c r="A10" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="B10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9" t="n">
+      <c r="I10" s="8"/>
+      <c r="J10" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9" t="s">
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9" t="s">
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="R10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9" t="s">
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9" t="s">
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9" t="s">
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD10" s="9" t="s">
+      <c r="AD10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE10" s="10" t="n">
+      <c r="AE10" s="9" t="n">
         <v>0.0217</v>
       </c>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="9" t="n">
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK10" s="9" t="n">
+      <c r="AK10" s="8" t="n">
         <v>607</v>
       </c>
-      <c r="AL10" s="12"/>
-      <c r="AM10" s="9" t="n">
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
+      <c r="A11" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="B11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9" t="s">
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD11" s="9" t="s">
+      <c r="AD11" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="9" t="n">
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK11" s="9" t="n">
+      <c r="AK11" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="AL11" s="11" t="s">
+      <c r="AL11" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="AM11" s="9" t="n">
+      <c r="AM11" s="8" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="n">
+      <c r="A12" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="B12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9" t="n">
+      <c r="I12" s="8"/>
+      <c r="J12" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9" t="s">
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N12" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9" t="s">
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="R12" s="9" t="s">
+      <c r="R12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9" t="s">
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9" t="s">
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9" t="s">
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD12" s="9" t="s">
+      <c r="AD12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE12" s="10" t="n">
+      <c r="AE12" s="9" t="n">
         <v>0.0225</v>
       </c>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="9" t="n">
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK12" s="9" t="n">
+      <c r="AK12" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="AL12" s="12"/>
-      <c r="AM12" s="9" t="n">
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="8" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
+      <c r="A13" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="B13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9" t="n">
+      <c r="I13" s="8"/>
+      <c r="J13" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9" t="s">
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9" t="s">
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="R13" s="9" t="s">
+      <c r="R13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9" t="s">
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9" t="s">
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9" t="s">
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD13" s="9" t="s">
+      <c r="AD13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE13" s="10" t="n">
+      <c r="AE13" s="9" t="n">
         <v>0.012696</v>
       </c>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9" t="n">
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK13" s="9" t="n">
+      <c r="AK13" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="AL13" s="12"/>
-      <c r="AM13" s="9" t="n">
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="8" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="n">
+      <c r="A14" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="B14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9" t="s">
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD14" s="9" t="s">
+      <c r="AD14" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9" t="n">
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK14" s="9" t="n">
+      <c r="AK14" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="AL14" s="11" t="s">
+      <c r="AL14" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AM14" s="9" t="n">
+      <c r="AM14" s="8" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
+      <c r="A15" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="B15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9" t="n">
+      <c r="I15" s="8"/>
+      <c r="J15" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9" t="s">
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="N15" s="9" t="n">
+      <c r="N15" s="8" t="n">
         <v>5449000131768</v>
       </c>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9" t="s">
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="R15" s="9" t="s">
+      <c r="R15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9" t="s">
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9" t="s">
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9" t="s">
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD15" s="9" t="s">
+      <c r="AD15" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE15" s="10" t="n">
+      <c r="AE15" s="9" t="n">
         <v>0.012696</v>
       </c>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9" t="n">
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK15" s="9" t="n">
+      <c r="AK15" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="AL15" s="12"/>
-      <c r="AM15" s="9" t="n">
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="8" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="n">
+      <c r="A16" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="B16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9" t="n">
+      <c r="I16" s="8"/>
+      <c r="J16" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9" t="s">
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="N16" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9" t="s">
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="R16" s="9" t="s">
+      <c r="R16" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9" t="s">
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9" t="s">
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9" t="s">
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE16" s="10" t="n">
+      <c r="AE16" s="9" t="n">
         <v>0.009</v>
       </c>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="9"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="9" t="n">
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK16" s="9" t="n">
+      <c r="AK16" s="8" t="n">
         <v>62</v>
       </c>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="9" t="n">
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="8" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="n">
+      <c r="A17" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="B17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9" t="s">
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD17" s="9" t="s">
+      <c r="AD17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="9"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="9"/>
-      <c r="AJ17" s="9" t="n">
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK17" s="9" t="n">
+      <c r="AK17" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="AL17" s="11" t="s">
+      <c r="AL17" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="AM17" s="9" t="n">
+      <c r="AM17" s="8" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="n">
+      <c r="A18" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="B18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9" t="n">
+      <c r="I18" s="8"/>
+      <c r="J18" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9" t="s">
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="N18" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9" t="s">
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="R18" s="9" t="s">
+      <c r="R18" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9" t="s">
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9" t="s">
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9" t="s">
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD18" s="9" t="s">
+      <c r="AD18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE18" s="10" t="n">
+      <c r="AE18" s="9" t="n">
         <v>0.0225</v>
       </c>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="9"/>
-      <c r="AJ18" s="9" t="n">
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK18" s="9" t="n">
+      <c r="AK18" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="AL18" s="12"/>
-      <c r="AM18" s="9" t="n">
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="8" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="n">
+      <c r="A19" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="B19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9" t="n">
+      <c r="I19" s="8"/>
+      <c r="J19" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9" t="s">
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="N19" s="9" t="n">
+      <c r="N19" s="8" t="n">
         <v>4607042430879</v>
       </c>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9" t="s">
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="R19" s="9" t="s">
+      <c r="R19" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9" t="s">
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9" t="s">
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9" t="s">
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD19" s="9" t="s">
+      <c r="AD19" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE19" s="10" t="n">
+      <c r="AE19" s="9" t="n">
         <v>0.012696</v>
       </c>
-      <c r="AF19" s="9"/>
-      <c r="AG19" s="9"/>
-      <c r="AH19" s="9"/>
-      <c r="AI19" s="9"/>
-      <c r="AJ19" s="9" t="n">
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK19" s="9" t="n">
+      <c r="AK19" s="8" t="n">
         <v>215</v>
       </c>
-      <c r="AL19" s="12"/>
-      <c r="AM19" s="9" t="n">
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="8" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
+      <c r="A20" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="B20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9" t="n">
+      <c r="I20" s="8"/>
+      <c r="J20" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9" t="s">
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="N20" s="9" t="s">
+      <c r="N20" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9" t="s">
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="R20" s="9" t="s">
+      <c r="R20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9" t="s">
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9" t="s">
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9" t="s">
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD20" s="9" t="s">
+      <c r="AD20" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE20" s="10" t="n">
+      <c r="AE20" s="9" t="n">
         <v>0.012696</v>
       </c>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="9" t="n">
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK20" s="9" t="n">
+      <c r="AK20" s="8" t="n">
         <v>216</v>
       </c>
-      <c r="AL20" s="12"/>
-      <c r="AM20" s="9" t="n">
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="8" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="n">
+      <c r="A21" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="B21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9" t="n">
+      <c r="I21" s="8"/>
+      <c r="J21" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9" t="s">
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="N21" s="9" t="n">
+      <c r="N21" s="8" t="n">
         <v>5449000233615</v>
       </c>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9" t="s">
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="R21" s="9" t="s">
+      <c r="R21" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9" t="s">
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9" t="s">
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9" t="s">
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD21" s="9" t="s">
+      <c r="AD21" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE21" s="10" t="n">
+      <c r="AE21" s="9" t="n">
         <v>0.009</v>
       </c>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="9" t="n">
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK21" s="9" t="n">
+      <c r="AK21" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="AL21" s="12"/>
-      <c r="AM21" s="9" t="n">
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="8" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="n">
+      <c r="A22" s="8" t="n">
         <v>27</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="B22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>86</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9" t="s">
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD22" s="9" t="s">
+      <c r="AD22" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9" t="n">
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK22" s="9" t="n">
+      <c r="AK22" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="AL22" s="11" t="s">
+      <c r="AL22" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="AM22" s="9" t="n">
+      <c r="AM22" s="8" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="n">
+      <c r="A23" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="9" t="s">
+      <c r="B23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9" t="n">
+      <c r="I23" s="8"/>
+      <c r="J23" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9" t="s">
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="N23" s="9" t="s">
+      <c r="N23" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9" t="s">
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="R23" s="9" t="s">
+      <c r="R23" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9" t="s">
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9" t="s">
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9" t="s">
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD23" s="9" t="s">
+      <c r="AD23" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE23" s="10" t="n">
+      <c r="AE23" s="9" t="n">
         <v>0.0225</v>
       </c>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9" t="n">
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK23" s="9" t="n">
+      <c r="AK23" s="8" t="n">
         <v>222</v>
       </c>
-      <c r="AL23" s="12"/>
-      <c r="AM23" s="9" t="n">
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="8" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="n">
+      <c r="A24" s="8" t="n">
         <v>29</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="9" t="s">
+      <c r="B24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9" t="n">
+      <c r="I24" s="8"/>
+      <c r="J24" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9" t="s">
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="N24" s="9" t="s">
+      <c r="N24" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9" t="s">
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="R24" s="9" t="s">
+      <c r="R24" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9" t="s">
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9" t="s">
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9" t="s">
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD24" s="9" t="s">
+      <c r="AD24" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE24" s="10" t="n">
+      <c r="AE24" s="9" t="n">
         <v>0.012696</v>
       </c>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="9"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="9"/>
-      <c r="AJ24" s="9" t="n">
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK24" s="9" t="n">
+      <c r="AK24" s="8" t="n">
         <v>221</v>
       </c>
-      <c r="AL24" s="12"/>
-      <c r="AM24" s="9" t="n">
+      <c r="AL24" s="11"/>
+      <c r="AM24" s="8" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="n">
+      <c r="A25" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="B25" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9" t="n">
+      <c r="I25" s="8"/>
+      <c r="J25" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9" t="s">
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="N25" s="9" t="s">
+      <c r="N25" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9" t="s">
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="R25" s="9" t="s">
+      <c r="R25" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9" t="s">
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9" t="s">
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="9"/>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="9" t="s">
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE25" s="10" t="n">
+      <c r="AE25" s="9" t="n">
         <v>0.009</v>
       </c>
-      <c r="AF25" s="9"/>
-      <c r="AG25" s="9"/>
-      <c r="AH25" s="9"/>
-      <c r="AI25" s="9"/>
-      <c r="AJ25" s="9" t="n">
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK25" s="9" t="n">
+      <c r="AK25" s="8" t="n">
         <v>168</v>
       </c>
-      <c r="AL25" s="12"/>
-      <c r="AM25" s="9" t="n">
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="8" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="n">
+      <c r="A26" s="8" t="n">
         <v>31</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="9" t="s">
+      <c r="B26" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9" t="n">
+      <c r="I26" s="8"/>
+      <c r="J26" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9" t="s">
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="N26" s="9" t="s">
+      <c r="N26" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9" t="s">
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="R26" s="9" t="s">
+      <c r="R26" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9" t="s">
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9" t="s">
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9" t="s">
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD26" s="9" t="s">
+      <c r="AD26" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE26" s="10" t="n">
+      <c r="AE26" s="9" t="n">
         <v>0.009</v>
       </c>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="9"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="9"/>
-      <c r="AJ26" s="9" t="n">
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK26" s="9" t="n">
+      <c r="AK26" s="8" t="n">
         <v>223</v>
       </c>
-      <c r="AL26" s="12"/>
-      <c r="AM26" s="9" t="n">
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="8" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="n">
+      <c r="A27" s="8" t="n">
         <v>37</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="9" t="s">
+      <c r="B27" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9" t="s">
+      <c r="E27" s="8"/>
+      <c r="F27" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="9"/>
-      <c r="AG27" s="9"/>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="9"/>
-      <c r="AJ27" s="9" t="n">
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="AK27" s="9" t="n">
+      <c r="AK27" s="8" t="n">
         <v>310</v>
       </c>
-      <c r="AL27" s="11" t="s">
+      <c r="AL27" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AM27" s="9"/>
+      <c r="AM27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="n">
+      <c r="A28" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="9" t="s">
+      <c r="B28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9" t="s">
+      <c r="E28" s="8"/>
+      <c r="F28" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="9"/>
-      <c r="AD28" s="9"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="9"/>
-      <c r="AG28" s="9"/>
-      <c r="AH28" s="9"/>
-      <c r="AI28" s="9"/>
-      <c r="AJ28" s="9" t="n">
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="AK28" s="9" t="n">
+      <c r="AK28" s="8" t="n">
         <v>311</v>
       </c>
-      <c r="AL28" s="12" t="n">
+      <c r="AL28" s="11" t="n">
         <v>26</v>
       </c>
-      <c r="AM28" s="9" t="n">
+      <c r="AM28" s="8" t="n">
         <v>310</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="n">
-        <v>39</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="9" t="s">
+      <c r="A29" s="8" t="n">
+        <v>39</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9" t="s">
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="9" t="s">
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD29" s="9" t="s">
+      <c r="AD29" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="AE29" s="10" t="n">
+      <c r="AE29" s="9" t="n">
         <v>0.08</v>
       </c>
-      <c r="AF29" s="9"/>
-      <c r="AG29" s="9"/>
-      <c r="AH29" s="9" t="s">
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="AI29" s="9"/>
-      <c r="AJ29" s="9" t="n">
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK29" s="9" t="n">
+      <c r="AK29" s="8" t="n">
         <v>26</v>
       </c>
-      <c r="AL29" s="11" t="s">
+      <c r="AL29" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="AM29" s="9" t="n">
+      <c r="AM29" s="8" t="n">
         <v>311</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="9" t="s">
+      <c r="A30" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9" t="n">
+      <c r="I30" s="8"/>
+      <c r="J30" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9" t="s">
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="N30" s="9" t="s">
+      <c r="N30" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9" t="s">
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9" t="s">
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="9" t="s">
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD30" s="9" t="s">
+      <c r="AD30" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE30" s="10"/>
-      <c r="AF30" s="9"/>
-      <c r="AG30" s="9"/>
-      <c r="AH30" s="9" t="s">
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AI30" s="9"/>
-      <c r="AJ30" s="9" t="n">
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK30" s="9" t="n">
+      <c r="AK30" s="8" t="n">
         <v>27</v>
       </c>
-      <c r="AL30" s="12"/>
-      <c r="AM30" s="9" t="n">
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="8" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="n">
+      <c r="A31" s="8" t="n">
         <v>41</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="9" t="s">
+      <c r="B31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9" t="n">
+      <c r="I31" s="8"/>
+      <c r="J31" s="8" t="n">
         <v>0.01</v>
       </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9" t="s">
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="N31" s="9" t="s">
+      <c r="N31" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9" t="s">
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9" t="s">
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="9"/>
-      <c r="AC31" s="9" t="s">
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD31" s="9" t="s">
+      <c r="AD31" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE31" s="10"/>
-      <c r="AF31" s="9"/>
-      <c r="AG31" s="9"/>
-      <c r="AH31" s="9"/>
-      <c r="AI31" s="9"/>
-      <c r="AJ31" s="9" t="n">
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK31" s="9" t="n">
+      <c r="AK31" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="AL31" s="12"/>
-      <c r="AM31" s="9" t="n">
+      <c r="AL31" s="11"/>
+      <c r="AM31" s="8" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="n">
+      <c r="A32" s="8" t="n">
         <v>42</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="9" t="s">
+      <c r="B32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9" t="s">
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="10"/>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="9"/>
-      <c r="AH32" s="9"/>
-      <c r="AI32" s="9"/>
-      <c r="AJ32" s="9" t="n">
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="AK32" s="9" t="n">
+      <c r="AK32" s="8" t="n">
         <v>312</v>
       </c>
-      <c r="AL32" s="11" t="s">
+      <c r="AL32" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="AM32" s="9" t="n">
+      <c r="AM32" s="8" t="n">
         <v>310</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="n">
+      <c r="A33" s="8" t="n">
         <v>43</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="9" t="s">
+      <c r="B33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9" t="n">
+      <c r="I33" s="8"/>
+      <c r="J33" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9" t="s">
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9" t="s">
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9" t="s">
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="X33" s="9" t="s">
+      <c r="X33" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9" t="s">
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD33" s="9" t="s">
+      <c r="AD33" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE33" s="10" t="n">
+      <c r="AE33" s="9" t="n">
         <v>0.04</v>
       </c>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="9"/>
-      <c r="AH33" s="9" t="s">
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="AI33" s="9" t="s">
+      <c r="AI33" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="AJ33" s="9" t="n">
+      <c r="AJ33" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK33" s="9" t="n">
+      <c r="AK33" s="8" t="n">
         <v>29</v>
       </c>
-      <c r="AL33" s="12"/>
-      <c r="AM33" s="9" t="n">
+      <c r="AL33" s="11"/>
+      <c r="AM33" s="8" t="n">
         <v>312</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="n">
+      <c r="A34" s="8" t="n">
         <v>44</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="9" t="s">
+      <c r="B34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9" t="n">
+      <c r="I34" s="8"/>
+      <c r="J34" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9" t="s">
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="N34" s="9" t="s">
+      <c r="N34" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9" t="s">
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9" t="s">
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="9" t="s">
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD34" s="9" t="s">
+      <c r="AD34" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="AE34" s="10" t="n">
+      <c r="AE34" s="9" t="n">
         <v>0.04</v>
       </c>
-      <c r="AF34" s="9"/>
-      <c r="AG34" s="9"/>
-      <c r="AH34" s="9" t="s">
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="AI34" s="9" t="s">
+      <c r="AI34" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="AJ34" s="9" t="n">
+      <c r="AJ34" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK34" s="9" t="n">
+      <c r="AK34" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="AL34" s="12"/>
-      <c r="AM34" s="9" t="n">
+      <c r="AL34" s="11"/>
+      <c r="AM34" s="8" t="n">
         <v>312</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="n">
+      <c r="A35" s="8" t="n">
         <v>45</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="9" t="s">
+      <c r="B35" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9" t="n">
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L35" s="9" t="n">
+      <c r="L35" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="M35" s="9" t="s">
+      <c r="M35" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="N35" s="9" t="s">
+      <c r="N35" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9" t="s">
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9" t="s">
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="9"/>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="9" t="s">
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD35" s="9" t="s">
+      <c r="AD35" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE35" s="10" t="n">
+      <c r="AE35" s="9" t="n">
         <v>0.04</v>
       </c>
-      <c r="AF35" s="9"/>
-      <c r="AG35" s="9"/>
-      <c r="AH35" s="9" t="s">
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="AI35" s="9" t="s">
+      <c r="AI35" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="AJ35" s="9" t="n">
+      <c r="AJ35" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK35" s="9" t="n">
+      <c r="AK35" s="8" t="n">
         <v>31</v>
       </c>
-      <c r="AL35" s="12"/>
-      <c r="AM35" s="9" t="n">
+      <c r="AL35" s="11"/>
+      <c r="AM35" s="8" t="n">
         <v>312</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="n">
+      <c r="A36" s="8" t="n">
         <v>46</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="9" t="s">
+      <c r="B36" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9" t="s">
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="9"/>
-      <c r="AB36" s="9"/>
-      <c r="AC36" s="9"/>
-      <c r="AD36" s="9"/>
-      <c r="AE36" s="10"/>
-      <c r="AF36" s="9"/>
-      <c r="AG36" s="9"/>
-      <c r="AH36" s="9"/>
-      <c r="AI36" s="9"/>
-      <c r="AJ36" s="9" t="n">
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="9"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="AK36" s="9" t="n">
+      <c r="AK36" s="8" t="n">
         <v>400</v>
       </c>
-      <c r="AL36" s="11" t="s">
+      <c r="AL36" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="AM36" s="9"/>
+      <c r="AM36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="n">
+      <c r="A37" s="8" t="n">
         <v>48</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="9" t="s">
+      <c r="B37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9" t="n">
+      <c r="I37" s="8"/>
+      <c r="J37" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9" t="s">
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="N37" s="9" t="s">
+      <c r="N37" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9" t="s">
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="R37" s="9" t="s">
+      <c r="R37" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9" t="s">
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="X37" s="9" t="s">
+      <c r="X37" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="9"/>
-      <c r="AB37" s="9"/>
-      <c r="AC37" s="9" t="s">
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD37" s="9" t="s">
+      <c r="AD37" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE37" s="10" t="n">
+      <c r="AE37" s="9" t="n">
         <v>0.05</v>
       </c>
-      <c r="AF37" s="9"/>
-      <c r="AG37" s="9"/>
-      <c r="AH37" s="9"/>
-      <c r="AI37" s="9"/>
-      <c r="AJ37" s="9" t="n">
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK37" s="9" t="n">
+      <c r="AK37" s="8" t="n">
         <v>33</v>
       </c>
-      <c r="AL37" s="12"/>
-      <c r="AM37" s="9" t="n">
+      <c r="AL37" s="11"/>
+      <c r="AM37" s="8" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="n">
+      <c r="A38" s="8" t="n">
         <v>49</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="9" t="s">
+      <c r="B38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="H38" s="14" t="s">
+      <c r="H38" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9" t="n">
+      <c r="I38" s="8"/>
+      <c r="J38" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9" t="s">
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9" t="s">
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="X38" s="9" t="s">
+      <c r="X38" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="9"/>
-      <c r="AC38" s="9" t="s">
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD38" s="9" t="s">
+      <c r="AD38" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE38" s="10" t="n">
+      <c r="AE38" s="9" t="n">
         <v>0.28</v>
       </c>
-      <c r="AF38" s="9"/>
-      <c r="AG38" s="9"/>
-      <c r="AH38" s="9"/>
-      <c r="AI38" s="9"/>
-      <c r="AJ38" s="9" t="n">
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK38" s="9" t="n">
+      <c r="AK38" s="8" t="n">
         <v>34</v>
       </c>
-      <c r="AL38" s="11" t="s">
+      <c r="AL38" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="AM38" s="9" t="n">
+      <c r="AM38" s="8" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="n">
+      <c r="A39" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="9" t="s">
+      <c r="B39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9" t="n">
+      <c r="I39" s="8"/>
+      <c r="J39" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9" t="s">
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="N39" s="15" t="s">
+      <c r="N39" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="O39" s="9" t="s">
+      <c r="O39" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9" t="s">
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="R39" s="9" t="s">
+      <c r="R39" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9" t="s">
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="X39" s="9" t="s">
+      <c r="X39" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
-      <c r="AB39" s="9"/>
-      <c r="AC39" s="9" t="s">
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD39" s="9" t="s">
+      <c r="AD39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE39" s="10"/>
-      <c r="AF39" s="9"/>
-      <c r="AG39" s="9"/>
-      <c r="AH39" s="9"/>
-      <c r="AI39" s="9"/>
-      <c r="AJ39" s="9" t="n">
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK39" s="9" t="n">
+      <c r="AK39" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="AL39" s="12"/>
-      <c r="AM39" s="9" t="n">
+      <c r="AL39" s="11"/>
+      <c r="AM39" s="8" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="n">
+      <c r="A40" s="8" t="n">
         <v>51</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="9" t="s">
+      <c r="B40" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="H40" s="14" t="s">
+      <c r="H40" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9" t="n">
+      <c r="I40" s="8"/>
+      <c r="J40" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9" t="s">
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="N40" s="15" t="s">
+      <c r="N40" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9" t="s">
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="R40" s="9" t="s">
+      <c r="R40" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9" t="s">
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="X40" s="9" t="s">
+      <c r="X40" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="9"/>
-      <c r="AA40" s="9"/>
-      <c r="AB40" s="9"/>
-      <c r="AC40" s="9" t="s">
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD40" s="9" t="s">
+      <c r="AD40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE40" s="10"/>
-      <c r="AF40" s="9"/>
-      <c r="AG40" s="9"/>
-      <c r="AH40" s="9" t="s">
+      <c r="AE40" s="9"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="8"/>
+      <c r="AH40" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="AI40" s="9"/>
-      <c r="AJ40" s="9" t="n">
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK40" s="9" t="n">
+      <c r="AK40" s="8" t="n">
         <v>36</v>
       </c>
-      <c r="AL40" s="12"/>
-      <c r="AM40" s="9" t="n">
+      <c r="AL40" s="11"/>
+      <c r="AM40" s="8" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="n">
+      <c r="A41" s="8" t="n">
         <v>52</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="9" t="s">
+      <c r="B41" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="H41" s="14" t="s">
+      <c r="H41" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9" t="n">
+      <c r="I41" s="8"/>
+      <c r="J41" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9" t="s">
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9" t="s">
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="X41" s="9" t="s">
+      <c r="X41" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
-      <c r="AA41" s="9"/>
-      <c r="AB41" s="9"/>
-      <c r="AC41" s="9"/>
-      <c r="AD41" s="9" t="s">
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE41" s="10" t="n">
+      <c r="AE41" s="9" t="n">
         <v>0.07</v>
       </c>
-      <c r="AF41" s="9"/>
-      <c r="AG41" s="9"/>
-      <c r="AH41" s="9"/>
-      <c r="AI41" s="9"/>
-      <c r="AJ41" s="9" t="n">
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK41" s="9" t="n">
+      <c r="AK41" s="8" t="n">
         <v>680</v>
       </c>
-      <c r="AL41" s="11" t="s">
+      <c r="AL41" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="AM41" s="9" t="n">
+      <c r="AM41" s="8" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="n">
+      <c r="A42" s="8" t="n">
         <v>53</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="9" t="s">
+      <c r="B42" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="H42" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9" t="n">
+      <c r="I42" s="8"/>
+      <c r="J42" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9" t="s">
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="9" t="s">
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="X42" s="9" t="s">
+      <c r="X42" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="9"/>
-      <c r="AA42" s="9"/>
-      <c r="AB42" s="9"/>
-      <c r="AC42" s="9" t="s">
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD42" s="9" t="s">
+      <c r="AD42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE42" s="10"/>
-      <c r="AF42" s="9"/>
-      <c r="AG42" s="9"/>
-      <c r="AH42" s="9"/>
-      <c r="AI42" s="9"/>
-      <c r="AJ42" s="9" t="n">
+      <c r="AE42" s="9"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="8"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK42" s="9" t="n">
+      <c r="AK42" s="8" t="n">
         <v>72</v>
       </c>
-      <c r="AL42" s="11" t="s">
+      <c r="AL42" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="AM42" s="9" t="n">
+      <c r="AM42" s="8" t="n">
         <v>680</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="n">
+      <c r="A43" s="8" t="n">
         <v>54</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="9" t="s">
+      <c r="B43" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H43" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9" t="n">
+      <c r="I43" s="8"/>
+      <c r="J43" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9" t="s">
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="N43" s="9" t="s">
+      <c r="N43" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="O43" s="9" t="s">
+      <c r="O43" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="P43" s="9" t="s">
+      <c r="P43" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="Q43" s="9" t="s">
+      <c r="Q43" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="R43" s="9" t="s">
+      <c r="R43" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9" t="s">
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="X43" s="9" t="s">
+      <c r="X43" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="9"/>
-      <c r="AA43" s="9"/>
-      <c r="AB43" s="9"/>
-      <c r="AC43" s="9" t="s">
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD43" s="9" t="s">
+      <c r="AD43" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE43" s="10"/>
-      <c r="AF43" s="9"/>
-      <c r="AG43" s="9"/>
-      <c r="AH43" s="9"/>
-      <c r="AI43" s="9"/>
-      <c r="AJ43" s="9" t="n">
+      <c r="AE43" s="9"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="8"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="AK43" s="9" t="n">
+      <c r="AK43" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="AL43" s="12"/>
-      <c r="AM43" s="9" t="n">
+      <c r="AL43" s="11"/>
+      <c r="AM43" s="8" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="n">
+      <c r="A44" s="8" t="n">
         <v>55</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="9" t="s">
+      <c r="B44" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="H44" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9" t="n">
+      <c r="I44" s="8"/>
+      <c r="J44" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9" t="s">
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="N44" s="9" t="s">
+      <c r="N44" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9" t="s">
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="R44" s="9" t="s">
+      <c r="R44" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9" t="s">
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="X44" s="9" t="s">
+      <c r="X44" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="Y44" s="9"/>
-      <c r="Z44" s="9"/>
-      <c r="AA44" s="9"/>
-      <c r="AB44" s="9"/>
-      <c r="AC44" s="9" t="s">
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD44" s="9" t="s">
+      <c r="AD44" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE44" s="10"/>
-      <c r="AF44" s="9"/>
-      <c r="AG44" s="9"/>
-      <c r="AH44" s="9"/>
-      <c r="AI44" s="9"/>
-      <c r="AJ44" s="9" t="n">
+      <c r="AE44" s="9"/>
+      <c r="AF44" s="8"/>
+      <c r="AG44" s="8"/>
+      <c r="AH44" s="8"/>
+      <c r="AI44" s="8"/>
+      <c r="AJ44" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="AK44" s="9" t="n">
+      <c r="AK44" s="8" t="n">
         <v>74</v>
       </c>
-      <c r="AL44" s="12"/>
-      <c r="AM44" s="9" t="n">
+      <c r="AL44" s="11"/>
+      <c r="AM44" s="8" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="n">
+      <c r="A45" s="8" t="n">
         <v>56</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="9" t="s">
+      <c r="B45" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="H45" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9" t="n">
+      <c r="I45" s="8"/>
+      <c r="J45" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9" t="s">
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9" t="s">
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="X45" s="9" t="s">
+      <c r="X45" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="Y45" s="9"/>
-      <c r="Z45" s="9"/>
-      <c r="AA45" s="9"/>
-      <c r="AB45" s="9"/>
-      <c r="AC45" s="9" t="s">
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD45" s="9" t="s">
+      <c r="AD45" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE45" s="10"/>
-      <c r="AF45" s="9"/>
-      <c r="AG45" s="9"/>
-      <c r="AH45" s="9"/>
-      <c r="AI45" s="9"/>
-      <c r="AJ45" s="9" t="n">
+      <c r="AE45" s="9"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK45" s="9" t="n">
+      <c r="AK45" s="8" t="n">
         <v>769</v>
       </c>
-      <c r="AL45" s="11" t="s">
+      <c r="AL45" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="AM45" s="9" t="n">
+      <c r="AM45" s="8" t="n">
         <v>680</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9" t="n">
+      <c r="A46" s="8" t="n">
         <v>57</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" s="9" t="s">
+      <c r="B46" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="H46" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9" t="n">
+      <c r="I46" s="8"/>
+      <c r="J46" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9" t="s">
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="N46" s="9" t="s">
+      <c r="N46" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="O46" s="9" t="s">
+      <c r="O46" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="P46" s="9" t="s">
+      <c r="P46" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="Q46" s="9" t="s">
+      <c r="Q46" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="R46" s="9" t="s">
+      <c r="R46" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9" t="s">
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="X46" s="9" t="s">
+      <c r="X46" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="9"/>
-      <c r="AB46" s="9"/>
-      <c r="AC46" s="9" t="s">
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD46" s="9" t="s">
+      <c r="AD46" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE46" s="10"/>
-      <c r="AF46" s="9"/>
-      <c r="AG46" s="9"/>
-      <c r="AH46" s="9"/>
-      <c r="AI46" s="9"/>
-      <c r="AJ46" s="9" t="n">
+      <c r="AE46" s="9"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="AK46" s="9" t="n">
+      <c r="AK46" s="8" t="n">
         <v>770</v>
       </c>
-      <c r="AL46" s="12"/>
-      <c r="AM46" s="9" t="n">
+      <c r="AL46" s="11"/>
+      <c r="AM46" s="8" t="n">
         <v>769</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="n">
+      <c r="A47" s="8" t="n">
         <v>58</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" s="9" t="s">
+      <c r="B47" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="H47" s="14" t="s">
+      <c r="H47" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9" t="n">
+      <c r="I47" s="8"/>
+      <c r="J47" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9" t="s">
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="N47" s="15" t="s">
+      <c r="N47" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9" t="s">
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="R47" s="9" t="s">
+      <c r="R47" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9" t="s">
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="X47" s="9" t="s">
+      <c r="X47" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="9"/>
-      <c r="AA47" s="9"/>
-      <c r="AB47" s="9"/>
-      <c r="AC47" s="9" t="s">
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD47" s="9" t="s">
+      <c r="AD47" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE47" s="10"/>
-      <c r="AF47" s="9"/>
-      <c r="AG47" s="9"/>
-      <c r="AH47" s="9" t="s">
+      <c r="AE47" s="9"/>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="8"/>
+      <c r="AH47" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="AI47" s="9"/>
-      <c r="AJ47" s="9" t="n">
+      <c r="AI47" s="8"/>
+      <c r="AJ47" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="AK47" s="9" t="n">
+      <c r="AK47" s="8" t="n">
         <v>771</v>
       </c>
-      <c r="AL47" s="12"/>
-      <c r="AM47" s="9" t="n">
+      <c r="AL47" s="11"/>
+      <c r="AM47" s="8" t="n">
         <v>769</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="n">
+      <c r="A48" s="8" t="n">
         <v>59</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D48" s="9" t="s">
+      <c r="B48" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="G48" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="H48" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="I48" s="9" t="s">
+      <c r="I48" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9" t="s">
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
-      <c r="Z48" s="9"/>
-      <c r="AA48" s="9"/>
-      <c r="AB48" s="9"/>
-      <c r="AC48" s="9"/>
-      <c r="AD48" s="9"/>
-      <c r="AE48" s="10"/>
-      <c r="AF48" s="9"/>
-      <c r="AG48" s="9"/>
-      <c r="AH48" s="9"/>
-      <c r="AI48" s="9"/>
-      <c r="AJ48" s="9"/>
-      <c r="AK48" s="9" t="n">
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="9"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="8"/>
+      <c r="AH48" s="8"/>
+      <c r="AI48" s="8"/>
+      <c r="AJ48" s="8"/>
+      <c r="AK48" s="8" t="n">
         <v>37</v>
       </c>
-      <c r="AL48" s="11" t="s">
+      <c r="AL48" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="AM48" s="9"/>
+      <c r="AM48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="n">
+      <c r="A49" s="8" t="n">
         <v>60</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" s="9" t="s">
+      <c r="B49" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G49" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="H49" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="I49" s="9" t="s">
+      <c r="I49" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="16" t="s">
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9" t="s">
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="9"/>
-      <c r="Z49" s="9"/>
-      <c r="AA49" s="9"/>
-      <c r="AB49" s="9"/>
-      <c r="AC49" s="9"/>
-      <c r="AD49" s="9"/>
-      <c r="AE49" s="10"/>
-      <c r="AF49" s="9"/>
-      <c r="AG49" s="9"/>
-      <c r="AH49" s="9"/>
-      <c r="AI49" s="9"/>
-      <c r="AJ49" s="9"/>
-      <c r="AK49" s="9" t="n">
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="9"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="8"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="8"/>
+      <c r="AJ49" s="8"/>
+      <c r="AK49" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="AL49" s="12" t="n">
+      <c r="AL49" s="11" t="n">
         <v>32</v>
       </c>
-      <c r="AM49" s="9"/>
+      <c r="AM49" s="8"/>
     </row>
     <row r="50" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="n">
+      <c r="A50" s="8" t="n">
         <v>61</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" s="9" t="s">
+      <c r="B50" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="H50" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="I50" s="9" t="s">
+      <c r="I50" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="16" t="s">
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9" t="s">
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-      <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="9"/>
-      <c r="Y50" s="9"/>
-      <c r="Z50" s="9"/>
-      <c r="AA50" s="9"/>
-      <c r="AB50" s="9"/>
-      <c r="AC50" s="9"/>
-      <c r="AD50" s="9"/>
-      <c r="AE50" s="10"/>
-      <c r="AF50" s="9"/>
-      <c r="AG50" s="9"/>
-      <c r="AH50" s="9"/>
-      <c r="AI50" s="9"/>
-      <c r="AJ50" s="9"/>
-      <c r="AK50" s="9" t="n">
-        <v>39</v>
-      </c>
-      <c r="AL50" s="12" t="n">
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="9"/>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="8"/>
+      <c r="AH50" s="8"/>
+      <c r="AI50" s="8"/>
+      <c r="AJ50" s="8"/>
+      <c r="AK50" s="8" t="n">
+        <v>39</v>
+      </c>
+      <c r="AL50" s="11" t="n">
         <v>33</v>
       </c>
-      <c r="AM50" s="9"/>
+      <c r="AM50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="n">
+      <c r="A51" s="8" t="n">
         <v>62</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D51" s="9" t="s">
+      <c r="B51" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="G51" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="H51" s="9" t="s">
+      <c r="H51" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="I51" s="9" t="s">
+      <c r="I51" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9" t="s">
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="N51" s="16" t="s">
+      <c r="N51" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9" t="s">
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="9"/>
-      <c r="Y51" s="9"/>
-      <c r="Z51" s="9"/>
-      <c r="AA51" s="9"/>
-      <c r="AB51" s="9"/>
-      <c r="AC51" s="9"/>
-      <c r="AD51" s="9"/>
-      <c r="AE51" s="10"/>
-      <c r="AF51" s="9"/>
-      <c r="AG51" s="9"/>
-      <c r="AH51" s="9"/>
-      <c r="AI51" s="9"/>
-      <c r="AJ51" s="9"/>
-      <c r="AK51" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL51" s="12" t="n">
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="8"/>
+      <c r="AD51" s="8"/>
+      <c r="AE51" s="9"/>
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="8"/>
+      <c r="AH51" s="8"/>
+      <c r="AI51" s="8"/>
+      <c r="AJ51" s="8"/>
+      <c r="AK51" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL51" s="11" t="n">
         <v>34</v>
       </c>
-      <c r="AM51" s="9"/>
+      <c r="AM51" s="8"/>
     </row>
     <row r="52" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9" t="n">
+      <c r="A52" s="8" t="n">
         <v>63</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D52" s="9" t="s">
+      <c r="B52" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="H52" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="I52" s="9" t="s">
+      <c r="I52" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9" t="s">
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="N52" s="16" t="s">
+      <c r="N52" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9" t="s">
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
-      <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="9"/>
-      <c r="AA52" s="9"/>
-      <c r="AB52" s="9"/>
-      <c r="AC52" s="9"/>
-      <c r="AD52" s="9"/>
-      <c r="AE52" s="10"/>
-      <c r="AF52" s="9"/>
-      <c r="AG52" s="9"/>
-      <c r="AH52" s="9"/>
-      <c r="AI52" s="9"/>
-      <c r="AJ52" s="9"/>
-      <c r="AK52" s="9" t="n">
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="9"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="8"/>
+      <c r="AH52" s="8"/>
+      <c r="AI52" s="8"/>
+      <c r="AJ52" s="8"/>
+      <c r="AK52" s="8" t="n">
         <v>42</v>
       </c>
-      <c r="AL52" s="11" t="s">
+      <c r="AL52" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="AM52" s="9"/>
+      <c r="AM52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9" t="n">
+      <c r="A53" s="8" t="n">
         <v>64</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" s="9" t="s">
+      <c r="B53" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G53" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="H53" s="9" t="s">
+      <c r="H53" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="I53" s="9" t="s">
+      <c r="I53" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9" t="s">
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="9" t="s">
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
-      <c r="U53" s="9"/>
-      <c r="V53" s="9"/>
-      <c r="W53" s="9" t="s">
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="9"/>
-      <c r="AA53" s="9"/>
-      <c r="AB53" s="9"/>
-      <c r="AC53" s="9"/>
-      <c r="AD53" s="9"/>
-      <c r="AE53" s="10"/>
-      <c r="AF53" s="9"/>
-      <c r="AG53" s="9"/>
-      <c r="AH53" s="9"/>
-      <c r="AI53" s="9"/>
-      <c r="AJ53" s="9"/>
-      <c r="AK53" s="9" t="n">
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="8"/>
+      <c r="AD53" s="8"/>
+      <c r="AE53" s="9"/>
+      <c r="AF53" s="8"/>
+      <c r="AG53" s="8"/>
+      <c r="AH53" s="8"/>
+      <c r="AI53" s="8"/>
+      <c r="AJ53" s="8"/>
+      <c r="AK53" s="8" t="n">
         <v>43</v>
       </c>
-      <c r="AL53" s="12"/>
-      <c r="AM53" s="9"/>
+      <c r="AL53" s="11"/>
+      <c r="AM53" s="8"/>
     </row>
     <row r="54" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9" t="n">
+      <c r="A54" s="8" t="n">
         <v>65</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D54" s="9" t="s">
+      <c r="B54" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9" t="s">
+      <c r="E54" s="8"/>
+      <c r="F54" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="H54" s="9" t="s">
+      <c r="H54" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="I54" s="9" t="s">
+      <c r="I54" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="9" t="s">
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="9"/>
-      <c r="Z54" s="9"/>
-      <c r="AA54" s="9"/>
-      <c r="AB54" s="9"/>
-      <c r="AC54" s="9"/>
-      <c r="AD54" s="9"/>
-      <c r="AE54" s="10"/>
-      <c r="AF54" s="9"/>
-      <c r="AG54" s="9"/>
-      <c r="AH54" s="9"/>
-      <c r="AI54" s="9"/>
-      <c r="AJ54" s="9"/>
-      <c r="AK54" s="9" t="n">
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="9"/>
+      <c r="AF54" s="8"/>
+      <c r="AG54" s="8"/>
+      <c r="AH54" s="8"/>
+      <c r="AI54" s="8"/>
+      <c r="AJ54" s="8"/>
+      <c r="AK54" s="8" t="n">
         <v>401</v>
       </c>
-      <c r="AL54" s="12"/>
-      <c r="AM54" s="9"/>
+      <c r="AL54" s="11"/>
+      <c r="AM54" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AM1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E96CC4-C373-4FF3-A308-7B2ADB4EA672}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C5D3CC-19F5-499E-9175-8B0BF771411D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9024" tabRatio="545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QSR" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="265">
   <si>
     <t>Sorting</t>
   </si>
@@ -233,9 +233,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Panoramic Photo</t>
-  </si>
-  <si>
     <t>BINARY</t>
   </si>
   <si>
@@ -874,10 +871,16 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>Cash Zone, SS_Cash Zone</t>
-  </si>
-  <si>
-    <t>Menu Board, Cash Zone, SS_Menu Board, SS_Cash Zone</t>
+    <t>Panoramic Photo, SS_Panoramic Photo</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler</t>
+  </si>
+  <si>
+    <t>Cash Zone, SS_Cash Zone - Canteen</t>
+  </si>
+  <si>
+    <t>Menu Board, Cash Zone, SS_Cash Zone - Canteen, QSR, SS_Menu Board - Canteen, QSR</t>
   </si>
 </sst>
 </file>
@@ -1376,8 +1379,8 @@
   <dimension ref="A1:AMJ54"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" topLeftCell="U1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X38" sqref="X38:X47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1729,7 +1732,7 @@
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
@@ -1738,7 +1741,7 @@
         <v>49</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE4" s="7">
         <v>4.1980000000000003E-2</v>
@@ -1775,10 +1778,10 @@
         <v>45</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>54</v>
@@ -1790,10 +1793,10 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -1812,7 +1815,7 @@
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
       <c r="Y5" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -1821,7 +1824,7 @@
         <v>49</v>
       </c>
       <c r="AD5" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE5" s="7">
         <v>4.1980000000000003E-2</v>
@@ -1858,10 +1861,10 @@
         <v>45</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>54</v>
@@ -1873,10 +1876,10 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -1895,7 +1898,7 @@
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
@@ -1904,7 +1907,7 @@
         <v>49</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE6" s="7">
         <v>4.1980000000000003E-2</v>
@@ -1941,10 +1944,10 @@
         <v>45</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>54</v>
@@ -1956,10 +1959,10 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -1978,7 +1981,7 @@
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
@@ -1987,7 +1990,7 @@
         <v>49</v>
       </c>
       <c r="AD7" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE7" s="7">
         <v>4.1980000000000003E-2</v>
@@ -2024,10 +2027,10 @@
         <v>45</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>54</v>
@@ -2039,10 +2042,10 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -2061,7 +2064,7 @@
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
@@ -2070,7 +2073,7 @@
         <v>49</v>
       </c>
       <c r="AD8" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE8" s="7">
         <v>2.1700000000000001E-2</v>
@@ -2107,10 +2110,10 @@
         <v>45</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>54</v>
@@ -2122,10 +2125,10 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -2144,14 +2147,14 @@
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
       <c r="AD9" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE9" s="7">
         <v>2.1700000000000001E-2</v>
@@ -2188,10 +2191,10 @@
         <v>45</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>54</v>
@@ -2203,10 +2206,10 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -2225,7 +2228,7 @@
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
@@ -2234,7 +2237,7 @@
         <v>49</v>
       </c>
       <c r="AD10" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE10" s="7">
         <v>2.1700000000000001E-2</v>
@@ -2268,13 +2271,13 @@
         <v>41</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>48</v>
@@ -2317,7 +2320,7 @@
         <v>8</v>
       </c>
       <c r="AL11" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AM11" s="6">
         <v>300</v>
@@ -2337,13 +2340,13 @@
         <v>41</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>54</v>
@@ -2355,10 +2358,10 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -2377,7 +2380,7 @@
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
@@ -2386,7 +2389,7 @@
         <v>49</v>
       </c>
       <c r="AD12" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE12" s="7">
         <v>2.2499999999999999E-2</v>
@@ -2420,13 +2423,13 @@
         <v>41</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>54</v>
@@ -2438,10 +2441,10 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N13" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
@@ -2460,7 +2463,7 @@
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
@@ -2469,7 +2472,7 @@
         <v>49</v>
       </c>
       <c r="AD13" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE13" s="7">
         <v>1.2696000000000001E-2</v>
@@ -2503,13 +2506,13 @@
         <v>41</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>48</v>
@@ -2552,7 +2555,7 @@
         <v>11</v>
       </c>
       <c r="AL14" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AM14" s="6">
         <v>300</v>
@@ -2572,13 +2575,13 @@
         <v>41</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>54</v>
@@ -2590,7 +2593,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N15" s="6">
         <v>5449000131768</v>
@@ -2612,7 +2615,7 @@
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
@@ -2621,7 +2624,7 @@
         <v>49</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE15" s="7">
         <v>1.2696000000000001E-2</v>
@@ -2655,13 +2658,13 @@
         <v>41</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>54</v>
@@ -2673,10 +2676,10 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
@@ -2695,14 +2698,14 @@
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE16" s="7">
         <v>8.9999999999999993E-3</v>
@@ -2736,13 +2739,13 @@
         <v>41</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>48</v>
@@ -2785,7 +2788,7 @@
         <v>14</v>
       </c>
       <c r="AL17" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AM17" s="6">
         <v>300</v>
@@ -2805,13 +2808,13 @@
         <v>41</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>54</v>
@@ -2823,10 +2826,10 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -2845,7 +2848,7 @@
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
@@ -2854,7 +2857,7 @@
         <v>49</v>
       </c>
       <c r="AD18" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE18" s="7">
         <v>2.2499999999999999E-2</v>
@@ -2888,13 +2891,13 @@
         <v>41</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>54</v>
@@ -2906,7 +2909,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N19" s="6">
         <v>4607042430879</v>
@@ -2928,7 +2931,7 @@
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
@@ -2937,7 +2940,7 @@
         <v>49</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE19" s="7">
         <v>1.2696000000000001E-2</v>
@@ -2971,13 +2974,13 @@
         <v>41</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>54</v>
@@ -2989,10 +2992,10 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -3011,7 +3014,7 @@
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
@@ -3020,7 +3023,7 @@
         <v>49</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE20" s="7">
         <v>1.2696000000000001E-2</v>
@@ -3054,13 +3057,13 @@
         <v>41</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F21" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>54</v>
@@ -3072,7 +3075,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N21" s="6">
         <v>5449000233615</v>
@@ -3094,7 +3097,7 @@
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
@@ -3103,7 +3106,7 @@
         <v>49</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE21" s="7">
         <v>8.9999999999999993E-3</v>
@@ -3137,13 +3140,13 @@
         <v>41</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F22" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>48</v>
@@ -3186,7 +3189,7 @@
         <v>20</v>
       </c>
       <c r="AL22" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AM22" s="6">
         <v>300</v>
@@ -3206,13 +3209,13 @@
         <v>41</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F23" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>54</v>
@@ -3224,10 +3227,10 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N23" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
@@ -3246,7 +3249,7 @@
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
       <c r="Y23" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
@@ -3255,7 +3258,7 @@
         <v>49</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE23" s="7">
         <v>2.2499999999999999E-2</v>
@@ -3289,13 +3292,13 @@
         <v>41</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F24" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>54</v>
@@ -3307,10 +3310,10 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="N24" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -3329,7 +3332,7 @@
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
@@ -3338,7 +3341,7 @@
         <v>49</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE24" s="7">
         <v>1.2696000000000001E-2</v>
@@ -3372,13 +3375,13 @@
         <v>41</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>54</v>
@@ -3390,10 +3393,10 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="N25" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
@@ -3412,14 +3415,14 @@
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
       <c r="Y25" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
       <c r="AD25" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE25" s="7">
         <v>8.9999999999999993E-3</v>
@@ -3453,13 +3456,13 @@
         <v>41</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F26" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>54</v>
@@ -3471,10 +3474,10 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="N26" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -3493,7 +3496,7 @@
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z26" s="6"/>
       <c r="AA26" s="6"/>
@@ -3502,7 +3505,7 @@
         <v>49</v>
       </c>
       <c r="AD26" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE26" s="7">
         <v>8.9999999999999993E-3</v>
@@ -3537,10 +3540,10 @@
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>41</v>
@@ -3579,7 +3582,7 @@
         <v>310</v>
       </c>
       <c r="AL27" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AM27" s="6"/>
     </row>
@@ -3598,10 +3601,10 @@
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>41</v>
@@ -3660,16 +3663,16 @@
         <v>41</v>
       </c>
       <c r="E29" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="G29" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="H29" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -3680,7 +3683,7 @@
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
@@ -3697,7 +3700,7 @@
         <v>49</v>
       </c>
       <c r="AD29" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE29" s="7">
         <v>0.08</v>
@@ -3705,7 +3708,7 @@
       <c r="AF29" s="6"/>
       <c r="AG29" s="6"/>
       <c r="AH29" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AI29" s="6"/>
       <c r="AJ29" s="6">
@@ -3715,7 +3718,7 @@
         <v>26</v>
       </c>
       <c r="AL29" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AM29" s="6">
         <v>311</v>
@@ -3735,16 +3738,16 @@
         <v>41</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F30" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="H30" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6">
@@ -3753,23 +3756,23 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="N30" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
       <c r="W30" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X30" s="6"/>
       <c r="Y30" s="6"/>
@@ -3780,13 +3783,13 @@
         <v>49</v>
       </c>
       <c r="AD30" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE30" s="7"/>
       <c r="AF30" s="6"/>
       <c r="AG30" s="6"/>
       <c r="AH30" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AI30" s="6"/>
       <c r="AJ30" s="6">
@@ -3814,16 +3817,16 @@
         <v>41</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F31" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="H31" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6">
@@ -3832,23 +3835,23 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="N31" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
       <c r="W31" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
@@ -3859,7 +3862,7 @@
         <v>49</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE31" s="7"/>
       <c r="AF31" s="6"/>
@@ -3892,10 +3895,10 @@
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>41</v>
@@ -3934,7 +3937,7 @@
         <v>312</v>
       </c>
       <c r="AL32" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AM32" s="6">
         <v>310</v>
@@ -3954,16 +3957,16 @@
         <v>41</v>
       </c>
       <c r="E33" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="G33" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="H33" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6">
@@ -3973,13 +3976,13 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
@@ -3989,7 +3992,7 @@
         <v>59</v>
       </c>
       <c r="X33" s="6" t="s">
-        <v>171</v>
+        <v>262</v>
       </c>
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
@@ -3999,7 +4002,7 @@
         <v>49</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE33" s="7">
         <v>0.04</v>
@@ -4007,10 +4010,10 @@
       <c r="AF33" s="6"/>
       <c r="AG33" s="6"/>
       <c r="AH33" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI33" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AJ33" s="6">
         <v>2</v>
@@ -4037,16 +4040,16 @@
         <v>41</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F34" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>176</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6">
@@ -4055,23 +4058,23 @@
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="N34" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
       <c r="W34" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X34" s="6"/>
       <c r="Y34" s="6"/>
@@ -4082,7 +4085,7 @@
         <v>49</v>
       </c>
       <c r="AD34" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE34" s="7">
         <v>0.04</v>
@@ -4090,10 +4093,10 @@
       <c r="AF34" s="6"/>
       <c r="AG34" s="6"/>
       <c r="AH34" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AI34" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AJ34" s="6">
         <v>2</v>
@@ -4120,16 +4123,16 @@
         <v>41</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F35" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="H35" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>180</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -4140,23 +4143,23 @@
         <v>15</v>
       </c>
       <c r="M35" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="N35" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="N35" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
       <c r="W35" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X35" s="6"/>
       <c r="Y35" s="6"/>
@@ -4167,7 +4170,7 @@
         <v>49</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE35" s="7">
         <v>0.04</v>
@@ -4175,10 +4178,10 @@
       <c r="AF35" s="6"/>
       <c r="AG35" s="6"/>
       <c r="AH35" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AI35" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AJ35" s="6">
         <v>2</v>
@@ -4206,10 +4209,10 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>41</v>
@@ -4248,7 +4251,7 @@
         <v>400</v>
       </c>
       <c r="AL36" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AM36" s="6"/>
     </row>
@@ -4266,13 +4269,13 @@
         <v>41</v>
       </c>
       <c r="E37" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="G37" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>54</v>
@@ -4284,10 +4287,10 @@
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="N37" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="N37" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
@@ -4295,17 +4298,17 @@
         <v>57</v>
       </c>
       <c r="R37" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
       <c r="W37" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X37" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
@@ -4315,7 +4318,7 @@
         <v>49</v>
       </c>
       <c r="AD37" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE37" s="7">
         <v>0.05</v>
@@ -4349,16 +4352,16 @@
         <v>41</v>
       </c>
       <c r="E38" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="G38" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="H38" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>191</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6">
@@ -4371,7 +4374,7 @@
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
@@ -4379,10 +4382,10 @@
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
       <c r="W38" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X38" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
@@ -4392,7 +4395,7 @@
         <v>49</v>
       </c>
       <c r="AD38" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE38" s="7">
         <v>0.28000000000000003</v>
@@ -4408,7 +4411,7 @@
         <v>34</v>
       </c>
       <c r="AL38" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM38" s="6">
         <v>400</v>
@@ -4428,13 +4431,13 @@
         <v>41</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F39" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>54</v>
@@ -4446,13 +4449,13 @@
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="N39" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="N39" s="11" t="s">
+      <c r="O39" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="O39" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="P39" s="6"/>
       <c r="Q39" s="6" t="s">
@@ -4466,10 +4469,10 @@
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
       <c r="W39" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X39" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
@@ -4479,7 +4482,7 @@
         <v>49</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE39" s="7"/>
       <c r="AF39" s="6"/>
@@ -4511,13 +4514,13 @@
         <v>41</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F40" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="H40" s="11" t="s">
         <v>54</v>
@@ -4529,10 +4532,10 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="N40" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="N40" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -4547,10 +4550,10 @@
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
       <c r="W40" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X40" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
@@ -4560,13 +4563,13 @@
         <v>49</v>
       </c>
       <c r="AD40" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE40" s="7"/>
       <c r="AF40" s="6"/>
       <c r="AG40" s="6"/>
       <c r="AH40" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AI40" s="6"/>
       <c r="AJ40" s="6">
@@ -4594,16 +4597,16 @@
         <v>41</v>
       </c>
       <c r="E41" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="G41" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G41" s="6" t="s">
-        <v>206</v>
-      </c>
       <c r="H41" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6">
@@ -4616,7 +4619,7 @@
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
@@ -4624,10 +4627,10 @@
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
       <c r="W41" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X41" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
@@ -4635,7 +4638,7 @@
       <c r="AB41" s="6"/>
       <c r="AC41" s="6"/>
       <c r="AD41" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE41" s="7">
         <v>7.0000000000000007E-2</v>
@@ -4651,7 +4654,7 @@
         <v>680</v>
       </c>
       <c r="AL41" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM41" s="6">
         <v>400</v>
@@ -4671,16 +4674,16 @@
         <v>41</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F42" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="H42" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>210</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6">
@@ -4693,7 +4696,7 @@
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
@@ -4701,10 +4704,10 @@
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
       <c r="W42" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X42" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
@@ -4714,7 +4717,7 @@
         <v>49</v>
       </c>
       <c r="AD42" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE42" s="7"/>
       <c r="AF42" s="6"/>
@@ -4728,7 +4731,7 @@
         <v>72</v>
       </c>
       <c r="AL42" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AM42" s="6">
         <v>680</v>
@@ -4748,13 +4751,13 @@
         <v>41</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F43" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>54</v>
@@ -4766,32 +4769,32 @@
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q43" s="6" t="s">
         <v>57</v>
       </c>
       <c r="R43" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
       <c r="W43" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X43" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
@@ -4801,7 +4804,7 @@
         <v>49</v>
       </c>
       <c r="AD43" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE43" s="7"/>
       <c r="AF43" s="6"/>
@@ -4833,13 +4836,13 @@
         <v>41</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F44" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>217</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>54</v>
@@ -4851,10 +4854,10 @@
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="N44" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="N44" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
@@ -4869,10 +4872,10 @@
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
       <c r="W44" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X44" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
@@ -4882,7 +4885,7 @@
         <v>49</v>
       </c>
       <c r="AD44" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE44" s="7"/>
       <c r="AF44" s="6"/>
@@ -4914,16 +4917,16 @@
         <v>41</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F45" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="G45" s="6" t="s">
-        <v>221</v>
-      </c>
       <c r="H45" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6">
@@ -4936,7 +4939,7 @@
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
@@ -4944,10 +4947,10 @@
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
       <c r="W45" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X45" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
@@ -4957,7 +4960,7 @@
         <v>49</v>
       </c>
       <c r="AD45" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE45" s="7"/>
       <c r="AF45" s="6"/>
@@ -4971,7 +4974,7 @@
         <v>769</v>
       </c>
       <c r="AL45" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM45" s="6">
         <v>680</v>
@@ -4991,13 +4994,13 @@
         <v>41</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F46" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>54</v>
@@ -5009,32 +5012,32 @@
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q46" s="6" t="s">
         <v>57</v>
       </c>
       <c r="R46" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
       <c r="W46" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X46" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
@@ -5044,7 +5047,7 @@
         <v>49</v>
       </c>
       <c r="AD46" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE46" s="7"/>
       <c r="AF46" s="6"/>
@@ -5076,13 +5079,13 @@
         <v>41</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F47" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>54</v>
@@ -5094,10 +5097,10 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="N47" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="N47" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
@@ -5112,10 +5115,10 @@
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
       <c r="W47" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X47" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y47" s="6"/>
       <c r="Z47" s="6"/>
@@ -5125,13 +5128,13 @@
         <v>49</v>
       </c>
       <c r="AD47" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE47" s="7"/>
       <c r="AF47" s="6"/>
       <c r="AG47" s="6"/>
       <c r="AH47" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AI47" s="6"/>
       <c r="AJ47" s="6">
@@ -5156,22 +5159,22 @@
         <v>40</v>
       </c>
       <c r="D48" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="F48" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="G48" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="H48" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="I48" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
@@ -5182,7 +5185,7 @@
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
@@ -5206,7 +5209,7 @@
         <v>37</v>
       </c>
       <c r="AL48" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AM48" s="6"/>
     </row>
@@ -5221,35 +5224,35 @@
         <v>40</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E49" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="G49" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="H49" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="I49" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
@@ -5288,35 +5291,35 @@
         <v>40</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F50" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="G50" s="6" t="s">
-        <v>243</v>
-      </c>
       <c r="H50" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="I50" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
       <c r="R50" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
@@ -5355,37 +5358,37 @@
         <v>40</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E51" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="F51" s="6" t="s">
-        <v>246</v>
-      </c>
       <c r="G51" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H51" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="I51" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="N51" s="12" t="s">
         <v>247</v>
-      </c>
-      <c r="N51" s="12" t="s">
-        <v>248</v>
       </c>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
       <c r="R51" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S51" s="6"/>
       <c r="T51" s="6"/>
@@ -5424,37 +5427,37 @@
         <v>40</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F52" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="G52" s="6" t="s">
-        <v>250</v>
-      </c>
       <c r="H52" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="I52" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N52" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
       <c r="R52" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S52" s="6"/>
       <c r="T52" s="6"/>
@@ -5478,7 +5481,7 @@
         <v>42</v>
       </c>
       <c r="AL52" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AM52" s="6"/>
     </row>
@@ -5493,42 +5496,42 @@
         <v>40</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E53" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="G53" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="H53" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="H53" s="6" t="s">
-        <v>256</v>
-      </c>
       <c r="I53" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
       <c r="R53" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S53" s="6"/>
       <c r="T53" s="6"/>
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
       <c r="W53" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X53" s="6"/>
       <c r="Y53" s="6"/>
@@ -5560,20 +5563,20 @@
         <v>40</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="H54" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="I54" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
@@ -5584,7 +5587,7 @@
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
       <c r="R54" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S54" s="6"/>
       <c r="T54" s="6"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Downloads\CCRU new KPI\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C5D3CC-19F5-499E-9175-8B0BF771411D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15E93BFD-C7FD-45BB-A715-067621C77CD2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QSR" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_" localSheetId="0">QSR!$A$1:$AM$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">QSR!$A$1:$AM$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">QSR!$A$1:$AM$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="0">QSR!$A$1:$AM$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">QSR!$A$1:$AM$1</definedName>
+    <definedName name="_" localSheetId="0">QSR!$A$1:$AO$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QSR!$A$1:$AO$54</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">QSR!$A$1:$AO$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">QSR!$A$1:$AO$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">QSR!$A$1:$AO$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="272">
   <si>
     <t>Sorting</t>
   </si>
@@ -881,6 +881,27 @@
   </si>
   <si>
     <t>Menu Board, Cash Zone, SS_Cash Zone - Canteen, QSR, SS_Menu Board - Canteen, QSR</t>
+  </si>
+  <si>
+    <t>Category KPI Type</t>
+  </si>
+  <si>
+    <t>Category KPI Value</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>ice tea</t>
+  </si>
+  <si>
+    <t>Juices</t>
   </si>
 </sst>
 </file>
@@ -891,7 +912,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -914,16 +935,29 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -946,12 +980,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -992,6 +1041,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1376,59 +1431,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ54"/>
+  <dimension ref="A1:AML54"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="U1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+    <sheetView windowProtection="1" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X38" sqref="X38:X47"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" style="9"/>
-    <col min="2" max="2" width="19.5546875" style="9"/>
-    <col min="3" max="3" width="18.6640625" style="9"/>
-    <col min="4" max="4" width="19.33203125" style="9"/>
-    <col min="5" max="5" width="18.6640625" style="9"/>
-    <col min="6" max="6" width="84.109375" style="9"/>
-    <col min="7" max="7" width="86.21875" style="9"/>
-    <col min="8" max="8" width="47.5546875" style="9"/>
-    <col min="9" max="9" width="25.44140625" style="9"/>
-    <col min="10" max="10" width="16.33203125" style="9"/>
-    <col min="11" max="11" width="21.5546875" style="9"/>
-    <col min="12" max="12" width="22.44140625" style="9"/>
-    <col min="13" max="14" width="33.88671875" style="9"/>
-    <col min="15" max="15" width="30.33203125" style="9"/>
-    <col min="16" max="16" width="21.5546875" style="9"/>
-    <col min="17" max="17" width="29.33203125" style="9"/>
-    <col min="18" max="18" width="15.21875" style="9"/>
-    <col min="19" max="19" width="13.44140625" style="9"/>
-    <col min="20" max="20" width="23" style="9"/>
-    <col min="21" max="21" width="28.109375" style="9"/>
-    <col min="22" max="22" width="34.6640625" style="9"/>
-    <col min="23" max="23" width="33.88671875" style="9"/>
-    <col min="24" max="24" width="31.21875" style="9"/>
-    <col min="25" max="25" width="31.77734375" style="9"/>
-    <col min="26" max="26" width="38.6640625" style="9"/>
-    <col min="27" max="27" width="39.33203125" style="9"/>
-    <col min="28" max="28" width="25.44140625" style="9"/>
-    <col min="29" max="29" width="22.88671875" style="9"/>
-    <col min="30" max="30" width="22.6640625" style="9"/>
-    <col min="31" max="31" width="22" style="13"/>
-    <col min="32" max="32" width="20.88671875" style="9"/>
-    <col min="33" max="33" width="22" style="9"/>
-    <col min="34" max="34" width="71.77734375" style="9"/>
-    <col min="35" max="35" width="25.33203125" style="9"/>
-    <col min="36" max="36" width="13.5546875" style="9"/>
-    <col min="37" max="37" width="15.88671875" style="9"/>
-    <col min="38" max="38" width="23.21875" style="14"/>
-    <col min="39" max="39" width="16.33203125" style="9"/>
-    <col min="40" max="1023" width="9.21875" style="9"/>
-    <col min="1024" max="1025" width="9.21875" style="5"/>
-    <col min="1026" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="16.42578125" style="9"/>
+    <col min="2" max="2" width="19.5703125" style="9"/>
+    <col min="3" max="3" width="18.7109375" style="9"/>
+    <col min="4" max="4" width="19.28515625" style="9"/>
+    <col min="5" max="5" width="18.7109375" style="9"/>
+    <col min="6" max="6" width="84.140625" style="9"/>
+    <col min="7" max="7" width="86.28515625" style="9"/>
+    <col min="8" max="8" width="47.5703125" style="9"/>
+    <col min="9" max="9" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.42578125" style="9"/>
+    <col min="12" max="12" width="16.28515625" style="9"/>
+    <col min="13" max="13" width="21.5703125" style="9"/>
+    <col min="14" max="14" width="22.42578125" style="9"/>
+    <col min="15" max="16" width="33.85546875" style="9"/>
+    <col min="17" max="17" width="30.28515625" style="9"/>
+    <col min="18" max="18" width="21.5703125" style="9"/>
+    <col min="19" max="19" width="29.28515625" style="9"/>
+    <col min="20" max="20" width="15.28515625" style="9"/>
+    <col min="21" max="21" width="13.42578125" style="9"/>
+    <col min="22" max="22" width="23" style="9"/>
+    <col min="23" max="23" width="28.140625" style="9"/>
+    <col min="24" max="24" width="34.7109375" style="9"/>
+    <col min="25" max="25" width="33.85546875" style="9"/>
+    <col min="26" max="26" width="31.28515625" style="9"/>
+    <col min="27" max="27" width="36.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.7109375" style="9"/>
+    <col min="29" max="29" width="39.28515625" style="9"/>
+    <col min="30" max="30" width="25.42578125" style="9"/>
+    <col min="31" max="31" width="22.85546875" style="9"/>
+    <col min="32" max="32" width="22.7109375" style="9"/>
+    <col min="33" max="33" width="22" style="13"/>
+    <col min="34" max="34" width="20.85546875" style="9"/>
+    <col min="35" max="35" width="22" style="9"/>
+    <col min="36" max="36" width="71.7109375" style="9"/>
+    <col min="37" max="37" width="25.28515625" style="9"/>
+    <col min="38" max="38" width="13.5703125" style="9"/>
+    <col min="39" max="39" width="15.85546875" style="9"/>
+    <col min="40" max="40" width="23.28515625" style="14"/>
+    <col min="41" max="41" width="16.28515625" style="9"/>
+    <col min="42" max="1025" width="9.28515625" style="9"/>
+    <col min="1026" max="1027" width="9.28515625" style="5"/>
+    <col min="1028" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41 1026:1026" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1453,102 +1510,108 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AMJ1" s="5"/>
+      <c r="AML1" s="5"/>
     </row>
-    <row r="2" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1593,23 +1656,25 @@
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
       <c r="AD2" s="6"/>
-      <c r="AE2" s="7"/>
+      <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
+      <c r="AG2" s="7"/>
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
-      <c r="AJ2" s="6">
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6">
         <v>1</v>
       </c>
-      <c r="AK2" s="6">
+      <c r="AM2" s="6">
         <v>300</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AN2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AM2" s="6"/>
+      <c r="AO2" s="6"/>
     </row>
-    <row r="3" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1634,8 +1699,12 @@
       <c r="H3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="I3" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>267</v>
+      </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -1654,31 +1723,33 @@
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
-      <c r="AC3" s="6" t="s">
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AF3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
+      <c r="AG3" s="7"/>
       <c r="AH3" s="6"/>
       <c r="AI3" s="6"/>
-      <c r="AJ3" s="6">
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6">
         <v>2</v>
       </c>
-      <c r="AK3" s="6">
+      <c r="AM3" s="6">
         <v>1</v>
       </c>
-      <c r="AL3" s="8" t="s">
+      <c r="AN3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AM3" s="6">
+      <c r="AO3" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1704,64 +1775,66 @@
         <v>54</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="6">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6">
         <v>1</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6" t="s">
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="6" t="s">
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD4" s="6" t="s">
+      <c r="AF4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE4" s="7">
+      <c r="AG4" s="7">
         <v>4.1980000000000003E-2</v>
       </c>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
-      <c r="AJ4" s="6">
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6">
         <v>3</v>
       </c>
-      <c r="AK4" s="6">
+      <c r="AM4" s="6">
         <v>2</v>
       </c>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="6">
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1787,64 +1860,66 @@
         <v>54</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="6">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6">
         <v>1</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="T5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
       <c r="U5" s="6"/>
-      <c r="V5" s="6" t="s">
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6" t="s">
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
-      <c r="AC5" s="6" t="s">
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD5" s="6" t="s">
+      <c r="AF5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE5" s="7">
+      <c r="AG5" s="7">
         <v>4.1980000000000003E-2</v>
       </c>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
-      <c r="AJ5" s="6">
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6">
         <v>3</v>
       </c>
-      <c r="AK5" s="6">
+      <c r="AM5" s="6">
         <v>3</v>
       </c>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="6">
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1870,64 +1945,66 @@
         <v>54</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="6">
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6">
         <v>1</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="P6" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="T6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
       <c r="U6" s="6"/>
-      <c r="V6" s="6" t="s">
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6" t="s">
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
-      <c r="AC6" s="6" t="s">
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD6" s="6" t="s">
+      <c r="AF6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE6" s="7">
+      <c r="AG6" s="7">
         <v>4.1980000000000003E-2</v>
       </c>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
-      <c r="AJ6" s="6">
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6">
         <v>3</v>
       </c>
-      <c r="AK6" s="6">
+      <c r="AM6" s="6">
         <v>4</v>
       </c>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="6">
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1953,64 +2030,66 @@
         <v>54</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="6">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6">
         <v>1</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="P7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="T7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
       <c r="U7" s="6"/>
-      <c r="V7" s="6" t="s">
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6" t="s">
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
-      <c r="AC7" s="6" t="s">
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD7" s="6" t="s">
+      <c r="AF7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE7" s="7">
+      <c r="AG7" s="7">
         <v>4.1980000000000003E-2</v>
       </c>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
-      <c r="AJ7" s="6">
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6">
         <v>3</v>
       </c>
-      <c r="AK7" s="6">
+      <c r="AM7" s="6">
         <v>5</v>
       </c>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="6">
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2036,64 +2115,66 @@
         <v>54</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="6">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6">
         <v>1</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="P8" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="T8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
       <c r="U8" s="6"/>
-      <c r="V8" s="6" t="s">
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6" t="s">
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="6" t="s">
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD8" s="6" t="s">
+      <c r="AF8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE8" s="7">
+      <c r="AG8" s="7">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
-      <c r="AJ8" s="6">
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6">
         <v>3</v>
       </c>
-      <c r="AK8" s="6">
+      <c r="AM8" s="6">
         <v>606</v>
       </c>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="6">
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2119,62 +2200,64 @@
         <v>54</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="6">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6">
         <v>1</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="P9" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="T9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
       <c r="U9" s="6"/>
-      <c r="V9" s="6" t="s">
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6" t="s">
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
-      <c r="AD9" s="6" t="s">
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE9" s="7">
+      <c r="AG9" s="7">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
-      <c r="AJ9" s="6">
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6">
         <v>3</v>
       </c>
-      <c r="AK9" s="6">
+      <c r="AM9" s="6">
         <v>603</v>
       </c>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="6">
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -2200,64 +2283,66 @@
         <v>54</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="6">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6">
         <v>1</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="P10" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6" t="s">
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="T10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="6" t="s">
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6" t="s">
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
-      <c r="AC10" s="6" t="s">
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD10" s="6" t="s">
+      <c r="AF10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE10" s="7">
+      <c r="AG10" s="7">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
-      <c r="AJ10" s="6">
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6">
         <v>3</v>
       </c>
-      <c r="AK10" s="6">
+      <c r="AM10" s="6">
         <v>607</v>
       </c>
-      <c r="AL10" s="10"/>
-      <c r="AM10" s="6">
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>12</v>
       </c>
@@ -2282,8 +2367,12 @@
       <c r="H11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="I11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>268</v>
+      </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -2302,31 +2391,33 @@
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
-      <c r="AC11" s="6" t="s">
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD11" s="6" t="s">
+      <c r="AF11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
+      <c r="AG11" s="7"/>
       <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
-      <c r="AJ11" s="6">
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6">
         <v>2</v>
       </c>
-      <c r="AK11" s="6">
+      <c r="AM11" s="6">
         <v>8</v>
       </c>
-      <c r="AL11" s="8" t="s">
+      <c r="AN11" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AM11" s="6">
+      <c r="AO11" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>13</v>
       </c>
@@ -2352,64 +2443,66 @@
         <v>54</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="6">
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6">
         <v>1</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="P12" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6" t="s">
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="T12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
       <c r="U12" s="6"/>
-      <c r="V12" s="6" t="s">
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6" t="s">
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
-      <c r="AC12" s="6" t="s">
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD12" s="6" t="s">
+      <c r="AF12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE12" s="7">
+      <c r="AG12" s="7">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
-      <c r="AJ12" s="6">
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6">
         <v>3</v>
       </c>
-      <c r="AK12" s="6">
+      <c r="AM12" s="6">
         <v>9</v>
       </c>
-      <c r="AL12" s="10"/>
-      <c r="AM12" s="6">
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>14</v>
       </c>
@@ -2435,64 +2528,66 @@
         <v>54</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="6">
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6">
         <v>1</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="P13" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6" t="s">
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="T13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
       <c r="U13" s="6"/>
-      <c r="V13" s="6" t="s">
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6" t="s">
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
-      <c r="AC13" s="6" t="s">
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD13" s="6" t="s">
+      <c r="AF13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE13" s="7">
+      <c r="AG13" s="7">
         <v>1.2696000000000001E-2</v>
       </c>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
       <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
-      <c r="AJ13" s="6">
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6">
         <v>3</v>
       </c>
-      <c r="AK13" s="6">
+      <c r="AM13" s="6">
         <v>10</v>
       </c>
-      <c r="AL13" s="10"/>
-      <c r="AM13" s="6">
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>15</v>
       </c>
@@ -2517,8 +2612,12 @@
       <c r="H14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="I14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>269</v>
+      </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -2537,31 +2636,33 @@
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="6" t="s">
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD14" s="6" t="s">
+      <c r="AF14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
+      <c r="AG14" s="7"/>
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
-      <c r="AJ14" s="6">
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6">
         <v>2</v>
       </c>
-      <c r="AK14" s="6">
+      <c r="AM14" s="6">
         <v>11</v>
       </c>
-      <c r="AL14" s="8" t="s">
+      <c r="AN14" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="AM14" s="6">
+      <c r="AO14" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>16</v>
       </c>
@@ -2587,64 +2688,66 @@
         <v>54</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="6">
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6">
         <v>1</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="N15" s="6">
+      <c r="P15" s="6">
         <v>5449000131768</v>
       </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6" t="s">
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="T15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
       <c r="U15" s="6"/>
-      <c r="V15" s="6" t="s">
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6" t="s">
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
-      <c r="AC15" s="6" t="s">
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD15" s="6" t="s">
+      <c r="AF15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE15" s="7">
+      <c r="AG15" s="7">
         <v>1.2696000000000001E-2</v>
       </c>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
       <c r="AH15" s="6"/>
       <c r="AI15" s="6"/>
-      <c r="AJ15" s="6">
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6">
         <v>3</v>
       </c>
-      <c r="AK15" s="6">
+      <c r="AM15" s="6">
         <v>12</v>
       </c>
-      <c r="AL15" s="10"/>
-      <c r="AM15" s="6">
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>17</v>
       </c>
@@ -2670,62 +2773,64 @@
         <v>54</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="6">
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6">
         <v>1</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="P16" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6" t="s">
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="T16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
       <c r="U16" s="6"/>
-      <c r="V16" s="6" t="s">
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6" t="s">
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
-      <c r="AD16" s="6" t="s">
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE16" s="7">
+      <c r="AG16" s="7">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
       <c r="AH16" s="6"/>
       <c r="AI16" s="6"/>
-      <c r="AJ16" s="6">
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6">
         <v>3</v>
       </c>
-      <c r="AK16" s="6">
+      <c r="AM16" s="6">
         <v>62</v>
       </c>
-      <c r="AL16" s="10"/>
-      <c r="AM16" s="6">
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>19</v>
       </c>
@@ -2750,8 +2855,12 @@
       <c r="H17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="I17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>270</v>
+      </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -2770,31 +2879,33 @@
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
-      <c r="AC17" s="6" t="s">
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD17" s="6" t="s">
+      <c r="AF17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
+      <c r="AG17" s="7"/>
       <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
-      <c r="AJ17" s="6">
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6">
         <v>2</v>
       </c>
-      <c r="AK17" s="6">
+      <c r="AM17" s="6">
         <v>14</v>
       </c>
-      <c r="AL17" s="8" t="s">
+      <c r="AN17" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="AM17" s="6">
+      <c r="AO17" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>20</v>
       </c>
@@ -2820,64 +2931,66 @@
         <v>54</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="6">
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6">
         <v>1</v>
       </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="P18" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6" t="s">
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="T18" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
       <c r="U18" s="6"/>
-      <c r="V18" s="6" t="s">
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6" t="s">
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
-      <c r="AC18" s="6" t="s">
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD18" s="6" t="s">
+      <c r="AF18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE18" s="7">
+      <c r="AG18" s="7">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
-      <c r="AJ18" s="6">
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6">
         <v>3</v>
       </c>
-      <c r="AK18" s="6">
+      <c r="AM18" s="6">
         <v>17</v>
       </c>
-      <c r="AL18" s="10"/>
-      <c r="AM18" s="6">
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>21</v>
       </c>
@@ -2903,64 +3016,66 @@
         <v>54</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="6">
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6">
         <v>1</v>
       </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="N19" s="6">
+      <c r="P19" s="6">
         <v>4607042430879</v>
       </c>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6" t="s">
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="T19" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
       <c r="U19" s="6"/>
-      <c r="V19" s="6" t="s">
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6" t="s">
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="6" t="s">
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD19" s="6" t="s">
+      <c r="AF19" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE19" s="7">
+      <c r="AG19" s="7">
         <v>1.2696000000000001E-2</v>
       </c>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
-      <c r="AJ19" s="6">
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6">
         <v>3</v>
       </c>
-      <c r="AK19" s="6">
+      <c r="AM19" s="6">
         <v>215</v>
       </c>
-      <c r="AL19" s="10"/>
-      <c r="AM19" s="6">
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>22</v>
       </c>
@@ -2986,64 +3101,66 @@
         <v>54</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="6">
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6">
         <v>1</v>
       </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6" t="s">
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="P20" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6" t="s">
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R20" s="6" t="s">
+      <c r="T20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
       <c r="U20" s="6"/>
-      <c r="V20" s="6" t="s">
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6" t="s">
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="6" t="s">
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD20" s="6" t="s">
+      <c r="AF20" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE20" s="7">
+      <c r="AG20" s="7">
         <v>1.2696000000000001E-2</v>
       </c>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
       <c r="AH20" s="6"/>
       <c r="AI20" s="6"/>
-      <c r="AJ20" s="6">
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6">
         <v>3</v>
       </c>
-      <c r="AK20" s="6">
+      <c r="AM20" s="6">
         <v>216</v>
       </c>
-      <c r="AL20" s="10"/>
-      <c r="AM20" s="6">
+      <c r="AN20" s="10"/>
+      <c r="AO20" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>23</v>
       </c>
@@ -3069,64 +3186,66 @@
         <v>54</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="6">
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6">
         <v>1</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="N21" s="6">
+      <c r="P21" s="6">
         <v>5449000233615</v>
       </c>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6" t="s">
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R21" s="6" t="s">
+      <c r="T21" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
       <c r="U21" s="6"/>
-      <c r="V21" s="6" t="s">
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6" t="s">
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
-      <c r="AC21" s="6" t="s">
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD21" s="6" t="s">
+      <c r="AF21" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE21" s="7">
+      <c r="AG21" s="7">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
       <c r="AI21" s="6"/>
-      <c r="AJ21" s="6">
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6">
         <v>3</v>
       </c>
-      <c r="AK21" s="6">
+      <c r="AM21" s="6">
         <v>18</v>
       </c>
-      <c r="AL21" s="10"/>
-      <c r="AM21" s="6">
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>27</v>
       </c>
@@ -3151,8 +3270,12 @@
       <c r="H22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="I22" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>271</v>
+      </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
@@ -3171,31 +3294,33 @@
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
-      <c r="AC22" s="6" t="s">
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD22" s="6" t="s">
+      <c r="AF22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
+      <c r="AG22" s="7"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="6">
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6">
         <v>2</v>
       </c>
-      <c r="AK22" s="6">
+      <c r="AM22" s="6">
         <v>20</v>
       </c>
-      <c r="AL22" s="8" t="s">
+      <c r="AN22" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="AM22" s="6">
+      <c r="AO22" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>28</v>
       </c>
@@ -3221,64 +3346,66 @@
         <v>54</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="6">
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6">
         <v>1</v>
       </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6" t="s">
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="P23" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6" t="s">
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R23" s="6" t="s">
+      <c r="T23" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
       <c r="U23" s="6"/>
-      <c r="V23" s="6" t="s">
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6" t="s">
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
       <c r="AB23" s="6"/>
-      <c r="AC23" s="6" t="s">
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD23" s="6" t="s">
+      <c r="AF23" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE23" s="7">
+      <c r="AG23" s="7">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="6">
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6">
         <v>3</v>
       </c>
-      <c r="AK23" s="6">
+      <c r="AM23" s="6">
         <v>222</v>
       </c>
-      <c r="AL23" s="10"/>
-      <c r="AM23" s="6">
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>29</v>
       </c>
@@ -3304,64 +3431,66 @@
         <v>54</v>
       </c>
       <c r="I24" s="6"/>
-      <c r="J24" s="6">
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6">
         <v>1</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6" t="s">
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="P24" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6" t="s">
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R24" s="6" t="s">
+      <c r="T24" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
       <c r="U24" s="6"/>
-      <c r="V24" s="6" t="s">
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6" t="s">
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="6" t="s">
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD24" s="6" t="s">
+      <c r="AF24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE24" s="7">
+      <c r="AG24" s="7">
         <v>1.2696000000000001E-2</v>
       </c>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="6"/>
       <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
-      <c r="AJ24" s="6">
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="6">
         <v>3</v>
       </c>
-      <c r="AK24" s="6">
+      <c r="AM24" s="6">
         <v>221</v>
       </c>
-      <c r="AL24" s="10"/>
-      <c r="AM24" s="6">
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>30</v>
       </c>
@@ -3387,62 +3516,64 @@
         <v>54</v>
       </c>
       <c r="I25" s="6"/>
-      <c r="J25" s="6">
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6">
         <v>1</v>
       </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6" t="s">
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="P25" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6" t="s">
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R25" s="6" t="s">
+      <c r="T25" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
       <c r="U25" s="6"/>
-      <c r="V25" s="6" t="s">
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6" t="s">
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
-      <c r="AD25" s="6" t="s">
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE25" s="7">
+      <c r="AG25" s="7">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AF25" s="6"/>
-      <c r="AG25" s="6"/>
       <c r="AH25" s="6"/>
       <c r="AI25" s="6"/>
-      <c r="AJ25" s="6">
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="6">
         <v>3</v>
       </c>
-      <c r="AK25" s="6">
+      <c r="AM25" s="6">
         <v>168</v>
       </c>
-      <c r="AL25" s="10"/>
-      <c r="AM25" s="6">
+      <c r="AN25" s="10"/>
+      <c r="AO25" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>31</v>
       </c>
@@ -3468,64 +3599,66 @@
         <v>54</v>
       </c>
       <c r="I26" s="6"/>
-      <c r="J26" s="6">
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6">
         <v>1</v>
       </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6" t="s">
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="N26" s="6" t="s">
+      <c r="P26" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6" t="s">
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R26" s="6" t="s">
+      <c r="T26" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
       <c r="U26" s="6"/>
-      <c r="V26" s="6" t="s">
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6" t="s">
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="6" t="s">
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD26" s="6" t="s">
+      <c r="AF26" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE26" s="7">
+      <c r="AG26" s="7">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AF26" s="6"/>
-      <c r="AG26" s="6"/>
       <c r="AH26" s="6"/>
       <c r="AI26" s="6"/>
-      <c r="AJ26" s="6">
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6">
         <v>3</v>
       </c>
-      <c r="AK26" s="6">
+      <c r="AM26" s="6">
         <v>223</v>
       </c>
-      <c r="AL26" s="10"/>
-      <c r="AM26" s="6">
+      <c r="AN26" s="10"/>
+      <c r="AO26" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>37</v>
       </c>
@@ -3570,23 +3703,25 @@
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
       <c r="AD27" s="6"/>
-      <c r="AE27" s="7"/>
+      <c r="AE27" s="6"/>
       <c r="AF27" s="6"/>
-      <c r="AG27" s="6"/>
+      <c r="AG27" s="7"/>
       <c r="AH27" s="6"/>
       <c r="AI27" s="6"/>
-      <c r="AJ27" s="6">
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="6">
         <v>1</v>
       </c>
-      <c r="AK27" s="6">
+      <c r="AM27" s="6">
         <v>310</v>
       </c>
-      <c r="AL27" s="8" t="s">
+      <c r="AN27" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="AM27" s="6"/>
+      <c r="AO27" s="6"/>
     </row>
-    <row r="28" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>38</v>
       </c>
@@ -3631,25 +3766,27 @@
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
       <c r="AD28" s="6"/>
-      <c r="AE28" s="7"/>
+      <c r="AE28" s="6"/>
       <c r="AF28" s="6"/>
-      <c r="AG28" s="6"/>
+      <c r="AG28" s="7"/>
       <c r="AH28" s="6"/>
       <c r="AI28" s="6"/>
-      <c r="AJ28" s="6">
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6">
         <v>1</v>
       </c>
-      <c r="AK28" s="6">
+      <c r="AM28" s="6">
         <v>311</v>
       </c>
-      <c r="AL28" s="10">
+      <c r="AN28" s="10">
         <v>26</v>
       </c>
-      <c r="AM28" s="6">
+      <c r="AO28" s="6">
         <v>310</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>39</v>
       </c>
@@ -3682,11 +3819,11 @@
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
-      <c r="Q29" s="6" t="s">
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
@@ -3696,35 +3833,37 @@
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="6" t="s">
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD29" s="6" t="s">
+      <c r="AF29" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="AE29" s="7">
+      <c r="AG29" s="7">
         <v>0.08</v>
       </c>
-      <c r="AF29" s="6"/>
-      <c r="AG29" s="6"/>
-      <c r="AH29" s="6" t="s">
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AI29" s="6"/>
-      <c r="AJ29" s="6">
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="6">
         <v>2</v>
       </c>
-      <c r="AK29" s="6">
+      <c r="AM29" s="6">
         <v>26</v>
       </c>
-      <c r="AL29" s="8" t="s">
+      <c r="AN29" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="AM29" s="6">
+      <c r="AO29" s="6">
         <v>311</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>40</v>
       </c>
@@ -3750,60 +3889,62 @@
         <v>153</v>
       </c>
       <c r="I30" s="6"/>
-      <c r="J30" s="6">
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6">
         <v>1</v>
       </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6" t="s">
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="N30" s="6" t="s">
+      <c r="P30" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
-      <c r="R30" s="6" t="s">
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
-      <c r="W30" s="6" t="s">
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
-      <c r="AC30" s="6" t="s">
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD30" s="6" t="s">
+      <c r="AF30" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="6"/>
-      <c r="AG30" s="6"/>
-      <c r="AH30" s="6" t="s">
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="AI30" s="6"/>
-      <c r="AJ30" s="6">
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="6">
         <v>3</v>
       </c>
-      <c r="AK30" s="6">
+      <c r="AM30" s="6">
         <v>27</v>
       </c>
-      <c r="AL30" s="10"/>
-      <c r="AM30" s="6">
+      <c r="AN30" s="10"/>
+      <c r="AO30" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>41</v>
       </c>
@@ -3829,58 +3970,60 @@
         <v>161</v>
       </c>
       <c r="I31" s="6"/>
-      <c r="J31" s="6">
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6">
         <v>0.01</v>
       </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6" t="s">
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="N31" s="6" t="s">
+      <c r="P31" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
-      <c r="R31" s="6" t="s">
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
-      <c r="W31" s="6" t="s">
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
-      <c r="AC31" s="6" t="s">
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD31" s="6" t="s">
+      <c r="AF31" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="6"/>
-      <c r="AG31" s="6"/>
+      <c r="AG31" s="7"/>
       <c r="AH31" s="6"/>
       <c r="AI31" s="6"/>
-      <c r="AJ31" s="6">
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="6">
         <v>3</v>
       </c>
-      <c r="AK31" s="6">
+      <c r="AM31" s="6">
         <v>28</v>
       </c>
-      <c r="AL31" s="10"/>
-      <c r="AM31" s="6">
+      <c r="AN31" s="10"/>
+      <c r="AO31" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>42</v>
       </c>
@@ -3925,25 +4068,27 @@
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
-      <c r="AE32" s="7"/>
+      <c r="AE32" s="6"/>
       <c r="AF32" s="6"/>
-      <c r="AG32" s="6"/>
+      <c r="AG32" s="7"/>
       <c r="AH32" s="6"/>
       <c r="AI32" s="6"/>
-      <c r="AJ32" s="6">
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="6">
         <v>1</v>
       </c>
-      <c r="AK32" s="6">
+      <c r="AM32" s="6">
         <v>312</v>
       </c>
-      <c r="AL32" s="8" t="s">
+      <c r="AN32" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="AM32" s="6">
+      <c r="AO32" s="6">
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>43</v>
       </c>
@@ -3969,64 +4114,66 @@
         <v>169</v>
       </c>
       <c r="I33" s="6"/>
-      <c r="J33" s="6">
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6">
         <v>1</v>
       </c>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
       <c r="M33" s="6"/>
-      <c r="N33" s="6" t="s">
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
-      <c r="R33" s="6" t="s">
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
-      <c r="W33" s="6" t="s">
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="X33" s="6" t="s">
+      <c r="Z33" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
       <c r="AA33" s="6"/>
       <c r="AB33" s="6"/>
-      <c r="AC33" s="6" t="s">
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD33" s="6" t="s">
+      <c r="AF33" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE33" s="7">
+      <c r="AG33" s="7">
         <v>0.04</v>
       </c>
-      <c r="AF33" s="6"/>
-      <c r="AG33" s="6"/>
-      <c r="AH33" s="6" t="s">
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="6"/>
+      <c r="AJ33" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="AI33" s="6" t="s">
+      <c r="AK33" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="AJ33" s="6">
+      <c r="AL33" s="6">
         <v>2</v>
       </c>
-      <c r="AK33" s="6">
+      <c r="AM33" s="6">
         <v>29</v>
       </c>
-      <c r="AL33" s="10"/>
-      <c r="AM33" s="6">
+      <c r="AN33" s="10"/>
+      <c r="AO33" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>44</v>
       </c>
@@ -4052,64 +4199,66 @@
         <v>175</v>
       </c>
       <c r="I34" s="6"/>
-      <c r="J34" s="6">
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6">
         <v>1</v>
       </c>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6" t="s">
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="N34" s="6" t="s">
+      <c r="P34" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
-      <c r="R34" s="6" t="s">
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
-      <c r="W34" s="6" t="s">
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
       <c r="AA34" s="6"/>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="6" t="s">
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD34" s="6" t="s">
+      <c r="AF34" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="AE34" s="7">
+      <c r="AG34" s="7">
         <v>0.04</v>
       </c>
-      <c r="AF34" s="6"/>
-      <c r="AG34" s="6"/>
-      <c r="AH34" s="6" t="s">
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="6"/>
+      <c r="AJ34" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="AI34" s="6" t="s">
+      <c r="AK34" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="AJ34" s="6">
+      <c r="AL34" s="6">
         <v>2</v>
       </c>
-      <c r="AK34" s="6">
+      <c r="AM34" s="6">
         <v>30</v>
       </c>
-      <c r="AL34" s="10"/>
-      <c r="AM34" s="6">
+      <c r="AN34" s="10"/>
+      <c r="AO34" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>45</v>
       </c>
@@ -4136,65 +4285,67 @@
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="6">
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6">
         <v>1</v>
       </c>
-      <c r="L35" s="6">
+      <c r="N35" s="6">
         <v>15</v>
       </c>
-      <c r="M35" s="6" t="s">
+      <c r="O35" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="N35" s="6" t="s">
+      <c r="P35" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
-      <c r="R35" s="6" t="s">
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
-      <c r="W35" s="6" t="s">
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
       <c r="AA35" s="6"/>
       <c r="AB35" s="6"/>
-      <c r="AC35" s="6" t="s">
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD35" s="6" t="s">
+      <c r="AF35" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE35" s="7">
+      <c r="AG35" s="7">
         <v>0.04</v>
       </c>
-      <c r="AF35" s="6"/>
-      <c r="AG35" s="6"/>
-      <c r="AH35" s="6" t="s">
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="AI35" s="6" t="s">
+      <c r="AK35" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="AJ35" s="6">
+      <c r="AL35" s="6">
         <v>2</v>
       </c>
-      <c r="AK35" s="6">
+      <c r="AM35" s="6">
         <v>31</v>
       </c>
-      <c r="AL35" s="10"/>
-      <c r="AM35" s="6">
+      <c r="AN35" s="10"/>
+      <c r="AO35" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>46</v>
       </c>
@@ -4239,23 +4390,25 @@
       <c r="AB36" s="6"/>
       <c r="AC36" s="6"/>
       <c r="AD36" s="6"/>
-      <c r="AE36" s="7"/>
+      <c r="AE36" s="6"/>
       <c r="AF36" s="6"/>
-      <c r="AG36" s="6"/>
+      <c r="AG36" s="7"/>
       <c r="AH36" s="6"/>
       <c r="AI36" s="6"/>
-      <c r="AJ36" s="6">
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="6">
         <v>1</v>
       </c>
-      <c r="AK36" s="6">
+      <c r="AM36" s="6">
         <v>400</v>
       </c>
-      <c r="AL36" s="8" t="s">
+      <c r="AN36" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AM36" s="6"/>
+      <c r="AO36" s="6"/>
     </row>
-    <row r="37" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>48</v>
       </c>
@@ -4281,64 +4434,66 @@
         <v>54</v>
       </c>
       <c r="I37" s="6"/>
-      <c r="J37" s="6">
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6">
         <v>4</v>
       </c>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6" t="s">
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="N37" s="6" t="s">
+      <c r="P37" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6" t="s">
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R37" s="6" t="s">
+      <c r="T37" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
-      <c r="W37" s="6" t="s">
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="X37" s="6" t="s">
+      <c r="Z37" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
       <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
-      <c r="AC37" s="6" t="s">
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD37" s="6" t="s">
+      <c r="AF37" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE37" s="7">
+      <c r="AG37" s="7">
         <v>0.05</v>
       </c>
-      <c r="AF37" s="6"/>
-      <c r="AG37" s="6"/>
       <c r="AH37" s="6"/>
       <c r="AI37" s="6"/>
-      <c r="AJ37" s="6">
+      <c r="AJ37" s="6"/>
+      <c r="AK37" s="6"/>
+      <c r="AL37" s="6">
         <v>2</v>
       </c>
-      <c r="AK37" s="6">
+      <c r="AM37" s="6">
         <v>33</v>
       </c>
-      <c r="AL37" s="10"/>
-      <c r="AM37" s="6">
+      <c r="AN37" s="10"/>
+      <c r="AO37" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>49</v>
       </c>
@@ -4363,61 +4518,63 @@
       <c r="H38" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6">
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6">
         <v>2</v>
       </c>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
-      <c r="Q38" s="6" t="s">
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
-      <c r="W38" s="6" t="s">
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="X38" s="6" t="s">
+      <c r="Z38" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
-      <c r="AC38" s="6" t="s">
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD38" s="6" t="s">
+      <c r="AF38" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE38" s="7">
+      <c r="AG38" s="7">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AF38" s="6"/>
-      <c r="AG38" s="6"/>
       <c r="AH38" s="6"/>
       <c r="AI38" s="6"/>
-      <c r="AJ38" s="6">
+      <c r="AJ38" s="6"/>
+      <c r="AK38" s="6"/>
+      <c r="AL38" s="6">
         <v>2</v>
       </c>
-      <c r="AK38" s="6">
+      <c r="AM38" s="6">
         <v>34</v>
       </c>
-      <c r="AL38" s="8" t="s">
+      <c r="AN38" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="AM38" s="6">
+      <c r="AO38" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>50</v>
       </c>
@@ -4443,64 +4600,66 @@
         <v>54</v>
       </c>
       <c r="I39" s="6"/>
-      <c r="J39" s="6">
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6">
         <v>1</v>
       </c>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6" t="s">
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="N39" s="11" t="s">
+      <c r="P39" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="O39" s="6" t="s">
+      <c r="Q39" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6" t="s">
+      <c r="R39" s="6"/>
+      <c r="S39" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R39" s="6" t="s">
+      <c r="T39" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
-      <c r="W39" s="6" t="s">
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="X39" s="6" t="s">
+      <c r="Z39" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="Y39" s="6"/>
-      <c r="Z39" s="6"/>
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
-      <c r="AC39" s="6" t="s">
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD39" s="6" t="s">
+      <c r="AF39" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE39" s="7"/>
-      <c r="AF39" s="6"/>
-      <c r="AG39" s="6"/>
+      <c r="AG39" s="7"/>
       <c r="AH39" s="6"/>
       <c r="AI39" s="6"/>
-      <c r="AJ39" s="6">
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="6">
         <v>3</v>
       </c>
-      <c r="AK39" s="6">
+      <c r="AM39" s="6">
         <v>35</v>
       </c>
-      <c r="AL39" s="10"/>
-      <c r="AM39" s="6">
+      <c r="AN39" s="10"/>
+      <c r="AO39" s="6">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>51</v>
       </c>
@@ -4525,65 +4684,67 @@
       <c r="H40" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6">
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6">
         <v>1</v>
       </c>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6" t="s">
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="N40" s="11" t="s">
+      <c r="P40" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6" t="s">
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R40" s="6" t="s">
+      <c r="T40" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
-      <c r="W40" s="6" t="s">
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="X40" s="6" t="s">
+      <c r="Z40" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
-      <c r="AC40" s="6" t="s">
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD40" s="6" t="s">
+      <c r="AF40" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE40" s="7"/>
-      <c r="AF40" s="6"/>
-      <c r="AG40" s="6"/>
-      <c r="AH40" s="6" t="s">
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="6"/>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AI40" s="6"/>
-      <c r="AJ40" s="6">
+      <c r="AK40" s="6"/>
+      <c r="AL40" s="6">
         <v>3</v>
       </c>
-      <c r="AK40" s="6">
+      <c r="AM40" s="6">
         <v>36</v>
       </c>
-      <c r="AL40" s="10"/>
-      <c r="AM40" s="6">
+      <c r="AN40" s="10"/>
+      <c r="AO40" s="6">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>52</v>
       </c>
@@ -4608,59 +4769,61 @@
       <c r="H41" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6">
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6">
         <v>1</v>
       </c>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
-      <c r="Q41" s="6" t="s">
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
       <c r="T41" s="6"/>
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
-      <c r="W41" s="6" t="s">
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="X41" s="6" t="s">
+      <c r="Z41" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
       <c r="AA41" s="6"/>
       <c r="AB41" s="6"/>
       <c r="AC41" s="6"/>
-      <c r="AD41" s="6" t="s">
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE41" s="7">
+      <c r="AG41" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AF41" s="6"/>
-      <c r="AG41" s="6"/>
       <c r="AH41" s="6"/>
       <c r="AI41" s="6"/>
-      <c r="AJ41" s="6">
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="6"/>
+      <c r="AL41" s="6">
         <v>2</v>
       </c>
-      <c r="AK41" s="6">
+      <c r="AM41" s="6">
         <v>680</v>
       </c>
-      <c r="AL41" s="8" t="s">
+      <c r="AN41" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="AM41" s="6">
+      <c r="AO41" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>53</v>
       </c>
@@ -4686,58 +4849,60 @@
         <v>209</v>
       </c>
       <c r="I42" s="6"/>
-      <c r="J42" s="6">
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6">
         <v>2</v>
       </c>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
-      <c r="Q42" s="6" t="s">
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
-      <c r="W42" s="6" t="s">
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="X42" s="6" t="s">
+      <c r="Z42" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
       <c r="AA42" s="6"/>
       <c r="AB42" s="6"/>
-      <c r="AC42" s="6" t="s">
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD42" s="6" t="s">
+      <c r="AF42" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE42" s="7"/>
-      <c r="AF42" s="6"/>
-      <c r="AG42" s="6"/>
+      <c r="AG42" s="7"/>
       <c r="AH42" s="6"/>
       <c r="AI42" s="6"/>
-      <c r="AJ42" s="6">
+      <c r="AJ42" s="6"/>
+      <c r="AK42" s="6"/>
+      <c r="AL42" s="6">
         <v>3</v>
       </c>
-      <c r="AK42" s="6">
+      <c r="AM42" s="6">
         <v>72</v>
       </c>
-      <c r="AL42" s="8" t="s">
+      <c r="AN42" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="AM42" s="6">
+      <c r="AO42" s="6">
         <v>680</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>54</v>
       </c>
@@ -4763,66 +4928,68 @@
         <v>54</v>
       </c>
       <c r="I43" s="6"/>
-      <c r="J43" s="6">
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6">
         <v>1</v>
       </c>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6" t="s">
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="N43" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="O43" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="P43" s="6" t="s">
         <v>213</v>
       </c>
       <c r="Q43" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="S43" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R43" s="6" t="s">
+      <c r="T43" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
-      <c r="W43" s="6" t="s">
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="X43" s="6" t="s">
+      <c r="Z43" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
       <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
-      <c r="AC43" s="6" t="s">
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD43" s="6" t="s">
+      <c r="AF43" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE43" s="7"/>
-      <c r="AF43" s="6"/>
-      <c r="AG43" s="6"/>
+      <c r="AG43" s="7"/>
       <c r="AH43" s="6"/>
       <c r="AI43" s="6"/>
-      <c r="AJ43" s="6">
+      <c r="AJ43" s="6"/>
+      <c r="AK43" s="6"/>
+      <c r="AL43" s="6">
         <v>4</v>
       </c>
-      <c r="AK43" s="6">
+      <c r="AM43" s="6">
         <v>73</v>
       </c>
-      <c r="AL43" s="10"/>
-      <c r="AM43" s="6">
+      <c r="AN43" s="10"/>
+      <c r="AO43" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>55</v>
       </c>
@@ -4848,62 +5015,64 @@
         <v>54</v>
       </c>
       <c r="I44" s="6"/>
-      <c r="J44" s="6">
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6">
         <v>1</v>
       </c>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6" t="s">
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N44" s="6" t="s">
+      <c r="P44" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6" t="s">
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R44" s="6" t="s">
+      <c r="T44" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
-      <c r="W44" s="6" t="s">
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="X44" s="6" t="s">
+      <c r="Z44" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
       <c r="AA44" s="6"/>
       <c r="AB44" s="6"/>
-      <c r="AC44" s="6" t="s">
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD44" s="6" t="s">
+      <c r="AF44" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE44" s="7"/>
-      <c r="AF44" s="6"/>
-      <c r="AG44" s="6"/>
+      <c r="AG44" s="7"/>
       <c r="AH44" s="6"/>
       <c r="AI44" s="6"/>
-      <c r="AJ44" s="6">
+      <c r="AJ44" s="6"/>
+      <c r="AK44" s="6"/>
+      <c r="AL44" s="6">
         <v>4</v>
       </c>
-      <c r="AK44" s="6">
+      <c r="AM44" s="6">
         <v>74</v>
       </c>
-      <c r="AL44" s="10"/>
-      <c r="AM44" s="6">
+      <c r="AN44" s="10"/>
+      <c r="AO44" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>56</v>
       </c>
@@ -4929,58 +5098,60 @@
         <v>209</v>
       </c>
       <c r="I45" s="6"/>
-      <c r="J45" s="6">
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6">
         <v>2</v>
       </c>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
-      <c r="Q45" s="6" t="s">
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
-      <c r="W45" s="6" t="s">
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="X45" s="6" t="s">
+      <c r="Z45" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
       <c r="AA45" s="6"/>
       <c r="AB45" s="6"/>
-      <c r="AC45" s="6" t="s">
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD45" s="6" t="s">
+      <c r="AF45" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE45" s="7"/>
-      <c r="AF45" s="6"/>
-      <c r="AG45" s="6"/>
+      <c r="AG45" s="7"/>
       <c r="AH45" s="6"/>
       <c r="AI45" s="6"/>
-      <c r="AJ45" s="6">
+      <c r="AJ45" s="6"/>
+      <c r="AK45" s="6"/>
+      <c r="AL45" s="6">
         <v>3</v>
       </c>
-      <c r="AK45" s="6">
+      <c r="AM45" s="6">
         <v>769</v>
       </c>
-      <c r="AL45" s="8" t="s">
+      <c r="AN45" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="AM45" s="6">
+      <c r="AO45" s="6">
         <v>680</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>57</v>
       </c>
@@ -5006,66 +5177,68 @@
         <v>54</v>
       </c>
       <c r="I46" s="6"/>
-      <c r="J46" s="6">
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6">
         <v>1</v>
       </c>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6" t="s">
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="N46" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="O46" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="P46" s="6" t="s">
         <v>224</v>
       </c>
       <c r="Q46" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="R46" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="S46" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R46" s="6" t="s">
+      <c r="T46" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
-      <c r="W46" s="6" t="s">
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="X46" s="6" t="s">
+      <c r="Z46" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
       <c r="AA46" s="6"/>
       <c r="AB46" s="6"/>
-      <c r="AC46" s="6" t="s">
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD46" s="6" t="s">
+      <c r="AF46" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE46" s="7"/>
-      <c r="AF46" s="6"/>
-      <c r="AG46" s="6"/>
+      <c r="AG46" s="7"/>
       <c r="AH46" s="6"/>
       <c r="AI46" s="6"/>
-      <c r="AJ46" s="6">
+      <c r="AJ46" s="6"/>
+      <c r="AK46" s="6"/>
+      <c r="AL46" s="6">
         <v>4</v>
       </c>
-      <c r="AK46" s="6">
+      <c r="AM46" s="6">
         <v>770</v>
       </c>
-      <c r="AL46" s="10"/>
-      <c r="AM46" s="6">
+      <c r="AN46" s="10"/>
+      <c r="AO46" s="6">
         <v>769</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>58</v>
       </c>
@@ -5090,65 +5263,67 @@
       <c r="H47" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6">
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6">
         <v>1</v>
       </c>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6" t="s">
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="N47" s="11" t="s">
+      <c r="P47" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6" t="s">
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R47" s="6" t="s">
+      <c r="T47" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
-      <c r="W47" s="6" t="s">
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="X47" s="6" t="s">
+      <c r="Z47" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="Y47" s="6"/>
-      <c r="Z47" s="6"/>
       <c r="AA47" s="6"/>
       <c r="AB47" s="6"/>
-      <c r="AC47" s="6" t="s">
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD47" s="6" t="s">
+      <c r="AF47" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE47" s="7"/>
-      <c r="AF47" s="6"/>
-      <c r="AG47" s="6"/>
-      <c r="AH47" s="6" t="s">
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="6"/>
+      <c r="AI47" s="6"/>
+      <c r="AJ47" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AI47" s="6"/>
-      <c r="AJ47" s="6">
+      <c r="AK47" s="6"/>
+      <c r="AL47" s="6">
         <v>4</v>
       </c>
-      <c r="AK47" s="6">
+      <c r="AM47" s="6">
         <v>771</v>
       </c>
-      <c r="AL47" s="10"/>
-      <c r="AM47" s="6">
+      <c r="AN47" s="10"/>
+      <c r="AO47" s="6">
         <v>769</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>59</v>
       </c>
@@ -5173,22 +5348,22 @@
       <c r="H48" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="I48" s="6" t="s">
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
-      <c r="R48" s="6" t="s">
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
@@ -5199,21 +5374,23 @@
       <c r="AB48" s="6"/>
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
-      <c r="AE48" s="7"/>
+      <c r="AE48" s="6"/>
       <c r="AF48" s="6"/>
-      <c r="AG48" s="6"/>
+      <c r="AG48" s="7"/>
       <c r="AH48" s="6"/>
       <c r="AI48" s="6"/>
       <c r="AJ48" s="6"/>
-      <c r="AK48" s="6">
+      <c r="AK48" s="6"/>
+      <c r="AL48" s="6"/>
+      <c r="AM48" s="6">
         <v>37</v>
       </c>
-      <c r="AL48" s="8" t="s">
+      <c r="AN48" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="AM48" s="6"/>
+      <c r="AO48" s="6"/>
     </row>
-    <row r="49" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>60</v>
       </c>
@@ -5238,24 +5415,24 @@
       <c r="H49" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="I49" s="6" t="s">
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
-      <c r="N49" s="12" t="s">
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
-      <c r="R49" s="6" t="s">
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
@@ -5266,21 +5443,23 @@
       <c r="AB49" s="6"/>
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
-      <c r="AE49" s="7"/>
+      <c r="AE49" s="6"/>
       <c r="AF49" s="6"/>
-      <c r="AG49" s="6"/>
+      <c r="AG49" s="7"/>
       <c r="AH49" s="6"/>
       <c r="AI49" s="6"/>
       <c r="AJ49" s="6"/>
-      <c r="AK49" s="6">
+      <c r="AK49" s="6"/>
+      <c r="AL49" s="6"/>
+      <c r="AM49" s="6">
         <v>38</v>
       </c>
-      <c r="AL49" s="10">
+      <c r="AN49" s="10">
         <v>32</v>
       </c>
-      <c r="AM49" s="6"/>
+      <c r="AO49" s="6"/>
     </row>
-    <row r="50" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>61</v>
       </c>
@@ -5305,24 +5484,24 @@
       <c r="H50" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="I50" s="6" t="s">
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
-      <c r="N50" s="12" t="s">
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
-      <c r="R50" s="6" t="s">
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
       <c r="W50" s="6"/>
@@ -5333,21 +5512,23 @@
       <c r="AB50" s="6"/>
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
-      <c r="AE50" s="7"/>
+      <c r="AE50" s="6"/>
       <c r="AF50" s="6"/>
-      <c r="AG50" s="6"/>
+      <c r="AG50" s="7"/>
       <c r="AH50" s="6"/>
       <c r="AI50" s="6"/>
       <c r="AJ50" s="6"/>
-      <c r="AK50" s="6">
+      <c r="AK50" s="6"/>
+      <c r="AL50" s="6"/>
+      <c r="AM50" s="6">
         <v>39</v>
       </c>
-      <c r="AL50" s="10">
+      <c r="AN50" s="10">
         <v>33</v>
       </c>
-      <c r="AM50" s="6"/>
+      <c r="AO50" s="6"/>
     </row>
-    <row r="51" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>62</v>
       </c>
@@ -5372,26 +5553,26 @@
       <c r="H51" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="I51" s="6" t="s">
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
       <c r="L51" s="6"/>
-      <c r="M51" s="6" t="s">
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="N51" s="12" t="s">
+      <c r="P51" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
-      <c r="R51" s="6" t="s">
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
       <c r="W51" s="6"/>
@@ -5402,21 +5583,23 @@
       <c r="AB51" s="6"/>
       <c r="AC51" s="6"/>
       <c r="AD51" s="6"/>
-      <c r="AE51" s="7"/>
+      <c r="AE51" s="6"/>
       <c r="AF51" s="6"/>
-      <c r="AG51" s="6"/>
+      <c r="AG51" s="7"/>
       <c r="AH51" s="6"/>
       <c r="AI51" s="6"/>
       <c r="AJ51" s="6"/>
-      <c r="AK51" s="6">
+      <c r="AK51" s="6"/>
+      <c r="AL51" s="6"/>
+      <c r="AM51" s="6">
         <v>40</v>
       </c>
-      <c r="AL51" s="10">
+      <c r="AN51" s="10">
         <v>34</v>
       </c>
-      <c r="AM51" s="6"/>
+      <c r="AO51" s="6"/>
     </row>
-    <row r="52" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>63</v>
       </c>
@@ -5441,26 +5624,26 @@
       <c r="H52" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="I52" s="6" t="s">
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
       <c r="L52" s="6"/>
-      <c r="M52" s="6" t="s">
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="N52" s="12" t="s">
+      <c r="P52" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
-      <c r="R52" s="6" t="s">
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
       <c r="W52" s="6"/>
@@ -5471,21 +5654,23 @@
       <c r="AB52" s="6"/>
       <c r="AC52" s="6"/>
       <c r="AD52" s="6"/>
-      <c r="AE52" s="7"/>
+      <c r="AE52" s="6"/>
       <c r="AF52" s="6"/>
-      <c r="AG52" s="6"/>
+      <c r="AG52" s="7"/>
       <c r="AH52" s="6"/>
       <c r="AI52" s="6"/>
       <c r="AJ52" s="6"/>
-      <c r="AK52" s="6">
+      <c r="AK52" s="6"/>
+      <c r="AL52" s="6"/>
+      <c r="AM52" s="6">
         <v>42</v>
       </c>
-      <c r="AL52" s="8" t="s">
+      <c r="AN52" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="AM52" s="6"/>
+      <c r="AO52" s="6"/>
     </row>
-    <row r="53" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>64</v>
       </c>
@@ -5510,49 +5695,51 @@
       <c r="H53" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="I53" s="6" t="s">
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
-      <c r="N53" s="6" t="s">
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
-      <c r="R53" s="6" t="s">
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
-      <c r="W53" s="6" t="s">
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="X53" s="6"/>
-      <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
       <c r="AB53" s="6"/>
       <c r="AC53" s="6"/>
       <c r="AD53" s="6"/>
-      <c r="AE53" s="7"/>
+      <c r="AE53" s="6"/>
       <c r="AF53" s="6"/>
-      <c r="AG53" s="6"/>
+      <c r="AG53" s="7"/>
       <c r="AH53" s="6"/>
       <c r="AI53" s="6"/>
       <c r="AJ53" s="6"/>
-      <c r="AK53" s="6">
+      <c r="AK53" s="6"/>
+      <c r="AL53" s="6"/>
+      <c r="AM53" s="6">
         <v>43</v>
       </c>
-      <c r="AL53" s="10"/>
-      <c r="AM53" s="6"/>
+      <c r="AN53" s="10"/>
+      <c r="AO53" s="6"/>
     </row>
-    <row r="54" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>65</v>
       </c>
@@ -5575,22 +5762,22 @@
       <c r="H54" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="I54" s="6" t="s">
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
-      <c r="R54" s="6" t="s">
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
       <c r="W54" s="6"/>
@@ -5601,20 +5788,22 @@
       <c r="AB54" s="6"/>
       <c r="AC54" s="6"/>
       <c r="AD54" s="6"/>
-      <c r="AE54" s="7"/>
+      <c r="AE54" s="6"/>
       <c r="AF54" s="6"/>
-      <c r="AG54" s="6"/>
+      <c r="AG54" s="7"/>
       <c r="AH54" s="6"/>
       <c r="AI54" s="6"/>
       <c r="AJ54" s="6"/>
-      <c r="AK54" s="6">
+      <c r="AK54" s="6"/>
+      <c r="AL54" s="6"/>
+      <c r="AM54" s="6">
         <v>401</v>
       </c>
-      <c r="AL54" s="10"/>
-      <c r="AM54" s="6"/>
+      <c r="AN54" s="10"/>
+      <c r="AO54" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AO54" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Downloads\CCRU new KPI\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-12-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15E93BFD-C7FD-45BB-A715-067621C77CD2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426E37C8-F510-4D96-9BC0-C810316DD1C2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QSR" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_FilterDatabase_0_0" localSheetId="0">QSR!$A$1:$AO$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">QSR!$A$1:$AO$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -877,9 +877,6 @@
     <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler</t>
   </si>
   <si>
-    <t>Cash Zone, SS_Cash Zone - Canteen</t>
-  </si>
-  <si>
     <t>Menu Board, Cash Zone, SS_Cash Zone - Canteen, QSR, SS_Menu Board - Canteen, QSR</t>
   </si>
   <si>
@@ -902,6 +899,9 @@
   </si>
   <si>
     <t>Juices</t>
+  </si>
+  <si>
+    <t>Cash Zone, SS_Cash Zone - Canteen, Promo SSD Display IC, Company promo display IC</t>
   </si>
 </sst>
 </file>
@@ -943,18 +943,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1042,10 +1036,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1433,59 +1427,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AML54"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="R1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z38" sqref="Z38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="9"/>
-    <col min="2" max="2" width="19.5703125" style="9"/>
-    <col min="3" max="3" width="18.7109375" style="9"/>
-    <col min="4" max="4" width="19.28515625" style="9"/>
-    <col min="5" max="5" width="18.7109375" style="9"/>
-    <col min="6" max="6" width="84.140625" style="9"/>
-    <col min="7" max="7" width="86.28515625" style="9"/>
-    <col min="8" max="8" width="47.5703125" style="9"/>
+    <col min="1" max="1" width="16.44140625" style="9"/>
+    <col min="2" max="2" width="19.5546875" style="9"/>
+    <col min="3" max="3" width="18.6640625" style="9"/>
+    <col min="4" max="4" width="19.33203125" style="9"/>
+    <col min="5" max="5" width="18.6640625" style="9"/>
+    <col min="6" max="6" width="84.109375" style="9"/>
+    <col min="7" max="7" width="86.33203125" style="9"/>
+    <col min="8" max="8" width="47.5546875" style="9"/>
     <col min="9" max="9" width="25" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.42578125" style="9"/>
-    <col min="12" max="12" width="16.28515625" style="9"/>
-    <col min="13" max="13" width="21.5703125" style="9"/>
-    <col min="14" max="14" width="22.42578125" style="9"/>
-    <col min="15" max="16" width="33.85546875" style="9"/>
-    <col min="17" max="17" width="30.28515625" style="9"/>
-    <col min="18" max="18" width="21.5703125" style="9"/>
-    <col min="19" max="19" width="29.28515625" style="9"/>
-    <col min="20" max="20" width="15.28515625" style="9"/>
-    <col min="21" max="21" width="13.42578125" style="9"/>
+    <col min="10" max="10" width="25.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.44140625" style="9"/>
+    <col min="12" max="12" width="16.33203125" style="9"/>
+    <col min="13" max="13" width="21.5546875" style="9"/>
+    <col min="14" max="14" width="22.44140625" style="9"/>
+    <col min="15" max="16" width="33.88671875" style="9"/>
+    <col min="17" max="17" width="30.33203125" style="9"/>
+    <col min="18" max="18" width="21.5546875" style="9"/>
+    <col min="19" max="19" width="29.33203125" style="9"/>
+    <col min="20" max="20" width="15.33203125" style="9"/>
+    <col min="21" max="21" width="13.44140625" style="9"/>
     <col min="22" max="22" width="23" style="9"/>
-    <col min="23" max="23" width="28.140625" style="9"/>
-    <col min="24" max="24" width="34.7109375" style="9"/>
-    <col min="25" max="25" width="33.85546875" style="9"/>
-    <col min="26" max="26" width="31.28515625" style="9"/>
-    <col min="27" max="27" width="36.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.7109375" style="9"/>
-    <col min="29" max="29" width="39.28515625" style="9"/>
-    <col min="30" max="30" width="25.42578125" style="9"/>
-    <col min="31" max="31" width="22.85546875" style="9"/>
-    <col min="32" max="32" width="22.7109375" style="9"/>
+    <col min="23" max="23" width="28.109375" style="9"/>
+    <col min="24" max="24" width="34.6640625" style="9"/>
+    <col min="25" max="25" width="33.88671875" style="9"/>
+    <col min="26" max="26" width="31.33203125" style="9"/>
+    <col min="27" max="27" width="36.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.6640625" style="9"/>
+    <col min="29" max="29" width="39.33203125" style="9"/>
+    <col min="30" max="30" width="25.44140625" style="9"/>
+    <col min="31" max="31" width="22.88671875" style="9"/>
+    <col min="32" max="32" width="22.6640625" style="9"/>
     <col min="33" max="33" width="22" style="13"/>
-    <col min="34" max="34" width="20.85546875" style="9"/>
+    <col min="34" max="34" width="20.88671875" style="9"/>
     <col min="35" max="35" width="22" style="9"/>
-    <col min="36" max="36" width="71.7109375" style="9"/>
-    <col min="37" max="37" width="25.28515625" style="9"/>
-    <col min="38" max="38" width="13.5703125" style="9"/>
-    <col min="39" max="39" width="15.85546875" style="9"/>
-    <col min="40" max="40" width="23.28515625" style="14"/>
-    <col min="41" max="41" width="16.28515625" style="9"/>
-    <col min="42" max="1025" width="9.28515625" style="9"/>
-    <col min="1026" max="1027" width="9.28515625" style="5"/>
-    <col min="1028" max="16384" width="8.85546875" style="5"/>
+    <col min="36" max="36" width="71.6640625" style="9"/>
+    <col min="37" max="37" width="25.33203125" style="9"/>
+    <col min="38" max="38" width="13.5546875" style="9"/>
+    <col min="39" max="39" width="15.88671875" style="9"/>
+    <col min="40" max="40" width="23.33203125" style="14"/>
+    <col min="41" max="41" width="16.33203125" style="9"/>
+    <col min="42" max="1025" width="9.33203125" style="9"/>
+    <col min="1026" max="1027" width="9.33203125" style="5"/>
+    <col min="1028" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41 1026:1026" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41 1026:1026" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1511,10 +1505,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>265</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>266</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -1611,7 +1605,7 @@
       </c>
       <c r="AML1" s="5"/>
     </row>
-    <row r="2" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1674,7 +1668,7 @@
       </c>
       <c r="AO2" s="6"/>
     </row>
-    <row r="3" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1703,7 +1697,7 @@
         <v>42</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -1749,7 +1743,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1834,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1919,7 +1913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -2004,7 +1998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2089,7 +2083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2174,7 +2168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2257,7 +2251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -2342,7 +2336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>12</v>
       </c>
@@ -2371,7 +2365,7 @@
         <v>42</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -2417,7 +2411,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>13</v>
       </c>
@@ -2502,7 +2496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>14</v>
       </c>
@@ -2587,7 +2581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>15</v>
       </c>
@@ -2616,7 +2610,7 @@
         <v>42</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -2662,7 +2656,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>16</v>
       </c>
@@ -2747,7 +2741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>17</v>
       </c>
@@ -2830,7 +2824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>19</v>
       </c>
@@ -2859,7 +2853,7 @@
         <v>42</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -2905,7 +2899,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>20</v>
       </c>
@@ -2990,7 +2984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>21</v>
       </c>
@@ -3075,7 +3069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>22</v>
       </c>
@@ -3160,7 +3154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>23</v>
       </c>
@@ -3245,7 +3239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>27</v>
       </c>
@@ -3274,7 +3268,7 @@
         <v>42</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -3320,7 +3314,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>28</v>
       </c>
@@ -3405,7 +3399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>29</v>
       </c>
@@ -3490,7 +3484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>30</v>
       </c>
@@ -3573,7 +3567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>31</v>
       </c>
@@ -3658,7 +3652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>37</v>
       </c>
@@ -3721,7 +3715,7 @@
       </c>
       <c r="AO27" s="6"/>
     </row>
-    <row r="28" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>38</v>
       </c>
@@ -3786,7 +3780,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="29" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>39</v>
       </c>
@@ -3863,7 +3857,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="30" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>40</v>
       </c>
@@ -3944,7 +3938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>41</v>
       </c>
@@ -4023,7 +4017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>42</v>
       </c>
@@ -4088,7 +4082,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>43</v>
       </c>
@@ -4173,7 +4167,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="34" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>44</v>
       </c>
@@ -4258,7 +4252,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>45</v>
       </c>
@@ -4345,7 +4339,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="36" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>46</v>
       </c>
@@ -4408,7 +4402,7 @@
       </c>
       <c r="AO36" s="6"/>
     </row>
-    <row r="37" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>48</v>
       </c>
@@ -4463,7 +4457,7 @@
         <v>186</v>
       </c>
       <c r="Z37" s="6" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
@@ -4493,7 +4487,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="38" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>49</v>
       </c>
@@ -4542,7 +4536,7 @@
         <v>186</v>
       </c>
       <c r="Z38" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
@@ -4574,7 +4568,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="39" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>50</v>
       </c>
@@ -4631,7 +4625,7 @@
         <v>186</v>
       </c>
       <c r="Z39" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
@@ -4659,7 +4653,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>51</v>
       </c>
@@ -4714,7 +4708,7 @@
         <v>186</v>
       </c>
       <c r="Z40" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
@@ -4744,7 +4738,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>52</v>
       </c>
@@ -4793,7 +4787,7 @@
         <v>186</v>
       </c>
       <c r="Z41" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AA41" s="6"/>
       <c r="AB41" s="6"/>
@@ -4823,7 +4817,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>53</v>
       </c>
@@ -4872,7 +4866,7 @@
         <v>186</v>
       </c>
       <c r="Z42" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AA42" s="6"/>
       <c r="AB42" s="6"/>
@@ -4902,7 +4896,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="43" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>54</v>
       </c>
@@ -4961,7 +4955,7 @@
         <v>186</v>
       </c>
       <c r="Z43" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
@@ -4989,7 +4983,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>55</v>
       </c>
@@ -5044,7 +5038,7 @@
         <v>186</v>
       </c>
       <c r="Z44" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AA44" s="6"/>
       <c r="AB44" s="6"/>
@@ -5072,7 +5066,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>56</v>
       </c>
@@ -5121,7 +5115,7 @@
         <v>186</v>
       </c>
       <c r="Z45" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AA45" s="6"/>
       <c r="AB45" s="6"/>
@@ -5151,7 +5145,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="46" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>57</v>
       </c>
@@ -5210,7 +5204,7 @@
         <v>186</v>
       </c>
       <c r="Z46" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AA46" s="6"/>
       <c r="AB46" s="6"/>
@@ -5238,7 +5232,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="47" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>58</v>
       </c>
@@ -5293,7 +5287,7 @@
         <v>186</v>
       </c>
       <c r="Z47" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AA47" s="6"/>
       <c r="AB47" s="6"/>
@@ -5323,7 +5317,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="48" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>59</v>
       </c>
@@ -5390,7 +5384,7 @@
       </c>
       <c r="AO48" s="6"/>
     </row>
-    <row r="49" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>60</v>
       </c>
@@ -5459,7 +5453,7 @@
       </c>
       <c r="AO49" s="6"/>
     </row>
-    <row r="50" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>61</v>
       </c>
@@ -5528,7 +5522,7 @@
       </c>
       <c r="AO50" s="6"/>
     </row>
-    <row r="51" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>62</v>
       </c>
@@ -5599,7 +5593,7 @@
       </c>
       <c r="AO51" s="6"/>
     </row>
-    <row r="52" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>63</v>
       </c>
@@ -5670,7 +5664,7 @@
       </c>
       <c r="AO52" s="6"/>
     </row>
-    <row r="53" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>64</v>
       </c>
@@ -5739,7 +5733,7 @@
       <c r="AN53" s="10"/>
       <c r="AO53" s="6"/>
     </row>
-    <row r="54" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>65</v>
       </c>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-12-16\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51537D66-97CA-416C-B1D8-FA7D28417493}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="823" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="QSR" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="QSR" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AO$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_" vbProcedure="false">QSR!$A$1:$AO$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AO$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">QSR!$A$1:$AO$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">QSR!$A$1:$AO$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AO$54</definedName>
+    <definedName name="_" localSheetId="0">QSR!$A$1:$AO$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">QSR!$A$1:$AO$54</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">QSR!$A$1:$AO$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">QSR!$A$1:$AO$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">QSR!$A$1:$AO$1</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -30,142 +41,142 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="271">
   <si>
-    <t xml:space="preserve">Sorting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP PoS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP KPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI name Eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI name Rus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category KPI Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category KPI Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result Format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logical Operator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Form Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locations to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locations to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub locations to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub locations to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shelf_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Converted?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_func</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">depends on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RD38010022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QSR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность</t>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>SAP PoS</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>KPI Type</t>
+  </si>
+  <si>
+    <t>SAP KPI</t>
+  </si>
+  <si>
+    <t>KPI name Eng</t>
+  </si>
+  <si>
+    <t>KPI name Rus</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Category KPI Type</t>
+  </si>
+  <si>
+    <t>Category KPI Value</t>
+  </si>
+  <si>
+    <t>Result Format</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>target_min</t>
+  </si>
+  <si>
+    <t>target_max</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Product Category</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Logical Operator</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Form Factor</t>
+  </si>
+  <si>
+    <t>Zone to include</t>
+  </si>
+  <si>
+    <t>Locations to exclude</t>
+  </si>
+  <si>
+    <t>Locations to include</t>
+  </si>
+  <si>
+    <t>Scenes to include</t>
+  </si>
+  <si>
+    <t>Scenes to exclude</t>
+  </si>
+  <si>
+    <t>Sub locations to include</t>
+  </si>
+  <si>
+    <t>Sub locations to exclude</t>
+  </si>
+  <si>
+    <t>shelf_number</t>
+  </si>
+  <si>
+    <t>Converted?</t>
+  </si>
+  <si>
+    <t>score_func</t>
+  </si>
+  <si>
+    <t>KPI Weight</t>
+  </si>
+  <si>
+    <t>score_min</t>
+  </si>
+  <si>
+    <t>score_max</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>depends on</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>KPI ID</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>RD38010022</t>
+  </si>
+  <si>
+    <t>QSR</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Представленность</t>
   </si>
   <si>
     <t xml:space="preserve">1
@@ -176,22 +187,22 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">STANDARD 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weighted Average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
+    <t>STANDARD 1</t>
+  </si>
+  <si>
+    <t>SSD Availability</t>
+  </si>
+  <si>
+    <t>Представленность SSD</t>
+  </si>
+  <si>
+    <t>Weighted Average</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t xml:space="preserve">Weighted Average </t>
@@ -207,183 +218,180 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Coca-Cola - 0.5L/Coca-Cola - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола - 0.5л/Кока-Кола - 0.33л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola - 0.5L, Coca-Cola - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54491472, 50112128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic Photo, SS_Panoramic Photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BINARY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero - 0.5L/Coca-Cola Zero - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро - 0.5л/Кока-Кола Зеро - 0.33л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero - 0.5L, Coca-Cola Zero - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000131836, 90375408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite - 0.5L/Sprite - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спрайт - 0.5л/Спрайт - 0.33л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite - 0.5L, Sprite - 0.25L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54491069, 54490970, 50112135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Orange - 0.5L/Fanta Orange - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Апельсин - 0.5л/Фанта Апельсин - 0.33л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Orange - 0.5L, Fanta Orange - 0.25L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40822938, 40822419, 87126860</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero Cherry - 0.5L/Schweppes Bitter Lemon - 0.25L/Schweppes Tonic - 0.25L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро Чери - 0.5л/Швеппс Тоник - 0.25л/Швеппс Биттер Лемон - 0.25л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero Cherry - 0.5L, Schweppes Bitter Lemon - 0.25L, Schweppes Tonic - 0.25L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000214744, 40822341, 40822549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Vanilla - 0.5L/Coca-Cola Vanila - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Ванила - 0.5л/Кока-Кола Ванила - 0.33л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Vanilla - 0.5L, Coca-Cola Vanila - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42099697, 87303377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Pear - 0.5L/Fanta Citrus - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Груша - 0.5л/Фанта Цитрус - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Pear - 0.5L, Fanta Citrus - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000172228, 5449000213631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Воды</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9
+    <t>Coca-Cola - 0.5L/Coca-Cola - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 0.5л/Кока-Кола - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>number of facings</t>
+  </si>
+  <si>
+    <t>Coca-Cola - 0.5L, Coca-Cola - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>54491472, 50112128</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>SKUs</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>BINARY</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero - 0.5L/Coca-Cola Zero - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро - 0.5л/Кока-Кола Зеро - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero - 0.5L, Coca-Cola Zero - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>5449000131836, 90375408</t>
+  </si>
+  <si>
+    <t>Sprite - 0.5L/Sprite - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>Спрайт - 0.5л/Спрайт - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>Sprite - 0.5L, Sprite - 0.25L Glass</t>
+  </si>
+  <si>
+    <t>54491069, 54490970, 50112135</t>
+  </si>
+  <si>
+    <t>Fanta Orange - 0.5L/Fanta Orange - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>Фанта Апельсин - 0.5л/Фанта Апельсин - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>Fanta Orange - 0.5L, Fanta Orange - 0.25L Glass</t>
+  </si>
+  <si>
+    <t>40822938, 40822419, 87126860</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero Cherry - 0.5L/Schweppes Bitter Lemon - 0.25L/Schweppes Tonic - 0.25L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро Чери - 0.5л/Швеппс Тоник - 0.25л/Швеппс Биттер Лемон - 0.25л</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero Cherry - 0.5L, Schweppes Bitter Lemon - 0.25L, Schweppes Tonic - 0.25L</t>
+  </si>
+  <si>
+    <t>5449000214744, 40822341, 40822549</t>
+  </si>
+  <si>
+    <t>Coca-Cola Vanilla - 0.5L/Coca-Cola Vanila - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>Кока-Кола Ванила - 0.5л/Кока-Кола Ванила - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>Coca-Cola Vanilla - 0.5L, Coca-Cola Vanila - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>42099697, 87303377</t>
+  </si>
+  <si>
+    <t>Fanta Pear - 0.5L/Fanta Citrus - 0.5L</t>
+  </si>
+  <si>
+    <t>Фанта Груша - 0.5л/Фанта Цитрус - 0.5л</t>
+  </si>
+  <si>
+    <t>Fanta Pear - 0.5L, Fanta Citrus - 0.5L</t>
+  </si>
+  <si>
+    <t>5449000172228, 5449000213631</t>
+  </si>
+  <si>
+    <t>STANDARD 2</t>
+  </si>
+  <si>
+    <t>Water Availability</t>
+  </si>
+  <si>
+    <t>Представленность Воды</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>9
 10</t>
   </si>
   <si>
-    <t xml:space="preserve">BonAqua Still - 0.5L/BonAqua Still - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Негаз - 0.5л/БонАква Негаз - 0.33л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Still - 0.5L, BonAqua Still - 0.33L Glas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40822426, 90418822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Carb - 0.5L/BonAqua Carb - 0.33L Glass/SmartWater Still - 0.6L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Газ - 0.5л/БонАква Газ - 0.33л стекло/Смарт Вода Негаз - 0.6л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Carb - 0.5L, BonAqua Carb - 0.33L Glass, SmartWater Still - 0.6L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90494406, 90382741, 5449000034335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Энергетиков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12
+    <t>BonAqua Still - 0.5L/BonAqua Still - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>БонАква Негаз - 0.5л/БонАква Негаз - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>BonAqua Still - 0.5L, BonAqua Still - 0.33L Glas</t>
+  </si>
+  <si>
+    <t>40822426, 90418822</t>
+  </si>
+  <si>
+    <t>BonAqua Carb - 0.5L/BonAqua Carb - 0.33L Glass/SmartWater Still - 0.6L</t>
+  </si>
+  <si>
+    <t>БонАква Газ - 0.5л/БонАква Газ - 0.33л стекло/Смарт Вода Негаз - 0.6л</t>
+  </si>
+  <si>
+    <t>BonAqua Carb - 0.5L, BonAqua Carb - 0.33L Glass, SmartWater Still - 0.6L</t>
+  </si>
+  <si>
+    <t>90494406, 90382741, 5449000034335</t>
+  </si>
+  <si>
+    <t>Energy Availability</t>
+  </si>
+  <si>
+    <t>Представленность Энергетиков</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>12
 62</t>
   </si>
   <si>
-    <t xml:space="preserve">Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn Apple Kiwi - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Берн Яблоко-Киви - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5060466510869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tea Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Чая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ice tea</t>
+    <t>Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t>Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t>Burn Apple Kiwi - 0.5L</t>
+  </si>
+  <si>
+    <t>Берн Яблоко-Киви - 0.5л</t>
+  </si>
+  <si>
+    <t>5060466510869</t>
+  </si>
+  <si>
+    <t>Tea Availability</t>
+  </si>
+  <si>
+    <t>Представленность Чая</t>
+  </si>
+  <si>
+    <t>ice tea</t>
   </si>
   <si>
     <t xml:space="preserve">17
@@ -393,46 +401,46 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Berry-Hibiscus - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Лесн.ягоды - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000193124, 5449000259455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Mango-Camomile - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Манго-Ромашка - 0.5л</t>
+    <t>Fuze Berry-Hibiscus - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Лесн.ягоды - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000193124, 5449000259455</t>
+  </si>
+  <si>
+    <t>Fuze Mango-Camomile - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Манго-Ромашка - 0.5л</t>
   </si>
   <si>
     <t xml:space="preserve"> Fuze Mango-Camomile - 0.5L</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Lemon-Lemongrass - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000235947, 5449000189301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice (JNSD) Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Сока</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juices</t>
+    <t>Fuze Lemon-Lemongrass - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000235947, 5449000189301</t>
+  </si>
+  <si>
+    <t>Fuze Green Strawberry-Raspberry - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Зеленый Клубника-Малина - 0.5л</t>
+  </si>
+  <si>
+    <t>Juice (JNSD) Availability</t>
+  </si>
+  <si>
+    <t>Представленность Сока</t>
+  </si>
+  <si>
+    <t>Juices</t>
   </si>
   <si>
     <t xml:space="preserve">222
@@ -442,89 +450,89 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Dobriy - Apple - 0.33L/Dobriy Apple - 0.2L/Rich - Apple - 0.3L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Яблоко - 0.33л/0.2л/Рич - Яблоко PET - 0.3л ПЭТ/Рич - Яблоко PET - 0.3л ПЭТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Apple - 0.33L, Dobriy Apple  - 0.2L, Rich - Apple - 0.3L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607174579309, 4607042430619, 4650075421000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Orange - 0.45L/Dobriy - Multifruit - 0.2L/Rich - Apple - 0.2L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Апельсин - 0.45л/Добрый - Мультифрут - 0.2л/Рич - Яблоко - 0.2л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Orange - 0.45L, Dobriy - Multifruit - 0.2L, Rich - Apple - 0.2L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607174577787, 4607042430565, 4650075420386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Orange - 0.3L/Dobriy - Multifruit - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Апельсин PET - 0.3л ПЭТ/Добрый - Мультифрут - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Orange - 0.3L, Dobriy - Multifruit - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4650075421024, 4607174579286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Mango Pineapple - 0.45L/Rich - Peach - 0.2L Glass/Rich - Orange - 0.2L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Манго Ананас - 0.45л/Рич - Апельсин - 0.2л стекло/Рич - Персик - 0.2л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Mango Pineapple - 0.45L, Rich - Peach - 0.2L Glass, Rich - Orange - 0.2L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4650075420980, 4650075420362, 4650075420423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311
+    <t>Dobriy - Apple - 0.33L/Dobriy Apple - 0.2L/Rich - Apple - 0.3L</t>
+  </si>
+  <si>
+    <t>Добрый - Яблоко - 0.33л/0.2л/Рич - Яблоко PET - 0.3л ПЭТ/Рич - Яблоко PET - 0.3л ПЭТ</t>
+  </si>
+  <si>
+    <t>Dobriy - Apple - 0.33L, Dobriy Apple  - 0.2L, Rich - Apple - 0.3L</t>
+  </si>
+  <si>
+    <t>4607174579309, 4607042430619, 4650075421000</t>
+  </si>
+  <si>
+    <t>Pulpy - Orange - 0.45L/Dobriy - Multifruit - 0.2L/Rich - Apple - 0.2L Glass</t>
+  </si>
+  <si>
+    <t>Палпи - Апельсин - 0.45л/Добрый - Мультифрут - 0.2л/Рич - Яблоко - 0.2л стекло</t>
+  </si>
+  <si>
+    <t>Pulpy - Orange - 0.45L, Dobriy - Multifruit - 0.2L, Rich - Apple - 0.2L Glass</t>
+  </si>
+  <si>
+    <t>4607174577787, 4607042430565, 4650075420386</t>
+  </si>
+  <si>
+    <t>Rich - Orange - 0.3L/Dobriy - Multifruit - 0.33L</t>
+  </si>
+  <si>
+    <t>Рич - Апельсин PET - 0.3л ПЭТ/Добрый - Мультифрут - 0.33л</t>
+  </si>
+  <si>
+    <t>Rich - Orange - 0.3L, Dobriy - Multifruit - 0.33L</t>
+  </si>
+  <si>
+    <t>4650075421024, 4607174579286</t>
+  </si>
+  <si>
+    <t>Pulpy - Mango Pineapple - 0.45L/Rich - Peach - 0.2L Glass/Rich - Orange - 0.2L Glass</t>
+  </si>
+  <si>
+    <t>Палпи - Манго Ананас - 0.45л/Рич - Апельсин - 0.2л стекло/Рич - Персик - 0.2л стекло</t>
+  </si>
+  <si>
+    <t>Pulpy - Mango Pineapple - 0.45L, Rich - Peach - 0.2L Glass, Rich - Orange - 0.2L Glass</t>
+  </si>
+  <si>
+    <t>4650075420980, 4650075420362, 4650075420423</t>
+  </si>
+  <si>
+    <t>Coolers</t>
+  </si>
+  <si>
+    <t>Холодильники</t>
+  </si>
+  <si>
+    <t>311
 312</t>
   </si>
   <si>
-    <t xml:space="preserve">Coolers: Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильник: Двери</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum of atomic KPI result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROPORTIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store Master Data attr15</t>
+    <t>Coolers: Doors</t>
+  </si>
+  <si>
+    <t>Холодильник: Двери</t>
+  </si>
+  <si>
+    <t>STANDARD 22</t>
+  </si>
+  <si>
+    <t>Cooler: Doors</t>
+  </si>
+  <si>
+    <t>Холодильники: Количество Дверей</t>
+  </si>
+  <si>
+    <t>sum of atomic KPI result</t>
+  </si>
+  <si>
+    <t>Plus</t>
+  </si>
+  <si>
+    <t>PROPORTIONAL</t>
+  </si>
+  <si>
+    <t>Store Master Data attr15</t>
   </si>
   <si>
     <t xml:space="preserve">27
@@ -532,46 +540,46 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: CCH Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Компании</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of doors of filled Coolers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer: TCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS with empty more than 80%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Customer Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Клиента</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facings TCCC/40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Coolers, Cold Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers: Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильник: Качество</t>
+    <t>Cooler: CCH Cooler Doors</t>
+  </si>
+  <si>
+    <t>Холодильники: Количество Дверей Холодильников Компании</t>
+  </si>
+  <si>
+    <t>number of doors of filled Coolers</t>
+  </si>
+  <si>
+    <t>Manufacturer: TCCC</t>
+  </si>
+  <si>
+    <t>TCCC</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>Cooler</t>
+  </si>
+  <si>
+    <t>SOS with empty more than 80%</t>
+  </si>
+  <si>
+    <t>Cooler: Customer Cooler Doors</t>
+  </si>
+  <si>
+    <t>Холодильники: Количество Дверей Холодильников Клиента</t>
+  </si>
+  <si>
+    <t>facings TCCC/40</t>
+  </si>
+  <si>
+    <t>Other Coolers, Cold Shelf</t>
+  </si>
+  <si>
+    <t>Coolers: Quality</t>
+  </si>
+  <si>
+    <t>Холодильник: Качество</t>
   </si>
   <si>
     <t xml:space="preserve">28
@@ -581,220 +589,211 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Prime Position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Лучшее место</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes with no tagging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic photo of Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUM_SCENES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic photo of Cooler, SS_Panoramic photo of Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate if at least one door was passed KPI "Cooler: CCH Cooler Doors"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: w/o other products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Без чужой продукции</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of CCH doors which have 98% TCCC facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Max 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of SKU per Door RANGE TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33
+    <t>-</t>
+  </si>
+  <si>
+    <t>Cooler: Prime Position</t>
+  </si>
+  <si>
+    <t>Холодильники: Лучшее место</t>
+  </si>
+  <si>
+    <t>Scenes with no tagging</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler</t>
+  </si>
+  <si>
+    <t>NUM_SCENES</t>
+  </si>
+  <si>
+    <t>Calculate if at least one door was passed KPI "Cooler: CCH Cooler Doors"</t>
+  </si>
+  <si>
+    <t>Cooler: w/o other products</t>
+  </si>
+  <si>
+    <t>Холодильники: Без чужой продукции</t>
+  </si>
+  <si>
+    <t>Share of CCH doors which have 98% TCCC facings</t>
+  </si>
+  <si>
+    <t>Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
+  </si>
+  <si>
+    <t>Cooler: Max 15</t>
+  </si>
+  <si>
+    <t>Холодильники: Максимум 15 СКЮ на дверь</t>
+  </si>
+  <si>
+    <t>number of SKU per Door RANGE TOTAL</t>
+  </si>
+  <si>
+    <t>Activations</t>
+  </si>
+  <si>
+    <t>Активации</t>
+  </si>
+  <si>
+    <t>33
 34
 680</t>
   </si>
   <si>
-    <t xml:space="preserve">STANDARD 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impulse Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активация Импульсной зоны</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash Zone, SS_Cash Zone - Canteen, Promo SSD Display IC, Company promo display IC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCCASIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Комбо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of atomic KPI Passed on the same scene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu Board, Cash Zone, SS_Cash Zone - Canteen, QSR, SS_Menu Board - Canteen, QSR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35
+    <t>STANDARD 17</t>
+  </si>
+  <si>
+    <t>Impulse Activation</t>
+  </si>
+  <si>
+    <t>Активация Импульсной зоны</t>
+  </si>
+  <si>
+    <t>OCCASIONS</t>
+  </si>
+  <si>
+    <t>Combo</t>
+  </si>
+  <si>
+    <t>Комбо</t>
+  </si>
+  <si>
+    <t>number of atomic KPI Passed on the same scene</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>35
 36</t>
   </si>
   <si>
-    <t xml:space="preserve">Combo: Coca-Cola</t>
+    <t>Combo: Coca-Cola</t>
   </si>
   <si>
     <t xml:space="preserve">Комбо : Кока-Кола </t>
   </si>
   <si>
-    <t xml:space="preserve">Coke+Coca Cola Zero Bottle Nrgb, Coca Cola Zero Bottle, Coca Cola Zero Logo, Coca Cola Zero Can</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50111111, 50111112, 50111113, 50111114, 5000006, 5000004, 5000005, 5000006, 5050570, 5000101, 5000009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combo: Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Комбо : Еда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5000034, A5B10138, A5B10137, A5B10136, A5B10135, A5B10125, A5B10124, A5B10123, A5B10123, A5B10122, A5B10121, A5B10120, A5B10119, A5B10118, A5B10117, A5B10116, A5B10091, A5B10090, A5B10089, A5B10088, A5B10087, A5B10086, A5B10085, A5B10057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food should be near Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDART 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combo other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Другие Комбо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72
+    <t>Coke+Coca Cola Zero Bottle Nrgb, Coca Cola Zero Bottle, Coca Cola Zero Logo, Coca Cola Zero Can</t>
+  </si>
+  <si>
+    <t>50111111, 50111112, 50111113, 50111114, 5000006, 5000004, 5000005, 5000006, 5050570, 5000101, 5000009</t>
+  </si>
+  <si>
+    <t>IC Activation</t>
+  </si>
+  <si>
+    <t>Combo: Food</t>
+  </si>
+  <si>
+    <t>Комбо : Еда</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>5000034, A5B10138, A5B10137, A5B10136, A5B10135, A5B10125, A5B10124, A5B10123, A5B10123, A5B10122, A5B10121, A5B10120, A5B10119, A5B10118, A5B10117, A5B10116, A5B10091, A5B10090, A5B10089, A5B10088, A5B10087, A5B10086, A5B10085, A5B10057</t>
+  </si>
+  <si>
+    <t>Food should be near Image</t>
+  </si>
+  <si>
+    <t>STANDART 17</t>
+  </si>
+  <si>
+    <t>Combo other</t>
+  </si>
+  <si>
+    <t>Другие Комбо</t>
+  </si>
+  <si>
+    <t>72
 769</t>
   </si>
   <si>
-    <t xml:space="preserve">Start the day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Взбодриться кофе</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of sub atomic KPI Passed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73
+    <t>Start the day</t>
+  </si>
+  <si>
+    <t>Взбодриться кофе</t>
+  </si>
+  <si>
+    <t>number of sub atomic KPI Passed</t>
+  </si>
+  <si>
+    <t>73
 74</t>
   </si>
   <si>
-    <t xml:space="preserve">Start the day: Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Взбодриться кофе: Имидж</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonaqua, SmartWater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRAND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start the day: Coffee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Взбодриться кофе: Кофе</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coffee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A5B10102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice and meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок и еда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">770
+    <t>Start the day: Image</t>
+  </si>
+  <si>
+    <t>Взбодриться кофе: Имидж</t>
+  </si>
+  <si>
+    <t>Bonaqua, SmartWater</t>
+  </si>
+  <si>
+    <t>BRAND</t>
+  </si>
+  <si>
+    <t>Start the day: Coffee</t>
+  </si>
+  <si>
+    <t>Взбодриться кофе: Кофе</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>A5B10102</t>
+  </si>
+  <si>
+    <t>Juice and meal</t>
+  </si>
+  <si>
+    <t>Сок и еда</t>
+  </si>
+  <si>
+    <t>770
 771</t>
   </si>
   <si>
-    <t xml:space="preserve">Juice and meal: Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок и еда: Имидж</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich, Dobriy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice and meal: Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок и еда: Еда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COOLER_QUALITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCH coolers quality (Prime Pos- Max15- Merch STD- Occupancy- Lights&amp;clean)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum of atomic scores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decimal.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SESSION LEVEL</t>
+    <t>Juice and meal: Image</t>
+  </si>
+  <si>
+    <t>Сок и еда: Имидж</t>
+  </si>
+  <si>
+    <t>Rich, Dobriy</t>
+  </si>
+  <si>
+    <t>Juice and meal: Food</t>
+  </si>
+  <si>
+    <t>Сок и еда: Еда</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>STANDARD 18</t>
+  </si>
+  <si>
+    <t>COOLER_QUALITY</t>
+  </si>
+  <si>
+    <t>CCH coolers quality (Prime Pos- Max15- Merch STD- Occupancy- Lights&amp;clean)</t>
+  </si>
+  <si>
+    <t>sum of atomic scores</t>
+  </si>
+  <si>
+    <t>Decimal.2</t>
+  </si>
+  <si>
+    <t>SESSION LEVEL</t>
   </si>
   <si>
     <t xml:space="preserve">29
@@ -803,59 +802,59 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">STANDARD 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCH_PROD_MENU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCH products present in Customer's menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passed or Failed Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MenuC1
+    <t>STANDARD 16</t>
+  </si>
+  <si>
+    <t>CCH_PROD_MENU</t>
+  </si>
+  <si>
+    <t>CCH products present in Customer's menu</t>
+  </si>
+  <si>
+    <t>Passed or Failed Value</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>MenuC1
 No_MenuC1</t>
   </si>
   <si>
-    <t xml:space="preserve">ACTIVATION_SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of CCH activation points in SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPU
+    <t>ACTIVATION_SSD</t>
+  </si>
+  <si>
+    <t>Number of CCH activation points in SSD</t>
+  </si>
+  <si>
+    <t>IMPU
 No_IMPU</t>
   </si>
   <si>
-    <t xml:space="preserve">Local 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANY OTHER ACTIVATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEND VALUE if one KPI from lis is Passed , other No_O_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTMove
+    <t>Local 21</t>
+  </si>
+  <si>
+    <t>ANY OTHER ACTIVATION</t>
+  </si>
+  <si>
+    <t>SEND VALUE if one KPI from lis is Passed , other No_O_A</t>
+  </si>
+  <si>
+    <t>OTMove
 No_O_A</t>
   </si>
   <si>
-    <t xml:space="preserve">PRIORITY_OCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Priority Occasions activated in the outlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EO
+    <t>PRIORITY_OCC</t>
+  </si>
+  <si>
+    <t>Number of Priority Occasions activated in the outlet</t>
+  </si>
+  <si>
+    <t>EO
 No_O_A</t>
   </si>
   <si>
-    <t xml:space="preserve">29
+    <t>29
 30
 31
 32
@@ -863,43 +862,54 @@
 34</t>
   </si>
   <si>
-    <t xml:space="preserve">Scene Sub Type 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COOLER_DOORS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">template.additional_attribute_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCENE LEVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer</t>
+    <t>Scene Sub Type 2</t>
+  </si>
+  <si>
+    <t>COOLER_DOORS</t>
+  </si>
+  <si>
+    <t>Number of Cooler Doors</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>template.additional_attribute_1</t>
+  </si>
+  <si>
+    <t>SCENE LEVEL</t>
+  </si>
+  <si>
+    <t>PLAN</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Panoramic Photo; SS_Panoramic Photo</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler; SS_Panoramic photo of Cooler</t>
+  </si>
+  <si>
+    <t>Cash Zone; SS_Cash Zone - Canteen; Promo SSD Display IC; Company promo display IC</t>
+  </si>
+  <si>
+    <t>Menu Board; Cash Zone; SS_Cash Zone - Canteen, QSR; SS_Menu Board - Canteen, QSR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* \-??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -908,22 +918,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -937,6 +932,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -947,195 +949,464 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="dashed"/>
-      <right style="dashed"/>
-      <top style="dashed"/>
-      <bottom style="dashed"/>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AO54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK54"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="Y33" activeCellId="0" sqref="Y33"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="V1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="R1" sqref="R1"/>
+      <selection pane="bottomLeft" activeCell="AA41" sqref="AA41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.5951417004049"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.0242914979757"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.7935222672065"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="90.4939271255061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="92.8947368421053"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="51.1902834008097"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.8502024291498"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.3076923076923"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="17.4817813765182"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="23.1943319838057"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="24.1093117408907"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="1" width="36.4493927125506"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.1943319838057"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="31.5344129554656"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="16.4534412955466"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="14.3967611336032"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.6801619433198"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="30.165991902834"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="37.246963562753"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="36.4493927125506"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="33.7085020242915"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="39.1902834008097"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="41.5910931174089"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="42.2753036437247"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="27.3076923076923"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="24.5668016194332"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="24.336032388664"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="23.6518218623482"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="22.3967611336032"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="23.6518218623482"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="77.1255060728745"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="27.1943319838057"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="14.5101214574899"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="17.0242914979757"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="3" width="25.0242914979757"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="17.4817813765182"/>
-    <col collapsed="false" hidden="false" max="1025" min="42" style="1" width="9.93927125506073"/>
+    <col min="1" max="1" width="17.5546875" style="1"/>
+    <col min="2" max="2" width="21" style="1"/>
+    <col min="3" max="3" width="20" style="1"/>
+    <col min="4" max="4" width="20.77734375" style="1"/>
+    <col min="5" max="5" width="20" style="1"/>
+    <col min="6" max="6" width="90.44140625" style="1"/>
+    <col min="7" max="7" width="92.88671875" style="1"/>
+    <col min="8" max="8" width="51.21875" style="1"/>
+    <col min="9" max="9" width="26.88671875" style="1"/>
+    <col min="10" max="10" width="27.44140625" style="1"/>
+    <col min="11" max="11" width="27.33203125" style="1"/>
+    <col min="12" max="12" width="17.44140625" style="1"/>
+    <col min="13" max="13" width="23.21875" style="1"/>
+    <col min="14" max="14" width="24.109375" style="1"/>
+    <col min="15" max="16" width="36.44140625" style="1"/>
+    <col min="17" max="17" width="32.5546875" style="1"/>
+    <col min="18" max="18" width="23.21875" style="1"/>
+    <col min="19" max="19" width="31.5546875" style="1"/>
+    <col min="20" max="20" width="16.44140625" style="1"/>
+    <col min="21" max="21" width="14.44140625" style="1"/>
+    <col min="22" max="22" width="24.6640625" style="1"/>
+    <col min="23" max="23" width="30.109375" style="1"/>
+    <col min="24" max="24" width="37.21875" style="1"/>
+    <col min="25" max="25" width="36.44140625" style="1"/>
+    <col min="26" max="26" width="83" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="39.21875" style="1"/>
+    <col min="28" max="28" width="41.5546875" style="1"/>
+    <col min="29" max="29" width="42.21875" style="1"/>
+    <col min="30" max="30" width="27.33203125" style="1"/>
+    <col min="31" max="31" width="24.5546875" style="1"/>
+    <col min="32" max="32" width="24.33203125" style="1"/>
+    <col min="33" max="33" width="23.6640625" style="2"/>
+    <col min="34" max="34" width="22.44140625" style="1"/>
+    <col min="35" max="35" width="23.6640625" style="1"/>
+    <col min="36" max="36" width="77.109375" style="1"/>
+    <col min="37" max="37" width="27.21875" style="1"/>
+    <col min="38" max="38" width="14.5546875" style="1"/>
+    <col min="39" max="39" width="17" style="1"/>
+    <col min="40" max="40" width="25" style="3"/>
+    <col min="41" max="41" width="17.44140625" style="1"/>
+    <col min="42" max="1025" width="9.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:41" s="8" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1260,8 +1531,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="n">
+    <row r="2" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1312,10 +1583,10 @@
       <c r="AI2" s="9"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
-      <c r="AL2" s="9" t="n">
+      <c r="AL2" s="9">
         <v>1</v>
       </c>
-      <c r="AM2" s="9" t="n">
+      <c r="AM2" s="9">
         <v>300</v>
       </c>
       <c r="AN2" s="11" t="s">
@@ -1323,8 +1594,8 @@
       </c>
       <c r="AO2" s="9"/>
     </row>
-    <row r="3" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+    <row r="3" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1385,21 +1656,21 @@
       <c r="AI3" s="9"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
-      <c r="AL3" s="9" t="n">
+      <c r="AL3" s="9">
         <v>2</v>
       </c>
-      <c r="AM3" s="9" t="n">
+      <c r="AM3" s="9">
         <v>1</v>
       </c>
       <c r="AN3" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AO3" s="9" t="n">
+      <c r="AO3" s="9">
         <v>300</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+    <row r="4" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1426,7 +1697,7 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
-      <c r="L4" s="9" t="n">
+      <c r="L4" s="9">
         <v>1</v>
       </c>
       <c r="M4" s="9"/>
@@ -1454,7 +1725,7 @@
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
@@ -1463,28 +1734,28 @@
         <v>52</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG4" s="10" t="n">
-        <v>0.04198</v>
+        <v>63</v>
+      </c>
+      <c r="AG4" s="10">
+        <v>4.1980000000000003E-2</v>
       </c>
       <c r="AH4" s="9"/>
       <c r="AI4" s="9"/>
       <c r="AJ4" s="9"/>
       <c r="AK4" s="9"/>
-      <c r="AL4" s="9" t="n">
+      <c r="AL4" s="9">
         <v>3</v>
       </c>
-      <c r="AM4" s="9" t="n">
+      <c r="AM4" s="9">
         <v>2</v>
       </c>
       <c r="AN4" s="13"/>
-      <c r="AO4" s="9" t="n">
+      <c r="AO4" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
+    <row r="5" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -1500,10 +1771,10 @@
         <v>47</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>57</v>
@@ -1511,16 +1782,16 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="9" t="n">
+      <c r="L5" s="9">
         <v>1</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
@@ -1539,7 +1810,7 @@
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="9" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
@@ -1548,28 +1819,28 @@
         <v>52</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG5" s="10" t="n">
-        <v>0.04198</v>
+        <v>63</v>
+      </c>
+      <c r="AG5" s="10">
+        <v>4.1980000000000003E-2</v>
       </c>
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
-      <c r="AL5" s="9" t="n">
+      <c r="AL5" s="9">
         <v>3</v>
       </c>
-      <c r="AM5" s="9" t="n">
+      <c r="AM5" s="9">
         <v>3</v>
       </c>
       <c r="AN5" s="13"/>
-      <c r="AO5" s="9" t="n">
+      <c r="AO5" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
+    <row r="6" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -1585,10 +1856,10 @@
         <v>47</v>
       </c>
       <c r="F6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>57</v>
@@ -1596,16 +1867,16 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="9" t="n">
+      <c r="L6" s="9">
         <v>1</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
@@ -1624,7 +1895,7 @@
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
       <c r="AA6" s="9" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
@@ -1633,28 +1904,28 @@
         <v>52</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG6" s="10" t="n">
-        <v>0.04198</v>
+        <v>63</v>
+      </c>
+      <c r="AG6" s="10">
+        <v>4.1980000000000003E-2</v>
       </c>
       <c r="AH6" s="9"/>
       <c r="AI6" s="9"/>
       <c r="AJ6" s="9"/>
       <c r="AK6" s="9"/>
-      <c r="AL6" s="9" t="n">
+      <c r="AL6" s="9">
         <v>3</v>
       </c>
-      <c r="AM6" s="9" t="n">
+      <c r="AM6" s="9">
         <v>4</v>
       </c>
       <c r="AN6" s="13"/>
-      <c r="AO6" s="9" t="n">
+      <c r="AO6" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
+    <row r="7" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -1670,10 +1941,10 @@
         <v>47</v>
       </c>
       <c r="F7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>57</v>
@@ -1681,16 +1952,16 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="9" t="n">
+      <c r="L7" s="9">
         <v>1</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
@@ -1709,7 +1980,7 @@
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
@@ -1718,28 +1989,28 @@
         <v>52</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG7" s="10" t="n">
-        <v>0.04198</v>
+        <v>63</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>4.1980000000000003E-2</v>
       </c>
       <c r="AH7" s="9"/>
       <c r="AI7" s="9"/>
       <c r="AJ7" s="9"/>
       <c r="AK7" s="9"/>
-      <c r="AL7" s="9" t="n">
+      <c r="AL7" s="9">
         <v>3</v>
       </c>
-      <c r="AM7" s="9" t="n">
+      <c r="AM7" s="9">
         <v>5</v>
       </c>
       <c r="AN7" s="13"/>
-      <c r="AO7" s="9" t="n">
+      <c r="AO7" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
+    <row r="8" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -1755,10 +2026,10 @@
         <v>47</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>57</v>
@@ -1766,16 +2037,16 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="9" t="n">
+      <c r="L8" s="9">
         <v>1</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
@@ -1794,7 +2065,7 @@
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
       <c r="AA8" s="9" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
@@ -1803,28 +2074,28 @@
         <v>52</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG8" s="10" t="n">
-        <v>0.0217</v>
+        <v>63</v>
+      </c>
+      <c r="AG8" s="10">
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="AH8" s="9"/>
       <c r="AI8" s="9"/>
       <c r="AJ8" s="9"/>
       <c r="AK8" s="9"/>
-      <c r="AL8" s="9" t="n">
+      <c r="AL8" s="9">
         <v>3</v>
       </c>
-      <c r="AM8" s="9" t="n">
+      <c r="AM8" s="9">
         <v>606</v>
       </c>
       <c r="AN8" s="13"/>
-      <c r="AO8" s="9" t="n">
+      <c r="AO8" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
+    <row r="9" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -1840,10 +2111,10 @@
         <v>47</v>
       </c>
       <c r="F9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>57</v>
@@ -1851,16 +2122,16 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="9" t="n">
+      <c r="L9" s="9">
         <v>1</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>84</v>
       </c>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
@@ -1879,35 +2150,35 @@
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
       <c r="AD9" s="9"/>
       <c r="AE9" s="9"/>
       <c r="AF9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG9" s="10" t="n">
-        <v>0.0217</v>
+        <v>63</v>
+      </c>
+      <c r="AG9" s="10">
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="AH9" s="9"/>
       <c r="AI9" s="9"/>
       <c r="AJ9" s="9"/>
       <c r="AK9" s="9"/>
-      <c r="AL9" s="9" t="n">
+      <c r="AL9" s="9">
         <v>3</v>
       </c>
-      <c r="AM9" s="9" t="n">
+      <c r="AM9" s="9">
         <v>603</v>
       </c>
       <c r="AN9" s="13"/>
-      <c r="AO9" s="9" t="n">
+      <c r="AO9" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
+    <row r="10" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -1923,10 +2194,10 @@
         <v>47</v>
       </c>
       <c r="F10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>57</v>
@@ -1934,16 +2205,16 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="9" t="n">
+      <c r="L10" s="9">
         <v>1</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
@@ -1962,7 +2233,7 @@
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
       <c r="AA10" s="9" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
@@ -1971,28 +2242,28 @@
         <v>52</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG10" s="10" t="n">
-        <v>0.0217</v>
+        <v>63</v>
+      </c>
+      <c r="AG10" s="10">
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="AH10" s="9"/>
       <c r="AI10" s="9"/>
       <c r="AJ10" s="9"/>
       <c r="AK10" s="9"/>
-      <c r="AL10" s="9" t="n">
+      <c r="AL10" s="9">
         <v>3</v>
       </c>
-      <c r="AM10" s="9" t="n">
+      <c r="AM10" s="9">
         <v>607</v>
       </c>
       <c r="AN10" s="13"/>
-      <c r="AO10" s="9" t="n">
+      <c r="AO10" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
+    <row r="11" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>12</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -2005,13 +2276,13 @@
         <v>43</v>
       </c>
       <c r="E11" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>91</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>50</v>
@@ -2020,7 +2291,7 @@
         <v>44</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -2053,21 +2324,21 @@
       <c r="AI11" s="9"/>
       <c r="AJ11" s="9"/>
       <c r="AK11" s="9"/>
-      <c r="AL11" s="9" t="n">
+      <c r="AL11" s="9">
         <v>2</v>
       </c>
-      <c r="AM11" s="9" t="n">
+      <c r="AM11" s="9">
         <v>8</v>
       </c>
       <c r="AN11" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO11" s="9" t="n">
+        <v>92</v>
+      </c>
+      <c r="AO11" s="9">
         <v>300</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="n">
+    <row r="12" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
         <v>13</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -2080,13 +2351,13 @@
         <v>43</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>57</v>
@@ -2094,16 +2365,16 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="9" t="n">
+      <c r="L12" s="9">
         <v>1</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="P12" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
@@ -2122,7 +2393,7 @@
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
@@ -2131,28 +2402,28 @@
         <v>52</v>
       </c>
       <c r="AF12" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG12" s="10" t="n">
-        <v>0.0225</v>
+        <v>63</v>
+      </c>
+      <c r="AG12" s="10">
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="AH12" s="9"/>
       <c r="AI12" s="9"/>
       <c r="AJ12" s="9"/>
       <c r="AK12" s="9"/>
-      <c r="AL12" s="9" t="n">
+      <c r="AL12" s="9">
         <v>3</v>
       </c>
-      <c r="AM12" s="9" t="n">
+      <c r="AM12" s="9">
         <v>9</v>
       </c>
       <c r="AN12" s="13"/>
-      <c r="AO12" s="9" t="n">
+      <c r="AO12" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
+    <row r="13" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>14</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -2165,13 +2436,13 @@
         <v>43</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>57</v>
@@ -2179,16 +2450,16 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="9" t="n">
+      <c r="L13" s="9">
         <v>1</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P13" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
@@ -2207,7 +2478,7 @@
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
@@ -2216,28 +2487,28 @@
         <v>52</v>
       </c>
       <c r="AF13" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG13" s="10" t="n">
-        <v>0.012696</v>
+        <v>63</v>
+      </c>
+      <c r="AG13" s="10">
+        <v>1.2696000000000001E-2</v>
       </c>
       <c r="AH13" s="9"/>
       <c r="AI13" s="9"/>
       <c r="AJ13" s="9"/>
       <c r="AK13" s="9"/>
-      <c r="AL13" s="9" t="n">
+      <c r="AL13" s="9">
         <v>3</v>
       </c>
-      <c r="AM13" s="9" t="n">
+      <c r="AM13" s="9">
         <v>10</v>
       </c>
       <c r="AN13" s="13"/>
-      <c r="AO13" s="9" t="n">
+      <c r="AO13" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="n">
+    <row r="14" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
         <v>15</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -2250,13 +2521,13 @@
         <v>43</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>50</v>
@@ -2265,7 +2536,7 @@
         <v>44</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -2298,21 +2569,21 @@
       <c r="AI14" s="9"/>
       <c r="AJ14" s="9"/>
       <c r="AK14" s="9"/>
-      <c r="AL14" s="9" t="n">
+      <c r="AL14" s="9">
         <v>2</v>
       </c>
-      <c r="AM14" s="9" t="n">
+      <c r="AM14" s="9">
         <v>11</v>
       </c>
       <c r="AN14" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO14" s="9" t="n">
+        <v>104</v>
+      </c>
+      <c r="AO14" s="9">
         <v>300</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
+    <row r="15" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
         <v>16</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -2325,13 +2596,13 @@
         <v>43</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>57</v>
@@ -2339,15 +2610,15 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="9" t="n">
+      <c r="L15" s="9">
         <v>1</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="P15" s="9" t="n">
+        <v>105</v>
+      </c>
+      <c r="P15" s="9">
         <v>5449000131768</v>
       </c>
       <c r="Q15" s="9"/>
@@ -2367,7 +2638,7 @@
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
@@ -2376,28 +2647,28 @@
         <v>52</v>
       </c>
       <c r="AF15" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG15" s="10" t="n">
-        <v>0.012696</v>
+        <v>63</v>
+      </c>
+      <c r="AG15" s="10">
+        <v>1.2696000000000001E-2</v>
       </c>
       <c r="AH15" s="9"/>
       <c r="AI15" s="9"/>
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
-      <c r="AL15" s="9" t="n">
+      <c r="AL15" s="9">
         <v>3</v>
       </c>
-      <c r="AM15" s="9" t="n">
+      <c r="AM15" s="9">
         <v>12</v>
       </c>
       <c r="AN15" s="13"/>
-      <c r="AO15" s="9" t="n">
+      <c r="AO15" s="9">
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="n">
+    <row r="16" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
         <v>17</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -2410,13 +2681,13 @@
         <v>43</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>57</v>
@@ -2424,16 +2695,16 @@
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="9" t="n">
+      <c r="L16" s="9">
         <v>1</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
@@ -2452,35 +2723,35 @@
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
       <c r="AE16" s="9"/>
       <c r="AF16" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG16" s="10" t="n">
-        <v>0.009</v>
+        <v>63</v>
+      </c>
+      <c r="AG16" s="10">
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AH16" s="9"/>
       <c r="AI16" s="9"/>
       <c r="AJ16" s="9"/>
       <c r="AK16" s="9"/>
-      <c r="AL16" s="9" t="n">
+      <c r="AL16" s="9">
         <v>3</v>
       </c>
-      <c r="AM16" s="9" t="n">
+      <c r="AM16" s="9">
         <v>62</v>
       </c>
       <c r="AN16" s="13"/>
-      <c r="AO16" s="9" t="n">
+      <c r="AO16" s="9">
         <v>11</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="n">
+    <row r="17" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
         <v>19</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -2493,13 +2764,13 @@
         <v>43</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F17" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>112</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>50</v>
@@ -2508,7 +2779,7 @@
         <v>44</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -2541,21 +2812,21 @@
       <c r="AI17" s="9"/>
       <c r="AJ17" s="9"/>
       <c r="AK17" s="9"/>
-      <c r="AL17" s="9" t="n">
+      <c r="AL17" s="9">
         <v>2</v>
       </c>
-      <c r="AM17" s="9" t="n">
+      <c r="AM17" s="9">
         <v>14</v>
       </c>
       <c r="AN17" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO17" s="9" t="n">
+        <v>113</v>
+      </c>
+      <c r="AO17" s="9">
         <v>300</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="n">
+    <row r="18" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
         <v>20</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -2568,13 +2839,13 @@
         <v>43</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F18" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>116</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>57</v>
@@ -2582,16 +2853,16 @@
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="9" t="n">
+      <c r="L18" s="9">
         <v>1</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
@@ -2610,7 +2881,7 @@
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
@@ -2619,28 +2890,28 @@
         <v>52</v>
       </c>
       <c r="AF18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG18" s="10" t="n">
-        <v>0.0225</v>
+        <v>63</v>
+      </c>
+      <c r="AG18" s="10">
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="AH18" s="9"/>
       <c r="AI18" s="9"/>
       <c r="AJ18" s="9"/>
       <c r="AK18" s="9"/>
-      <c r="AL18" s="9" t="n">
+      <c r="AL18" s="9">
         <v>3</v>
       </c>
-      <c r="AM18" s="9" t="n">
+      <c r="AM18" s="9">
         <v>17</v>
       </c>
       <c r="AN18" s="13"/>
-      <c r="AO18" s="9" t="n">
+      <c r="AO18" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="n">
+    <row r="19" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <v>21</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -2653,13 +2924,13 @@
         <v>43</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F19" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>57</v>
@@ -2667,15 +2938,15 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="9" t="n">
+      <c r="L19" s="9">
         <v>1</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="P19" s="9" t="n">
+        <v>119</v>
+      </c>
+      <c r="P19" s="9">
         <v>4607042430879</v>
       </c>
       <c r="Q19" s="9"/>
@@ -2695,7 +2966,7 @@
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
@@ -2704,28 +2975,28 @@
         <v>52</v>
       </c>
       <c r="AF19" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG19" s="10" t="n">
-        <v>0.012696</v>
+        <v>63</v>
+      </c>
+      <c r="AG19" s="10">
+        <v>1.2696000000000001E-2</v>
       </c>
       <c r="AH19" s="9"/>
       <c r="AI19" s="9"/>
       <c r="AJ19" s="9"/>
       <c r="AK19" s="9"/>
-      <c r="AL19" s="9" t="n">
+      <c r="AL19" s="9">
         <v>3</v>
       </c>
-      <c r="AM19" s="9" t="n">
+      <c r="AM19" s="9">
         <v>215</v>
       </c>
       <c r="AN19" s="13"/>
-      <c r="AO19" s="9" t="n">
+      <c r="AO19" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
+    <row r="20" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
         <v>22</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -2738,13 +3009,13 @@
         <v>43</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>122</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>57</v>
@@ -2752,16 +3023,16 @@
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="9" t="n">
+      <c r="L20" s="9">
         <v>1</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
@@ -2780,7 +3051,7 @@
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
       <c r="AA20" s="9" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
@@ -2789,28 +3060,28 @@
         <v>52</v>
       </c>
       <c r="AF20" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG20" s="10" t="n">
-        <v>0.012696</v>
+        <v>63</v>
+      </c>
+      <c r="AG20" s="10">
+        <v>1.2696000000000001E-2</v>
       </c>
       <c r="AH20" s="9"/>
       <c r="AI20" s="9"/>
       <c r="AJ20" s="9"/>
       <c r="AK20" s="9"/>
-      <c r="AL20" s="9" t="n">
+      <c r="AL20" s="9">
         <v>3</v>
       </c>
-      <c r="AM20" s="9" t="n">
+      <c r="AM20" s="9">
         <v>216</v>
       </c>
       <c r="AN20" s="13"/>
-      <c r="AO20" s="9" t="n">
+      <c r="AO20" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="n">
+    <row r="21" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
         <v>23</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -2823,13 +3094,13 @@
         <v>43</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F21" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>57</v>
@@ -2837,15 +3108,15 @@
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="9" t="n">
+      <c r="L21" s="9">
         <v>1</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="P21" s="9" t="n">
+        <v>123</v>
+      </c>
+      <c r="P21" s="9">
         <v>5449000233615</v>
       </c>
       <c r="Q21" s="9"/>
@@ -2865,7 +3136,7 @@
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
@@ -2874,28 +3145,28 @@
         <v>52</v>
       </c>
       <c r="AF21" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG21" s="10" t="n">
-        <v>0.009</v>
+        <v>63</v>
+      </c>
+      <c r="AG21" s="10">
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AH21" s="9"/>
       <c r="AI21" s="9"/>
       <c r="AJ21" s="9"/>
       <c r="AK21" s="9"/>
-      <c r="AL21" s="9" t="n">
+      <c r="AL21" s="9">
         <v>3</v>
       </c>
-      <c r="AM21" s="9" t="n">
+      <c r="AM21" s="9">
         <v>18</v>
       </c>
       <c r="AN21" s="13"/>
-      <c r="AO21" s="9" t="n">
+      <c r="AO21" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="n">
+    <row r="22" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
         <v>27</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -2908,13 +3179,13 @@
         <v>43</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F22" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>50</v>
@@ -2923,7 +3194,7 @@
         <v>44</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
@@ -2956,21 +3227,21 @@
       <c r="AI22" s="9"/>
       <c r="AJ22" s="9"/>
       <c r="AK22" s="9"/>
-      <c r="AL22" s="9" t="n">
+      <c r="AL22" s="9">
         <v>2</v>
       </c>
-      <c r="AM22" s="9" t="n">
+      <c r="AM22" s="9">
         <v>20</v>
       </c>
       <c r="AN22" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO22" s="9" t="n">
+        <v>128</v>
+      </c>
+      <c r="AO22" s="9">
         <v>300</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="n">
+    <row r="23" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
         <v>28</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -2983,13 +3254,13 @@
         <v>43</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F23" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>57</v>
@@ -2997,16 +3268,16 @@
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="9" t="n">
+      <c r="L23" s="9">
         <v>1</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P23" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="P23" s="9" t="s">
-        <v>133</v>
       </c>
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
@@ -3025,7 +3296,7 @@
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
       <c r="AA23" s="9" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
@@ -3034,28 +3305,28 @@
         <v>52</v>
       </c>
       <c r="AF23" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG23" s="10" t="n">
-        <v>0.0225</v>
+        <v>63</v>
+      </c>
+      <c r="AG23" s="10">
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="AH23" s="9"/>
       <c r="AI23" s="9"/>
       <c r="AJ23" s="9"/>
       <c r="AK23" s="9"/>
-      <c r="AL23" s="9" t="n">
+      <c r="AL23" s="9">
         <v>3</v>
       </c>
-      <c r="AM23" s="9" t="n">
+      <c r="AM23" s="9">
         <v>222</v>
       </c>
       <c r="AN23" s="13"/>
-      <c r="AO23" s="9" t="n">
+      <c r="AO23" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="n">
+    <row r="24" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
         <v>29</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -3068,13 +3339,13 @@
         <v>43</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F24" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>135</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>57</v>
@@ -3082,16 +3353,16 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="9" t="n">
+      <c r="L24" s="9">
         <v>1</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="P24" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="P24" s="9" t="s">
-        <v>137</v>
       </c>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
@@ -3110,7 +3381,7 @@
       <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
       <c r="AA24" s="9" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
@@ -3119,28 +3390,28 @@
         <v>52</v>
       </c>
       <c r="AF24" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG24" s="10" t="n">
-        <v>0.012696</v>
+        <v>63</v>
+      </c>
+      <c r="AG24" s="10">
+        <v>1.2696000000000001E-2</v>
       </c>
       <c r="AH24" s="9"/>
       <c r="AI24" s="9"/>
       <c r="AJ24" s="9"/>
       <c r="AK24" s="9"/>
-      <c r="AL24" s="9" t="n">
+      <c r="AL24" s="9">
         <v>3</v>
       </c>
-      <c r="AM24" s="9" t="n">
+      <c r="AM24" s="9">
         <v>221</v>
       </c>
       <c r="AN24" s="13"/>
-      <c r="AO24" s="9" t="n">
+      <c r="AO24" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="n">
+    <row r="25" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
         <v>30</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -3153,13 +3424,13 @@
         <v>43</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F25" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>57</v>
@@ -3167,16 +3438,16 @@
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="9" t="n">
+      <c r="L25" s="9">
         <v>1</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="P25" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="P25" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
@@ -3195,35 +3466,35 @@
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
       <c r="AA25" s="9" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
       <c r="AD25" s="9"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG25" s="10" t="n">
-        <v>0.009</v>
+        <v>63</v>
+      </c>
+      <c r="AG25" s="10">
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AH25" s="9"/>
       <c r="AI25" s="9"/>
       <c r="AJ25" s="9"/>
       <c r="AK25" s="9"/>
-      <c r="AL25" s="9" t="n">
+      <c r="AL25" s="9">
         <v>3</v>
       </c>
-      <c r="AM25" s="9" t="n">
+      <c r="AM25" s="9">
         <v>168</v>
       </c>
       <c r="AN25" s="13"/>
-      <c r="AO25" s="9" t="n">
+      <c r="AO25" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="n">
+    <row r="26" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
         <v>31</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -3236,13 +3507,13 @@
         <v>43</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F26" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>57</v>
@@ -3250,16 +3521,16 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="9" t="n">
+      <c r="L26" s="9">
         <v>1</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="P26" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="P26" s="9" t="s">
-        <v>145</v>
       </c>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
@@ -3278,7 +3549,7 @@
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
       <c r="AA26" s="9" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
@@ -3287,28 +3558,28 @@
         <v>52</v>
       </c>
       <c r="AF26" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG26" s="10" t="n">
-        <v>0.009</v>
+        <v>63</v>
+      </c>
+      <c r="AG26" s="10">
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AH26" s="9"/>
       <c r="AI26" s="9"/>
       <c r="AJ26" s="9"/>
       <c r="AK26" s="9"/>
-      <c r="AL26" s="9" t="n">
+      <c r="AL26" s="9">
         <v>3</v>
       </c>
-      <c r="AM26" s="9" t="n">
+      <c r="AM26" s="9">
         <v>223</v>
       </c>
       <c r="AN26" s="13"/>
-      <c r="AO26" s="9" t="n">
+      <c r="AO26" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="n">
+    <row r="27" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
         <v>37</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -3322,10 +3593,10 @@
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>147</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>43</v>
@@ -3359,19 +3630,19 @@
       <c r="AI27" s="9"/>
       <c r="AJ27" s="9"/>
       <c r="AK27" s="9"/>
-      <c r="AL27" s="9" t="n">
+      <c r="AL27" s="9">
         <v>1</v>
       </c>
-      <c r="AM27" s="9" t="n">
+      <c r="AM27" s="9">
         <v>310</v>
       </c>
       <c r="AN27" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AO27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="n">
+    <row r="28" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
         <v>38</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -3385,10 +3656,10 @@
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>43</v>
@@ -3422,21 +3693,21 @@
       <c r="AI28" s="9"/>
       <c r="AJ28" s="9"/>
       <c r="AK28" s="9"/>
-      <c r="AL28" s="9" t="n">
+      <c r="AL28" s="9">
         <v>1</v>
       </c>
-      <c r="AM28" s="9" t="n">
+      <c r="AM28" s="9">
         <v>311</v>
       </c>
-      <c r="AN28" s="13" t="n">
+      <c r="AN28" s="13">
         <v>26</v>
       </c>
-      <c r="AO28" s="9" t="n">
+      <c r="AO28" s="9">
         <v>310</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="n">
+    <row r="29" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
         <v>39</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -3449,16 +3720,16 @@
         <v>43</v>
       </c>
       <c r="E29" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="G29" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="H29" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>154</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -3471,7 +3742,7 @@
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
       <c r="S29" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
@@ -3488,32 +3759,32 @@
         <v>52</v>
       </c>
       <c r="AF29" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG29" s="10" t="n">
+        <v>155</v>
+      </c>
+      <c r="AG29" s="10">
         <v>0.08</v>
       </c>
       <c r="AH29" s="9"/>
       <c r="AI29" s="9"/>
       <c r="AJ29" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK29" s="9"/>
+      <c r="AL29" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM29" s="9">
+        <v>26</v>
+      </c>
+      <c r="AN29" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AK29" s="9"/>
-      <c r="AL29" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM29" s="9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN29" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO29" s="9" t="n">
+      <c r="AO29" s="9">
         <v>311</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="n">
+    <row r="30" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
         <v>40</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -3526,43 +3797,43 @@
         <v>43</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F30" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="H30" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>161</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
-      <c r="L30" s="9" t="n">
+      <c r="L30" s="9">
         <v>1</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="P30" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="P30" s="9" t="s">
-        <v>163</v>
       </c>
       <c r="Q30" s="9"/>
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
       <c r="T30" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U30" s="9"/>
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
       <c r="Y30" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
@@ -3573,28 +3844,28 @@
         <v>52</v>
       </c>
       <c r="AF30" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG30" s="10"/>
       <c r="AH30" s="9"/>
       <c r="AI30" s="9"/>
       <c r="AJ30" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AK30" s="9"/>
-      <c r="AL30" s="9" t="n">
+      <c r="AL30" s="9">
         <v>3</v>
       </c>
-      <c r="AM30" s="9" t="n">
+      <c r="AM30" s="9">
         <v>27</v>
       </c>
       <c r="AN30" s="13"/>
-      <c r="AO30" s="9" t="n">
+      <c r="AO30" s="9">
         <v>26</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="n">
+    <row r="31" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
         <v>41</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -3607,43 +3878,43 @@
         <v>43</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F31" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="H31" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>169</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
-      <c r="L31" s="9" t="n">
+      <c r="L31" s="9">
         <v>0.01</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="P31" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="P31" s="9" t="s">
-        <v>163</v>
       </c>
       <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
       <c r="T31" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
       <c r="Y31" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
@@ -3654,26 +3925,26 @@
         <v>52</v>
       </c>
       <c r="AF31" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG31" s="10"/>
       <c r="AH31" s="9"/>
       <c r="AI31" s="9"/>
       <c r="AJ31" s="9"/>
       <c r="AK31" s="9"/>
-      <c r="AL31" s="9" t="n">
+      <c r="AL31" s="9">
         <v>3</v>
       </c>
-      <c r="AM31" s="9" t="n">
+      <c r="AM31" s="9">
         <v>28</v>
       </c>
       <c r="AN31" s="13"/>
-      <c r="AO31" s="9" t="n">
+      <c r="AO31" s="9">
         <v>26</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="n">
+    <row r="32" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
         <v>42</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -3687,10 +3958,10 @@
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G32" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>172</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>43</v>
@@ -3724,21 +3995,21 @@
       <c r="AI32" s="9"/>
       <c r="AJ32" s="9"/>
       <c r="AK32" s="9"/>
-      <c r="AL32" s="9" t="n">
+      <c r="AL32" s="9">
         <v>1</v>
       </c>
-      <c r="AM32" s="9" t="n">
+      <c r="AM32" s="9">
         <v>312</v>
       </c>
       <c r="AN32" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="AO32" s="9" t="n">
+        <v>172</v>
+      </c>
+      <c r="AO32" s="9">
         <v>310</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="n">
+    <row r="33" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
         <v>43</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -3751,34 +4022,34 @@
         <v>43</v>
       </c>
       <c r="E33" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="G33" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="H33" s="9" t="s">
         <v>176</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>177</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
-      <c r="L33" s="9" t="n">
+      <c r="L33" s="9">
         <v>1</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
       <c r="T33" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
@@ -3786,7 +4057,7 @@
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9" t="s">
-        <v>180</v>
+        <v>268</v>
       </c>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
@@ -3796,32 +4067,32 @@
         <v>52</v>
       </c>
       <c r="AF33" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG33" s="10" t="n">
+        <v>63</v>
+      </c>
+      <c r="AG33" s="10">
         <v>0.04</v>
       </c>
       <c r="AH33" s="9"/>
       <c r="AI33" s="9"/>
       <c r="AJ33" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AK33" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL33" s="9" t="n">
+        <v>158</v>
+      </c>
+      <c r="AL33" s="9">
         <v>2</v>
       </c>
-      <c r="AM33" s="9" t="n">
+      <c r="AM33" s="9">
         <v>29</v>
       </c>
       <c r="AN33" s="13"/>
-      <c r="AO33" s="9" t="n">
+      <c r="AO33" s="9">
         <v>312</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="n">
+    <row r="34" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
         <v>44</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -3834,43 +4105,43 @@
         <v>43</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F34" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>184</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
-      <c r="L34" s="9" t="n">
+      <c r="L34" s="9">
         <v>1</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="P34" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="P34" s="9" t="s">
-        <v>163</v>
       </c>
       <c r="Q34" s="9"/>
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
       <c r="T34" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
       <c r="Y34" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
@@ -3881,32 +4152,32 @@
         <v>52</v>
       </c>
       <c r="AF34" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG34" s="10" t="n">
+        <v>155</v>
+      </c>
+      <c r="AG34" s="10">
         <v>0.04</v>
       </c>
       <c r="AH34" s="9"/>
       <c r="AI34" s="9"/>
       <c r="AJ34" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AK34" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL34" s="9" t="n">
+        <v>158</v>
+      </c>
+      <c r="AL34" s="9">
         <v>2</v>
       </c>
-      <c r="AM34" s="9" t="n">
+      <c r="AM34" s="9">
         <v>30</v>
       </c>
       <c r="AN34" s="13"/>
-      <c r="AO34" s="9" t="n">
+      <c r="AO34" s="9">
         <v>312</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="n">
+    <row r="35" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
         <v>45</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -3919,45 +4190,45 @@
         <v>43</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F35" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H35" s="9" t="s">
         <v>186</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>188</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
-      <c r="M35" s="9" t="n">
+      <c r="M35" s="9">
         <v>1</v>
       </c>
-      <c r="N35" s="9" t="n">
+      <c r="N35" s="9">
         <v>15</v>
       </c>
       <c r="O35" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="P35" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="P35" s="9" t="s">
-        <v>163</v>
       </c>
       <c r="Q35" s="9"/>
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
       <c r="T35" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
       <c r="Y35" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
@@ -3968,32 +4239,32 @@
         <v>52</v>
       </c>
       <c r="AF35" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG35" s="10" t="n">
+        <v>63</v>
+      </c>
+      <c r="AG35" s="10">
         <v>0.04</v>
       </c>
       <c r="AH35" s="9"/>
       <c r="AI35" s="9"/>
       <c r="AJ35" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AK35" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL35" s="9" t="n">
+        <v>158</v>
+      </c>
+      <c r="AL35" s="9">
         <v>2</v>
       </c>
-      <c r="AM35" s="9" t="n">
+      <c r="AM35" s="9">
         <v>31</v>
       </c>
       <c r="AN35" s="13"/>
-      <c r="AO35" s="9" t="n">
+      <c r="AO35" s="9">
         <v>312</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="n">
+    <row r="36" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
         <v>46</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -4007,10 +4278,10 @@
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>43</v>
@@ -4044,19 +4315,19 @@
       <c r="AI36" s="9"/>
       <c r="AJ36" s="9"/>
       <c r="AK36" s="9"/>
-      <c r="AL36" s="9" t="n">
+      <c r="AL36" s="9">
         <v>1</v>
       </c>
-      <c r="AM36" s="9" t="n">
+      <c r="AM36" s="9">
         <v>400</v>
       </c>
       <c r="AN36" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AO36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="n">
+    <row r="37" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
         <v>48</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -4069,13 +4340,13 @@
         <v>43</v>
       </c>
       <c r="E37" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G37" s="9" t="s">
         <v>192</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>57</v>
@@ -4083,16 +4354,16 @@
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
-      <c r="L37" s="9" t="n">
+      <c r="L37" s="9">
         <v>4</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="P37" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="P37" s="9" t="s">
-        <v>163</v>
       </c>
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
@@ -4100,7 +4371,7 @@
         <v>60</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
@@ -4108,7 +4379,7 @@
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9" t="s">
-        <v>195</v>
+        <v>269</v>
       </c>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
@@ -4118,28 +4389,28 @@
         <v>52</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG37" s="10" t="n">
+        <v>63</v>
+      </c>
+      <c r="AG37" s="10">
         <v>0.05</v>
       </c>
       <c r="AH37" s="9"/>
       <c r="AI37" s="9"/>
       <c r="AJ37" s="9"/>
       <c r="AK37" s="9"/>
-      <c r="AL37" s="9" t="n">
+      <c r="AL37" s="9">
         <v>2</v>
       </c>
-      <c r="AM37" s="9" t="n">
+      <c r="AM37" s="9">
         <v>33</v>
       </c>
       <c r="AN37" s="13"/>
-      <c r="AO37" s="9" t="n">
+      <c r="AO37" s="9">
         <v>400</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="n">
+    <row r="38" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
         <v>49</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -4152,21 +4423,21 @@
         <v>43</v>
       </c>
       <c r="E38" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H38" s="14" t="s">
         <v>196</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>199</v>
       </c>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
       <c r="K38" s="9"/>
-      <c r="L38" s="9" t="n">
+      <c r="L38" s="9">
         <v>2</v>
       </c>
       <c r="M38" s="9"/>
@@ -4176,7 +4447,7 @@
       <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
       <c r="S38" s="9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
@@ -4185,7 +4456,7 @@
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9" t="s">
-        <v>201</v>
+        <v>270</v>
       </c>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
@@ -4195,30 +4466,30 @@
         <v>52</v>
       </c>
       <c r="AF38" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG38" s="10" t="n">
-        <v>0.28</v>
+        <v>63</v>
+      </c>
+      <c r="AG38" s="10">
+        <v>0.28000000000000003</v>
       </c>
       <c r="AH38" s="9"/>
       <c r="AI38" s="9"/>
       <c r="AJ38" s="9"/>
       <c r="AK38" s="9"/>
-      <c r="AL38" s="9" t="n">
+      <c r="AL38" s="9">
         <v>2</v>
       </c>
-      <c r="AM38" s="9" t="n">
+      <c r="AM38" s="9">
         <v>34</v>
       </c>
       <c r="AN38" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="AO38" s="9" t="n">
+        <v>198</v>
+      </c>
+      <c r="AO38" s="9">
         <v>400</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="n">
+    <row r="39" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
         <v>50</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -4231,13 +4502,13 @@
         <v>43</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>57</v>
@@ -4245,19 +4516,19 @@
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
-      <c r="L39" s="9" t="n">
+      <c r="L39" s="9">
         <v>1</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
       <c r="O39" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P39" s="14" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="R39" s="9"/>
       <c r="S39" s="9" t="s">
@@ -4272,7 +4543,7 @@
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
       <c r="Z39" s="9" t="s">
-        <v>201</v>
+        <v>270</v>
       </c>
       <c r="AA39" s="9"/>
       <c r="AB39" s="9"/>
@@ -4282,26 +4553,26 @@
         <v>52</v>
       </c>
       <c r="AF39" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG39" s="10"/>
       <c r="AH39" s="9"/>
       <c r="AI39" s="9"/>
       <c r="AJ39" s="9"/>
       <c r="AK39" s="9"/>
-      <c r="AL39" s="9" t="n">
+      <c r="AL39" s="9">
         <v>3</v>
       </c>
-      <c r="AM39" s="9" t="n">
+      <c r="AM39" s="9">
         <v>35</v>
       </c>
       <c r="AN39" s="13"/>
-      <c r="AO39" s="9" t="n">
+      <c r="AO39" s="9">
         <v>34</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="n">
+    <row r="40" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
         <v>51</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -4314,13 +4585,13 @@
         <v>43</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H40" s="14" t="s">
         <v>57</v>
@@ -4328,16 +4599,16 @@
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
       <c r="K40" s="9"/>
-      <c r="L40" s="9" t="n">
+      <c r="L40" s="9">
         <v>1</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P40" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q40" s="9"/>
       <c r="R40" s="9"/>
@@ -4353,7 +4624,7 @@
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
       <c r="Z40" s="9" t="s">
-        <v>201</v>
+        <v>270</v>
       </c>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
@@ -4363,28 +4634,28 @@
         <v>52</v>
       </c>
       <c r="AF40" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG40" s="10"/>
       <c r="AH40" s="9"/>
       <c r="AI40" s="9"/>
       <c r="AJ40" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AK40" s="9"/>
-      <c r="AL40" s="9" t="n">
+      <c r="AL40" s="9">
         <v>3</v>
       </c>
-      <c r="AM40" s="9" t="n">
+      <c r="AM40" s="9">
         <v>36</v>
       </c>
       <c r="AN40" s="13"/>
-      <c r="AO40" s="9" t="n">
+      <c r="AO40" s="9">
         <v>34</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="n">
+    <row r="41" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
         <v>52</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -4397,21 +4668,21 @@
         <v>43</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
       <c r="K41" s="9"/>
-      <c r="L41" s="9" t="n">
+      <c r="L41" s="9">
         <v>1</v>
       </c>
       <c r="M41" s="9"/>
@@ -4421,7 +4692,7 @@
       <c r="Q41" s="9"/>
       <c r="R41" s="9"/>
       <c r="S41" s="9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
@@ -4430,7 +4701,7 @@
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9" t="s">
-        <v>201</v>
+        <v>270</v>
       </c>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
@@ -4438,30 +4709,30 @@
       <c r="AD41" s="9"/>
       <c r="AE41" s="9"/>
       <c r="AF41" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG41" s="10" t="n">
-        <v>0.07</v>
+        <v>63</v>
+      </c>
+      <c r="AG41" s="10">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AH41" s="9"/>
       <c r="AI41" s="9"/>
       <c r="AJ41" s="9"/>
       <c r="AK41" s="9"/>
-      <c r="AL41" s="9" t="n">
+      <c r="AL41" s="9">
         <v>2</v>
       </c>
-      <c r="AM41" s="9" t="n">
+      <c r="AM41" s="9">
         <v>680</v>
       </c>
       <c r="AN41" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="AO41" s="9" t="n">
+        <v>212</v>
+      </c>
+      <c r="AO41" s="9">
         <v>400</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="n">
+    <row r="42" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
         <v>53</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -4474,21 +4745,21 @@
         <v>43</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
-      <c r="L42" s="9" t="n">
+      <c r="L42" s="9">
         <v>2</v>
       </c>
       <c r="M42" s="9"/>
@@ -4498,7 +4769,7 @@
       <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
       <c r="S42" s="9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
@@ -4507,7 +4778,7 @@
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
       <c r="Z42" s="9" t="s">
-        <v>201</v>
+        <v>270</v>
       </c>
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
@@ -4517,28 +4788,28 @@
         <v>52</v>
       </c>
       <c r="AF42" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG42" s="10"/>
       <c r="AH42" s="9"/>
       <c r="AI42" s="9"/>
       <c r="AJ42" s="9"/>
       <c r="AK42" s="9"/>
-      <c r="AL42" s="9" t="n">
+      <c r="AL42" s="9">
         <v>3</v>
       </c>
-      <c r="AM42" s="9" t="n">
+      <c r="AM42" s="9">
         <v>72</v>
       </c>
       <c r="AN42" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="AO42" s="9" t="n">
+        <v>216</v>
+      </c>
+      <c r="AO42" s="9">
         <v>680</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="n">
+    <row r="43" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
         <v>54</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -4551,13 +4822,13 @@
         <v>43</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H43" s="9" t="s">
         <v>57</v>
@@ -4565,28 +4836,28 @@
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
-      <c r="L43" s="9" t="n">
+      <c r="L43" s="9">
         <v>1</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
       <c r="O43" s="9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="S43" s="9" t="s">
         <v>60</v>
       </c>
       <c r="T43" s="9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="U43" s="9"/>
       <c r="V43" s="9"/>
@@ -4594,7 +4865,7 @@
       <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
       <c r="Z43" s="9" t="s">
-        <v>201</v>
+        <v>270</v>
       </c>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
@@ -4604,26 +4875,26 @@
         <v>52</v>
       </c>
       <c r="AF43" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG43" s="10"/>
       <c r="AH43" s="9"/>
       <c r="AI43" s="9"/>
       <c r="AJ43" s="9"/>
       <c r="AK43" s="9"/>
-      <c r="AL43" s="9" t="n">
+      <c r="AL43" s="9">
         <v>4</v>
       </c>
-      <c r="AM43" s="9" t="n">
+      <c r="AM43" s="9">
         <v>73</v>
       </c>
       <c r="AN43" s="13"/>
-      <c r="AO43" s="9" t="n">
+      <c r="AO43" s="9">
         <v>72</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="n">
+    <row r="44" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
         <v>55</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -4636,13 +4907,13 @@
         <v>43</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>57</v>
@@ -4650,16 +4921,16 @@
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
-      <c r="L44" s="9" t="n">
+      <c r="L44" s="9">
         <v>1</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
       <c r="O44" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P44" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q44" s="9"/>
       <c r="R44" s="9"/>
@@ -4675,7 +4946,7 @@
       <c r="X44" s="9"/>
       <c r="Y44" s="9"/>
       <c r="Z44" s="9" t="s">
-        <v>201</v>
+        <v>270</v>
       </c>
       <c r="AA44" s="9"/>
       <c r="AB44" s="9"/>
@@ -4685,26 +4956,26 @@
         <v>52</v>
       </c>
       <c r="AF44" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG44" s="10"/>
       <c r="AH44" s="9"/>
       <c r="AI44" s="9"/>
       <c r="AJ44" s="9"/>
       <c r="AK44" s="9"/>
-      <c r="AL44" s="9" t="n">
+      <c r="AL44" s="9">
         <v>4</v>
       </c>
-      <c r="AM44" s="9" t="n">
+      <c r="AM44" s="9">
         <v>74</v>
       </c>
       <c r="AN44" s="13"/>
-      <c r="AO44" s="9" t="n">
+      <c r="AO44" s="9">
         <v>72</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="n">
+    <row r="45" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
         <v>56</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -4717,21 +4988,21 @@
         <v>43</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
-      <c r="L45" s="9" t="n">
+      <c r="L45" s="9">
         <v>2</v>
       </c>
       <c r="M45" s="9"/>
@@ -4741,7 +5012,7 @@
       <c r="Q45" s="9"/>
       <c r="R45" s="9"/>
       <c r="S45" s="9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="T45" s="9"/>
       <c r="U45" s="9"/>
@@ -4750,7 +5021,7 @@
       <c r="X45" s="9"/>
       <c r="Y45" s="9"/>
       <c r="Z45" s="9" t="s">
-        <v>201</v>
+        <v>270</v>
       </c>
       <c r="AA45" s="9"/>
       <c r="AB45" s="9"/>
@@ -4760,28 +5031,28 @@
         <v>52</v>
       </c>
       <c r="AF45" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG45" s="10"/>
       <c r="AH45" s="9"/>
       <c r="AI45" s="9"/>
       <c r="AJ45" s="9"/>
       <c r="AK45" s="9"/>
-      <c r="AL45" s="9" t="n">
+      <c r="AL45" s="9">
         <v>3</v>
       </c>
-      <c r="AM45" s="9" t="n">
+      <c r="AM45" s="9">
         <v>769</v>
       </c>
       <c r="AN45" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="AO45" s="9" t="n">
+        <v>227</v>
+      </c>
+      <c r="AO45" s="9">
         <v>680</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9" t="n">
+    <row r="46" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
         <v>57</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -4794,13 +5065,13 @@
         <v>43</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>57</v>
@@ -4808,28 +5079,28 @@
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
-      <c r="L46" s="9" t="n">
+      <c r="L46" s="9">
         <v>1</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
       <c r="O46" s="9" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P46" s="9" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="R46" s="9" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="S46" s="9" t="s">
         <v>60</v>
       </c>
       <c r="T46" s="9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
@@ -4837,7 +5108,7 @@
       <c r="X46" s="9"/>
       <c r="Y46" s="9"/>
       <c r="Z46" s="9" t="s">
-        <v>201</v>
+        <v>270</v>
       </c>
       <c r="AA46" s="9"/>
       <c r="AB46" s="9"/>
@@ -4847,26 +5118,26 @@
         <v>52</v>
       </c>
       <c r="AF46" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG46" s="10"/>
       <c r="AH46" s="9"/>
       <c r="AI46" s="9"/>
       <c r="AJ46" s="9"/>
       <c r="AK46" s="9"/>
-      <c r="AL46" s="9" t="n">
+      <c r="AL46" s="9">
         <v>4</v>
       </c>
-      <c r="AM46" s="9" t="n">
+      <c r="AM46" s="9">
         <v>770</v>
       </c>
       <c r="AN46" s="13"/>
-      <c r="AO46" s="9" t="n">
+      <c r="AO46" s="9">
         <v>769</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="n">
+    <row r="47" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
         <v>58</v>
       </c>
       <c r="B47" s="9" t="s">
@@ -4879,13 +5150,13 @@
         <v>43</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H47" s="14" t="s">
         <v>57</v>
@@ -4893,16 +5164,16 @@
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
       <c r="K47" s="9"/>
-      <c r="L47" s="9" t="n">
+      <c r="L47" s="9">
         <v>1</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
       <c r="O47" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P47" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q47" s="9"/>
       <c r="R47" s="9"/>
@@ -4918,7 +5189,7 @@
       <c r="X47" s="9"/>
       <c r="Y47" s="9"/>
       <c r="Z47" s="9" t="s">
-        <v>201</v>
+        <v>270</v>
       </c>
       <c r="AA47" s="9"/>
       <c r="AB47" s="9"/>
@@ -4928,28 +5199,28 @@
         <v>52</v>
       </c>
       <c r="AF47" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG47" s="10"/>
       <c r="AH47" s="9"/>
       <c r="AI47" s="9"/>
       <c r="AJ47" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AK47" s="9"/>
-      <c r="AL47" s="9" t="n">
+      <c r="AL47" s="9">
         <v>4</v>
       </c>
-      <c r="AM47" s="9" t="n">
+      <c r="AM47" s="9">
         <v>771</v>
       </c>
       <c r="AN47" s="13"/>
-      <c r="AO47" s="9" t="n">
+      <c r="AO47" s="9">
         <v>769</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="n">
+    <row r="48" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9">
         <v>59</v>
       </c>
       <c r="B48" s="9" t="s">
@@ -4959,24 +5230,24 @@
         <v>42</v>
       </c>
       <c r="D48" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H48" s="9" t="s">
         <v>237</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>241</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
@@ -4987,7 +5258,7 @@
       <c r="R48" s="9"/>
       <c r="S48" s="9"/>
       <c r="T48" s="9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="U48" s="9"/>
       <c r="V48" s="9"/>
@@ -5007,16 +5278,16 @@
       <c r="AJ48" s="9"/>
       <c r="AK48" s="9"/>
       <c r="AL48" s="9"/>
-      <c r="AM48" s="9" t="n">
+      <c r="AM48" s="9">
         <v>37</v>
       </c>
       <c r="AN48" s="11" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AO48" s="9"/>
     </row>
-    <row r="49" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="n">
+    <row r="49" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
         <v>60</v>
       </c>
       <c r="B49" s="9" t="s">
@@ -5026,37 +5297,37 @@
         <v>42</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
       <c r="P49" s="15" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q49" s="9"/>
       <c r="R49" s="9"/>
       <c r="S49" s="9"/>
       <c r="T49" s="9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="U49" s="9"/>
       <c r="V49" s="9"/>
@@ -5076,16 +5347,16 @@
       <c r="AJ49" s="9"/>
       <c r="AK49" s="9"/>
       <c r="AL49" s="9"/>
-      <c r="AM49" s="9" t="n">
+      <c r="AM49" s="9">
         <v>38</v>
       </c>
-      <c r="AN49" s="13" t="n">
+      <c r="AN49" s="13">
         <v>32</v>
       </c>
       <c r="AO49" s="9"/>
     </row>
-    <row r="50" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="n">
+    <row r="50" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9">
         <v>61</v>
       </c>
       <c r="B50" s="9" t="s">
@@ -5095,37 +5366,37 @@
         <v>42</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
       <c r="P50" s="15" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q50" s="9"/>
       <c r="R50" s="9"/>
       <c r="S50" s="9"/>
       <c r="T50" s="9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="U50" s="9"/>
       <c r="V50" s="9"/>
@@ -5145,16 +5416,16 @@
       <c r="AJ50" s="9"/>
       <c r="AK50" s="9"/>
       <c r="AL50" s="9"/>
-      <c r="AM50" s="9" t="n">
+      <c r="AM50" s="9">
         <v>39</v>
       </c>
-      <c r="AN50" s="13" t="n">
+      <c r="AN50" s="13">
         <v>33</v>
       </c>
       <c r="AO50" s="9"/>
     </row>
-    <row r="51" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="n">
+    <row r="51" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9">
         <v>62</v>
       </c>
       <c r="B51" s="9" t="s">
@@ -5164,39 +5435,39 @@
         <v>42</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
       <c r="O51" s="9" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P51" s="15" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q51" s="9"/>
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
       <c r="T51" s="9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
@@ -5216,16 +5487,16 @@
       <c r="AJ51" s="9"/>
       <c r="AK51" s="9"/>
       <c r="AL51" s="9"/>
-      <c r="AM51" s="9" t="n">
+      <c r="AM51" s="9">
         <v>40</v>
       </c>
-      <c r="AN51" s="13" t="n">
+      <c r="AN51" s="13">
         <v>34</v>
       </c>
       <c r="AO51" s="9"/>
     </row>
-    <row r="52" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9" t="n">
+    <row r="52" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9">
         <v>63</v>
       </c>
       <c r="B52" s="9" t="s">
@@ -5235,39 +5506,39 @@
         <v>42</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
       <c r="O52" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="P52" s="15" t="s">
         <v>256</v>
-      </c>
-      <c r="P52" s="15" t="s">
-        <v>260</v>
       </c>
       <c r="Q52" s="9"/>
       <c r="R52" s="9"/>
       <c r="S52" s="9"/>
       <c r="T52" s="9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="U52" s="9"/>
       <c r="V52" s="9"/>
@@ -5287,16 +5558,16 @@
       <c r="AJ52" s="9"/>
       <c r="AK52" s="9"/>
       <c r="AL52" s="9"/>
-      <c r="AM52" s="9" t="n">
+      <c r="AM52" s="9">
         <v>42</v>
       </c>
       <c r="AN52" s="11" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AO52" s="9"/>
     </row>
-    <row r="53" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9" t="n">
+    <row r="53" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9">
         <v>64</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -5306,44 +5577,44 @@
         <v>42</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
       <c r="P53" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q53" s="9"/>
       <c r="R53" s="9"/>
       <c r="S53" s="9"/>
       <c r="T53" s="9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="U53" s="9"/>
       <c r="V53" s="9"/>
       <c r="W53" s="9"/>
       <c r="X53" s="9"/>
       <c r="Y53" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z53" s="9"/>
       <c r="AA53" s="9"/>
@@ -5358,14 +5629,14 @@
       <c r="AJ53" s="9"/>
       <c r="AK53" s="9"/>
       <c r="AL53" s="9"/>
-      <c r="AM53" s="9" t="n">
+      <c r="AM53" s="9">
         <v>43</v>
       </c>
       <c r="AN53" s="13"/>
       <c r="AO53" s="9"/>
     </row>
-    <row r="54" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9" t="n">
+    <row r="54" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9">
         <v>65</v>
       </c>
       <c r="B54" s="9" t="s">
@@ -5375,22 +5646,22 @@
         <v>42</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
@@ -5401,7 +5672,7 @@
       <c r="R54" s="9"/>
       <c r="S54" s="9"/>
       <c r="T54" s="9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="U54" s="9"/>
       <c r="V54" s="9"/>
@@ -5421,21 +5692,15 @@
       <c r="AJ54" s="9"/>
       <c r="AK54" s="9"/>
       <c r="AL54" s="9"/>
-      <c r="AM54" s="9" t="n">
+      <c r="AM54" s="9">
         <v>401</v>
       </c>
       <c r="AN54" s="13"/>
       <c r="AO54" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO54"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:AO54" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-12-16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-12-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51537D66-97CA-416C-B1D8-FA7D28417493}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701E3416-27B7-4959-A77F-B221FC4A3BB5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="823" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1200" windowWidth="21840" windowHeight="13140" tabRatio="823" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QSR" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_FilterDatabase_0_0" localSheetId="0">QSR!$A$1:$AO$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">QSR!$A$1:$AO$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="272">
   <si>
     <t>Sorting</t>
   </si>
@@ -899,6 +899,9 @@
   </si>
   <si>
     <t>Menu Board; Cash Zone; SS_Cash Zone - Canteen, QSR; SS_Menu Board - Canteen, QSR</t>
+  </si>
+  <si>
+    <t>Combo1; Combo2; Combo3; Menu Board; Cash Zone; SS_Cash Zone - Canteen, QSR; SS_Menu Board - Canteen, QSR</t>
   </si>
 </sst>
 </file>
@@ -1355,10 +1358,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK54"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="V1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="U1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="AA41" sqref="AA41"/>
+      <selection pane="bottomLeft" activeCell="Z40" sqref="Z40:Z47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4543,7 +4546,7 @@
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
       <c r="Z39" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA39" s="9"/>
       <c r="AB39" s="9"/>
@@ -4624,7 +4627,7 @@
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
       <c r="Z40" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
@@ -4701,7 +4704,7 @@
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
@@ -4778,7 +4781,7 @@
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
       <c r="Z42" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
@@ -4865,7 +4868,7 @@
       <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
       <c r="Z43" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
@@ -4946,7 +4949,7 @@
       <c r="X44" s="9"/>
       <c r="Y44" s="9"/>
       <c r="Z44" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA44" s="9"/>
       <c r="AB44" s="9"/>
@@ -5021,7 +5024,7 @@
       <c r="X45" s="9"/>
       <c r="Y45" s="9"/>
       <c r="Z45" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA45" s="9"/>
       <c r="AB45" s="9"/>
@@ -5108,7 +5111,7 @@
       <c r="X46" s="9"/>
       <c r="Y46" s="9"/>
       <c r="Z46" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA46" s="9"/>
       <c r="AB46" s="9"/>
@@ -5189,7 +5192,7 @@
       <c r="X47" s="9"/>
       <c r="Y47" s="9"/>
       <c r="Z47" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA47" s="9"/>
       <c r="AB47" s="9"/>
